--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Reports" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="AdministrationPage">'Page Objects And Actions'!$B$2:$B$50</definedName>
     <definedName name="ComplianceReportsPage">'Page Objects And Actions'!$C$2:$C$50</definedName>
-    <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$50</definedName>
+    <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$132</definedName>
     <definedName name="EULAPage">'Page Objects And Actions'!$E$2:$E$50</definedName>
     <definedName name="FleetMapPage">'Page Objects And Actions'!$F$2:$F$50</definedName>
     <definedName name="HomePage">'Page Objects And Actions'!$G$2:$G$50</definedName>
@@ -80,7 +80,8 @@
           <t xml:space="preserve">
 To specify range use: {n:m} .. For eg. "3:5"
 To specify beginning use: {n:} .. For eg "3:" will runs tests for all rows starting from row 3.
-To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.</t>
+To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
+To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.</t>
         </r>
       </text>
     </comment>
@@ -116,7 +117,8 @@
           <t xml:space="preserve">
 To specify range use: {n:m} .. For eg. "3:5"
 To specify beginning use: {n:} .. For eg "3:" will runs tests for all rows starting from row 3.
-To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.</t>
+To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
+To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.</t>
         </r>
       </text>
     </comment>
@@ -153,6 +155,7 @@
 To specify range use: {n:m} .. For eg. "3:5"
 To specify beginning use: {n:} .. For eg "3:" will runs tests for all rows starting from row 3.
 To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
+To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.
 </t>
         </r>
       </text>
@@ -190,6 +193,7 @@
 To specify range use: {n:m} .. For eg. "3:5"
 To specify beginning use: {n:} .. For eg "3:" will runs tests for all rows starting from row 3.
 To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
+To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.
 </t>
         </r>
       </text>
@@ -199,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="235">
   <si>
     <t>ID</t>
   </si>
@@ -399,9 +403,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>verifyAccountStatus</t>
-  </si>
-  <si>
     <t>clickOnCurtainArrowDownButton</t>
   </si>
   <si>
@@ -471,9 +472,6 @@
     <t>verifyDisplaySwitchIsOn</t>
   </si>
   <si>
-    <t>verifyDriverLabelEquals</t>
-  </si>
-  <si>
     <t>verifyFlowButtonIsGreen</t>
   </si>
   <si>
@@ -519,9 +517,6 @@
     <t>verifyRefBottleMeasButtonIsEnabled</t>
   </si>
   <si>
-    <t>verifyStabilityClassLabelEquals</t>
-  </si>
-  <si>
     <t>verifyStartEQSurveyButtonIsDisabled</t>
   </si>
   <si>
@@ -546,37 +541,373 @@
     <t>verifyStopDrivingSurveyButtonIsEnabled</t>
   </si>
   <si>
-    <t>verifySurveyModeLabelEquals</t>
-  </si>
-  <si>
-    <t>verifySurveyorLabelEquals</t>
-  </si>
-  <si>
-    <t>verifySurveyStatusLabelEquals</t>
-  </si>
-  <si>
     <t>verifySystemShutdownButtonIsDisabled</t>
   </si>
   <si>
     <t>verifySystemShutdownButtonIsEnabled</t>
   </si>
   <si>
-    <t>verifyTagLabelEquals</t>
-  </si>
-  <si>
-    <t>verifyTimeElapsedLabelEquals</t>
-  </si>
-  <si>
-    <t>verifyTimeRemainingLabelEquals</t>
-  </si>
-  <si>
     <t>verifyWBTempButtonIsGreen</t>
   </si>
   <si>
     <t>verifyWBTempButtonIsRed</t>
   </si>
   <si>
-    <t>verifyZoomLevelLabelEquals</t>
+    <t>TC1147</t>
+  </si>
+  <si>
+    <t>Standard Survey - Map - LISA and Field Notes ON - Position and GIS OFF</t>
+  </si>
+  <si>
+    <t>Click on Mode -&gt; Start Driving Survey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Overcast Wind: Strong Survey Type: Standard </t>
+  </si>
+  <si>
+    <t>Click on Map and turn Map view ON </t>
+  </si>
+  <si>
+    <t>Click on Mode button </t>
+  </si>
+  <si>
+    <t>Click on Position and disable it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Map is not centered on car's position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Display: LISA - ON </t>
+  </si>
+  <si>
+    <t>Verify Breadcrumb present on Map</t>
+  </si>
+  <si>
+    <t>Verify LISA present on Map</t>
+  </si>
+  <si>
+    <t>Verify Field Notes present on Map</t>
+  </si>
+  <si>
+    <t>Verify Windrose NOT displayed on map</t>
+  </si>
+  <si>
+    <t>Verify Indication NOT displayed on map</t>
+  </si>
+  <si>
+    <t>Verify FoV not displayed on map</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Tag</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Mode</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Time</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Survey Status</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Driver Info</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Elapsed Time</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Remaining Time</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Zoom Level</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Surveyor Info</t>
+  </si>
+  <si>
+    <t>Verify Survey Info - Analyzer Info</t>
+  </si>
+  <si>
+    <t>turnOnBoundariesDistrict</t>
+  </si>
+  <si>
+    <t>turnOnBoundariesDistrictPlat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turnOnMaterialTypeCopper </t>
+  </si>
+  <si>
+    <t>turnOnMaterialTypeCastIron</t>
+  </si>
+  <si>
+    <t>turnOnMaterialTypeOtherPlastic</t>
+  </si>
+  <si>
+    <t>turnOnMaterialTypePEPlastic</t>
+  </si>
+  <si>
+    <t>turnOnMaterialTypeProtectedSteel</t>
+  </si>
+  <si>
+    <t>turnOnMaterialTypeUnprotectedSteel</t>
+  </si>
+  <si>
+    <t>turnOnUseAllBoundaries</t>
+  </si>
+  <si>
+    <t>turnOnUseAllPipes</t>
+  </si>
+  <si>
+    <t>turnOffBoundariesDistrict</t>
+  </si>
+  <si>
+    <t>turnOffBoundariesDistrictPlat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turnOffMaterialTypeCopper </t>
+  </si>
+  <si>
+    <t>turnOffMaterialTypeCastIron</t>
+  </si>
+  <si>
+    <t>turnOffMaterialTypeOtherPlastic</t>
+  </si>
+  <si>
+    <t>turnOffMaterialTypePEPlastic</t>
+  </si>
+  <si>
+    <t>turnOffMaterialTypeProtectedSteel</t>
+  </si>
+  <si>
+    <t>turnOffMaterialTypeUnprotectedSteel</t>
+  </si>
+  <si>
+    <t>turnOffUseAllBoundaries</t>
+  </si>
+  <si>
+    <t>turnOffUseAllPipes</t>
+  </si>
+  <si>
+    <t>turnOnEightHourHistory</t>
+  </si>
+  <si>
+    <t>turnOnConcentrationChart</t>
+  </si>
+  <si>
+    <t>turnOnFOVs</t>
+  </si>
+  <si>
+    <t>turnOnIndications</t>
+  </si>
+  <si>
+    <t>turnOnIsotopicAnalysis</t>
+  </si>
+  <si>
+    <t>turnOnLisas</t>
+  </si>
+  <si>
+    <t>turnOnNotes</t>
+  </si>
+  <si>
+    <t>turnOnWindRose</t>
+  </si>
+  <si>
+    <t>turnOffEightHourHistory</t>
+  </si>
+  <si>
+    <t>turnOffConcentrationChart</t>
+  </si>
+  <si>
+    <t>turnOffFOVs</t>
+  </si>
+  <si>
+    <t>turnOffIndications</t>
+  </si>
+  <si>
+    <t>turnOffIsotopicAnalysis</t>
+  </si>
+  <si>
+    <t>turnOffLisas</t>
+  </si>
+  <si>
+    <t>turnOffNotes</t>
+  </si>
+  <si>
+    <t>turnOffWindRose</t>
+  </si>
+  <si>
+    <t>Click Display: Eight Hour History OFF</t>
+  </si>
+  <si>
+    <t>Click Display: Concentration Chart OFF</t>
+  </si>
+  <si>
+    <t>Click Display: FOV OFF</t>
+  </si>
+  <si>
+    <t>Click Display: Indications OFF</t>
+  </si>
+  <si>
+    <t>Click Display: Isotopic Analysis OFF</t>
+  </si>
+  <si>
+    <t>Click Display: Wind Rose OFF</t>
+  </si>
+  <si>
+    <t>Click Display: Field Notes - ON</t>
+  </si>
+  <si>
+    <t>Click GIS - District Boundaries OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - District Plats OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Copper OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Cast Iron OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Other Plastic OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type PE Plastic OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Protected Steel OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Unprotected Steel OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Boundaries OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Pipes OFF</t>
+  </si>
+  <si>
+    <t>verifyLISAIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyIndicationsIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyConcentrationChartIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyBreadcrumbIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyFOVIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyAssetIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyBoundariesIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyCrossHairIconIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyLISAIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyIndicationsIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyConcentrationChartIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyBreadcrumbIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyFOVIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyAssetIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyBoundariesIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyCrossHairIconIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyFieldNotesIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyWindRoseIsShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyFieldNotesIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifyWindRoseIsNotShownOnMap</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoModeLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoSurveyStatusLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTagLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeElapsedLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeRemainingLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoZoomLevelLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoStabilityClassLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoDriverLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoAnalyzerLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeElapsedLabelHasText</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeRemainingLabelHasText</t>
+  </si>
+  <si>
+    <t>verifyCarIconIsNotInCenter</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoSurveyorLabelEquals</t>
+  </si>
+  <si>
+    <t>verifyAccountEnabled</t>
+  </si>
+  <si>
+    <t>verifyAccountDisabled</t>
+  </si>
+  <si>
+    <t>Open login page</t>
+  </si>
+  <si>
+    <t>Perform login</t>
+  </si>
+  <si>
+    <t>Start Simulator Replay Script</t>
+  </si>
+  <si>
+    <t>Open driver view page</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>startSimulatorScript</t>
   </si>
 </sst>
 </file>
@@ -633,9 +964,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,12 +1264,12 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="46.21875" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
@@ -933,7 +1278,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -960,23 +1305,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -993,6 +1339,23 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1006,12 +1369,12 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.109375" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
@@ -1022,7 +1385,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1063,29 +1426,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="71.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1100,24 +1463,651 @@
       <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D242">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D265">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C242">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C265">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1125,7 +2115,7 @@
           <x14:formula1>
             <xm:f>'Page Objects And Actions'!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C243:C1048576</xm:sqref>
+          <xm:sqref>C266:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1135,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +2517,7 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -1598,7 +2588,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -1663,70 +2653,70 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1734,70 +2724,70 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" t="s">
         <v>61</v>
       </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1805,70 +2795,70 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1876,83 +2866,140 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
       <c r="C12" t="s">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
       </c>
       <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1964,10 +3011,10 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1978,7 +3025,10 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1989,7 +3039,10 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2000,7 +3053,7 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2011,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,7 +3075,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,10 +3083,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2041,7 +3094,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -2052,7 +3105,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -2063,10 +3116,10 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,271 +3127,584 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>125</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D71">
-    <sortCondition ref="D1"/>
+  <sortState ref="D2:D132">
+    <sortCondition ref="D132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Reports" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -908,6 +908,30 @@
   </si>
   <si>
     <t>startSimulatorScript</t>
+  </si>
+  <si>
+    <t>verifyMapSwitchOn</t>
+  </si>
+  <si>
+    <t>verifyMapSwitchOff</t>
+  </si>
+  <si>
+    <t>verifyStatusButtonIsGreen</t>
+  </si>
+  <si>
+    <t>verifyStatusButtonIsRed</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeElapsedLabelStartsWith</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeRemainingLabelStartsWith</t>
+  </si>
+  <si>
+    <t>verifyStatusButtonIsExpanded</t>
+  </si>
+  <si>
+    <t>clickOnHeaderInfoBox</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1332,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1539,7 @@
         <v>234</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1560,7 +1584,7 @@
         <v>81</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,7 +1643,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1633,7 +1657,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -1647,7 +1671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -1661,7 +1685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -1675,7 +1699,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -1689,7 +1713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -1703,7 +1727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -1717,7 +1741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -1731,7 +1755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1</v>
       </c>
@@ -1745,7 +1769,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -1759,7 +1783,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -1773,7 +1797,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -1787,7 +1811,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -1801,7 +1825,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -1815,7 +1839,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -1829,7 +1853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -2125,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D139" sqref="D138:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,7 +2160,7 @@
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="23" bestFit="1" customWidth="1"/>
@@ -3654,7 +3678,7 @@
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
@@ -3664,7 +3688,7 @@
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
@@ -3700,6 +3724,36 @@
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases-Reports" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
     <sheet name="TestCases-DriverView" sheetId="6" r:id="rId2"/>
-    <sheet name="TestCases-Reports-TestSteps" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCases-CmpReports-TestSteps" sheetId="3" r:id="rId3"/>
     <sheet name="TestCases-DriverView-TestSteps" sheetId="7" r:id="rId4"/>
     <sheet name="Page Objects And Actions" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AdministrationPage">'Page Objects And Actions'!$B$2:$B$50</definedName>
-    <definedName name="ComplianceReportsPage">'Page Objects And Actions'!$C$2:$C$50</definedName>
+    <definedName name="ComplianceReportsPage">'Page Objects And Actions'!$C$2:$C$149</definedName>
     <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$132</definedName>
     <definedName name="EULAPage">'Page Objects And Actions'!$E$2:$E$50</definedName>
     <definedName name="FleetMapPage">'Page Objects And Actions'!$F$2:$F$50</definedName>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="321">
   <si>
     <t>ID</t>
   </si>
@@ -313,63 +313,15 @@
     <t>WebElement</t>
   </si>
   <si>
-    <t>openManageReports</t>
-  </si>
-  <si>
-    <t>performSearch</t>
-  </si>
-  <si>
-    <t>setRecordsPerPage</t>
-  </si>
-  <si>
-    <t>navigateToPageNo</t>
-  </si>
-  <si>
-    <t>navigateToFirstPage</t>
-  </si>
-  <si>
-    <t>navigateToLastPage</t>
-  </si>
-  <si>
-    <t>navigateToNextPage</t>
-  </si>
-  <si>
-    <t>navigateToPrevPage</t>
-  </si>
-  <si>
-    <t>openAddNewReports</t>
-  </si>
-  <si>
-    <t>submitNewReport</t>
-  </si>
-  <si>
-    <t>addNewReport</t>
-  </si>
-  <si>
     <t>deleteReport</t>
   </si>
   <si>
-    <t>copyReport</t>
-  </si>
-  <si>
-    <t>copyReportModifyDetails</t>
-  </si>
-  <si>
     <t>findReport</t>
   </si>
   <si>
-    <t>resubmitReport</t>
-  </si>
-  <si>
     <t>investigateReport</t>
   </si>
   <si>
-    <t>validateInvestigatePDFReport</t>
-  </si>
-  <si>
-    <t>validatePDFFiles</t>
-  </si>
-  <si>
     <t>clickById</t>
   </si>
   <si>
@@ -932,6 +884,288 @@
   </si>
   <si>
     <t>clickOnHeaderInfoBox</t>
+  </si>
+  <si>
+    <t>addSurveyToReport</t>
+  </si>
+  <si>
+    <t>cancelInProgressReport</t>
+  </si>
+  <si>
+    <t>clickOnCancelButton</t>
+  </si>
+  <si>
+    <t>clickOnOKButton</t>
+  </si>
+  <si>
+    <t>clickOnCopyButton</t>
+  </si>
+  <si>
+    <t>clickOnDeleteButton</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerButton</t>
+  </si>
+  <si>
+    <t>clickOnInvestigateButton</t>
+  </si>
+  <si>
+    <t>clickOnInvestigatePDFButton</t>
+  </si>
+  <si>
+    <t>clickOnResubmitButton</t>
+  </si>
+  <si>
+    <t>clickThumbnailInViewer</t>
+  </si>
+  <si>
+    <t>clickOnConfirmDeleteReport</t>
+  </si>
+  <si>
+    <t>clickOnCancelConfirmDeleteReport</t>
+  </si>
+  <si>
+    <t>createNewReport</t>
+  </si>
+  <si>
+    <t>enterReportTitle</t>
+  </si>
+  <si>
+    <t>selectCustomer</t>
+  </si>
+  <si>
+    <t>selectTimeZone</t>
+  </si>
+  <si>
+    <t>enterExclusionRadius</t>
+  </si>
+  <si>
+    <t>selectReportMode</t>
+  </si>
+  <si>
+    <t>enterCustomBoundaryUsingAreaSelector</t>
+  </si>
+  <si>
+    <t>enterCustomBoundaryUsingTextFields</t>
+  </si>
+  <si>
+    <t>enterCustomerBoundaryUsingAreaSelector</t>
+  </si>
+  <si>
+    <t>enterCustomerBoundaryUsingTextFields</t>
+  </si>
+  <si>
+    <t>selectSurveySelectorSurveyor</t>
+  </si>
+  <si>
+    <t>enterSurveySelectorUsername</t>
+  </si>
+  <si>
+    <t>enterSurveySelectorTag</t>
+  </si>
+  <si>
+    <t>selectSurveySelectorStartDateTime</t>
+  </si>
+  <si>
+    <t>selectSurveySelectorEndDateTime</t>
+  </si>
+  <si>
+    <t>selectSurveySelectorSurveyModeFilter</t>
+  </si>
+  <si>
+    <t>checkSurveySelectorGeographicFilter</t>
+  </si>
+  <si>
+    <t>clickOnSurveySelectorSearchButton</t>
+  </si>
+  <si>
+    <t>enterFOVOpacity</t>
+  </si>
+  <si>
+    <t>enterLISAOpacity</t>
+  </si>
+  <si>
+    <t>enterPDFImageWidth</t>
+  </si>
+  <si>
+    <t>enterPDFImageHeight</t>
+  </si>
+  <si>
+    <t>addDefaultView</t>
+  </si>
+  <si>
+    <t>addNewView</t>
+  </si>
+  <si>
+    <t>selectViewLayersAsset</t>
+  </si>
+  <si>
+    <t>selectViewLayersBoundary</t>
+  </si>
+  <si>
+    <t>selectTabularPDFContent</t>
+  </si>
+  <si>
+    <t>openNewReportPage</t>
+  </si>
+  <si>
+    <t>searchForSurveyByKeyword</t>
+  </si>
+  <si>
+    <t>sortRecordsBy</t>
+  </si>
+  <si>
+    <t>verifyPDFThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyPDFZIPThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyShapeZIPThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyMetaDataZIPThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView1ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView2ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView3ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView4ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView5ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView6ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView7ThumbnailIsShownInComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyPDFThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyPDFZIPThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyShapeZIPThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyMetaDataZIPThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView1ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView2ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView3ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView4ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView5ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView6ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyView7ThumbnailDownloadFromComplianceViewer</t>
+  </si>
+  <si>
+    <t>verifyInvestigatePDFDownload</t>
+  </si>
+  <si>
+    <t>verifySearchedSurveyIsShown</t>
+  </si>
+  <si>
+    <t>verifyCopyButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifyDeleteButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifyComplianceViewerButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifyInvestigateButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifyInvestigatePDFButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifyResubmitButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifyPDFZipFilesAreCorrect</t>
+  </si>
+  <si>
+    <t>verifyShapeZIPFilesAreCorrect</t>
+  </si>
+  <si>
+    <t>verifyMetaDataZIPFilesAreCorrect</t>
+  </si>
+  <si>
+    <t>verifyReportPDFMatches</t>
+  </si>
+  <si>
+    <t>verifyReportThumbnailMatches</t>
+  </si>
+  <si>
+    <t>verifySearchedSurveysMatchTag</t>
+  </si>
+  <si>
+    <t>verifySearchedSurveysMatchDateRange</t>
+  </si>
+  <si>
+    <t>verifySearchedSurveysMatchSurveyorUnit</t>
+  </si>
+  <si>
+    <t>verifySearchedSurveysAreForLastXDays</t>
+  </si>
+  <si>
+    <t>verifyShapeFilesHaveCorrectData</t>
+  </si>
+  <si>
+    <t>verifyMetaDataFilesHaveCorrectData</t>
+  </si>
+  <si>
+    <t>verifyRequiredFieldsAreShownInRed</t>
+  </si>
+  <si>
+    <t>verifyComplianceViewerViewCountEquals</t>
+  </si>
+  <si>
+    <t>Generate compliance report with all default values/filters selected and download it</t>
+  </si>
+  <si>
+    <t>TC146</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>Login as Picarro Admin</t>
+  </si>
+  <si>
+    <t>Open compliance report page</t>
+  </si>
+  <si>
+    <t>Create new compliance report page</t>
+  </si>
+  <si>
+    <t>Report generated successfully</t>
+  </si>
+  <si>
+    <t>Click Compliance PDF (ZIP)</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1005,6 +1239,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,6 +1556,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1332,7 +1584,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1390,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,12 +1686,111 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D423">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D424">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1452,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1499,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1513,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5">
         <v>6</v>
@@ -1530,13 +1881,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
@@ -1547,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1561,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1575,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G7" s="5">
         <v>3</v>
@@ -1592,13 +1943,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1606,13 +1957,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1620,13 +1971,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1634,13 +1985,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1648,13 +1999,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1662,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1676,13 +2027,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1690,13 +2041,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1704,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1718,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1732,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1746,13 +2097,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1760,13 +2111,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1774,13 +2125,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1788,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1802,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1816,13 +2167,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1830,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1844,13 +2195,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -1858,13 +2209,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1872,13 +2223,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1886,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1900,13 +2251,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,13 +2279,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,13 +2321,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -1999,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2013,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2027,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2041,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2055,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2083,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2097,13 +2448,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2111,13 +2462,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2151,15 +2502,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D139" sqref="D138:D139"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -2251,70 +2602,70 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -2322,70 +2673,70 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2393,70 +2744,70 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -2464,70 +2815,70 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -2535,70 +2886,70 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -2606,70 +2957,70 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -2677,70 +3028,70 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="N8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="O8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="R8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="S8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="T8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="U8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="V8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="W8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -2748,70 +3099,70 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -2819,70 +3170,70 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="R10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -2890,70 +3241,70 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="R11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -2961,70 +3312,70 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -3032,13 +3383,13 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -3046,13 +3397,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -3060,13 +3411,13 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -3074,10 +3425,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,10 +3436,10 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3096,10 +3447,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3107,10 +3458,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3118,10 +3469,10 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3129,10 +3480,10 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3140,10 +3491,10 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3151,614 +3502,824 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D78" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" t="s">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" t="s">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D87" t="s">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D88" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D90" t="s">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D91" t="s">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D99" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D100" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D107" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D110" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D112" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D132">
-    <sortCondition ref="D132"/>
+  <sortState ref="C2:C102">
+    <sortCondition ref="C102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="323">
   <si>
     <t>ID</t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>Click Compliance PDF (ZIP)</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>verifyPDFZipFilesArePresent</t>
   </si>
 </sst>
 </file>
@@ -1528,12 +1534,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="46.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1571,6 +1577,9 @@
       </c>
       <c r="E2" t="b">
         <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1589,12 +1598,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="68" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,19 +1654,19 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1779,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1809,14 +1818,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="71.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2502,28 +2511,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" customWidth="1"/>
-    <col min="19" max="19" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.21875" customWidth="1"/>
-    <col min="21" max="21" width="31.5546875" customWidth="1"/>
-    <col min="22" max="22" width="28.21875" customWidth="1"/>
-    <col min="23" max="23" width="28" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="11" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -3894,7 +3903,7 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D72" t="s">
         <v>183</v>
@@ -3902,7 +3911,7 @@
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
         <v>192</v>
@@ -3910,7 +3919,7 @@
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
@@ -3918,7 +3927,7 @@
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s">
         <v>189</v>
@@ -3926,7 +3935,7 @@
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
         <v>181</v>
@@ -3934,7 +3943,7 @@
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
         <v>209</v>
@@ -3942,7 +3951,7 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -3950,7 +3959,7 @@
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D79" t="s">
         <v>180</v>
@@ -3958,7 +3967,7 @@
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D80" t="s">
         <v>193</v>
@@ -3966,7 +3975,7 @@
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s">
         <v>185</v>
@@ -3974,7 +3983,7 @@
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
         <v>71</v>
@@ -3982,7 +3991,7 @@
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D83" t="s">
         <v>72</v>
@@ -3990,7 +3999,7 @@
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s">
         <v>196</v>
@@ -3998,7 +4007,7 @@
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
         <v>194</v>
@@ -4006,7 +4015,7 @@
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
@@ -4014,7 +4023,7 @@
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
         <v>74</v>
@@ -4022,7 +4031,7 @@
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
         <v>190</v>
@@ -4030,7 +4039,7 @@
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D89" t="s">
         <v>182</v>
@@ -4038,7 +4047,7 @@
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
@@ -4046,7 +4055,7 @@
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
@@ -4054,7 +4063,7 @@
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -4062,7 +4071,7 @@
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
         <v>78</v>
@@ -4070,7 +4079,7 @@
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -4078,7 +4087,7 @@
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4086,7 +4095,7 @@
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
         <v>187</v>
@@ -4094,7 +4103,7 @@
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D97" t="s">
         <v>179</v>
@@ -4102,7 +4111,7 @@
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D98" t="s">
         <v>186</v>
@@ -4110,7 +4119,7 @@
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
         <v>178</v>
@@ -4118,7 +4127,7 @@
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D100" t="s">
         <v>81</v>
@@ -4126,13 +4135,16 @@
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D101" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>280</v>
+      </c>
       <c r="D102" t="s">
         <v>83</v>
       </c>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="322">
   <si>
     <t>ID</t>
   </si>
@@ -950,9 +950,6 @@
   </si>
   <si>
     <t>enterCustomerBoundaryUsingAreaSelector</t>
-  </si>
-  <si>
-    <t>enterCustomerBoundaryUsingTextFields</t>
   </si>
   <si>
     <t>selectSurveySelectorSurveyor</t>
@@ -1567,19 +1564,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
         <v>314</v>
       </c>
-      <c r="C2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1717,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1734,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1748,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1765,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1782,13 +1779,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2511,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2614,7 +2611,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -2685,7 +2682,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -2898,7 +2895,7 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -3489,7 +3486,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
@@ -3551,7 +3548,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -3559,7 +3556,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
         <v>218</v>
@@ -3575,7 +3572,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
         <v>135</v>
@@ -3583,7 +3580,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
         <v>136</v>
@@ -3591,7 +3588,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
         <v>154</v>
@@ -3599,7 +3596,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -3607,7 +3604,7 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
         <v>155</v>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
         <v>156</v>
@@ -3623,7 +3620,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>157</v>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
@@ -3639,7 +3636,7 @@
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>138</v>
@@ -3647,7 +3644,7 @@
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
         <v>137</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D43" t="s">
         <v>141</v>
@@ -3679,7 +3676,7 @@
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
@@ -3687,7 +3684,7 @@
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
         <v>159</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
         <v>143</v>
@@ -3703,7 +3700,7 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
         <v>144</v>
@@ -3711,7 +3708,7 @@
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D48" t="s">
         <v>160</v>
@@ -3719,7 +3716,7 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
         <v>125</v>
@@ -3727,7 +3724,7 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D50" t="s">
         <v>126</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
         <v>146</v>
@@ -3743,7 +3740,7 @@
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -3751,7 +3748,7 @@
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D53" t="s">
         <v>147</v>
@@ -3759,7 +3756,7 @@
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
         <v>148</v>
@@ -3767,7 +3764,7 @@
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
         <v>67</v>
@@ -3791,7 +3788,7 @@
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
         <v>128</v>
@@ -3799,7 +3796,7 @@
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
         <v>127</v>
@@ -3807,7 +3804,7 @@
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
         <v>129</v>
@@ -3823,7 +3820,7 @@
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
         <v>131</v>
@@ -3839,7 +3836,7 @@
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
@@ -3847,7 +3844,7 @@
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
@@ -3863,7 +3860,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
         <v>152</v>
@@ -3879,7 +3876,7 @@
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3895,7 +3892,7 @@
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="D71" t="s">
         <v>191</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D72" t="s">
         <v>183</v>
@@ -3911,7 +3908,7 @@
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D73" t="s">
         <v>192</v>
@@ -3919,7 +3916,7 @@
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
@@ -3927,7 +3924,7 @@
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
         <v>189</v>
@@ -3943,7 +3940,7 @@
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
         <v>209</v>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -3959,7 +3956,7 @@
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s">
         <v>180</v>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
         <v>193</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D81" t="s">
         <v>185</v>
@@ -3991,7 +3988,7 @@
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D83" t="s">
         <v>72</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D84" t="s">
         <v>196</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
         <v>194</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
@@ -4023,7 +4020,7 @@
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D87" t="s">
         <v>74</v>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
         <v>190</v>
@@ -4039,7 +4036,7 @@
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
         <v>182</v>
@@ -4047,7 +4044,7 @@
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
@@ -4055,7 +4052,7 @@
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -4071,7 +4068,7 @@
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D93" t="s">
         <v>78</v>
@@ -4079,7 +4076,7 @@
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -4087,7 +4084,7 @@
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
         <v>187</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
         <v>179</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
         <v>186</v>
@@ -4119,7 +4116,7 @@
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D99" t="s">
         <v>178</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D100" t="s">
         <v>81</v>
@@ -4135,16 +4132,13 @@
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>280</v>
-      </c>
       <c r="D102" t="s">
         <v>83</v>
       </c>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\surveyor-qa\selenium-wd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="333">
   <si>
     <t>ID</t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>TC146</t>
   </si>
   <si>
-    <t>1,6</t>
-  </si>
-  <si>
     <t>Login as Picarro Admin</t>
   </si>
   <si>
@@ -1165,17 +1162,53 @@
     <t>Click Compliance PDF (ZIP)</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>verifyPDFZipFilesArePresent</t>
+  </si>
+  <si>
+    <t>TC147</t>
+  </si>
+  <si>
+    <t>Generate compliance report for provided customer boundary using date range filter (for last 30 days) and open it in PDF and ZIP format</t>
+  </si>
+  <si>
+    <t>verifyLastXDaysSurveysPresentInPDF</t>
+  </si>
+  <si>
+    <t>verifyPDFContainsInputtedInformation</t>
+  </si>
+  <si>
+    <t>Verify report PDF shows last 30 days surveys</t>
+  </si>
+  <si>
+    <t>Verify report views has specified information</t>
+  </si>
+  <si>
+    <t>TC151</t>
+  </si>
+  <si>
+    <t>Generate report by providing tag filter including survey with isotopic analysis data</t>
+  </si>
+  <si>
+    <t>Copy and modify compliance report from previously run reports</t>
+  </si>
+  <si>
+    <t>TC153</t>
+  </si>
+  <si>
+    <t>verifyIsotopicTableSortedByColumn</t>
+  </si>
+  <si>
+    <t>verifyIsotopicValueIsFormattedCorrectly</t>
+  </si>
+  <si>
+    <t>verifyUncertaintyValueIsFormattedCorrectly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,6 +1237,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1225,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1243,6 +1283,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,10 +1568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,14 +1615,62 @@
       <c r="C2" t="s">
         <v>312</v>
       </c>
-      <c r="D2" t="s">
-        <v>314</v>
+      <c r="D2">
+        <v>6</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1587,6 +1681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1648,10 +1743,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1731,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1745,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1762,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1779,16 +1875,149 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1807,6 +2036,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2506,10 +2736,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3843,8 +4074,8 @@
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>309</v>
+      <c r="C65" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -3852,7 +4083,7 @@
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
@@ -3860,7 +4091,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -3868,7 +4099,7 @@
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
         <v>152</v>
@@ -3876,15 +4107,15 @@
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>269</v>
+      <c r="C70" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -3892,7 +4123,7 @@
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
         <v>191</v>
@@ -3900,7 +4131,7 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D72" t="s">
         <v>183</v>
@@ -3908,7 +4139,7 @@
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
         <v>192</v>
@@ -3916,7 +4147,7 @@
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
@@ -3924,7 +4155,7 @@
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
         <v>189</v>
@@ -3932,7 +4163,7 @@
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="D76" t="s">
         <v>181</v>
@@ -3940,7 +4171,7 @@
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
         <v>209</v>
@@ -3948,7 +4179,7 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -3956,7 +4187,7 @@
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D79" t="s">
         <v>180</v>
@@ -3964,7 +4195,7 @@
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
         <v>193</v>
@@ -3972,7 +4203,7 @@
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D81" t="s">
         <v>185</v>
@@ -3980,7 +4211,7 @@
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D82" t="s">
         <v>71</v>
@@ -3988,7 +4219,7 @@
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D83" t="s">
         <v>72</v>
@@ -3996,7 +4227,7 @@
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
         <v>196</v>
@@ -4004,7 +4235,7 @@
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
         <v>194</v>
@@ -4012,7 +4243,7 @@
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
@@ -4020,7 +4251,7 @@
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D87" t="s">
         <v>74</v>
@@ -4028,7 +4259,7 @@
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D88" t="s">
         <v>190</v>
@@ -4036,7 +4267,7 @@
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
         <v>182</v>
@@ -4044,7 +4275,7 @@
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
@@ -4052,7 +4283,7 @@
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
@@ -4060,7 +4291,7 @@
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -4068,7 +4299,7 @@
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D93" t="s">
         <v>78</v>
@@ -4076,7 +4307,7 @@
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -4084,7 +4315,7 @@
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4092,7 +4323,7 @@
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
         <v>187</v>
@@ -4100,7 +4331,7 @@
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
         <v>179</v>
@@ -4108,7 +4339,7 @@
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D98" t="s">
         <v>186</v>
@@ -4116,7 +4347,7 @@
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" t="s">
         <v>178</v>
@@ -4124,7 +4355,7 @@
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D100" t="s">
         <v>81</v>
@@ -4132,33 +4363,48 @@
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>290</v>
+      </c>
       <c r="D102" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>279</v>
+      </c>
       <c r="D103" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="9" t="s">
+        <v>330</v>
+      </c>
       <c r="D104" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C105" s="9" t="s">
+        <v>331</v>
+      </c>
       <c r="D105" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="D106" t="s">
         <v>87</v>
       </c>
@@ -4324,8 +4570,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C102">
-    <sortCondition ref="C102"/>
+  <sortState ref="C2:C103">
+    <sortCondition ref="C103"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -1202,13 +1202,28 @@
   </si>
   <si>
     <t>verifyUncertaintyValueIsFormattedCorrectly</t>
+  </si>
+  <si>
+    <t>openStartSurveyModalDialog</t>
+  </si>
+  <si>
+    <t>clickOnShutdownButton</t>
+  </si>
+  <si>
+    <t>verifySurveyTagInStartSurveyDialogEquals</t>
+  </si>
+  <si>
+    <t>verifyStartSurveyButtonFromSurveyDialogIsEnabled</t>
+  </si>
+  <si>
+    <t>verifyStartSurveyButtonFromSurveyDialogIsDisabled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,7 +1254,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1265,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1288,6 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2737,10 +2759,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W138"/>
+  <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104:C106"/>
+    <sheetView tabSelected="1" topLeftCell="B120" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4569,6 +4591,31 @@
         <v>225</v>
       </c>
     </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="C2:C103">
     <sortCondition ref="C103"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases-DriverView" sheetId="6" r:id="rId2"/>
-    <sheet name="TestCases-CmpReports-TestSteps" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCases-CmpReports-TestSteps" sheetId="3" r:id="rId2"/>
+    <sheet name="TestCases-DriverView" sheetId="6" r:id="rId3"/>
     <sheet name="TestCases-DriverView-TestSteps" sheetId="7" r:id="rId4"/>
     <sheet name="Page Objects And Actions" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AdministrationPage">'Page Objects And Actions'!$B$2:$B$50</definedName>
     <definedName name="ComplianceReportsPage">'Page Objects And Actions'!$C$2:$C$149</definedName>
-    <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$132</definedName>
+    <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$133</definedName>
     <definedName name="EULAPage">'Page Objects And Actions'!$E$2:$E$50</definedName>
     <definedName name="FleetMapPage">'Page Objects And Actions'!$F$2:$F$50</definedName>
     <definedName name="HomePage">'Page Objects And Actions'!$G$2:$G$50</definedName>
@@ -35,12 +35,13 @@
     <definedName name="ManageSurveyorPage">'Page Objects And Actions'!$N$2:$N$50</definedName>
     <definedName name="ManageUsersPage">'Page Objects And Actions'!$P$2:$P$50</definedName>
     <definedName name="MeasurementSessionsPage">'Page Objects And Actions'!$Q$2:$Q$50</definedName>
-    <definedName name="PageObject_Name">'Page Objects And Actions'!$A$2:$A$23</definedName>
+    <definedName name="PageObject_Name">'Page Objects And Actions'!$A$2:$A$24</definedName>
     <definedName name="PrimePage">'Page Objects And Actions'!$R$2:$R$50</definedName>
     <definedName name="ReferenceGasReportsPage">'Page Objects And Actions'!$S$2:$S$50</definedName>
     <definedName name="SendFeedbackPage">'Page Objects And Actions'!$T$2:$T$50</definedName>
     <definedName name="SurveyorHistoryReportsPage">'Page Objects And Actions'!$V$2:$V$50</definedName>
     <definedName name="SurveyorSystemsPage">'Page Objects And Actions'!$U$2:$U$50</definedName>
+    <definedName name="TestEnvironment">'Page Objects And Actions'!$X$2:$X$11</definedName>
     <definedName name="UserFeedbackPage">'Page Objects And Actions'!$W$2:$W$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -95,43 +96,6 @@
     <author>Shirish Pulikkal</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shirish Pulikkal:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-To specify range use: {n:m} .. For eg. "3:5"
-To specify beginning use: {n:} .. For eg "3:" will runs tests for all rows starting from row 3.
-To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
-To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Shirish Pulikkal</author>
-  </authors>
-  <commentList>
     <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -157,6 +121,43 @@
 To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
 To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.
 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shirish Pulikkal</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shirish Pulikkal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+To specify range use: {n:m} .. For eg. "3:5"
+To specify beginning use: {n:} .. For eg "3:" will runs tests for all rows starting from row 3.
+To specify a specific row: {n} .. For eg "3" will run test ONLY for row 3.
+To specify random rows: {n1,n2,n3} .. For eg "1,3,15" will run test for rows 1, 3 and 15.</t>
         </r>
       </text>
     </comment>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="348">
   <si>
     <t>ID</t>
   </si>
@@ -859,9 +860,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>startSimulatorScript</t>
-  </si>
-  <si>
     <t>verifyMapSwitchOn</t>
   </si>
   <si>
@@ -1217,6 +1215,39 @@
   </si>
   <si>
     <t>verifyStartSurveyButtonFromSurveyDialogIsDisabled</t>
+  </si>
+  <si>
+    <t>clickOnPicarroLogoButton</t>
+  </si>
+  <si>
+    <t>verifyPageLoaded</t>
+  </si>
+  <si>
+    <t>verifySystemShutdownButtonIsDisplayed</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeLabelEquals</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoTimeLabelStartsWith</t>
+  </si>
+  <si>
+    <t>TestEnvironment</t>
+  </si>
+  <si>
+    <t>switchAnalyzer</t>
+  </si>
+  <si>
+    <t>startSimulator</t>
+  </si>
+  <si>
+    <t>stopSimulator</t>
+  </si>
+  <si>
+    <t>verifyAnalyzerIsRunning</t>
+  </si>
+  <si>
+    <t>verifyAnalyzerIsShutdown</t>
   </si>
 </sst>
 </file>
@@ -1632,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1649,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" t="s">
         <v>320</v>
-      </c>
-      <c r="C3" t="s">
-        <v>321</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1666,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
         <v>326</v>
-      </c>
-      <c r="C4" t="s">
-        <v>327</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1683,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1702,6 +1733,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>PageObject_Name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D424">
+      <formula1>INDIRECT(C2)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F2"/>
@@ -1763,306 +2087,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>322</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>PageObject_Name</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D424">
-      <formula1>INDIRECT(C2)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,10 +2173,10 @@
         <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
@@ -2759,10 +2790,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W143"/>
+  <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B120" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,10 +2813,10 @@
     <col min="20" max="20" width="27.21875" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="31.5546875" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2855,8 +2886,11 @@
       <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2864,7 +2898,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -2926,8 +2960,11 @@
       <c r="W2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -2997,8 +3034,11 @@
       <c r="W3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3006,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -3068,8 +3108,11 @@
       <c r="W4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3077,7 +3120,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3139,8 +3182,11 @@
       <c r="W5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3194,7 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -3211,7 +3257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +3328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3353,7 +3399,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3424,7 +3470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3495,7 +3541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3503,7 +3549,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -3566,7 +3612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3574,7 +3620,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
@@ -3637,12 +3683,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -3651,12 +3697,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -3665,12 +3711,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -3679,12 +3725,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -3695,10 +3741,10 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3706,10 +3752,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3717,10 +3763,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3728,10 +3774,10 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3739,10 +3785,10 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3750,10 +3796,10 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,63 +3807,66 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>342</v>
+      </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
@@ -3825,7 +3874,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
         <v>135</v>
@@ -3833,7 +3882,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" t="s">
         <v>136</v>
@@ -3841,7 +3890,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" t="s">
         <v>154</v>
@@ -3849,7 +3898,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -3857,7 +3906,7 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
         <v>155</v>
@@ -3905,7 +3954,7 @@
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
@@ -3913,7 +3962,7 @@
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D42" t="s">
         <v>140</v>
@@ -3921,7 +3970,7 @@
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D43" t="s">
         <v>141</v>
@@ -3961,7 +4010,7 @@
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
         <v>160</v>
@@ -3969,7 +4018,7 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
         <v>125</v>
@@ -3977,7 +4026,7 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
         <v>126</v>
@@ -3985,7 +4034,7 @@
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D51" t="s">
         <v>146</v>
@@ -3993,7 +4042,7 @@
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -4001,7 +4050,7 @@
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
         <v>147</v>
@@ -4009,7 +4058,7 @@
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s">
         <v>148</v>
@@ -4017,7 +4066,7 @@
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -4025,7 +4074,7 @@
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D56" t="s">
         <v>150</v>
@@ -4033,7 +4082,7 @@
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s">
         <v>67</v>
@@ -4041,7 +4090,7 @@
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" t="s">
         <v>128</v>
@@ -4049,7 +4098,7 @@
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
         <v>127</v>
@@ -4057,7 +4106,7 @@
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D60" t="s">
         <v>129</v>
@@ -4065,7 +4114,7 @@
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D61" t="s">
         <v>130</v>
@@ -4073,7 +4122,7 @@
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D62" t="s">
         <v>131</v>
@@ -4081,7 +4130,7 @@
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D63" t="s">
         <v>132</v>
@@ -4089,7 +4138,7 @@
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
@@ -4097,7 +4146,7 @@
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -4105,7 +4154,7 @@
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
@@ -4113,7 +4162,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -4121,7 +4170,7 @@
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
         <v>152</v>
@@ -4129,7 +4178,7 @@
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
@@ -4137,7 +4186,7 @@
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
         <v>70</v>
@@ -4145,7 +4194,7 @@
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D71" t="s">
         <v>191</v>
@@ -4153,7 +4202,7 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
         <v>183</v>
@@ -4161,7 +4210,7 @@
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D73" t="s">
         <v>192</v>
@@ -4169,7 +4218,7 @@
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
@@ -4177,7 +4226,7 @@
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" t="s">
         <v>189</v>
@@ -4185,7 +4234,7 @@
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s">
         <v>181</v>
@@ -4193,7 +4242,7 @@
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D77" t="s">
         <v>209</v>
@@ -4201,7 +4250,7 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -4209,7 +4258,7 @@
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D79" t="s">
         <v>180</v>
@@ -4217,7 +4266,7 @@
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D80" t="s">
         <v>193</v>
@@ -4225,7 +4274,7 @@
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D81" t="s">
         <v>185</v>
@@ -4233,7 +4282,7 @@
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
         <v>71</v>
@@ -4241,7 +4290,7 @@
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D83" t="s">
         <v>72</v>
@@ -4249,7 +4298,7 @@
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s">
         <v>196</v>
@@ -4257,7 +4306,7 @@
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D85" t="s">
         <v>194</v>
@@ -4265,7 +4314,7 @@
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
@@ -4273,7 +4322,7 @@
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D87" t="s">
         <v>74</v>
@@ -4281,7 +4330,7 @@
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
         <v>190</v>
@@ -4289,7 +4338,7 @@
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
         <v>182</v>
@@ -4297,7 +4346,7 @@
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
@@ -4305,7 +4354,7 @@
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
@@ -4313,7 +4362,7 @@
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -4321,7 +4370,7 @@
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
         <v>78</v>
@@ -4329,7 +4378,7 @@
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -4337,7 +4386,7 @@
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4345,7 +4394,7 @@
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D96" t="s">
         <v>187</v>
@@ -4353,7 +4402,7 @@
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" t="s">
         <v>179</v>
@@ -4361,7 +4410,7 @@
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" t="s">
         <v>186</v>
@@ -4369,7 +4418,7 @@
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" t="s">
         <v>178</v>
@@ -4377,243 +4426,263 @@
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>223</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>202</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D139" s="12" t="s">
-        <v>333</v>
+      <c r="D139" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D140" s="12" t="s">
-        <v>335</v>
+      <c r="D140" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D143" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="351">
   <si>
     <t>ID</t>
   </si>
@@ -1248,6 +1248,15 @@
   </si>
   <si>
     <t>verifyAnalyzerIsShutdown</t>
+  </si>
+  <si>
+    <t>clickOnShutdownConfirmButton</t>
+  </si>
+  <si>
+    <t>clickOnShutdownCancelButton</t>
+  </si>
+  <si>
+    <t>verifyBrowserIsShutdown</t>
   </si>
 </sst>
 </file>
@@ -2790,9 +2799,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X147"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
@@ -3256,6 +3265,9 @@
       <c r="W6" t="s">
         <v>43</v>
       </c>
+      <c r="X6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4677,11 +4689,21 @@
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
         <v>336</v>
       </c>
     </row>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="412">
   <si>
     <t>ID</t>
   </si>
@@ -1347,13 +1347,106 @@
   </si>
   <si>
     <t>Driver: Administrator</t>
+  </si>
+  <si>
+    <t>Run the survey for 60 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Overcast Wind: Calm Survey Type: Standard </t>
+  </si>
+  <si>
+    <t>Click Display: Eight Hour History ON</t>
+  </si>
+  <si>
+    <t>Click Display: Isotopic Analysis ON</t>
+  </si>
+  <si>
+    <t>TC1138</t>
+  </si>
+  <si>
+    <t>Standard Survey (Non PG&amp;E user)  - Satellite - All ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Light Survey Type: Standard </t>
+  </si>
+  <si>
+    <t>Driver: sqapicad@picarro.com</t>
+  </si>
+  <si>
+    <t>Verify Assets present on Map</t>
+  </si>
+  <si>
+    <t>Verify Boundaries present on Map</t>
+  </si>
+  <si>
+    <t>Click GIS - District Boundaries ON</t>
+  </si>
+  <si>
+    <t>Click GIS - District Plats ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Copper ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Cast Iron ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Other Plastic ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type PE Plastic ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Protected Steel ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Unprotected Steel ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Boundaries ON</t>
+  </si>
+  <si>
+    <t>TC1139</t>
+  </si>
+  <si>
+    <t>Standard Survey (PG&amp;E user) - Map - All ON</t>
+  </si>
+  <si>
+    <t>Click on Map and turn Map view ON </t>
+  </si>
+  <si>
+    <t>Driver: sqapgeua@email.com</t>
+  </si>
+  <si>
+    <t>TC1140</t>
+  </si>
+  <si>
+    <t>Standard Survey (PG&amp;E user) - Satellite - All ON</t>
+  </si>
+  <si>
+    <t>verify map view is shown</t>
+  </si>
+  <si>
+    <t>NEEDS IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>verify satellite view is shown</t>
+  </si>
+  <si>
+    <t>TC1141</t>
+  </si>
+  <si>
+    <t>Rapid Response Survey - Map - All ON</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Strong Wind: Strong Survey Type: Rapid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1413,13 +1506,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1431,10 +1536,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1476,8 +1582,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2163,10 +2271,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,6 +2338,74 @@
         <v>3</v>
       </c>
       <c r="E3" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2243,10 +2419,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250:XFD251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,10 +2569,10 @@
       <c r="D8" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="E8" s="13">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>10</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
     </row>
@@ -3145,10 +3321,10 @@
       <c r="D56" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="E56" s="13">
-        <v>10</v>
-      </c>
-      <c r="F56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13">
+        <v>50</v>
+      </c>
       <c r="G56" s="14"/>
       <c r="H56" s="13"/>
     </row>
@@ -3926,12 +4102,3586 @@
       <c r="G98" s="14"/>
       <c r="H98" s="13"/>
     </row>
+    <row r="99" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>3</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>3</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="14">
+        <v>4</v>
+      </c>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>3</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="14">
+        <v>3</v>
+      </c>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
+        <v>3</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>3</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>3</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="14">
+        <v>3</v>
+      </c>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
+        <v>3</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13">
+        <v>60</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
+        <v>3</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
+        <v>3</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>3</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15">
+        <v>3</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
+        <v>3</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15">
+        <v>3</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15">
+        <v>3</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15">
+        <v>3</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="15">
+        <v>3</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="15">
+        <v>3</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="15">
+        <v>3</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="15">
+        <v>3</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="13"/>
+    </row>
+    <row r="118" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15">
+        <v>3</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="13"/>
+    </row>
+    <row r="119" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="15">
+        <v>3</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="13"/>
+    </row>
+    <row r="120" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="15">
+        <v>3</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="13"/>
+    </row>
+    <row r="121" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="15">
+        <v>3</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15">
+        <v>3</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="13"/>
+    </row>
+    <row r="123" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="15">
+        <v>3</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="15">
+        <v>3</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="15">
+        <v>3</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="13"/>
+    </row>
+    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="15">
+        <v>3</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="15">
+        <v>3</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="13"/>
+    </row>
+    <row r="128" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="15">
+        <v>3</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="13"/>
+    </row>
+    <row r="129" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="15">
+        <v>3</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="15">
+        <v>3</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="13"/>
+    </row>
+    <row r="131" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="15">
+        <v>3</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="13"/>
+    </row>
+    <row r="132" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="15">
+        <v>3</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="13"/>
+    </row>
+    <row r="133" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="15">
+        <v>3</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="13"/>
+    </row>
+    <row r="134" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="15">
+        <v>3</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="13"/>
+    </row>
+    <row r="135" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="15">
+        <v>3</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="13"/>
+    </row>
+    <row r="136" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="15">
+        <v>3</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E136" s="13"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="14">
+        <v>7</v>
+      </c>
+      <c r="H136" s="13"/>
+    </row>
+    <row r="137" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="15">
+        <v>3</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="13"/>
+    </row>
+    <row r="138" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="15">
+        <v>3</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="13"/>
+    </row>
+    <row r="139" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="15">
+        <v>3</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="13"/>
+    </row>
+    <row r="140" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="15">
+        <v>3</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="13"/>
+    </row>
+    <row r="141" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="15">
+        <v>3</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G141" s="14"/>
+      <c r="H141" s="13"/>
+    </row>
+    <row r="142" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="15">
+        <v>3</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="13"/>
+    </row>
+    <row r="143" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="15">
+        <v>3</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G143" s="14"/>
+      <c r="H143" s="13"/>
+    </row>
+    <row r="144" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="15">
+        <v>3</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G144" s="14"/>
+      <c r="H144" s="13"/>
+    </row>
+    <row r="145" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="15">
+        <v>3</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="13"/>
+    </row>
+    <row r="146" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="15">
+        <v>3</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13">
+        <v>1</v>
+      </c>
+      <c r="G146" s="14"/>
+      <c r="H146" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="15">
+        <v>4</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="13"/>
+    </row>
+    <row r="148" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="15">
+        <v>4</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="14">
+        <v>7</v>
+      </c>
+      <c r="H148" s="13"/>
+    </row>
+    <row r="149" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="15">
+        <v>4</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="14">
+        <v>3</v>
+      </c>
+      <c r="H149" s="13"/>
+    </row>
+    <row r="150" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="15">
+        <v>4</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="13"/>
+    </row>
+    <row r="151" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="15">
+        <v>4</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="13"/>
+    </row>
+    <row r="152" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="15">
+        <v>4</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="14">
+        <v>6</v>
+      </c>
+      <c r="H152" s="13"/>
+    </row>
+    <row r="153" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="15">
+        <v>4</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13">
+        <v>60</v>
+      </c>
+      <c r="G153" s="14"/>
+      <c r="H153" s="13"/>
+    </row>
+    <row r="154" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="15">
+        <v>4</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="13"/>
+    </row>
+    <row r="155" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="15">
+        <v>4</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="13"/>
+    </row>
+    <row r="156" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="15">
+        <v>4</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="13"/>
+    </row>
+    <row r="157" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="15">
+        <v>4</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="13"/>
+    </row>
+    <row r="158" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="15">
+        <v>4</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="13"/>
+    </row>
+    <row r="159" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="15">
+        <v>4</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="13"/>
+    </row>
+    <row r="160" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="15">
+        <v>4</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="13"/>
+    </row>
+    <row r="161" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="15">
+        <v>4</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="13"/>
+    </row>
+    <row r="162" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="15">
+        <v>4</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="13"/>
+    </row>
+    <row r="163" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="15">
+        <v>4</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="13"/>
+    </row>
+    <row r="164" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="15">
+        <v>4</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="13"/>
+    </row>
+    <row r="165" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="15">
+        <v>4</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="13"/>
+    </row>
+    <row r="166" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="15">
+        <v>4</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="13"/>
+    </row>
+    <row r="167" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="15">
+        <v>4</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="13"/>
+    </row>
+    <row r="168" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="15">
+        <v>4</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="13"/>
+    </row>
+    <row r="169" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="15">
+        <v>4</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="13"/>
+    </row>
+    <row r="170" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="15">
+        <v>4</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="13"/>
+    </row>
+    <row r="171" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="15">
+        <v>4</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="13"/>
+    </row>
+    <row r="172" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="15">
+        <v>4</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="13"/>
+    </row>
+    <row r="173" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="15">
+        <v>4</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="13"/>
+    </row>
+    <row r="174" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="15">
+        <v>4</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="13"/>
+    </row>
+    <row r="175" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="15">
+        <v>4</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="13"/>
+    </row>
+    <row r="176" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="15">
+        <v>4</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="13"/>
+    </row>
+    <row r="177" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="15">
+        <v>4</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="13"/>
+    </row>
+    <row r="178" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="15">
+        <v>4</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="13"/>
+    </row>
+    <row r="179" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="15">
+        <v>4</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="13"/>
+    </row>
+    <row r="180" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="15">
+        <v>4</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="13"/>
+    </row>
+    <row r="181" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="15">
+        <v>4</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="13"/>
+    </row>
+    <row r="182" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="15">
+        <v>4</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="13"/>
+    </row>
+    <row r="183" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="15">
+        <v>4</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="13"/>
+    </row>
+    <row r="184" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="15">
+        <v>4</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E184" s="13"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="14">
+        <v>7</v>
+      </c>
+      <c r="H184" s="13"/>
+    </row>
+    <row r="185" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="15">
+        <v>4</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G185" s="14"/>
+      <c r="H185" s="13"/>
+    </row>
+    <row r="186" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="15">
+        <v>4</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G186" s="14"/>
+      <c r="H186" s="13"/>
+    </row>
+    <row r="187" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="15">
+        <v>4</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G187" s="14"/>
+      <c r="H187" s="13"/>
+    </row>
+    <row r="188" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="15">
+        <v>4</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G188" s="14"/>
+      <c r="H188" s="13"/>
+    </row>
+    <row r="189" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="15">
+        <v>4</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G189" s="14"/>
+      <c r="H189" s="13"/>
+    </row>
+    <row r="190" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="15">
+        <v>4</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G190" s="14"/>
+      <c r="H190" s="13"/>
+    </row>
+    <row r="191" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="15">
+        <v>4</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G191" s="14"/>
+      <c r="H191" s="13"/>
+    </row>
+    <row r="192" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="15">
+        <v>4</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G192" s="14"/>
+      <c r="H192" s="13"/>
+    </row>
+    <row r="193" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="15">
+        <v>4</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="13"/>
+    </row>
+    <row r="194" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="15">
+        <v>4</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13">
+        <v>1</v>
+      </c>
+      <c r="G194" s="14"/>
+      <c r="H194" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="15">
+        <v>5</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="13"/>
+    </row>
+    <row r="196" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="15">
+        <v>5</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="14">
+        <v>7</v>
+      </c>
+      <c r="H196" s="13"/>
+    </row>
+    <row r="197" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="15">
+        <v>5</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="14">
+        <v>3</v>
+      </c>
+      <c r="H197" s="13"/>
+    </row>
+    <row r="198" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15">
+        <v>5</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="13"/>
+    </row>
+    <row r="199" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="15">
+        <v>5</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="13"/>
+    </row>
+    <row r="200" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="15">
+        <v>5</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="14">
+        <v>6</v>
+      </c>
+      <c r="H200" s="13"/>
+    </row>
+    <row r="201" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15">
+        <v>5</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13">
+        <v>60</v>
+      </c>
+      <c r="G201" s="14"/>
+      <c r="H201" s="13"/>
+    </row>
+    <row r="202" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="15">
+        <v>5</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="13"/>
+    </row>
+    <row r="203" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="15">
+        <v>5</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="13"/>
+    </row>
+    <row r="204" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="15">
+        <v>5</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="13"/>
+    </row>
+    <row r="205" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="15">
+        <v>5</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="13"/>
+    </row>
+    <row r="206" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="15">
+        <v>5</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="13"/>
+    </row>
+    <row r="207" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="15">
+        <v>5</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="13"/>
+    </row>
+    <row r="208" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="15">
+        <v>5</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="13"/>
+    </row>
+    <row r="209" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="15">
+        <v>5</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="13"/>
+    </row>
+    <row r="210" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="15">
+        <v>5</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="13"/>
+    </row>
+    <row r="211" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="15">
+        <v>5</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="13"/>
+    </row>
+    <row r="212" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="15">
+        <v>5</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="13"/>
+    </row>
+    <row r="213" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="15">
+        <v>5</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="13"/>
+    </row>
+    <row r="214" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="15">
+        <v>5</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="13"/>
+    </row>
+    <row r="215" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15">
+        <v>5</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="13"/>
+    </row>
+    <row r="216" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="15">
+        <v>5</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="13"/>
+    </row>
+    <row r="217" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="15">
+        <v>5</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="13"/>
+    </row>
+    <row r="218" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="15">
+        <v>5</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="13"/>
+    </row>
+    <row r="219" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="15">
+        <v>5</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="13"/>
+    </row>
+    <row r="220" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="15">
+        <v>5</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="13"/>
+    </row>
+    <row r="221" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="15">
+        <v>5</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="13"/>
+    </row>
+    <row r="222" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="15">
+        <v>5</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="13"/>
+    </row>
+    <row r="223" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="15">
+        <v>5</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="13"/>
+    </row>
+    <row r="224" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="15">
+        <v>5</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="13"/>
+    </row>
+    <row r="225" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="15">
+        <v>5</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="13"/>
+    </row>
+    <row r="226" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="15">
+        <v>5</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="13"/>
+    </row>
+    <row r="227" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="15">
+        <v>5</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="13"/>
+    </row>
+    <row r="228" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="15">
+        <v>5</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="13"/>
+    </row>
+    <row r="229" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="15">
+        <v>5</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="13"/>
+    </row>
+    <row r="230" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="15">
+        <v>5</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="13"/>
+    </row>
+    <row r="231" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="15">
+        <v>5</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="13"/>
+    </row>
+    <row r="232" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="15">
+        <v>5</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E232" s="13"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="14">
+        <v>7</v>
+      </c>
+      <c r="H232" s="13"/>
+    </row>
+    <row r="233" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="15">
+        <v>5</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G233" s="14"/>
+      <c r="H233" s="13"/>
+    </row>
+    <row r="234" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="15">
+        <v>5</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G234" s="14"/>
+      <c r="H234" s="13"/>
+    </row>
+    <row r="235" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="15">
+        <v>5</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G235" s="14"/>
+      <c r="H235" s="13"/>
+    </row>
+    <row r="236" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="15">
+        <v>5</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G236" s="14"/>
+      <c r="H236" s="13"/>
+    </row>
+    <row r="237" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="15">
+        <v>5</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G237" s="14"/>
+      <c r="H237" s="13"/>
+    </row>
+    <row r="238" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="15">
+        <v>5</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G238" s="14"/>
+      <c r="H238" s="13"/>
+    </row>
+    <row r="239" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="15">
+        <v>5</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G239" s="14"/>
+      <c r="H239" s="13"/>
+    </row>
+    <row r="240" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="15">
+        <v>5</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G240" s="14"/>
+      <c r="H240" s="13"/>
+    </row>
+    <row r="241" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="15">
+        <v>5</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="13"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="15">
+        <v>5</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F242" s="13">
+        <v>1</v>
+      </c>
+      <c r="H242" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="15">
+        <v>6</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="13"/>
+    </row>
+    <row r="244" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="15">
+        <v>6</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="14">
+        <v>8</v>
+      </c>
+      <c r="H244" s="13"/>
+    </row>
+    <row r="245" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="15">
+        <v>6</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="14">
+        <v>3</v>
+      </c>
+      <c r="H245" s="13"/>
+    </row>
+    <row r="246" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="15">
+        <v>6</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="13"/>
+    </row>
+    <row r="247" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="15">
+        <v>6</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="13"/>
+    </row>
+    <row r="248" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="15">
+        <v>6</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="14">
+        <v>8</v>
+      </c>
+      <c r="H248" s="13"/>
+    </row>
+    <row r="249" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="15">
+        <v>6</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13">
+        <v>60</v>
+      </c>
+      <c r="G249" s="14"/>
+      <c r="H249" s="13"/>
+    </row>
+    <row r="250" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="15">
+        <v>6</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="13"/>
+    </row>
+    <row r="251" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="15">
+        <v>6</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="13"/>
+    </row>
+    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="15">
+        <v>6</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="13"/>
+    </row>
+    <row r="253" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="15">
+        <v>6</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="13"/>
+    </row>
+    <row r="254" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="15">
+        <v>6</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="13"/>
+    </row>
+    <row r="255" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="15">
+        <v>6</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="13"/>
+    </row>
+    <row r="256" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="15">
+        <v>6</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="13"/>
+    </row>
+    <row r="257" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="15">
+        <v>6</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="13"/>
+    </row>
+    <row r="258" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="15">
+        <v>6</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="13"/>
+    </row>
+    <row r="259" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="15">
+        <v>6</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="13"/>
+    </row>
+    <row r="260" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="15">
+        <v>6</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="13"/>
+    </row>
+    <row r="261" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="15">
+        <v>6</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="13"/>
+    </row>
+    <row r="262" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="15">
+        <v>6</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="13"/>
+    </row>
+    <row r="263" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="15">
+        <v>6</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="13"/>
+    </row>
+    <row r="264" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="15">
+        <v>6</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="13"/>
+    </row>
+    <row r="265" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="15">
+        <v>6</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="13"/>
+    </row>
+    <row r="266" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="15">
+        <v>6</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="13"/>
+    </row>
+    <row r="267" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="15">
+        <v>6</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="13"/>
+    </row>
+    <row r="268" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="15">
+        <v>6</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="13"/>
+    </row>
+    <row r="269" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="15">
+        <v>6</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="13"/>
+    </row>
+    <row r="270" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="15">
+        <v>6</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="13"/>
+    </row>
+    <row r="271" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="15">
+        <v>6</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="13"/>
+    </row>
+    <row r="272" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="15">
+        <v>6</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="13"/>
+    </row>
+    <row r="273" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="15">
+        <v>6</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="13"/>
+    </row>
+    <row r="274" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="15">
+        <v>6</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="13"/>
+    </row>
+    <row r="275" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="15">
+        <v>6</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="13"/>
+    </row>
+    <row r="276" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="15">
+        <v>6</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="13"/>
+    </row>
+    <row r="277" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="15">
+        <v>6</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E277" s="13"/>
+      <c r="F277" s="13"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="13"/>
+    </row>
+    <row r="278" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="15">
+        <v>6</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="13"/>
+    </row>
+    <row r="279" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="15">
+        <v>6</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E279" s="13"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="13"/>
+    </row>
+    <row r="280" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="15">
+        <v>6</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E280" s="13"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="14">
+        <v>7</v>
+      </c>
+      <c r="H280" s="13"/>
+    </row>
+    <row r="281" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="15">
+        <v>6</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G281" s="14"/>
+      <c r="H281" s="13"/>
+    </row>
+    <row r="282" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="15">
+        <v>6</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G282" s="14"/>
+      <c r="H282" s="13"/>
+    </row>
+    <row r="283" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="15">
+        <v>6</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E283" s="13"/>
+      <c r="F283" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G283" s="14"/>
+      <c r="H283" s="13"/>
+    </row>
+    <row r="284" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="15">
+        <v>6</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G284" s="14"/>
+      <c r="H284" s="13"/>
+    </row>
+    <row r="285" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="15">
+        <v>6</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E285" s="13"/>
+      <c r="F285" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G285" s="14"/>
+      <c r="H285" s="13"/>
+    </row>
+    <row r="286" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="15">
+        <v>6</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G286" s="14"/>
+      <c r="H286" s="13"/>
+    </row>
+    <row r="287" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="15">
+        <v>6</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E287" s="13"/>
+      <c r="F287" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G287" s="14"/>
+      <c r="H287" s="13"/>
+    </row>
+    <row r="288" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="15">
+        <v>6</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G288" s="14"/>
+      <c r="H288" s="13"/>
+    </row>
+    <row r="289" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="15">
+        <v>6</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="13"/>
+    </row>
+    <row r="290" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="15">
+        <v>6</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13">
+        <v>1</v>
+      </c>
+      <c r="G290" s="14"/>
+      <c r="H290" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D271 D272:D290">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C271 C272:C290">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -3945,7 +7695,7 @@
           <x14:formula1>
             <xm:f>'Page Objects And Actions'!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C273:C1048576</xm:sqref>
+          <xm:sqref>C291:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3958,8 +7708,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X151"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="AdministrationPage">'Page Objects And Actions'!$B$2:$B$50</definedName>
-    <definedName name="ComplianceReportsPage">'Page Objects And Actions'!$C$2:$C$149</definedName>
-    <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$180</definedName>
+    <definedName name="ComplianceReportsPage">'Page Objects And Actions'!$C$2:$C$150</definedName>
+    <definedName name="DriverViewPage">'Page Objects And Actions'!$D$2:$D$181</definedName>
     <definedName name="EULAPage">'Page Objects And Actions'!$E$2:$E$50</definedName>
     <definedName name="FleetMapPage">'Page Objects And Actions'!$F$2:$F$50</definedName>
     <definedName name="HomePage">'Page Objects And Actions'!$G$2:$G$50</definedName>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>Standard Survey - Satellite - FoV, Indication, Wind Rose and Concentration Chart ON - Position and  GIS OFF</t>
   </si>
   <si>
-    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Strong Survey Type: Standard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click Display: Windrose - ON </t>
   </si>
   <si>
@@ -1347,6 +1344,30 @@
   </si>
   <si>
     <t>Driver: Administrator</t>
+  </si>
+  <si>
+    <t>TC1135</t>
+  </si>
+  <si>
+    <t>Perform 2 surveys with same tag value for same surveyor, same analyzer and 8-hour history ON. Satellite view</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day, Solar Radiation: Overcast, Wind: Calm Survey Type: Standard</t>
+  </si>
+  <si>
+    <t>Run the survey for 60 seconds</t>
+  </si>
+  <si>
+    <t>verifyStatusButtonIsGreenWithPlus</t>
+  </si>
+  <si>
+    <t>verifyMapViewIsShown</t>
+  </si>
+  <si>
+    <t>verifySatelliteViewIsShown</t>
+  </si>
+  <si>
+    <t>enterFieldNotes</t>
   </si>
 </sst>
 </file>
@@ -2163,17 +2184,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.5546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="68" style="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="68" style="12" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="6.21875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="26.6640625" style="13" customWidth="1" collapsed="1"/>
@@ -2186,7 +2207,7 @@
       <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -2206,7 +2227,7 @@
       <c r="B2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="13">
@@ -2231,6 +2252,23 @@
       </c>
       <c r="E3" s="13" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2243,10 +2281,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>337</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="13">
         <v>10</v>
@@ -2405,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>10</v>
@@ -2423,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>10</v>
@@ -2437,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>10</v>
@@ -2563,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>10</v>
@@ -2727,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2833,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>10</v>
@@ -2878,7 +2916,7 @@
         <v>195</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2895,7 +2933,7 @@
         <v>336</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2912,7 +2950,7 @@
         <v>196</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2929,7 +2967,7 @@
         <v>202</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2946,7 +2984,7 @@
         <v>217</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2963,7 +3001,7 @@
         <v>218</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2980,7 +3018,7 @@
         <v>200</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2988,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>10</v>
@@ -2997,7 +3035,7 @@
         <v>205</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3005,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>337</v>
@@ -3117,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>10</v>
@@ -3137,16 +3175,16 @@
         <v>2</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>337</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E56" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
@@ -3157,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>10</v>
@@ -3175,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>10</v>
@@ -3193,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>10</v>
@@ -3211,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>10</v>
@@ -3229,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>10</v>
@@ -3265,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>10</v>
@@ -3283,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>10</v>
@@ -3319,7 +3357,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>10</v>
@@ -3523,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
@@ -3535,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>10</v>
@@ -3553,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>10</v>
@@ -3589,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>10</v>
@@ -3607,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>10</v>
@@ -3625,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>10</v>
@@ -3643,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>10</v>
@@ -3661,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>10</v>
@@ -3679,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>10</v>
@@ -3715,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>10</v>
@@ -3763,7 +3801,7 @@
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="13"/>
@@ -3783,7 +3821,7 @@
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="13"/>
@@ -3803,7 +3841,7 @@
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="13"/>
@@ -3823,7 +3861,7 @@
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="13"/>
@@ -3843,7 +3881,7 @@
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="13"/>
@@ -3863,7 +3901,7 @@
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="13"/>
@@ -3883,7 +3921,7 @@
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="13"/>
@@ -3903,7 +3941,7 @@
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="13"/>
@@ -3913,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>337</v>
@@ -3925,6 +3963,140 @@
       <c r="F98" s="13"/>
       <c r="G98" s="14"/>
       <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>3</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>3</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="14">
+        <v>3</v>
+      </c>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>3</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="14">
+        <v>3</v>
+      </c>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
+        <v>3</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>3</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>3</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="14">
+        <v>3</v>
+      </c>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
+        <v>3</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E105" s="13">
+        <v>60</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3956,10 +4128,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X151"/>
+  <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,7 +4292,7 @@
         <v>39</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -4986,7 +5158,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>63</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4994,7 +5166,7 @@
         <v>240</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5002,7 +5174,7 @@
         <v>241</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,7 +5182,7 @@
         <v>242</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,7 +5190,7 @@
         <v>238</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5026,7 +5198,7 @@
         <v>251</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5034,7 +5206,7 @@
         <v>252</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5042,7 +5214,7 @@
         <v>254</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5050,7 +5222,7 @@
         <v>253</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
@@ -5058,7 +5230,7 @@
         <v>235</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
@@ -5066,7 +5238,7 @@
         <v>245</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
@@ -5074,7 +5246,7 @@
         <v>244</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
@@ -5082,7 +5254,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
@@ -5090,7 +5262,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
@@ -5098,7 +5270,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
@@ -5106,7 +5278,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
@@ -5114,7 +5286,7 @@
         <v>212</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
@@ -5122,7 +5294,7 @@
         <v>260</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
@@ -5130,7 +5302,7 @@
         <v>261</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
@@ -5138,7 +5310,7 @@
         <v>236</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
@@ -5146,7 +5318,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
@@ -5154,7 +5326,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
@@ -5162,7 +5334,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
@@ -5170,7 +5342,7 @@
         <v>48</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
@@ -5178,7 +5350,7 @@
         <v>239</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
@@ -5186,7 +5358,7 @@
         <v>247</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
@@ -5194,7 +5366,7 @@
         <v>246</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
@@ -5202,7 +5374,7 @@
         <v>248</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
@@ -5210,7 +5382,7 @@
         <v>243</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>140</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
@@ -5218,7 +5390,7 @@
         <v>259</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
@@ -5226,7 +5398,7 @@
         <v>237</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
@@ -5234,7 +5406,7 @@
         <v>257</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
@@ -5242,7 +5414,7 @@
         <v>258</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
@@ -5250,7 +5422,7 @@
         <v>262</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
@@ -5258,7 +5430,7 @@
         <v>289</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
@@ -5266,7 +5438,7 @@
         <v>305</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
@@ -5274,7 +5446,7 @@
         <v>287</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
@@ -5282,7 +5454,7 @@
         <v>288</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
@@ -5290,7 +5462,7 @@
         <v>290</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
@@ -5298,7 +5470,7 @@
         <v>291</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
@@ -5306,7 +5478,7 @@
         <v>285</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
@@ -5314,7 +5486,7 @@
         <v>316</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
@@ -5322,7 +5494,7 @@
         <v>303</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -5330,7 +5502,7 @@
         <v>295</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -5338,7 +5510,7 @@
         <v>277</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
@@ -5346,7 +5518,7 @@
         <v>266</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
@@ -5354,7 +5526,7 @@
         <v>317</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
@@ -5362,7 +5534,7 @@
         <v>274</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>354</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
@@ -5370,7 +5542,7 @@
         <v>263</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
@@ -5378,7 +5550,7 @@
         <v>293</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
@@ -5386,7 +5558,7 @@
         <v>313</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
@@ -5394,7 +5566,7 @@
         <v>275</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
@@ -5402,7 +5574,7 @@
         <v>264</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
@@ -5410,7 +5582,7 @@
         <v>296</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
@@ -5418,7 +5590,7 @@
         <v>297</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
@@ -5426,7 +5598,7 @@
         <v>304</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
@@ -5434,7 +5606,7 @@
         <v>292</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
@@ -5442,7 +5614,7 @@
         <v>286</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
@@ -5450,7 +5622,7 @@
         <v>301</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
@@ -5458,7 +5630,7 @@
         <v>299</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
@@ -5466,7 +5638,7 @@
         <v>300</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
@@ -5474,7 +5646,7 @@
         <v>298</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
@@ -5482,7 +5654,7 @@
         <v>302</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
@@ -5490,7 +5662,7 @@
         <v>294</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
@@ -5498,7 +5670,7 @@
         <v>276</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
@@ -5506,7 +5678,7 @@
         <v>265</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
@@ -5514,7 +5686,7 @@
         <v>278</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
@@ -5522,7 +5694,7 @@
         <v>267</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
@@ -5530,7 +5702,7 @@
         <v>279</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
@@ -5538,7 +5710,7 @@
         <v>268</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
@@ -5546,7 +5718,7 @@
         <v>280</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
@@ -5554,7 +5726,7 @@
         <v>269</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
@@ -5562,7 +5734,7 @@
         <v>281</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
@@ -5570,7 +5742,7 @@
         <v>270</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
@@ -5578,7 +5750,7 @@
         <v>282</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
@@ -5586,7 +5758,7 @@
         <v>271</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
@@ -5594,7 +5766,7 @@
         <v>283</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
@@ -5602,7 +5774,7 @@
         <v>272</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
@@ -5610,7 +5782,7 @@
         <v>284</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
@@ -5618,7 +5790,7 @@
         <v>273</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
@@ -5626,7 +5798,7 @@
         <v>324</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
@@ -5634,7 +5806,7 @@
         <v>325</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
@@ -5642,237 +5814,280 @@
         <v>326</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D107" s="17" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" s="17" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" s="17" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" s="17" t="s">
-        <v>82</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D113" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D114" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D113" s="17" t="s">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D115" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D114" s="17" t="s">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D116" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D115" s="17" t="s">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D117" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D116" s="17" t="s">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D118" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D117" s="17" t="s">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D119" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D120" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D118" s="17" t="s">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D121" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D119" s="17" t="s">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D122" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D120" s="17" t="s">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D123" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D121" s="17" t="s">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D124" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D122" s="17" t="s">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D125" s="17" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D123" s="17" t="s">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D126" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D124" s="17" t="s">
+    <row r="127" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D125" s="17" t="s">
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
+      <c r="R127" s="17"/>
+      <c r="S127" s="17"/>
+      <c r="T127" s="17"/>
+      <c r="U127" s="17"/>
+      <c r="V127" s="17"/>
+      <c r="W127" s="17"/>
+      <c r="X127" s="17"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D128" s="17" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D126" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D127" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D128" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="17" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="17" t="s">
-        <v>203</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="17" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="17" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="17" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="17" t="s">
-        <v>335</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
-        <v>200</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
-        <v>98</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="17" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D151">
-    <sortCondition ref="D151"/>
+  <sortState ref="D2:D154">
+    <sortCondition ref="D154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -701,36 +701,6 @@
     <t>Click Display: Field Notes - ON</t>
   </si>
   <si>
-    <t>Click GIS - District Boundaries OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - District Plats OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Copper OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Cast Iron OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Other Plastic OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type PE Plastic OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Protected Steel OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Unprotected Steel OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Use All Boundaries OFF</t>
-  </si>
-  <si>
-    <t>Click GIS - Use All Pipes OFF</t>
-  </si>
-  <si>
     <t>verifyLISAIsShownOnMap</t>
   </si>
   <si>
@@ -1379,33 +1349,6 @@
     <t>Verify Boundaries present on Map</t>
   </si>
   <si>
-    <t>Click GIS - District Boundaries ON</t>
-  </si>
-  <si>
-    <t>Click GIS - District Plats ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Copper ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Cast Iron ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Other Plastic ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type PE Plastic ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Protected Steel ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Material Type Unprotected Steel ON</t>
-  </si>
-  <si>
-    <t>Click GIS - Use All Boundaries ON</t>
-  </si>
-  <si>
     <t>TC1139</t>
   </si>
   <si>
@@ -1424,15 +1367,6 @@
     <t>Standard Survey (PG&amp;E user) - Satellite - All ON</t>
   </si>
   <si>
-    <t>verify map view is shown</t>
-  </si>
-  <si>
-    <t>NEEDS IMPLEMENTATION</t>
-  </si>
-  <si>
-    <t>verify satellite view is shown</t>
-  </si>
-  <si>
     <t>TC1141</t>
   </si>
   <si>
@@ -1440,13 +1374,52 @@
   </si>
   <si>
     <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Strong Wind: Strong Survey Type: Rapid</t>
+  </si>
+  <si>
+    <t>verifyMapViewIsShown</t>
+  </si>
+  <si>
+    <t>verifySatelliteViewIsShown</t>
+  </si>
+  <si>
+    <t>enterFieldNotes</t>
+  </si>
+  <si>
+    <t>Verify Satellite view is shown</t>
+  </si>
+  <si>
+    <t>Verify Map view is shown</t>
+  </si>
+  <si>
+    <t>turnOnAllAssets</t>
+  </si>
+  <si>
+    <t>turnOnAllBoundaries</t>
+  </si>
+  <si>
+    <t>turnOnAllAssetsAndBoundaries</t>
+  </si>
+  <si>
+    <t>turnOffAllAssets</t>
+  </si>
+  <si>
+    <t>turnOffAllBoundaries</t>
+  </si>
+  <si>
+    <t>turnOffAllAssetsAndBoundaries</t>
+  </si>
+  <si>
+    <t>Click GIS - Turn OFF All Assets &amp; Boundaries</t>
+  </si>
+  <si>
+    <t>Click GIS - Turn ON All Assets &amp; Boundaries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,25 +1479,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1536,11 +1497,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1576,16 +1536,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1906,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1923,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1940,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1957,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2027,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2044,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -2061,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2075,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2092,13 +2056,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2109,13 +2073,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2126,13 +2090,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2143,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -2160,13 +2124,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2174,13 +2138,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2191,13 +2155,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2208,13 +2172,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2225,13 +2189,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -2242,13 +2206,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2274,12 +2238,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.77734375" style="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.5546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="68" style="13" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2288,7 +2252,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2308,7 +2272,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2325,14 +2289,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>346</v>
+        <v>335</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -2342,14 +2306,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D4" s="13">
         <v>4</v>
@@ -2359,14 +2323,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D5" s="13">
         <v>7</v>
@@ -2376,14 +2340,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D6" s="13">
         <v>7</v>
@@ -2393,14 +2357,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D7" s="13">
         <v>8</v>
@@ -2419,17 +2383,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:XFD251"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.77734375" style="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="8.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2468,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2482,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>14</v>
@@ -2499,13 +2463,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G4" s="14">
         <v>3</v>
@@ -2516,13 +2480,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2561,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
@@ -2581,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>10</v>
@@ -2599,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>10</v>
@@ -2613,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>10</v>
@@ -2739,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>10</v>
@@ -2757,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2771,41 +2735,45 @@
         <v>1</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>1</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>167</v>
+      <c r="B23" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>134</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2813,13 +2781,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2827,13 +2795,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2841,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2855,125 +2823,145 @@
         <v>1</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>173</v>
+      <c r="B29" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>174</v>
+      <c r="B30" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>1</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>104</v>
+      <c r="B31" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>355</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>1</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>107</v>
+      <c r="B32" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>178</v>
+        <v>187</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>1</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>108</v>
+      <c r="B33" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>175</v>
+        <v>185</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>1</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>109</v>
+      <c r="B34" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>191</v>
+        <v>326</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>1</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>110</v>
+      <c r="B35" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>1</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>111</v>
+      <c r="B36" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2981,13 +2969,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>187</v>
+        <v>207</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2995,199 +2986,216 @@
         <v>1</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>1</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>1</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>113</v>
+        <v>359</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>1</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>1</v>
+        <v>329</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>2</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>2</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14">
+        <v>3</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>2</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14">
+        <v>3</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>2</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>2</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>2</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14">
+        <v>7</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>2</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>1</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
-        <v>1</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
-        <v>1</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>1</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>1</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>368</v>
-      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13">
+        <v>50</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
-        <v>1</v>
+      <c r="A49" s="15">
+        <v>2</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -3198,14 +3206,14 @@
       <c r="A50" s="15">
         <v>2</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>208</v>
+      <c r="B50" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -3216,54 +3224,50 @@
       <c r="A51" s="15">
         <v>2</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>209</v>
+      <c r="B51" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="14">
-        <v>3</v>
-      </c>
+      <c r="G51" s="14"/>
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>2</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>210</v>
+      <c r="B52" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>338</v>
+        <v>144</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="14">
-        <v>3</v>
-      </c>
+      <c r="G52" s="14"/>
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>2</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>211</v>
+      <c r="B53" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -3274,38 +3278,36 @@
       <c r="A54" s="15">
         <v>2</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>102</v>
+      <c r="B54" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>2</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>347</v>
+      <c r="B55" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="14">
-        <v>7</v>
-      </c>
+      <c r="G55" s="14"/>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3313,18 +3315,16 @@
         <v>2</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="E56" s="13"/>
-      <c r="F56" s="13">
-        <v>50</v>
-      </c>
+      <c r="F56" s="13"/>
       <c r="G56" s="14"/>
       <c r="H56" s="13"/>
     </row>
@@ -3332,14 +3332,14 @@
       <c r="A57" s="15">
         <v>2</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>372</v>
+      <c r="B57" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
@@ -3351,13 +3351,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -3369,13 +3369,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -3387,13 +3387,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
@@ -3405,13 +3405,13 @@
         <v>2</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
@@ -3423,13 +3423,13 @@
         <v>2</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
@@ -3440,14 +3440,14 @@
       <c r="A63" s="15">
         <v>2</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>352</v>
+      <c r="B63" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>155</v>
+        <v>391</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -3459,13 +3459,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
@@ -3477,13 +3477,13 @@
         <v>2</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
@@ -3494,14 +3494,14 @@
       <c r="A66" s="15">
         <v>2</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>375</v>
+      <c r="B66" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
@@ -3513,13 +3513,13 @@
         <v>2</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -3531,13 +3531,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
@@ -3549,13 +3549,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
@@ -3567,13 +3567,13 @@
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>168</v>
+        <v>352</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
@@ -3584,14 +3584,14 @@
       <c r="A71" s="15">
         <v>2</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>169</v>
+      <c r="B71" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -3602,14 +3602,14 @@
       <c r="A72" s="15">
         <v>2</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>170</v>
+      <c r="B72" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
@@ -3620,35 +3620,39 @@
       <c r="A73" s="15">
         <v>2</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>171</v>
+      <c r="B73" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="14">
+        <v>7</v>
+      </c>
       <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>2</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>172</v>
+      <c r="B74" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
+      <c r="F74" s="13" t="s">
+        <v>368</v>
+      </c>
       <c r="G74" s="14"/>
       <c r="H74" s="13"/>
     </row>
@@ -3656,17 +3660,19 @@
       <c r="A75" s="15">
         <v>2</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>173</v>
+      <c r="B75" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="F75" s="13" t="s">
+        <v>369</v>
+      </c>
       <c r="G75" s="14"/>
       <c r="H75" s="13"/>
     </row>
@@ -3674,17 +3680,19 @@
       <c r="A76" s="15">
         <v>2</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>174</v>
+      <c r="B76" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
+      <c r="F76" s="13" t="s">
+        <v>353</v>
+      </c>
       <c r="G76" s="14"/>
       <c r="H76" s="13"/>
     </row>
@@ -3692,17 +3700,19 @@
       <c r="A77" s="15">
         <v>2</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>104</v>
+      <c r="B77" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+      <c r="F77" s="13" t="s">
+        <v>354</v>
+      </c>
       <c r="G77" s="14"/>
       <c r="H77" s="13"/>
     </row>
@@ -3710,17 +3720,19 @@
       <c r="A78" s="15">
         <v>2</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>370</v>
+      <c r="B78" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="F78" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="G78" s="14"/>
       <c r="H78" s="13"/>
     </row>
@@ -3728,17 +3740,19 @@
       <c r="A79" s="15">
         <v>2</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
       <c r="G79" s="14"/>
       <c r="H79" s="13"/>
     </row>
@@ -3746,17 +3760,19 @@
       <c r="A80" s="15">
         <v>2</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>107</v>
+      <c r="B80" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="F80" s="13" t="s">
+        <v>357</v>
+      </c>
       <c r="G80" s="14"/>
       <c r="H80" s="13"/>
     </row>
@@ -3764,17 +3780,19 @@
       <c r="A81" s="15">
         <v>2</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>357</v>
+      <c r="B81" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="F81" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="G81" s="14"/>
       <c r="H81" s="13"/>
     </row>
@@ -3783,13 +3801,13 @@
         <v>2</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
@@ -3798,16 +3816,16 @@
     </row>
     <row r="83" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
-        <v>2</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>359</v>
+        <v>3</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -3816,52 +3834,56 @@
     </row>
     <row r="84" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
-        <v>2</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>360</v>
+        <v>3</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="14"/>
+      <c r="G84" s="14">
+        <v>4</v>
+      </c>
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
-        <v>2</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>361</v>
+        <v>3</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
-      <c r="G85" s="14"/>
+      <c r="G85" s="14">
+        <v>3</v>
+      </c>
       <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
-        <v>2</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>362</v>
+        <v>3</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -3870,25 +3892,25 @@
     </row>
     <row r="87" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="14"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>377</v>
@@ -3897,205 +3919,191 @@
         <v>10</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="14"/>
+      <c r="G88" s="14">
+        <v>3</v>
+      </c>
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
-        <v>2</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="E89" s="13"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="14">
-        <v>7</v>
-      </c>
+      <c r="F89" s="13">
+        <v>60</v>
+      </c>
+      <c r="G89" s="14"/>
       <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>114</v>
+        <v>362</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="E90" s="13"/>
-      <c r="F90" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="F90" s="13"/>
       <c r="G90" s="14"/>
       <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
-        <v>2</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>115</v>
+        <v>3</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="E91" s="13"/>
-      <c r="F91" s="13" t="s">
-        <v>379</v>
-      </c>
+      <c r="F91" s="13"/>
       <c r="G91" s="14"/>
       <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
-        <v>2</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="E92" s="13"/>
-      <c r="F92" s="13" t="s">
-        <v>363</v>
-      </c>
+      <c r="F92" s="13"/>
       <c r="G92" s="14"/>
       <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
-        <v>2</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>117</v>
+        <v>3</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="E93" s="13"/>
-      <c r="F93" s="13" t="s">
-        <v>364</v>
-      </c>
+      <c r="F93" s="13"/>
       <c r="G93" s="14"/>
       <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
-        <v>2</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>118</v>
+        <v>3</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="E94" s="13"/>
-      <c r="F94" s="13" t="s">
-        <v>365</v>
-      </c>
+      <c r="F94" s="13"/>
       <c r="G94" s="14"/>
       <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
-        <v>2</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>119</v>
+        <v>3</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="E95" s="13"/>
-      <c r="F95" s="13" t="s">
-        <v>366</v>
-      </c>
+      <c r="F95" s="13"/>
       <c r="G95" s="14"/>
       <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
-        <v>2</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="E96" s="13"/>
-      <c r="F96" s="13" t="s">
-        <v>367</v>
-      </c>
+      <c r="F96" s="13"/>
       <c r="G96" s="14"/>
       <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
-        <v>2</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>121</v>
+        <v>3</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="E97" s="13"/>
-      <c r="F97" s="13" t="s">
-        <v>368</v>
-      </c>
+      <c r="F97" s="13"/>
       <c r="G97" s="14"/>
       <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
-        <v>2</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>376</v>
+        <v>3</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>339</v>
+        <v>146</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -4106,14 +4114,14 @@
       <c r="A99" s="15">
         <v>3</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>208</v>
+      <c r="B99" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
@@ -4124,54 +4132,50 @@
       <c r="A100" s="15">
         <v>3</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>209</v>
+      <c r="B100" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
-      <c r="G100" s="14">
-        <v>4</v>
-      </c>
+      <c r="G100" s="14"/>
       <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>3</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>210</v>
+      <c r="B101" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
-      <c r="G101" s="14">
-        <v>3</v>
-      </c>
+      <c r="G101" s="14"/>
       <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>3</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>211</v>
+      <c r="B102" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -4183,37 +4187,35 @@
         <v>3</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>102</v>
+        <v>393</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="14"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>3</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>387</v>
+      <c r="B104" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="14">
-        <v>3</v>
-      </c>
+      <c r="G104" s="14"/>
       <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4221,18 +4223,16 @@
         <v>3</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="E105" s="13"/>
-      <c r="F105" s="13">
-        <v>60</v>
-      </c>
+      <c r="F105" s="13"/>
       <c r="G105" s="14"/>
       <c r="H105" s="13"/>
     </row>
@@ -4241,13 +4241,13 @@
         <v>3</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
@@ -4259,13 +4259,13 @@
         <v>3</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
@@ -4277,13 +4277,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
@@ -4295,13 +4295,13 @@
         <v>3</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -4313,13 +4313,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -4330,14 +4330,14 @@
       <c r="A111" s="15">
         <v>3</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>383</v>
+      <c r="B111" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -4348,35 +4348,39 @@
       <c r="A112" s="15">
         <v>3</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>106</v>
+      <c r="B112" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="14"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="14">
+        <v>7</v>
+      </c>
       <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>3</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>164</v>
+      <c r="B113" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
+      <c r="F113" s="13" t="s">
+        <v>368</v>
+      </c>
       <c r="G113" s="14"/>
       <c r="H113" s="13"/>
     </row>
@@ -4384,17 +4388,19 @@
       <c r="A114" s="15">
         <v>3</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>384</v>
+      <c r="B114" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
+      <c r="F114" s="13" t="s">
+        <v>369</v>
+      </c>
       <c r="G114" s="14"/>
       <c r="H114" s="13"/>
     </row>
@@ -4402,17 +4408,19 @@
       <c r="A115" s="15">
         <v>3</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>375</v>
+      <c r="B115" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="F115" s="13" t="s">
+        <v>353</v>
+      </c>
       <c r="G115" s="14"/>
       <c r="H115" s="13"/>
     </row>
@@ -4420,17 +4428,19 @@
       <c r="A116" s="15">
         <v>3</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>391</v>
+      <c r="B116" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="F116" s="13" t="s">
+        <v>378</v>
+      </c>
       <c r="G116" s="14"/>
       <c r="H116" s="13"/>
     </row>
@@ -4438,17 +4448,19 @@
       <c r="A117" s="15">
         <v>3</v>
       </c>
-      <c r="B117" s="13" t="s">
-        <v>392</v>
+      <c r="B117" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="F117" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="G117" s="14"/>
       <c r="H117" s="13"/>
     </row>
@@ -4456,17 +4468,19 @@
       <c r="A118" s="15">
         <v>3</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>393</v>
+      <c r="B118" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="F118" s="13" t="s">
+        <v>356</v>
+      </c>
       <c r="G118" s="14"/>
       <c r="H118" s="13"/>
     </row>
@@ -4474,17 +4488,19 @@
       <c r="A119" s="15">
         <v>3</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>394</v>
+      <c r="B119" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="F119" s="13" t="s">
+        <v>357</v>
+      </c>
       <c r="G119" s="14"/>
       <c r="H119" s="13"/>
     </row>
@@ -4492,17 +4508,19 @@
       <c r="A120" s="15">
         <v>3</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>395</v>
+      <c r="B120" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="F120" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="G120" s="14"/>
       <c r="H120" s="13"/>
     </row>
@@ -4510,14 +4528,14 @@
       <c r="A121" s="15">
         <v>3</v>
       </c>
-      <c r="B121" s="13" t="s">
-        <v>396</v>
+      <c r="B121" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
@@ -4526,16 +4544,16 @@
     </row>
     <row r="122" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
-        <v>3</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>397</v>
+        <v>4</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
@@ -4544,52 +4562,56 @@
     </row>
     <row r="123" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
-        <v>3</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>398</v>
+        <v>4</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
-      <c r="G123" s="14"/>
+      <c r="G123" s="14">
+        <v>7</v>
+      </c>
       <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
-        <v>3</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>399</v>
+        <v>4</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
-      <c r="G124" s="14"/>
+      <c r="G124" s="14">
+        <v>3</v>
+      </c>
       <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
-        <v>3</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>174</v>
+        <v>4</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
@@ -4598,70 +4620,74 @@
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
-        <v>3</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>370</v>
+        <v>4</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
       <c r="G126" s="14"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
-        <v>3</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>356</v>
+        <v>4</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
-      <c r="G127" s="14"/>
+      <c r="G127" s="14">
+        <v>6</v>
+      </c>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="F128" s="13">
+        <v>60</v>
+      </c>
       <c r="G128" s="14"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
-        <v>3</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>357</v>
+        <v>4</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
@@ -4670,16 +4696,16 @@
     </row>
     <row r="130" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
-        <v>3</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>358</v>
+        <v>4</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
@@ -4688,16 +4714,16 @@
     </row>
     <row r="131" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
@@ -4706,16 +4732,16 @@
     </row>
     <row r="132" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
@@ -4724,16 +4750,16 @@
     </row>
     <row r="133" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>108</v>
+        <v>339</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
@@ -4742,16 +4768,16 @@
     </row>
     <row r="134" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
@@ -4760,16 +4786,16 @@
     </row>
     <row r="135" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
-        <v>3</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>377</v>
+        <v>4</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
@@ -4778,196 +4804,178 @@
     </row>
     <row r="136" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
-        <v>3</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E136" s="13"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="14">
-        <v>7</v>
-      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="14"/>
       <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
-        <v>3</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E137" s="13"/>
-      <c r="F137" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="F137" s="13"/>
       <c r="G137" s="14"/>
       <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
-        <v>3</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>115</v>
+        <v>4</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="E138" s="13"/>
-      <c r="F138" s="13" t="s">
-        <v>379</v>
-      </c>
+      <c r="F138" s="13"/>
       <c r="G138" s="14"/>
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
-        <v>3</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>196</v>
+        <v>397</v>
       </c>
       <c r="E139" s="13"/>
-      <c r="F139" s="13" t="s">
-        <v>363</v>
-      </c>
+      <c r="F139" s="13"/>
       <c r="G139" s="14"/>
       <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
-        <v>3</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="E140" s="13"/>
-      <c r="F140" s="13" t="s">
-        <v>388</v>
-      </c>
+      <c r="F140" s="13"/>
       <c r="G140" s="14"/>
       <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
-        <v>3</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="E141" s="13"/>
-      <c r="F141" s="13" t="s">
-        <v>365</v>
-      </c>
+      <c r="F141" s="13"/>
       <c r="G141" s="14"/>
       <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>119</v>
+        <v>394</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="E142" s="13"/>
-      <c r="F142" s="13" t="s">
-        <v>366</v>
-      </c>
+      <c r="F142" s="13"/>
       <c r="G142" s="14"/>
       <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
-        <v>3</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E143" s="13"/>
-      <c r="F143" s="13" t="s">
-        <v>367</v>
-      </c>
+      <c r="F143" s="13"/>
       <c r="G143" s="14"/>
       <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
-        <v>3</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E144" s="13"/>
-      <c r="F144" s="13" t="s">
-        <v>368</v>
-      </c>
+      <c r="F144" s="13"/>
       <c r="G144" s="14"/>
       <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
@@ -4976,38 +4984,34 @@
     </row>
     <row r="146" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
-        <v>3</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>408</v>
+        <v>4</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="E146" s="13"/>
-      <c r="F146" s="13">
-        <v>1</v>
-      </c>
+      <c r="F146" s="13"/>
       <c r="G146" s="14"/>
-      <c r="H146" s="23" t="s">
-        <v>407</v>
-      </c>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>4</v>
       </c>
-      <c r="B147" s="12" t="s">
-        <v>208</v>
+      <c r="B147" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
@@ -5018,40 +5022,36 @@
       <c r="A148" s="15">
         <v>4</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>209</v>
+      <c r="B148" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
-      <c r="G148" s="14">
-        <v>7</v>
-      </c>
+      <c r="G148" s="14"/>
       <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>4</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>210</v>
+      <c r="B149" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
-      <c r="G149" s="14">
-        <v>3</v>
-      </c>
+      <c r="G149" s="14"/>
       <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5059,13 +5059,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
@@ -5077,55 +5077,57 @@
         <v>4</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="14"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="14">
+        <v>7</v>
+      </c>
       <c r="H151" s="13"/>
     </row>
-    <row r="152" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
         <v>4</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="14">
-        <v>6</v>
-      </c>
+      <c r="F152" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G152" s="14"/>
       <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>4</v>
       </c>
-      <c r="B153" s="13" t="s">
-        <v>381</v>
+      <c r="B153" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="E153" s="13"/>
-      <c r="F153" s="13">
-        <v>60</v>
+      <c r="F153" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="G153" s="14"/>
       <c r="H153" s="13"/>
@@ -5135,16 +5137,18 @@
         <v>4</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>372</v>
+        <v>116</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
+      <c r="F154" s="13" t="s">
+        <v>353</v>
+      </c>
       <c r="G154" s="14"/>
       <c r="H154" s="13"/>
     </row>
@@ -5152,17 +5156,19 @@
       <c r="A155" s="15">
         <v>4</v>
       </c>
-      <c r="B155" s="13" t="s">
-        <v>348</v>
+      <c r="B155" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
+      <c r="F155" s="13" t="s">
+        <v>384</v>
+      </c>
       <c r="G155" s="14"/>
       <c r="H155" s="13"/>
     </row>
@@ -5170,17 +5176,19 @@
       <c r="A156" s="15">
         <v>4</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>351</v>
+      <c r="B156" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
+      <c r="F156" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="G156" s="14"/>
       <c r="H156" s="13"/>
     </row>
@@ -5188,17 +5196,19 @@
       <c r="A157" s="15">
         <v>4</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>350</v>
+      <c r="B157" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
+      <c r="F157" s="13" t="s">
+        <v>356</v>
+      </c>
       <c r="G157" s="14"/>
       <c r="H157" s="13"/>
     </row>
@@ -5206,17 +5216,19 @@
       <c r="A158" s="15">
         <v>4</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>349</v>
+      <c r="B158" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
+      <c r="F158" s="13" t="s">
+        <v>357</v>
+      </c>
       <c r="G158" s="14"/>
       <c r="H158" s="13"/>
     </row>
@@ -5224,17 +5236,19 @@
       <c r="A159" s="15">
         <v>4</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>383</v>
+      <c r="B159" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
+      <c r="F159" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="G159" s="14"/>
       <c r="H159" s="13"/>
     </row>
@@ -5242,14 +5256,14 @@
       <c r="A160" s="15">
         <v>4</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>106</v>
+      <c r="B160" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
@@ -5258,16 +5272,16 @@
     </row>
     <row r="161" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
-        <v>4</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
@@ -5276,52 +5290,56 @@
     </row>
     <row r="162" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
-        <v>4</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>384</v>
+        <v>5</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
-      <c r="G162" s="14"/>
+      <c r="G162" s="14">
+        <v>7</v>
+      </c>
       <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
-        <v>4</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>375</v>
+        <v>5</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
-      <c r="G163" s="14"/>
+      <c r="G163" s="14">
+        <v>3</v>
+      </c>
       <c r="H163" s="13"/>
     </row>
     <row r="164" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
-        <v>4</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>391</v>
+        <v>5</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
@@ -5330,70 +5348,74 @@
     </row>
     <row r="165" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
-        <v>4</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>392</v>
+        <v>5</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
       <c r="G165" s="14"/>
       <c r="H165" s="13"/>
     </row>
-    <row r="166" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
-        <v>4</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>393</v>
+        <v>5</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
-      <c r="G166" s="14"/>
+      <c r="G166" s="14">
+        <v>6</v>
+      </c>
       <c r="H166" s="13"/>
     </row>
     <row r="167" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
+      <c r="F167" s="13">
+        <v>60</v>
+      </c>
       <c r="G167" s="14"/>
       <c r="H167" s="13"/>
     </row>
     <row r="168" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
-        <v>4</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>395</v>
+        <v>5</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
@@ -5402,16 +5424,16 @@
     </row>
     <row r="169" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
@@ -5420,16 +5442,16 @@
     </row>
     <row r="170" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
@@ -5438,16 +5460,16 @@
     </row>
     <row r="171" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
@@ -5456,16 +5478,16 @@
     </row>
     <row r="172" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
@@ -5474,16 +5496,16 @@
     </row>
     <row r="173" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
@@ -5492,16 +5514,16 @@
     </row>
     <row r="174" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
@@ -5510,16 +5532,16 @@
     </row>
     <row r="175" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
@@ -5528,16 +5550,16 @@
     </row>
     <row r="176" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>107</v>
+        <v>374</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
@@ -5546,16 +5568,16 @@
     </row>
     <row r="177" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
@@ -5564,16 +5586,16 @@
     </row>
     <row r="178" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
-        <v>4</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>358</v>
+        <v>5</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>179</v>
+        <v>397</v>
       </c>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
@@ -5582,16 +5604,16 @@
     </row>
     <row r="179" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
@@ -5600,16 +5622,16 @@
     </row>
     <row r="180" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
@@ -5618,34 +5640,34 @@
     </row>
     <row r="181" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
-        <v>4</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>175</v>
+        <v>391</v>
       </c>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
       <c r="G181" s="14"/>
-      <c r="H181" s="13"/>
+      <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
@@ -5654,16 +5676,16 @@
     </row>
     <row r="183" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
-        <v>4</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
@@ -5672,239 +5694,229 @@
     </row>
     <row r="184" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>113</v>
+        <v>348</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E184" s="13"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="14">
-        <v>7</v>
-      </c>
+      <c r="F184" s="13"/>
+      <c r="G184" s="14"/>
       <c r="H184" s="13"/>
     </row>
     <row r="185" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
-        <v>4</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E185" s="13"/>
-      <c r="F185" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="F185" s="13"/>
       <c r="G185" s="14"/>
       <c r="H185" s="13"/>
     </row>
     <row r="186" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
-        <v>4</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>115</v>
+        <v>5</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="E186" s="13"/>
-      <c r="F186" s="13" t="s">
-        <v>379</v>
-      </c>
+      <c r="F186" s="13"/>
       <c r="G186" s="14"/>
       <c r="H186" s="13"/>
     </row>
     <row r="187" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
-        <v>4</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>116</v>
+        <v>5</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="E187" s="13"/>
-      <c r="F187" s="13" t="s">
-        <v>363</v>
-      </c>
+      <c r="F187" s="13"/>
       <c r="G187" s="14"/>
       <c r="H187" s="13"/>
     </row>
     <row r="188" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
-        <v>4</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E188" s="13"/>
-      <c r="F188" s="13" t="s">
-        <v>403</v>
-      </c>
+      <c r="F188" s="13"/>
       <c r="G188" s="14"/>
       <c r="H188" s="13"/>
     </row>
     <row r="189" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E189" s="13"/>
-      <c r="F189" s="13" t="s">
-        <v>365</v>
-      </c>
+      <c r="F189" s="13"/>
       <c r="G189" s="14"/>
       <c r="H189" s="13"/>
     </row>
     <row r="190" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E190" s="13"/>
-      <c r="F190" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="G190" s="14"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="14">
+        <v>7</v>
+      </c>
       <c r="H190" s="13"/>
     </row>
     <row r="191" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G191" s="14"/>
       <c r="H191" s="13"/>
     </row>
     <row r="192" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G192" s="14"/>
       <c r="H192" s="13"/>
     </row>
     <row r="193" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>376</v>
+        <v>116</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
+      <c r="F193" s="13" t="s">
+        <v>353</v>
+      </c>
       <c r="G193" s="14"/>
       <c r="H193" s="13"/>
     </row>
     <row r="194" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>406</v>
+        <v>117</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>373</v>
+        <v>192</v>
       </c>
       <c r="E194" s="13"/>
-      <c r="F194" s="13">
-        <v>1</v>
+      <c r="F194" s="13" t="s">
+        <v>384</v>
       </c>
       <c r="G194" s="14"/>
-      <c r="H194" s="23" t="s">
-        <v>407</v>
-      </c>
+      <c r="H194" s="13"/>
     </row>
     <row r="195" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
         <v>5</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
+      <c r="F195" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="G195" s="14"/>
       <c r="H195" s="13"/>
     </row>
@@ -5913,19 +5925,19 @@
         <v>5</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="14">
-        <v>7</v>
-      </c>
+      <c r="F196" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G196" s="14"/>
       <c r="H196" s="13"/>
     </row>
     <row r="197" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5933,19 +5945,19 @@
         <v>5</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>338</v>
+        <v>190</v>
       </c>
       <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="14">
-        <v>3</v>
-      </c>
+      <c r="F197" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="G197" s="14"/>
       <c r="H197" s="13"/>
     </row>
     <row r="198" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5953,16 +5965,18 @@
         <v>5</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
+      <c r="F198" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="G198" s="14"/>
       <c r="H198" s="13"/>
     </row>
@@ -5971,89 +5985,89 @@
         <v>5</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>102</v>
+        <v>366</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
       <c r="G199" s="14"/>
       <c r="H199" s="13"/>
     </row>
-    <row r="200" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
-      <c r="G200" s="14">
-        <v>6</v>
-      </c>
+      <c r="G200" s="14"/>
       <c r="H200" s="13"/>
     </row>
     <row r="201" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
-        <v>5</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>381</v>
+        <v>6</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>373</v>
+        <v>49</v>
       </c>
       <c r="E201" s="13"/>
-      <c r="F201" s="13">
-        <v>60</v>
-      </c>
-      <c r="G201" s="14"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="14">
+        <v>8</v>
+      </c>
       <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
-      <c r="G202" s="14"/>
+      <c r="G202" s="14">
+        <v>3</v>
+      </c>
       <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
-        <v>5</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>348</v>
+        <v>6</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="13"/>
@@ -6062,70 +6076,74 @@
     </row>
     <row r="204" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
-        <v>5</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>351</v>
+        <v>6</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="13"/>
       <c r="G204" s="14"/>
       <c r="H204" s="13"/>
     </row>
-    <row r="205" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
-        <v>5</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>350</v>
+        <v>6</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13"/>
-      <c r="G205" s="14"/>
+      <c r="G205" s="14">
+        <v>8</v>
+      </c>
       <c r="H205" s="13"/>
     </row>
     <row r="206" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
+      <c r="F206" s="13">
+        <v>60</v>
+      </c>
       <c r="G206" s="14"/>
       <c r="H206" s="13"/>
     </row>
     <row r="207" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="E207" s="13"/>
       <c r="F207" s="13"/>
@@ -6134,16 +6152,16 @@
     </row>
     <row r="208" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>106</v>
+        <v>383</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E208" s="13"/>
       <c r="F208" s="13"/>
@@ -6152,16 +6170,16 @@
     </row>
     <row r="209" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
-        <v>5</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>164</v>
+        <v>6</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="E209" s="13"/>
       <c r="F209" s="13"/>
@@ -6170,16 +6188,16 @@
     </row>
     <row r="210" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E210" s="13"/>
       <c r="F210" s="13"/>
@@ -6188,16 +6206,16 @@
     </row>
     <row r="211" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="E211" s="13"/>
       <c r="F211" s="13"/>
@@ -6206,16 +6224,16 @@
     </row>
     <row r="212" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
@@ -6224,16 +6242,16 @@
     </row>
     <row r="213" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
@@ -6242,16 +6260,16 @@
     </row>
     <row r="214" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
@@ -6260,16 +6278,16 @@
     </row>
     <row r="215" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
@@ -6278,16 +6296,16 @@
     </row>
     <row r="216" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>395</v>
+        <v>164</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
@@ -6296,16 +6314,16 @@
     </row>
     <row r="217" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
@@ -6314,16 +6332,16 @@
     </row>
     <row r="218" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
@@ -6332,16 +6350,16 @@
     </row>
     <row r="219" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
@@ -6350,34 +6368,34 @@
     </row>
     <row r="220" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
-        <v>5</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>399</v>
+        <v>6</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
       <c r="G220" s="14"/>
-      <c r="H220" s="13"/>
+      <c r="H220" s="14"/>
     </row>
     <row r="221" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
@@ -6386,16 +6404,16 @@
     </row>
     <row r="222" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
@@ -6404,16 +6422,16 @@
     </row>
     <row r="223" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
-        <v>5</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>356</v>
+        <v>6</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
@@ -6422,16 +6440,16 @@
     </row>
     <row r="224" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
@@ -6440,16 +6458,16 @@
     </row>
     <row r="225" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
@@ -6458,16 +6476,16 @@
     </row>
     <row r="226" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
-        <v>5</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>358</v>
+        <v>6</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
@@ -6476,16 +6494,16 @@
     </row>
     <row r="227" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
@@ -6494,16 +6512,16 @@
     </row>
     <row r="228" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
-        <v>5</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>390</v>
+        <v>6</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
@@ -6512,1176 +6530,208 @@
     </row>
     <row r="229" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
-        <v>5</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
-      <c r="G229" s="14"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="14">
+        <v>7</v>
+      </c>
       <c r="H229" s="13"/>
     </row>
     <row r="230" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
-        <v>5</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
+      <c r="F230" s="13" t="s">
+        <v>368</v>
+      </c>
       <c r="G230" s="14"/>
       <c r="H230" s="13"/>
     </row>
     <row r="231" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>377</v>
+        <v>115</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
+      <c r="F231" s="13" t="s">
+        <v>369</v>
+      </c>
       <c r="G231" s="14"/>
       <c r="H231" s="13"/>
     </row>
     <row r="232" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E232" s="13"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="14">
-        <v>7</v>
-      </c>
+      <c r="F232" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G232" s="14"/>
       <c r="H232" s="13"/>
     </row>
     <row r="233" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E233" s="13"/>
       <c r="F233" s="13" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G233" s="14"/>
       <c r="H233" s="13"/>
     </row>
     <row r="234" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D234" s="13" t="s">
-        <v>336</v>
+        <v>207</v>
       </c>
       <c r="E234" s="13"/>
       <c r="F234" s="13" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="G234" s="14"/>
       <c r="H234" s="13"/>
     </row>
     <row r="235" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E235" s="13"/>
       <c r="F235" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G235" s="14"/>
       <c r="H235" s="13"/>
     </row>
     <row r="236" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E236" s="13"/>
       <c r="F236" s="13" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="G236" s="14"/>
       <c r="H236" s="13"/>
     </row>
     <row r="237" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="E237" s="13"/>
       <c r="F237" s="13" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G237" s="14"/>
       <c r="H237" s="13"/>
     </row>
     <row r="238" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>119</v>
+        <v>366</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="E238" s="13"/>
-      <c r="F238" s="13" t="s">
-        <v>366</v>
-      </c>
+      <c r="F238" s="13"/>
       <c r="G238" s="14"/>
       <c r="H238" s="13"/>
     </row>
-    <row r="239" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="15">
-        <v>5</v>
-      </c>
-      <c r="B239" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G239" s="14"/>
-      <c r="H239" s="13"/>
-    </row>
-    <row r="240" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="15">
-        <v>5</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G240" s="14"/>
-      <c r="H240" s="13"/>
-    </row>
-    <row r="241" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="15">
-        <v>5</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
-      <c r="G241" s="14"/>
-      <c r="H241" s="13"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="15">
-        <v>5</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="F242" s="13">
-        <v>1</v>
-      </c>
-      <c r="H242" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="15">
-        <v>6</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D243" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
-      <c r="G243" s="14"/>
-      <c r="H243" s="13"/>
-    </row>
-    <row r="244" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="15">
-        <v>6</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E244" s="13"/>
-      <c r="F244" s="13"/>
-      <c r="G244" s="14">
-        <v>8</v>
-      </c>
-      <c r="H244" s="13"/>
-    </row>
-    <row r="245" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="15">
-        <v>6</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E245" s="13"/>
-      <c r="F245" s="13"/>
-      <c r="G245" s="14">
-        <v>3</v>
-      </c>
-      <c r="H245" s="13"/>
-    </row>
-    <row r="246" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="15">
-        <v>6</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E246" s="13"/>
-      <c r="F246" s="13"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="13"/>
-    </row>
-    <row r="247" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="15">
-        <v>6</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E247" s="13"/>
-      <c r="F247" s="13"/>
-      <c r="G247" s="14"/>
-      <c r="H247" s="13"/>
-    </row>
-    <row r="248" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="15">
-        <v>6</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E248" s="13"/>
-      <c r="F248" s="13"/>
-      <c r="G248" s="14">
-        <v>8</v>
-      </c>
-      <c r="H248" s="13"/>
-    </row>
-    <row r="249" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="15">
-        <v>6</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13">
-        <v>60</v>
-      </c>
-      <c r="G249" s="14"/>
-      <c r="H249" s="13"/>
-    </row>
-    <row r="250" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="15">
-        <v>6</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E250" s="13"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="14"/>
-      <c r="H250" s="13"/>
-    </row>
-    <row r="251" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="15">
-        <v>6</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E251" s="13"/>
-      <c r="F251" s="13"/>
-      <c r="G251" s="14"/>
-      <c r="H251" s="13"/>
-    </row>
-    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="15">
-        <v>6</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E252" s="13"/>
-      <c r="F252" s="13"/>
-      <c r="G252" s="14"/>
-      <c r="H252" s="13"/>
-    </row>
-    <row r="253" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="15">
-        <v>6</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E253" s="13"/>
-      <c r="F253" s="13"/>
-      <c r="G253" s="14"/>
-      <c r="H253" s="13"/>
-    </row>
-    <row r="254" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="15">
-        <v>6</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="14"/>
-      <c r="H254" s="13"/>
-    </row>
-    <row r="255" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="15">
-        <v>6</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="14"/>
-      <c r="H255" s="13"/>
-    </row>
-    <row r="256" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="15">
-        <v>6</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E256" s="13"/>
-      <c r="F256" s="13"/>
-      <c r="G256" s="14"/>
-      <c r="H256" s="13"/>
-    </row>
-    <row r="257" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="15">
-        <v>6</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E257" s="13"/>
-      <c r="F257" s="13"/>
-      <c r="G257" s="14"/>
-      <c r="H257" s="13"/>
-    </row>
-    <row r="258" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="15">
-        <v>6</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E258" s="13"/>
-      <c r="F258" s="13"/>
-      <c r="G258" s="14"/>
-      <c r="H258" s="13"/>
-    </row>
-    <row r="259" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="15">
-        <v>6</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E259" s="13"/>
-      <c r="F259" s="13"/>
-      <c r="G259" s="14"/>
-      <c r="H259" s="13"/>
-    </row>
-    <row r="260" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="15">
-        <v>6</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E260" s="13"/>
-      <c r="F260" s="13"/>
-      <c r="G260" s="14"/>
-      <c r="H260" s="13"/>
-    </row>
-    <row r="261" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="15">
-        <v>6</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E261" s="13"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="14"/>
-      <c r="H261" s="13"/>
-    </row>
-    <row r="262" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="15">
-        <v>6</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
-      <c r="G262" s="14"/>
-      <c r="H262" s="13"/>
-    </row>
-    <row r="263" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="15">
-        <v>6</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
-      <c r="G263" s="14"/>
-      <c r="H263" s="13"/>
-    </row>
-    <row r="264" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="15">
-        <v>6</v>
-      </c>
-      <c r="B264" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E264" s="13"/>
-      <c r="F264" s="13"/>
-      <c r="G264" s="14"/>
-      <c r="H264" s="13"/>
-    </row>
-    <row r="265" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="15">
-        <v>6</v>
-      </c>
-      <c r="B265" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E265" s="13"/>
-      <c r="F265" s="13"/>
-      <c r="G265" s="14"/>
-      <c r="H265" s="13"/>
-    </row>
-    <row r="266" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="15">
-        <v>6</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="14"/>
-      <c r="H266" s="13"/>
-    </row>
-    <row r="267" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="15">
-        <v>6</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E267" s="13"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="14"/>
-      <c r="H267" s="13"/>
-    </row>
-    <row r="268" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="15">
-        <v>6</v>
-      </c>
-      <c r="B268" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C268" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
-      <c r="G268" s="14"/>
-      <c r="H268" s="13"/>
-    </row>
-    <row r="269" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="15">
-        <v>6</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D269" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E269" s="13"/>
-      <c r="F269" s="13"/>
-      <c r="G269" s="14"/>
-      <c r="H269" s="13"/>
-    </row>
-    <row r="270" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="15">
-        <v>6</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C270" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D270" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E270" s="13"/>
-      <c r="F270" s="13"/>
-      <c r="G270" s="14"/>
-      <c r="H270" s="13"/>
-    </row>
-    <row r="271" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="15">
-        <v>6</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C271" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E271" s="13"/>
-      <c r="F271" s="13"/>
-      <c r="G271" s="14"/>
-      <c r="H271" s="13"/>
-    </row>
-    <row r="272" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="15">
-        <v>6</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E272" s="13"/>
-      <c r="F272" s="13"/>
-      <c r="G272" s="14"/>
-      <c r="H272" s="13"/>
-    </row>
-    <row r="273" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="15">
-        <v>6</v>
-      </c>
-      <c r="B273" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E273" s="13"/>
-      <c r="F273" s="13"/>
-      <c r="G273" s="14"/>
-      <c r="H273" s="13"/>
-    </row>
-    <row r="274" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="15">
-        <v>6</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D274" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E274" s="13"/>
-      <c r="F274" s="13"/>
-      <c r="G274" s="14"/>
-      <c r="H274" s="13"/>
-    </row>
-    <row r="275" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="15">
-        <v>6</v>
-      </c>
-      <c r="B275" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D275" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
-      <c r="G275" s="14"/>
-      <c r="H275" s="13"/>
-    </row>
-    <row r="276" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="15">
-        <v>6</v>
-      </c>
-      <c r="B276" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D276" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E276" s="13"/>
-      <c r="F276" s="13"/>
-      <c r="G276" s="14"/>
-      <c r="H276" s="13"/>
-    </row>
-    <row r="277" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="15">
-        <v>6</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D277" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E277" s="13"/>
-      <c r="F277" s="13"/>
-      <c r="G277" s="14"/>
-      <c r="H277" s="13"/>
-    </row>
-    <row r="278" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="15">
-        <v>6</v>
-      </c>
-      <c r="B278" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E278" s="13"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="14"/>
-      <c r="H278" s="13"/>
-    </row>
-    <row r="279" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="15">
-        <v>6</v>
-      </c>
-      <c r="B279" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C279" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E279" s="13"/>
-      <c r="F279" s="13"/>
-      <c r="G279" s="14"/>
-      <c r="H279" s="13"/>
-    </row>
-    <row r="280" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="15">
-        <v>6</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E280" s="13"/>
-      <c r="F280" s="12"/>
-      <c r="G280" s="14">
-        <v>7</v>
-      </c>
-      <c r="H280" s="13"/>
-    </row>
-    <row r="281" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="15">
-        <v>6</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D281" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E281" s="13"/>
-      <c r="F281" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G281" s="14"/>
-      <c r="H281" s="13"/>
-    </row>
-    <row r="282" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="15">
-        <v>6</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D282" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E282" s="13"/>
-      <c r="F282" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="G282" s="14"/>
-      <c r="H282" s="13"/>
-    </row>
-    <row r="283" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="15">
-        <v>6</v>
-      </c>
-      <c r="B283" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D283" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E283" s="13"/>
-      <c r="F283" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="G283" s="14"/>
-      <c r="H283" s="13"/>
-    </row>
-    <row r="284" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="15">
-        <v>6</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D284" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E284" s="13"/>
-      <c r="F284" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G284" s="14"/>
-      <c r="H284" s="13"/>
-    </row>
-    <row r="285" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="15">
-        <v>6</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C285" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E285" s="13"/>
-      <c r="F285" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="G285" s="14"/>
-      <c r="H285" s="13"/>
-    </row>
-    <row r="286" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="15">
-        <v>6</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E286" s="13"/>
-      <c r="F286" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="G286" s="14"/>
-      <c r="H286" s="13"/>
-    </row>
-    <row r="287" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="15">
-        <v>6</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D287" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E287" s="13"/>
-      <c r="F287" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G287" s="14"/>
-      <c r="H287" s="13"/>
-    </row>
-    <row r="288" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="15">
-        <v>6</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E288" s="13"/>
-      <c r="F288" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G288" s="14"/>
-      <c r="H288" s="13"/>
-    </row>
-    <row r="289" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="15">
-        <v>6</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D289" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E289" s="13"/>
-      <c r="F289" s="13"/>
-      <c r="G289" s="14"/>
-      <c r="H289" s="13"/>
-    </row>
-    <row r="290" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="15">
-        <v>6</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D290" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E290" s="13"/>
-      <c r="F290" s="13">
-        <v>1</v>
-      </c>
-      <c r="G290" s="14"/>
-      <c r="H290" s="23" t="s">
-        <v>407</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D271 D272:D290">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D238">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C271 C272:C290">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C238">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -7695,7 +6745,7 @@
           <x14:formula1>
             <xm:f>'Page Objects And Actions'!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C291:C1048576</xm:sqref>
+          <xm:sqref>C239:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7706,10 +6756,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X151"/>
+  <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7796,7 +6846,7 @@
         <v>29</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -7807,7 +6857,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>39</v>
@@ -7870,7 +6920,7 @@
         <v>39</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -7881,7 +6931,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>41</v>
@@ -7944,7 +6994,7 @@
         <v>41</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -7955,7 +7005,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>40</v>
@@ -8018,7 +7068,7 @@
         <v>40</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -8029,7 +7079,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>42</v>
@@ -8092,7 +7142,7 @@
         <v>42</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -8103,7 +7153,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>50</v>
@@ -8166,7 +7216,7 @@
         <v>43</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -8240,7 +7290,7 @@
         <v>44</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -8248,7 +7298,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>41</v>
@@ -8257,61 +7307,61 @@
         <v>52</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>49</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -8337,7 +7387,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>45</v>
@@ -8464,7 +7514,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>55</v>
@@ -8535,7 +7585,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>56</v>
@@ -8603,7 +7653,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>57</v>
@@ -8617,13 +7667,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -8631,13 +7681,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -8645,7 +7695,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>59</v>
@@ -8656,7 +7706,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>60</v>
@@ -8667,10 +7717,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8678,7 +7728,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>61</v>
@@ -8689,10 +7739,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8700,10 +7750,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -8711,10 +7761,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -8722,7 +7772,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>62</v>
@@ -8730,101 +7780,101 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>63</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="17" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="17" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="17" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="17" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="17" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="17" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="17" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
@@ -8832,7 +7882,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
@@ -8840,7 +7890,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>133</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
@@ -8848,7 +7898,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>151</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
@@ -8856,39 +7906,39 @@
         <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>150</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="17" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="17" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
@@ -8896,7 +7946,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
@@ -8904,7 +7954,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
@@ -8912,7 +7962,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
@@ -8920,709 +7970,754 @@
         <v>48</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="17" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="17" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>355</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="17" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="17" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="17" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>144</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="17" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>146</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="17" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="17" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="17" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="17" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="17" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="17" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="17" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="17" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="17" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>354</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="17" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="17" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="17" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="17" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="17" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="17" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="17" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="17" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="17" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="17" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="17" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="17" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="17" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="17" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="17" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="17" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="17" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="17" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="17" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="17" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="17" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="17" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="17" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="17" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="17" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="18" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="18" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="18" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D107" s="17" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" s="17" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" s="17" t="s">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" s="17" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" s="17" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" s="17" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="17" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="17" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="17" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="17" t="s">
-        <v>87</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="17" t="s">
-        <v>88</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="17" t="s">
-        <v>331</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="17" t="s">
-        <v>330</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="17" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="17" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="17" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="17" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="17" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="17" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="17" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="17" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="17" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
-        <v>336</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
-        <v>334</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
-        <v>192</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D151">
-    <sortCondition ref="D151"/>
+  <sortState ref="D2:D160">
+    <sortCondition ref="D160"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="405">
   <si>
     <t>ID</t>
   </si>
@@ -1413,6 +1413,12 @@
   </si>
   <si>
     <t>Click GIS - Turn ON All Assets &amp; Boundaries</t>
+  </si>
+  <si>
+    <t>turnOffAllDisplayOptions</t>
+  </si>
+  <si>
+    <t>turnOnAllDisplayOptions</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2391,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -6756,10 +6762,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X160"/>
+  <dimension ref="A1:X162"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7914,7 +7920,7 @@
         <v>202</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>132</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
@@ -7922,7 +7928,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
@@ -7930,7 +7936,7 @@
         <v>251</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
@@ -7938,7 +7944,7 @@
         <v>226</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
@@ -7946,7 +7952,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
@@ -7954,7 +7960,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
@@ -7962,7 +7968,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
@@ -7970,7 +7976,7 @@
         <v>48</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
@@ -7978,7 +7984,7 @@
         <v>229</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
@@ -7986,7 +7992,7 @@
         <v>237</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
@@ -7994,7 +8000,7 @@
         <v>236</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
@@ -8002,7 +8008,7 @@
         <v>238</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
@@ -8010,7 +8016,7 @@
         <v>233</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
@@ -8018,7 +8024,7 @@
         <v>249</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
@@ -8026,7 +8032,7 @@
         <v>227</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
@@ -8034,7 +8040,7 @@
         <v>247</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>345</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
@@ -8042,7 +8048,7 @@
         <v>248</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
@@ -8050,7 +8056,7 @@
         <v>252</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
@@ -8058,7 +8064,7 @@
         <v>279</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
@@ -8066,7 +8072,7 @@
         <v>295</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>395</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
@@ -8074,7 +8080,7 @@
         <v>277</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
@@ -8082,7 +8088,7 @@
         <v>278</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
@@ -8090,7 +8096,7 @@
         <v>280</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>122</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
@@ -8098,7 +8104,7 @@
         <v>281</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
@@ -8106,7 +8112,7 @@
         <v>275</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
@@ -8114,7 +8120,7 @@
         <v>306</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
@@ -8122,7 +8128,7 @@
         <v>293</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -8130,7 +8136,7 @@
         <v>285</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -8138,7 +8144,7 @@
         <v>267</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
@@ -8146,7 +8152,7 @@
         <v>256</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
@@ -8154,7 +8160,7 @@
         <v>307</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
@@ -8162,7 +8168,7 @@
         <v>264</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
@@ -8170,7 +8176,7 @@
         <v>253</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
@@ -8178,7 +8184,7 @@
         <v>283</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
@@ -8186,7 +8192,7 @@
         <v>303</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
@@ -8194,7 +8200,7 @@
         <v>265</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
@@ -8202,7 +8208,7 @@
         <v>254</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
@@ -8210,7 +8216,7 @@
         <v>286</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
@@ -8218,7 +8224,7 @@
         <v>287</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
@@ -8226,7 +8232,7 @@
         <v>294</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
@@ -8234,7 +8240,7 @@
         <v>282</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
@@ -8242,7 +8248,7 @@
         <v>276</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
@@ -8250,7 +8256,7 @@
         <v>291</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
@@ -8258,7 +8264,7 @@
         <v>289</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
@@ -8266,7 +8272,7 @@
         <v>290</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
@@ -8274,7 +8280,7 @@
         <v>288</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
@@ -8282,7 +8288,7 @@
         <v>292</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
@@ -8290,7 +8296,7 @@
         <v>284</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
@@ -8298,7 +8304,7 @@
         <v>266</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
@@ -8306,7 +8312,7 @@
         <v>255</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
@@ -8314,7 +8320,7 @@
         <v>268</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
@@ -8322,7 +8328,7 @@
         <v>257</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
@@ -8330,7 +8336,7 @@
         <v>269</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
@@ -8338,7 +8344,7 @@
         <v>258</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
@@ -8346,7 +8352,7 @@
         <v>270</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
@@ -8354,7 +8360,7 @@
         <v>259</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
@@ -8362,7 +8368,7 @@
         <v>271</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
@@ -8370,7 +8376,7 @@
         <v>260</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
@@ -8378,7 +8384,7 @@
         <v>272</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
@@ -8386,7 +8392,7 @@
         <v>261</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
@@ -8394,7 +8400,7 @@
         <v>273</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
@@ -8402,7 +8408,7 @@
         <v>262</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
@@ -8410,7 +8416,7 @@
         <v>274</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
@@ -8418,7 +8424,7 @@
         <v>263</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
@@ -8426,7 +8432,7 @@
         <v>314</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
@@ -8434,7 +8440,7 @@
         <v>315</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
@@ -8442,282 +8448,292 @@
         <v>316</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D107" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" s="17" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" s="17" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="17" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="17" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="17" t="s">
-        <v>390</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="17" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="17" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="17" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="17" t="s">
-        <v>391</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="17" t="s">
-        <v>89</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="17" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="17" t="s">
-        <v>320</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="17" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="17" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="17" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="17" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="17" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
-        <v>326</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="17" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="17" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="17" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="17" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="17" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D160">
-    <sortCondition ref="D160"/>
+  <sortState ref="D2:D162">
+    <sortCondition ref="D162"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="406">
   <si>
     <t>ID</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>turnOnAllDisplayOptions</t>
+  </si>
+  <si>
+    <t>refreshPage</t>
   </si>
 </sst>
 </file>
@@ -6762,10 +6765,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X162"/>
+  <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D163" sqref="D2:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7840,7 +7843,7 @@
         <v>242</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7848,7 +7851,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7856,7 +7859,7 @@
         <v>243</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
@@ -7864,7 +7867,7 @@
         <v>225</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
@@ -7872,7 +7875,7 @@
         <v>235</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
@@ -7880,7 +7883,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
@@ -7888,7 +7891,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
@@ -7896,7 +7899,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>398</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
@@ -7904,7 +7907,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
@@ -7912,7 +7915,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
@@ -7920,7 +7923,7 @@
         <v>202</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
@@ -7928,7 +7931,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>132</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
@@ -7936,7 +7939,7 @@
         <v>251</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
@@ -7944,7 +7947,7 @@
         <v>226</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
@@ -7952,7 +7955,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
@@ -7960,7 +7963,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
@@ -7968,7 +7971,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
@@ -7976,7 +7979,7 @@
         <v>48</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
@@ -7984,7 +7987,7 @@
         <v>229</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
@@ -7992,7 +7995,7 @@
         <v>237</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
@@ -8000,7 +8003,7 @@
         <v>236</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
@@ -8008,7 +8011,7 @@
         <v>238</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
@@ -8016,7 +8019,7 @@
         <v>233</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
@@ -8024,7 +8027,7 @@
         <v>249</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
@@ -8032,7 +8035,7 @@
         <v>227</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
@@ -8040,7 +8043,7 @@
         <v>247</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
@@ -8048,7 +8051,7 @@
         <v>248</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>345</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
@@ -8056,7 +8059,7 @@
         <v>252</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
@@ -8064,7 +8067,7 @@
         <v>279</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
@@ -8072,7 +8075,7 @@
         <v>295</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
@@ -8080,7 +8083,7 @@
         <v>277</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>395</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
@@ -8088,7 +8091,7 @@
         <v>278</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
@@ -8096,7 +8099,7 @@
         <v>280</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
@@ -8104,7 +8107,7 @@
         <v>281</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.3">
@@ -8112,7 +8115,7 @@
         <v>275</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>122</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
@@ -8120,7 +8123,7 @@
         <v>306</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
@@ -8128,7 +8131,7 @@
         <v>293</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
@@ -8136,7 +8139,7 @@
         <v>285</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
@@ -8144,7 +8147,7 @@
         <v>267</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
@@ -8152,7 +8155,7 @@
         <v>256</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
@@ -8160,7 +8163,7 @@
         <v>307</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
@@ -8168,7 +8171,7 @@
         <v>264</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
@@ -8176,7 +8179,7 @@
         <v>253</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
@@ -8184,7 +8187,7 @@
         <v>283</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
@@ -8192,7 +8195,7 @@
         <v>303</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
@@ -8200,7 +8203,7 @@
         <v>265</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
@@ -8208,7 +8211,7 @@
         <v>254</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
@@ -8216,7 +8219,7 @@
         <v>286</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
@@ -8224,7 +8227,7 @@
         <v>287</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
@@ -8232,7 +8235,7 @@
         <v>294</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
@@ -8240,7 +8243,7 @@
         <v>282</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>344</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
@@ -8248,7 +8251,7 @@
         <v>276</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>68</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
@@ -8256,7 +8259,7 @@
         <v>291</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
@@ -8264,7 +8267,7 @@
         <v>289</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
@@ -8272,7 +8275,7 @@
         <v>290</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
@@ -8280,7 +8283,7 @@
         <v>288</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
@@ -8288,7 +8291,7 @@
         <v>292</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
@@ -8296,7 +8299,7 @@
         <v>284</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
@@ -8304,7 +8307,7 @@
         <v>266</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
@@ -8312,7 +8315,7 @@
         <v>255</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
@@ -8320,7 +8323,7 @@
         <v>268</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
@@ -8328,7 +8331,7 @@
         <v>257</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
@@ -8336,7 +8339,7 @@
         <v>269</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
@@ -8344,7 +8347,7 @@
         <v>258</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
@@ -8352,7 +8355,7 @@
         <v>270</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
@@ -8360,7 +8363,7 @@
         <v>259</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.3">
@@ -8368,7 +8371,7 @@
         <v>271</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
@@ -8376,7 +8379,7 @@
         <v>260</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
@@ -8384,7 +8387,7 @@
         <v>272</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
@@ -8392,7 +8395,7 @@
         <v>261</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
@@ -8400,7 +8403,7 @@
         <v>273</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
@@ -8408,7 +8411,7 @@
         <v>262</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
@@ -8416,7 +8419,7 @@
         <v>274</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
@@ -8424,7 +8427,7 @@
         <v>263</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
@@ -8432,7 +8435,7 @@
         <v>314</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
@@ -8440,7 +8443,7 @@
         <v>315</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
@@ -8448,292 +8451,297 @@
         <v>316</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D107" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" s="17" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="17" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="17" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="17" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="17" t="s">
-        <v>390</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="17" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="17" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="17" t="s">
-        <v>391</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="17" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="17" t="s">
-        <v>321</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="17" t="s">
-        <v>92</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="17" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="17" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="17" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="17" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="17" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="17" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="17" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="17" t="s">
-        <v>97</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="17" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="17" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D162">
-    <sortCondition ref="D162"/>
+  <sortState ref="D2:D163">
+    <sortCondition ref="D163"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="407">
   <si>
     <t>ID</t>
   </si>
@@ -1422,6 +1422,9 @@
   </si>
   <si>
     <t>refreshPage</t>
+  </si>
+  <si>
+    <t>verifyDriverViewPageIsOpened</t>
   </si>
 </sst>
 </file>
@@ -6765,10 +6768,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X163"/>
+  <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D163" sqref="D2:D163"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8739,6 +8742,11 @@
         <v>182</v>
       </c>
     </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D164" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="D2:D163">
     <sortCondition ref="D163"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="465">
   <si>
     <t>ID</t>
   </si>
@@ -1425,13 +1425,187 @@
   </si>
   <si>
     <t>verifyDriverViewPageIsOpened</t>
+  </si>
+  <si>
+    <t>TC1142</t>
+  </si>
+  <si>
+    <t>Rapid Response Survey - Satellite - All ON</t>
+  </si>
+  <si>
+    <t>TC1148</t>
+  </si>
+  <si>
+    <t>Standard Survey - Map - FoV, Indication, Wind Rose and Concentration Chart ON</t>
+  </si>
+  <si>
+    <t>TC1149</t>
+  </si>
+  <si>
+    <t>Standard Survey - Satellite - LISA and Field Notes ON</t>
+  </si>
+  <si>
+    <t>TC1151</t>
+  </si>
+  <si>
+    <t>Rapid Response Survey - Map - LISA and Field Notes ON - Position and GIS OFF</t>
+  </si>
+  <si>
+    <t>TC1152</t>
+  </si>
+  <si>
+    <t>Rapid Response Survey - Map - FoV, Indication, Wind Rose and Concentration Chart ON</t>
+  </si>
+  <si>
+    <t>TC1153</t>
+  </si>
+  <si>
+    <t>Rapid Response Survey - Satellite - LISA and Field Notes ON</t>
+  </si>
+  <si>
+    <t>TC1154</t>
+  </si>
+  <si>
+    <t>Rapid Response Survey - Satellite - FoV, Indication, Wind Rose and Concentration Chart ON - Position and  GIS OFF</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Overcast Wind: Light Survey Type: Rapid</t>
+  </si>
+  <si>
+    <t>Click GIS - District Boundaries ON</t>
+  </si>
+  <si>
+    <t>Click GIS - District Plats ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Copper ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Cast Iron ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Other Plastic ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type PE Plastic ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Protected Steel ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Unprotected Steel ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Boundaries ON</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Pipes ON</t>
+  </si>
+  <si>
+    <t>Verify Windrose present on map</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart present on map</t>
+  </si>
+  <si>
+    <t>Mode: Rapid Response</t>
+  </si>
+  <si>
+    <t>Driver: sqapgesu@email.com</t>
+  </si>
+  <si>
+    <t>verify satellite view is shown</t>
+  </si>
+  <si>
+    <t>NEEDS IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>Click Display: Windrose - OFF</t>
+  </si>
+  <si>
+    <t>Click Display: Concentration Chart - OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - District Boundaries OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - District Plats OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Copper OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Cast Iron OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Other Plastic OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type PE Plastic OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Protected Steel OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Material Type Unprotected Steel OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Boundaries OFF</t>
+  </si>
+  <si>
+    <t>Click GIS - Use All Pipes OFF</t>
+  </si>
+  <si>
+    <t>Verify Windrose not present on map</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart not present on map</t>
+  </si>
+  <si>
+    <t>Verify Indication not present on map</t>
+  </si>
+  <si>
+    <t>Verify FoV not present on map</t>
+  </si>
+  <si>
+    <t>Verify Assets not present on Map</t>
+  </si>
+  <si>
+    <t>Verify Boundaries not present on Map</t>
+  </si>
+  <si>
+    <t>verify map view is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Calm Survey Type: Standard </t>
+  </si>
+  <si>
+    <t>Verify LISA present not on Map</t>
+  </si>
+  <si>
+    <t>Verify Field Notes not present on Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Light Survey Type: Standard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Light Survey Type: Rapid Response </t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &lt;50% Wind: Light Survey Type: Rapid Response</t>
+  </si>
+  <si>
+    <t>Verify LISA not present on Map</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Strong Survey Type: Rapid Response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1491,13 +1665,31 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1509,10 +1701,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1560,8 +1753,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2247,10 +2455,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,6 +2593,142 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="23">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="23">
+        <v>8</v>
+      </c>
+      <c r="E9" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="23">
+        <v>8</v>
+      </c>
+      <c r="E10" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="23">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="23">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="23">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="23">
+        <v>8</v>
+      </c>
+      <c r="E14" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="23">
+        <v>8</v>
+      </c>
+      <c r="E15" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2395,10 +2739,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="H496" sqref="H496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6737,6 +7081,6870 @@
       <c r="F238" s="13"/>
       <c r="G238" s="14"/>
       <c r="H238" s="13"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="28">
+        <v>7</v>
+      </c>
+      <c r="B239" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C239" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E239" s="26"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="26"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="28">
+        <v>7</v>
+      </c>
+      <c r="B240" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C240" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E240" s="26"/>
+      <c r="F240" s="26"/>
+      <c r="G240" s="27">
+        <v>8</v>
+      </c>
+      <c r="H240" s="26"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="28">
+        <v>7</v>
+      </c>
+      <c r="B241" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E241" s="26"/>
+      <c r="F241" s="26"/>
+      <c r="G241" s="27">
+        <v>3</v>
+      </c>
+      <c r="H241" s="26"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="28">
+        <v>7</v>
+      </c>
+      <c r="B242" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E242" s="26"/>
+      <c r="F242" s="26"/>
+      <c r="G242" s="27"/>
+      <c r="H242" s="26"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="28">
+        <v>7</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C243" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E243" s="26"/>
+      <c r="F243" s="26"/>
+      <c r="G243" s="27"/>
+      <c r="H243" s="26"/>
+    </row>
+    <row r="244" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="28">
+        <v>7</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E244" s="26"/>
+      <c r="F244" s="26"/>
+      <c r="G244" s="27">
+        <v>9</v>
+      </c>
+      <c r="H244" s="26"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="28">
+        <v>7</v>
+      </c>
+      <c r="B245" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C245" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26">
+        <v>60</v>
+      </c>
+      <c r="G245" s="27"/>
+      <c r="H245" s="26"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="28">
+        <v>7</v>
+      </c>
+      <c r="B246" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26"/>
+      <c r="G246" s="27"/>
+      <c r="H246" s="26"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="28">
+        <v>7</v>
+      </c>
+      <c r="B247" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C247" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26"/>
+      <c r="G247" s="27"/>
+      <c r="H247" s="26"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="28">
+        <v>7</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E248" s="26"/>
+      <c r="F248" s="26"/>
+      <c r="G248" s="27"/>
+      <c r="H248" s="26"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="28">
+        <v>7</v>
+      </c>
+      <c r="B249" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E249" s="26"/>
+      <c r="F249" s="26"/>
+      <c r="G249" s="27"/>
+      <c r="H249" s="26"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="28">
+        <v>7</v>
+      </c>
+      <c r="B250" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E250" s="26"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="27"/>
+      <c r="H250" s="26"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="28">
+        <v>7</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E251" s="26"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="27"/>
+      <c r="H251" s="26"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="28">
+        <v>7</v>
+      </c>
+      <c r="B252" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C252" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E252" s="26"/>
+      <c r="F252" s="26"/>
+      <c r="G252" s="27"/>
+      <c r="H252" s="26"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="28">
+        <v>7</v>
+      </c>
+      <c r="B253" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E253" s="26"/>
+      <c r="F253" s="26"/>
+      <c r="G253" s="27"/>
+      <c r="H253" s="26"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="28">
+        <v>7</v>
+      </c>
+      <c r="B254" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E254" s="26"/>
+      <c r="F254" s="26"/>
+      <c r="G254" s="27"/>
+      <c r="H254" s="26"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="28">
+        <v>7</v>
+      </c>
+      <c r="B255" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E255" s="26"/>
+      <c r="F255" s="26"/>
+      <c r="G255" s="27"/>
+      <c r="H255" s="26"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="28">
+        <v>7</v>
+      </c>
+      <c r="B256" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E256" s="26"/>
+      <c r="F256" s="26"/>
+      <c r="G256" s="27"/>
+      <c r="H256" s="26"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="28">
+        <v>7</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E257" s="26"/>
+      <c r="F257" s="26"/>
+      <c r="G257" s="27"/>
+      <c r="H257" s="26"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="28">
+        <v>7</v>
+      </c>
+      <c r="B258" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E258" s="26"/>
+      <c r="F258" s="26"/>
+      <c r="G258" s="27"/>
+      <c r="H258" s="26"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="28">
+        <v>7</v>
+      </c>
+      <c r="B259" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E259" s="26"/>
+      <c r="F259" s="26"/>
+      <c r="G259" s="27"/>
+      <c r="H259" s="26"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="28">
+        <v>7</v>
+      </c>
+      <c r="B260" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C260" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E260" s="26"/>
+      <c r="F260" s="26"/>
+      <c r="G260" s="27"/>
+      <c r="H260" s="26"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="28">
+        <v>7</v>
+      </c>
+      <c r="B261" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E261" s="26"/>
+      <c r="F261" s="26"/>
+      <c r="G261" s="27"/>
+      <c r="H261" s="26"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="28">
+        <v>7</v>
+      </c>
+      <c r="B262" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E262" s="26"/>
+      <c r="F262" s="26"/>
+      <c r="G262" s="27"/>
+      <c r="H262" s="26"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="28">
+        <v>7</v>
+      </c>
+      <c r="B263" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E263" s="26"/>
+      <c r="F263" s="26"/>
+      <c r="G263" s="27"/>
+      <c r="H263" s="26"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="28">
+        <v>7</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26"/>
+      <c r="G264" s="27"/>
+      <c r="H264" s="26"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="28">
+        <v>7</v>
+      </c>
+      <c r="B265" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E265" s="26"/>
+      <c r="F265" s="26"/>
+      <c r="G265" s="27"/>
+      <c r="H265" s="26"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="28">
+        <v>7</v>
+      </c>
+      <c r="B266" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E266" s="26"/>
+      <c r="F266" s="26"/>
+      <c r="G266" s="27"/>
+      <c r="H266" s="26"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="28">
+        <v>7</v>
+      </c>
+      <c r="B267" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E267" s="26"/>
+      <c r="F267" s="26"/>
+      <c r="G267" s="27"/>
+      <c r="H267" s="26"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="28">
+        <v>7</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E268" s="26"/>
+      <c r="F268" s="26"/>
+      <c r="G268" s="27"/>
+      <c r="H268" s="26"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="28">
+        <v>7</v>
+      </c>
+      <c r="B269" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E269" s="26"/>
+      <c r="F269" s="26"/>
+      <c r="G269" s="27"/>
+      <c r="H269" s="26"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="28">
+        <v>7</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E270" s="26"/>
+      <c r="F270" s="26"/>
+      <c r="G270" s="27"/>
+      <c r="H270" s="26"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="28">
+        <v>7</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C271" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E271" s="26"/>
+      <c r="F271" s="26"/>
+      <c r="G271" s="27"/>
+      <c r="H271" s="26"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="28">
+        <v>7</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E272" s="26"/>
+      <c r="F272" s="26"/>
+      <c r="G272" s="27"/>
+      <c r="H272" s="26"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="28">
+        <v>7</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C273" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E273" s="26"/>
+      <c r="F273" s="26"/>
+      <c r="G273" s="27"/>
+      <c r="H273" s="26"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="28">
+        <v>7</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C274" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E274" s="26"/>
+      <c r="F274" s="26"/>
+      <c r="G274" s="27"/>
+      <c r="H274" s="26"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="28">
+        <v>7</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E275" s="26"/>
+      <c r="F275" s="26"/>
+      <c r="G275" s="27"/>
+      <c r="H275" s="26"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="28">
+        <v>7</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C276" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E276" s="26"/>
+      <c r="F276" s="26"/>
+      <c r="G276" s="27"/>
+      <c r="H276" s="26"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="28">
+        <v>7</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E277" s="26"/>
+      <c r="F277" s="26"/>
+      <c r="G277" s="27"/>
+      <c r="H277" s="26"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="28">
+        <v>7</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E278" s="26"/>
+      <c r="F278" s="25"/>
+      <c r="G278" s="27">
+        <v>7</v>
+      </c>
+      <c r="H278" s="26"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="28">
+        <v>7</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C279" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E279" s="26"/>
+      <c r="F279" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="G279" s="27"/>
+      <c r="H279" s="26"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="28">
+        <v>7</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E280" s="26"/>
+      <c r="F280" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G280" s="27"/>
+      <c r="H280" s="26"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="28">
+        <v>7</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E281" s="26"/>
+      <c r="F281" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G281" s="27"/>
+      <c r="H281" s="26"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="28">
+        <v>7</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E282" s="26"/>
+      <c r="F282" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G282" s="27"/>
+      <c r="H282" s="26"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="28">
+        <v>7</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E283" s="26"/>
+      <c r="F283" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G283" s="27"/>
+      <c r="H283" s="26"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="28">
+        <v>7</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E284" s="26"/>
+      <c r="F284" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G284" s="27"/>
+      <c r="H284" s="26"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="28">
+        <v>7</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E285" s="26"/>
+      <c r="F285" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G285" s="27"/>
+      <c r="H285" s="26"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="28">
+        <v>7</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E286" s="26"/>
+      <c r="F286" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G286" s="27"/>
+      <c r="H286" s="26"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="28">
+        <v>7</v>
+      </c>
+      <c r="B287" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D287" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E287" s="26"/>
+      <c r="F287" s="26"/>
+      <c r="G287" s="27"/>
+      <c r="H287" s="26"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="28">
+        <v>7</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C288" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D288" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E288" s="26"/>
+      <c r="F288" s="26">
+        <v>1</v>
+      </c>
+      <c r="G288" s="27"/>
+      <c r="H288" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="28">
+        <v>8</v>
+      </c>
+      <c r="B289" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C289" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E289" s="26"/>
+      <c r="F289" s="26"/>
+      <c r="G289" s="27"/>
+      <c r="H289" s="26"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="28">
+        <v>8</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C290" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E290" s="26"/>
+      <c r="F290" s="26"/>
+      <c r="G290" s="27">
+        <v>8</v>
+      </c>
+      <c r="H290" s="26"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="28">
+        <v>8</v>
+      </c>
+      <c r="B291" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D291" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E291" s="26"/>
+      <c r="F291" s="26"/>
+      <c r="G291" s="27">
+        <v>3</v>
+      </c>
+      <c r="H291" s="26"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="28">
+        <v>8</v>
+      </c>
+      <c r="B292" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E292" s="26"/>
+      <c r="F292" s="26"/>
+      <c r="G292" s="27"/>
+      <c r="H292" s="26"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="28">
+        <v>8</v>
+      </c>
+      <c r="B293" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E293" s="26"/>
+      <c r="F293" s="26"/>
+      <c r="G293" s="27"/>
+      <c r="H293" s="26"/>
+    </row>
+    <row r="294" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="28">
+        <v>8</v>
+      </c>
+      <c r="B294" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C294" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E294" s="26"/>
+      <c r="F294" s="26"/>
+      <c r="G294" s="27">
+        <v>10</v>
+      </c>
+      <c r="H294" s="26"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="28">
+        <v>8</v>
+      </c>
+      <c r="B295" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E295" s="26"/>
+      <c r="F295" s="26">
+        <v>60</v>
+      </c>
+      <c r="G295" s="27"/>
+      <c r="H295" s="26"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="28">
+        <v>8</v>
+      </c>
+      <c r="B296" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E296" s="26"/>
+      <c r="F296" s="26"/>
+      <c r="G296" s="27"/>
+      <c r="H296" s="26"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="28">
+        <v>8</v>
+      </c>
+      <c r="B297" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E297" s="26"/>
+      <c r="F297" s="26"/>
+      <c r="G297" s="27"/>
+      <c r="H297" s="26"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="28">
+        <v>8</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E298" s="26"/>
+      <c r="F298" s="26"/>
+      <c r="G298" s="27"/>
+      <c r="H298" s="26"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="28">
+        <v>8</v>
+      </c>
+      <c r="B299" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C299" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E299" s="26"/>
+      <c r="F299" s="26"/>
+      <c r="G299" s="27"/>
+      <c r="H299" s="26"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="28">
+        <v>8</v>
+      </c>
+      <c r="B300" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C300" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E300" s="26"/>
+      <c r="F300" s="26"/>
+      <c r="G300" s="27"/>
+      <c r="H300" s="26"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="28">
+        <v>8</v>
+      </c>
+      <c r="B301" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C301" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E301" s="26"/>
+      <c r="F301" s="26"/>
+      <c r="G301" s="27"/>
+      <c r="H301" s="26"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="28">
+        <v>8</v>
+      </c>
+      <c r="B302" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C302" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E302" s="26"/>
+      <c r="F302" s="26"/>
+      <c r="G302" s="27"/>
+      <c r="H302" s="26"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="28">
+        <v>8</v>
+      </c>
+      <c r="B303" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C303" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E303" s="26"/>
+      <c r="F303" s="26"/>
+      <c r="G303" s="27"/>
+      <c r="H303" s="26"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="28">
+        <v>8</v>
+      </c>
+      <c r="B304" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C304" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E304" s="26"/>
+      <c r="F304" s="26"/>
+      <c r="G304" s="27"/>
+      <c r="H304" s="26"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="28">
+        <v>8</v>
+      </c>
+      <c r="B305" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C305" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E305" s="26"/>
+      <c r="F305" s="26"/>
+      <c r="G305" s="27"/>
+      <c r="H305" s="26"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="28">
+        <v>8</v>
+      </c>
+      <c r="B306" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E306" s="26"/>
+      <c r="F306" s="26"/>
+      <c r="G306" s="27"/>
+      <c r="H306" s="26"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" s="28">
+        <v>2</v>
+      </c>
+      <c r="B307" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E307" s="26"/>
+      <c r="F307" s="26"/>
+      <c r="G307" s="27"/>
+      <c r="H307" s="26"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" s="28">
+        <v>8</v>
+      </c>
+      <c r="B308" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C308" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E308" s="26"/>
+      <c r="F308" s="26"/>
+      <c r="G308" s="27"/>
+      <c r="H308" s="26"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" s="28">
+        <v>8</v>
+      </c>
+      <c r="B309" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C309" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E309" s="26"/>
+      <c r="F309" s="26"/>
+      <c r="G309" s="27"/>
+      <c r="H309" s="26"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" s="28">
+        <v>8</v>
+      </c>
+      <c r="B310" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C310" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E310" s="26"/>
+      <c r="F310" s="26"/>
+      <c r="G310" s="27"/>
+      <c r="H310" s="26"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" s="28">
+        <v>8</v>
+      </c>
+      <c r="B311" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="C311" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E311" s="26"/>
+      <c r="F311" s="26"/>
+      <c r="G311" s="27"/>
+      <c r="H311" s="26"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="28">
+        <v>8</v>
+      </c>
+      <c r="B312" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C312" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E312" s="26"/>
+      <c r="F312" s="26"/>
+      <c r="G312" s="27"/>
+      <c r="H312" s="26"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="28">
+        <v>8</v>
+      </c>
+      <c r="B313" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C313" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E313" s="26"/>
+      <c r="F313" s="26"/>
+      <c r="G313" s="27"/>
+      <c r="H313" s="26"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="28">
+        <v>8</v>
+      </c>
+      <c r="B314" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C314" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E314" s="26"/>
+      <c r="F314" s="26"/>
+      <c r="G314" s="27"/>
+      <c r="H314" s="26"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" s="28">
+        <v>8</v>
+      </c>
+      <c r="B315" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C315" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D315" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E315" s="26"/>
+      <c r="F315" s="26"/>
+      <c r="G315" s="27"/>
+      <c r="H315" s="26"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" s="28">
+        <v>8</v>
+      </c>
+      <c r="B316" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C316" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E316" s="26"/>
+      <c r="F316" s="26"/>
+      <c r="G316" s="27"/>
+      <c r="H316" s="26"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="28">
+        <v>8</v>
+      </c>
+      <c r="B317" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C317" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D317" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E317" s="26"/>
+      <c r="F317" s="26"/>
+      <c r="G317" s="27"/>
+      <c r="H317" s="26"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="28">
+        <v>8</v>
+      </c>
+      <c r="B318" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E318" s="26"/>
+      <c r="F318" s="26"/>
+      <c r="G318" s="27"/>
+      <c r="H318" s="26"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="28">
+        <v>8</v>
+      </c>
+      <c r="B319" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E319" s="26"/>
+      <c r="F319" s="26"/>
+      <c r="G319" s="27"/>
+      <c r="H319" s="26"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" s="28">
+        <v>8</v>
+      </c>
+      <c r="B320" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D320" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E320" s="26"/>
+      <c r="F320" s="26"/>
+      <c r="G320" s="27"/>
+      <c r="H320" s="26"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="28">
+        <v>8</v>
+      </c>
+      <c r="B321" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E321" s="26"/>
+      <c r="F321" s="26"/>
+      <c r="G321" s="27"/>
+      <c r="H321" s="26"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="28">
+        <v>8</v>
+      </c>
+      <c r="B322" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E322" s="26"/>
+      <c r="F322" s="26"/>
+      <c r="G322" s="27"/>
+      <c r="H322" s="26"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" s="28">
+        <v>8</v>
+      </c>
+      <c r="B323" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C323" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E323" s="26"/>
+      <c r="F323" s="26"/>
+      <c r="G323" s="27"/>
+      <c r="H323" s="26"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="28">
+        <v>8</v>
+      </c>
+      <c r="B324" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E324" s="26"/>
+      <c r="F324" s="26"/>
+      <c r="G324" s="27"/>
+      <c r="H324" s="26"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="28">
+        <v>8</v>
+      </c>
+      <c r="B325" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C325" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E325" s="26"/>
+      <c r="F325" s="26"/>
+      <c r="G325" s="27"/>
+      <c r="H325" s="26"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="28">
+        <v>8</v>
+      </c>
+      <c r="B326" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C326" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E326" s="26"/>
+      <c r="F326" s="26"/>
+      <c r="G326" s="27"/>
+      <c r="H326" s="26"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" s="28">
+        <v>8</v>
+      </c>
+      <c r="B327" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C327" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E327" s="26"/>
+      <c r="F327" s="26"/>
+      <c r="G327" s="27"/>
+      <c r="H327" s="26"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" s="28">
+        <v>8</v>
+      </c>
+      <c r="B328" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C328" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E328" s="26"/>
+      <c r="F328" s="26"/>
+      <c r="G328" s="27"/>
+      <c r="H328" s="26"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="28">
+        <v>8</v>
+      </c>
+      <c r="B329" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C329" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E329" s="26"/>
+      <c r="F329" s="25"/>
+      <c r="G329" s="27">
+        <v>7</v>
+      </c>
+      <c r="H329" s="26"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="28">
+        <v>8</v>
+      </c>
+      <c r="B330" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E330" s="26"/>
+      <c r="F330" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G330" s="27"/>
+      <c r="H330" s="26"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="28">
+        <v>8</v>
+      </c>
+      <c r="B331" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E331" s="26"/>
+      <c r="F331" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G331" s="27"/>
+      <c r="H331" s="26"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" s="28">
+        <v>8</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C332" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E332" s="26"/>
+      <c r="F332" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G332" s="27"/>
+      <c r="H332" s="26"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" s="28">
+        <v>8</v>
+      </c>
+      <c r="B333" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C333" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E333" s="26"/>
+      <c r="F333" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G333" s="27"/>
+      <c r="H333" s="26"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" s="28">
+        <v>8</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C334" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E334" s="26"/>
+      <c r="F334" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G334" s="27"/>
+      <c r="H334" s="26"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" s="28">
+        <v>8</v>
+      </c>
+      <c r="B335" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C335" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E335" s="26"/>
+      <c r="F335" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G335" s="27"/>
+      <c r="H335" s="26"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" s="28">
+        <v>8</v>
+      </c>
+      <c r="B336" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C336" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E336" s="26"/>
+      <c r="F336" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G336" s="27"/>
+      <c r="H336" s="26"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" s="28">
+        <v>8</v>
+      </c>
+      <c r="B337" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C337" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E337" s="26"/>
+      <c r="F337" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G337" s="27"/>
+      <c r="H337" s="26"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" s="28">
+        <v>8</v>
+      </c>
+      <c r="B338" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C338" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D338" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E338" s="26"/>
+      <c r="F338" s="26"/>
+      <c r="G338" s="27"/>
+      <c r="H338" s="26"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" s="28">
+        <v>8</v>
+      </c>
+      <c r="B339" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C339" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D339" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E339" s="26"/>
+      <c r="F339" s="26">
+        <v>1</v>
+      </c>
+      <c r="G339" s="27"/>
+      <c r="H339" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" s="28">
+        <v>9</v>
+      </c>
+      <c r="B340" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C340" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E340" s="26"/>
+      <c r="F340" s="26"/>
+      <c r="G340" s="27"/>
+      <c r="H340" s="26"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="28">
+        <v>9</v>
+      </c>
+      <c r="B341" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C341" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E341" s="26"/>
+      <c r="F341" s="26"/>
+      <c r="G341" s="27">
+        <v>8</v>
+      </c>
+      <c r="H341" s="26"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" s="28">
+        <v>9</v>
+      </c>
+      <c r="B342" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C342" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D342" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E342" s="26"/>
+      <c r="F342" s="26"/>
+      <c r="G342" s="27">
+        <v>3</v>
+      </c>
+      <c r="H342" s="26"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" s="28">
+        <v>9</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C343" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E343" s="26"/>
+      <c r="F343" s="26"/>
+      <c r="G343" s="27"/>
+      <c r="H343" s="26"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" s="28">
+        <v>9</v>
+      </c>
+      <c r="B344" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C344" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E344" s="26"/>
+      <c r="F344" s="26"/>
+      <c r="G344" s="27"/>
+      <c r="H344" s="26"/>
+    </row>
+    <row r="345" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A345" s="28">
+        <v>9</v>
+      </c>
+      <c r="B345" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C345" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E345" s="26"/>
+      <c r="F345" s="26"/>
+      <c r="G345" s="27">
+        <v>11</v>
+      </c>
+      <c r="H345" s="26"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" s="28">
+        <v>9</v>
+      </c>
+      <c r="B346" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C346" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D346" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E346" s="26"/>
+      <c r="F346" s="26">
+        <v>60</v>
+      </c>
+      <c r="G346" s="27"/>
+      <c r="H346" s="26"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" s="28">
+        <v>9</v>
+      </c>
+      <c r="B347" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C347" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E347" s="26"/>
+      <c r="F347" s="26"/>
+      <c r="G347" s="27"/>
+      <c r="H347" s="26"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" s="28">
+        <v>9</v>
+      </c>
+      <c r="B348" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C348" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E348" s="26"/>
+      <c r="F348" s="26"/>
+      <c r="G348" s="27"/>
+      <c r="H348" s="26"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" s="28">
+        <v>9</v>
+      </c>
+      <c r="B349" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C349" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D349" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E349" s="26"/>
+      <c r="F349" s="26"/>
+      <c r="G349" s="27"/>
+      <c r="H349" s="26"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" s="28">
+        <v>9</v>
+      </c>
+      <c r="B350" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C350" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E350" s="26"/>
+      <c r="F350" s="26"/>
+      <c r="G350" s="27"/>
+      <c r="H350" s="26"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" s="28">
+        <v>9</v>
+      </c>
+      <c r="B351" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C351" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E351" s="26"/>
+      <c r="F351" s="26"/>
+      <c r="G351" s="27"/>
+      <c r="H351" s="26"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" s="28">
+        <v>9</v>
+      </c>
+      <c r="B352" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C352" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E352" s="26"/>
+      <c r="F352" s="26"/>
+      <c r="G352" s="27"/>
+      <c r="H352" s="26"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="28">
+        <v>9</v>
+      </c>
+      <c r="B353" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E353" s="26"/>
+      <c r="F353" s="26"/>
+      <c r="G353" s="27"/>
+      <c r="H353" s="26"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" s="28">
+        <v>9</v>
+      </c>
+      <c r="B354" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C354" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E354" s="26"/>
+      <c r="F354" s="26"/>
+      <c r="G354" s="27"/>
+      <c r="H354" s="26"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="28">
+        <v>9</v>
+      </c>
+      <c r="B355" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C355" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D355" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E355" s="26"/>
+      <c r="F355" s="26"/>
+      <c r="G355" s="27"/>
+      <c r="H355" s="26"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" s="28">
+        <v>9</v>
+      </c>
+      <c r="B356" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C356" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E356" s="26"/>
+      <c r="F356" s="26"/>
+      <c r="G356" s="27"/>
+      <c r="H356" s="26"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" s="28">
+        <v>9</v>
+      </c>
+      <c r="B357" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C357" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E357" s="26"/>
+      <c r="F357" s="26"/>
+      <c r="G357" s="27"/>
+      <c r="H357" s="26"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" s="28">
+        <v>9</v>
+      </c>
+      <c r="B358" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C358" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E358" s="26"/>
+      <c r="F358" s="26"/>
+      <c r="G358" s="27"/>
+      <c r="H358" s="26"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" s="28">
+        <v>9</v>
+      </c>
+      <c r="B359" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C359" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E359" s="26"/>
+      <c r="F359" s="26"/>
+      <c r="G359" s="27"/>
+      <c r="H359" s="26"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" s="28">
+        <v>9</v>
+      </c>
+      <c r="B360" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C360" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D360" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E360" s="26"/>
+      <c r="F360" s="26"/>
+      <c r="G360" s="27"/>
+      <c r="H360" s="26"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" s="28">
+        <v>9</v>
+      </c>
+      <c r="B361" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C361" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D361" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E361" s="26"/>
+      <c r="F361" s="26"/>
+      <c r="G361" s="27"/>
+      <c r="H361" s="26"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" s="28">
+        <v>9</v>
+      </c>
+      <c r="B362" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C362" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D362" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E362" s="26"/>
+      <c r="F362" s="26"/>
+      <c r="G362" s="27"/>
+      <c r="H362" s="26"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" s="28">
+        <v>9</v>
+      </c>
+      <c r="B363" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C363" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E363" s="26"/>
+      <c r="F363" s="26"/>
+      <c r="G363" s="27"/>
+      <c r="H363" s="26"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" s="28">
+        <v>9</v>
+      </c>
+      <c r="B364" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C364" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E364" s="26"/>
+      <c r="F364" s="26"/>
+      <c r="G364" s="27"/>
+      <c r="H364" s="26"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" s="28">
+        <v>9</v>
+      </c>
+      <c r="B365" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="C365" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E365" s="26"/>
+      <c r="F365" s="26"/>
+      <c r="G365" s="27"/>
+      <c r="H365" s="26"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" s="28">
+        <v>9</v>
+      </c>
+      <c r="B366" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C366" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E366" s="26"/>
+      <c r="F366" s="26"/>
+      <c r="G366" s="27"/>
+      <c r="H366" s="26"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" s="28">
+        <v>9</v>
+      </c>
+      <c r="B367" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E367" s="26"/>
+      <c r="F367" s="26"/>
+      <c r="G367" s="27"/>
+      <c r="H367" s="26"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" s="28">
+        <v>9</v>
+      </c>
+      <c r="B368" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C368" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E368" s="26"/>
+      <c r="F368" s="25"/>
+      <c r="G368" s="27">
+        <v>7</v>
+      </c>
+      <c r="H368" s="26"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" s="28">
+        <v>9</v>
+      </c>
+      <c r="B369" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C369" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E369" s="26"/>
+      <c r="F369" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G369" s="27"/>
+      <c r="H369" s="26"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" s="28">
+        <v>9</v>
+      </c>
+      <c r="B370" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C370" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E370" s="26"/>
+      <c r="F370" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G370" s="27"/>
+      <c r="H370" s="26"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" s="28">
+        <v>9</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C371" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E371" s="26"/>
+      <c r="F371" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G371" s="27"/>
+      <c r="H371" s="26"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" s="28">
+        <v>9</v>
+      </c>
+      <c r="B372" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C372" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E372" s="26"/>
+      <c r="F372" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G372" s="27"/>
+      <c r="H372" s="26"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" s="28">
+        <v>9</v>
+      </c>
+      <c r="B373" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C373" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E373" s="26"/>
+      <c r="F373" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G373" s="27"/>
+      <c r="H373" s="26"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" s="28">
+        <v>9</v>
+      </c>
+      <c r="B374" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C374" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E374" s="26"/>
+      <c r="F374" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G374" s="27"/>
+      <c r="H374" s="26"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" s="28">
+        <v>9</v>
+      </c>
+      <c r="B375" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C375" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E375" s="26"/>
+      <c r="F375" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G375" s="27"/>
+      <c r="H375" s="26"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" s="28">
+        <v>9</v>
+      </c>
+      <c r="B376" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C376" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E376" s="26"/>
+      <c r="F376" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G376" s="27"/>
+      <c r="H376" s="26"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" s="28">
+        <v>9</v>
+      </c>
+      <c r="B377" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C377" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D377" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E377" s="26"/>
+      <c r="F377" s="26"/>
+      <c r="G377" s="27"/>
+      <c r="H377" s="26"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" s="28">
+        <v>9</v>
+      </c>
+      <c r="B378" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C378" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D378" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E378" s="26"/>
+      <c r="F378" s="26">
+        <v>1</v>
+      </c>
+      <c r="G378" s="27"/>
+      <c r="H378" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" s="28">
+        <v>10</v>
+      </c>
+      <c r="B379" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C379" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E379" s="26"/>
+      <c r="F379" s="26"/>
+      <c r="G379" s="27"/>
+      <c r="H379" s="26"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" s="28">
+        <v>10</v>
+      </c>
+      <c r="B380" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C380" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D380" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E380" s="26"/>
+      <c r="F380" s="26"/>
+      <c r="G380" s="27">
+        <v>8</v>
+      </c>
+      <c r="H380" s="26"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" s="28">
+        <v>10</v>
+      </c>
+      <c r="B381" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C381" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D381" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E381" s="26"/>
+      <c r="F381" s="26"/>
+      <c r="G381" s="27">
+        <v>3</v>
+      </c>
+      <c r="H381" s="26"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" s="28">
+        <v>10</v>
+      </c>
+      <c r="B382" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C382" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E382" s="26"/>
+      <c r="F382" s="26"/>
+      <c r="G382" s="27"/>
+      <c r="H382" s="26"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" s="28">
+        <v>10</v>
+      </c>
+      <c r="B383" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C383" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E383" s="26"/>
+      <c r="F383" s="26"/>
+      <c r="G383" s="27"/>
+      <c r="H383" s="26"/>
+    </row>
+    <row r="384" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A384" s="28">
+        <v>10</v>
+      </c>
+      <c r="B384" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E384" s="26"/>
+      <c r="F384" s="26"/>
+      <c r="G384" s="27">
+        <v>12</v>
+      </c>
+      <c r="H384" s="26"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" s="28">
+        <v>10</v>
+      </c>
+      <c r="B385" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C385" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D385" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E385" s="26"/>
+      <c r="F385" s="26">
+        <v>60</v>
+      </c>
+      <c r="G385" s="27"/>
+      <c r="H385" s="26"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="28">
+        <v>10</v>
+      </c>
+      <c r="B386" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C386" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E386" s="26"/>
+      <c r="F386" s="26"/>
+      <c r="G386" s="27"/>
+      <c r="H386" s="26"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" s="28">
+        <v>10</v>
+      </c>
+      <c r="B387" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C387" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D387" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E387" s="26"/>
+      <c r="F387" s="26"/>
+      <c r="G387" s="27"/>
+      <c r="H387" s="26"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" s="28">
+        <v>10</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C388" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E388" s="26"/>
+      <c r="F388" s="26"/>
+      <c r="G388" s="27"/>
+      <c r="H388" s="26"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" s="28">
+        <v>10</v>
+      </c>
+      <c r="B389" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C389" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D389" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E389" s="26"/>
+      <c r="F389" s="26"/>
+      <c r="G389" s="27"/>
+      <c r="H389" s="26"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" s="28">
+        <v>10</v>
+      </c>
+      <c r="B390" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C390" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E390" s="26"/>
+      <c r="F390" s="26"/>
+      <c r="G390" s="27"/>
+      <c r="H390" s="26"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" s="28">
+        <v>10</v>
+      </c>
+      <c r="B391" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C391" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D391" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E391" s="26"/>
+      <c r="F391" s="26"/>
+      <c r="G391" s="27"/>
+      <c r="H391" s="26"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" s="28">
+        <v>10</v>
+      </c>
+      <c r="B392" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E392" s="26"/>
+      <c r="F392" s="26"/>
+      <c r="G392" s="27"/>
+      <c r="H392" s="26"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" s="28">
+        <v>10</v>
+      </c>
+      <c r="B393" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C393" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D393" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E393" s="26"/>
+      <c r="F393" s="26"/>
+      <c r="G393" s="27"/>
+      <c r="H393" s="26"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" s="28">
+        <v>10</v>
+      </c>
+      <c r="B394" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C394" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E394" s="26"/>
+      <c r="F394" s="26"/>
+      <c r="G394" s="27"/>
+      <c r="H394" s="26"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" s="28">
+        <v>10</v>
+      </c>
+      <c r="B395" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C395" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E395" s="26"/>
+      <c r="F395" s="26"/>
+      <c r="G395" s="27"/>
+      <c r="H395" s="26"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" s="28">
+        <v>10</v>
+      </c>
+      <c r="B396" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C396" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E396" s="26"/>
+      <c r="F396" s="26"/>
+      <c r="G396" s="27"/>
+      <c r="H396" s="26"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" s="28">
+        <v>10</v>
+      </c>
+      <c r="B397" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C397" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D397" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E397" s="26"/>
+      <c r="F397" s="26"/>
+      <c r="G397" s="27"/>
+      <c r="H397" s="26"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" s="28">
+        <v>10</v>
+      </c>
+      <c r="B398" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C398" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E398" s="26"/>
+      <c r="F398" s="26"/>
+      <c r="G398" s="27"/>
+      <c r="H398" s="26"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" s="28">
+        <v>10</v>
+      </c>
+      <c r="B399" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C399" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D399" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E399" s="26"/>
+      <c r="F399" s="26"/>
+      <c r="G399" s="27"/>
+      <c r="H399" s="26"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" s="28">
+        <v>10</v>
+      </c>
+      <c r="B400" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C400" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E400" s="26"/>
+      <c r="F400" s="26"/>
+      <c r="G400" s="27"/>
+      <c r="H400" s="26"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" s="28">
+        <v>10</v>
+      </c>
+      <c r="B401" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C401" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D401" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E401" s="26"/>
+      <c r="F401" s="26"/>
+      <c r="G401" s="27"/>
+      <c r="H401" s="26"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" s="28">
+        <v>10</v>
+      </c>
+      <c r="B402" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C402" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E402" s="26"/>
+      <c r="F402" s="26"/>
+      <c r="G402" s="27"/>
+      <c r="H402" s="26"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" s="28">
+        <v>10</v>
+      </c>
+      <c r="B403" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C403" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E403" s="26"/>
+      <c r="F403" s="26"/>
+      <c r="G403" s="27"/>
+      <c r="H403" s="26"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" s="28">
+        <v>10</v>
+      </c>
+      <c r="B404" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C404" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E404" s="26"/>
+      <c r="F404" s="26"/>
+      <c r="G404" s="27"/>
+      <c r="H404" s="26"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" s="28">
+        <v>10</v>
+      </c>
+      <c r="B405" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C405" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E405" s="26"/>
+      <c r="F405" s="26"/>
+      <c r="G405" s="27"/>
+      <c r="H405" s="26"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" s="28">
+        <v>10</v>
+      </c>
+      <c r="B406" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C406" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E406" s="26"/>
+      <c r="F406" s="26"/>
+      <c r="G406" s="27"/>
+      <c r="H406" s="26"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" s="28">
+        <v>10</v>
+      </c>
+      <c r="B407" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C407" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E407" s="26"/>
+      <c r="F407" s="26"/>
+      <c r="G407" s="27"/>
+      <c r="H407" s="26"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" s="28">
+        <v>10</v>
+      </c>
+      <c r="B408" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C408" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E408" s="26"/>
+      <c r="F408" s="26"/>
+      <c r="G408" s="27"/>
+      <c r="H408" s="26"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" s="28">
+        <v>10</v>
+      </c>
+      <c r="B409" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C409" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D409" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E409" s="26"/>
+      <c r="F409" s="26"/>
+      <c r="G409" s="27"/>
+      <c r="H409" s="26"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" s="28">
+        <v>10</v>
+      </c>
+      <c r="B410" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C410" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D410" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E410" s="26"/>
+      <c r="F410" s="26"/>
+      <c r="G410" s="27"/>
+      <c r="H410" s="26"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" s="28">
+        <v>10</v>
+      </c>
+      <c r="B411" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C411" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E411" s="26"/>
+      <c r="F411" s="26"/>
+      <c r="G411" s="27"/>
+      <c r="H411" s="26"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" s="28">
+        <v>10</v>
+      </c>
+      <c r="B412" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C412" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E412" s="26"/>
+      <c r="F412" s="26"/>
+      <c r="G412" s="27"/>
+      <c r="H412" s="26"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" s="28">
+        <v>10</v>
+      </c>
+      <c r="B413" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C413" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D413" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E413" s="26"/>
+      <c r="F413" s="26"/>
+      <c r="G413" s="27"/>
+      <c r="H413" s="26"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" s="28">
+        <v>10</v>
+      </c>
+      <c r="B414" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C414" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D414" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E414" s="26"/>
+      <c r="F414" s="26"/>
+      <c r="G414" s="27"/>
+      <c r="H414" s="26"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" s="28">
+        <v>10</v>
+      </c>
+      <c r="B415" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C415" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D415" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E415" s="26"/>
+      <c r="F415" s="26"/>
+      <c r="G415" s="27"/>
+      <c r="H415" s="26"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" s="28">
+        <v>10</v>
+      </c>
+      <c r="B416" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C416" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D416" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E416" s="26"/>
+      <c r="F416" s="26"/>
+      <c r="G416" s="27"/>
+      <c r="H416" s="26"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417" s="28">
+        <v>10</v>
+      </c>
+      <c r="B417" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C417" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E417" s="26"/>
+      <c r="F417" s="26"/>
+      <c r="G417" s="27"/>
+      <c r="H417" s="26"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418" s="28">
+        <v>10</v>
+      </c>
+      <c r="B418" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C418" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E418" s="26"/>
+      <c r="F418" s="25"/>
+      <c r="G418" s="27">
+        <v>7</v>
+      </c>
+      <c r="H418" s="26"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419" s="28">
+        <v>10</v>
+      </c>
+      <c r="B419" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C419" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D419" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E419" s="26"/>
+      <c r="F419" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G419" s="27"/>
+      <c r="H419" s="26"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420" s="28">
+        <v>10</v>
+      </c>
+      <c r="B420" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C420" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D420" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E420" s="26"/>
+      <c r="F420" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G420" s="27"/>
+      <c r="H420" s="26"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421" s="28">
+        <v>10</v>
+      </c>
+      <c r="B421" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C421" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D421" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E421" s="26"/>
+      <c r="F421" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G421" s="27"/>
+      <c r="H421" s="26"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" s="28">
+        <v>10</v>
+      </c>
+      <c r="B422" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C422" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D422" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E422" s="26"/>
+      <c r="F422" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G422" s="27"/>
+      <c r="H422" s="26"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" s="28">
+        <v>10</v>
+      </c>
+      <c r="B423" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C423" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D423" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E423" s="26"/>
+      <c r="F423" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G423" s="27"/>
+      <c r="H423" s="26"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424" s="28">
+        <v>10</v>
+      </c>
+      <c r="B424" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C424" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D424" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E424" s="26"/>
+      <c r="F424" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G424" s="27"/>
+      <c r="H424" s="26"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425" s="28">
+        <v>10</v>
+      </c>
+      <c r="B425" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C425" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D425" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E425" s="26"/>
+      <c r="F425" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G425" s="27"/>
+      <c r="H425" s="26"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426" s="28">
+        <v>10</v>
+      </c>
+      <c r="B426" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C426" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E426" s="26"/>
+      <c r="F426" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G426" s="27"/>
+      <c r="H426" s="26"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427" s="28">
+        <v>10</v>
+      </c>
+      <c r="B427" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C427" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D427" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E427" s="26"/>
+      <c r="F427" s="26"/>
+      <c r="G427" s="27"/>
+      <c r="H427" s="26"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428" s="28">
+        <v>10</v>
+      </c>
+      <c r="B428" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C428" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D428" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E428" s="26"/>
+      <c r="F428" s="26">
+        <v>1</v>
+      </c>
+      <c r="G428" s="27"/>
+      <c r="H428" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429" s="28">
+        <v>11</v>
+      </c>
+      <c r="B429" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C429" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D429" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E429" s="26"/>
+      <c r="F429" s="26"/>
+      <c r="G429" s="27"/>
+      <c r="H429" s="26"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430" s="28">
+        <v>11</v>
+      </c>
+      <c r="B430" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C430" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E430" s="26"/>
+      <c r="F430" s="26"/>
+      <c r="G430" s="27">
+        <v>8</v>
+      </c>
+      <c r="H430" s="26"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431" s="28">
+        <v>11</v>
+      </c>
+      <c r="B431" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C431" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D431" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E431" s="26"/>
+      <c r="F431" s="26"/>
+      <c r="G431" s="27">
+        <v>3</v>
+      </c>
+      <c r="H431" s="26"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432" s="28">
+        <v>11</v>
+      </c>
+      <c r="B432" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C432" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D432" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E432" s="26"/>
+      <c r="F432" s="26"/>
+      <c r="G432" s="27"/>
+      <c r="H432" s="26"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" s="28">
+        <v>11</v>
+      </c>
+      <c r="B433" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C433" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D433" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E433" s="26"/>
+      <c r="F433" s="26"/>
+      <c r="G433" s="27"/>
+      <c r="H433" s="26"/>
+    </row>
+    <row r="434" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A434" s="28">
+        <v>11</v>
+      </c>
+      <c r="B434" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C434" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D434" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E434" s="26"/>
+      <c r="F434" s="26"/>
+      <c r="G434" s="27">
+        <v>13</v>
+      </c>
+      <c r="H434" s="26"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" s="28">
+        <v>11</v>
+      </c>
+      <c r="B435" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C435" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D435" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E435" s="26"/>
+      <c r="F435" s="26">
+        <v>60</v>
+      </c>
+      <c r="G435" s="27"/>
+      <c r="H435" s="26"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" s="28">
+        <v>11</v>
+      </c>
+      <c r="B436" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C436" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D436" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E436" s="26"/>
+      <c r="F436" s="26"/>
+      <c r="G436" s="27"/>
+      <c r="H436" s="26"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" s="28">
+        <v>11</v>
+      </c>
+      <c r="B437" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C437" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D437" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E437" s="26"/>
+      <c r="F437" s="26"/>
+      <c r="G437" s="27"/>
+      <c r="H437" s="26"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" s="28">
+        <v>11</v>
+      </c>
+      <c r="B438" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C438" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E438" s="26"/>
+      <c r="F438" s="26"/>
+      <c r="G438" s="27"/>
+      <c r="H438" s="26"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" s="28">
+        <v>11</v>
+      </c>
+      <c r="B439" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C439" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E439" s="26"/>
+      <c r="F439" s="26"/>
+      <c r="G439" s="27"/>
+      <c r="H439" s="26"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" s="28">
+        <v>11</v>
+      </c>
+      <c r="B440" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C440" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D440" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E440" s="26"/>
+      <c r="F440" s="26"/>
+      <c r="G440" s="27"/>
+      <c r="H440" s="26"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" s="28">
+        <v>11</v>
+      </c>
+      <c r="B441" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C441" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D441" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E441" s="26"/>
+      <c r="F441" s="26"/>
+      <c r="G441" s="27"/>
+      <c r="H441" s="26"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" s="28">
+        <v>11</v>
+      </c>
+      <c r="B442" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C442" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D442" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E442" s="26"/>
+      <c r="F442" s="26"/>
+      <c r="G442" s="27"/>
+      <c r="H442" s="26"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" s="28">
+        <v>11</v>
+      </c>
+      <c r="B443" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C443" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D443" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E443" s="26"/>
+      <c r="F443" s="26"/>
+      <c r="G443" s="27"/>
+      <c r="H443" s="26"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444" s="28">
+        <v>11</v>
+      </c>
+      <c r="B444" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C444" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D444" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E444" s="26"/>
+      <c r="F444" s="26"/>
+      <c r="G444" s="27"/>
+      <c r="H444" s="26"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" s="28">
+        <v>11</v>
+      </c>
+      <c r="B445" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C445" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D445" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E445" s="26"/>
+      <c r="F445" s="26"/>
+      <c r="G445" s="27"/>
+      <c r="H445" s="26"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446" s="28">
+        <v>11</v>
+      </c>
+      <c r="B446" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C446" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D446" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E446" s="26"/>
+      <c r="F446" s="26"/>
+      <c r="G446" s="27"/>
+      <c r="H446" s="26"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" s="28">
+        <v>11</v>
+      </c>
+      <c r="B447" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C447" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D447" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E447" s="26"/>
+      <c r="F447" s="26"/>
+      <c r="G447" s="27"/>
+      <c r="H447" s="26"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" s="28">
+        <v>11</v>
+      </c>
+      <c r="B448" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C448" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E448" s="26"/>
+      <c r="F448" s="26"/>
+      <c r="G448" s="27"/>
+      <c r="H448" s="26"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" s="28">
+        <v>11</v>
+      </c>
+      <c r="B449" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C449" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D449" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E449" s="26"/>
+      <c r="F449" s="26"/>
+      <c r="G449" s="27"/>
+      <c r="H449" s="26"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" s="28">
+        <v>11</v>
+      </c>
+      <c r="B450" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="C450" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D450" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E450" s="26"/>
+      <c r="F450" s="26"/>
+      <c r="G450" s="27"/>
+      <c r="H450" s="26"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" s="28">
+        <v>11</v>
+      </c>
+      <c r="B451" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C451" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D451" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E451" s="26"/>
+      <c r="F451" s="26"/>
+      <c r="G451" s="27"/>
+      <c r="H451" s="26"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" s="28">
+        <v>11</v>
+      </c>
+      <c r="B452" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C452" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D452" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E452" s="26"/>
+      <c r="F452" s="26"/>
+      <c r="G452" s="27"/>
+      <c r="H452" s="26"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" s="28">
+        <v>11</v>
+      </c>
+      <c r="B453" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C453" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D453" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E453" s="26"/>
+      <c r="F453" s="26"/>
+      <c r="G453" s="27"/>
+      <c r="H453" s="26"/>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" s="28">
+        <v>11</v>
+      </c>
+      <c r="B454" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C454" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D454" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E454" s="26"/>
+      <c r="F454" s="26"/>
+      <c r="G454" s="27"/>
+      <c r="H454" s="26"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" s="28">
+        <v>11</v>
+      </c>
+      <c r="B455" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C455" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D455" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E455" s="26"/>
+      <c r="F455" s="26"/>
+      <c r="G455" s="27"/>
+      <c r="H455" s="26"/>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" s="28">
+        <v>11</v>
+      </c>
+      <c r="B456" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C456" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D456" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E456" s="26"/>
+      <c r="F456" s="26"/>
+      <c r="G456" s="27"/>
+      <c r="H456" s="26"/>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" s="28">
+        <v>11</v>
+      </c>
+      <c r="B457" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C457" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D457" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E457" s="26"/>
+      <c r="F457" s="26"/>
+      <c r="G457" s="27"/>
+      <c r="H457" s="26"/>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" s="28">
+        <v>11</v>
+      </c>
+      <c r="B458" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C458" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D458" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E458" s="26"/>
+      <c r="F458" s="26"/>
+      <c r="G458" s="27"/>
+      <c r="H458" s="26"/>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" s="28">
+        <v>11</v>
+      </c>
+      <c r="B459" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C459" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D459" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E459" s="26"/>
+      <c r="F459" s="26"/>
+      <c r="G459" s="27"/>
+      <c r="H459" s="26"/>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" s="28">
+        <v>11</v>
+      </c>
+      <c r="B460" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C460" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D460" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E460" s="26"/>
+      <c r="F460" s="26"/>
+      <c r="G460" s="27"/>
+      <c r="H460" s="26"/>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" s="28">
+        <v>11</v>
+      </c>
+      <c r="B461" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C461" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D461" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E461" s="26"/>
+      <c r="F461" s="26"/>
+      <c r="G461" s="27"/>
+      <c r="H461" s="26"/>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" s="28">
+        <v>11</v>
+      </c>
+      <c r="B462" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C462" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D462" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E462" s="26"/>
+      <c r="F462" s="26"/>
+      <c r="G462" s="27"/>
+      <c r="H462" s="26"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" s="28">
+        <v>11</v>
+      </c>
+      <c r="B463" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C463" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D463" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E463" s="26"/>
+      <c r="F463" s="26"/>
+      <c r="G463" s="27"/>
+      <c r="H463" s="26"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" s="28">
+        <v>11</v>
+      </c>
+      <c r="B464" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C464" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D464" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E464" s="26"/>
+      <c r="F464" s="26"/>
+      <c r="G464" s="27"/>
+      <c r="H464" s="26"/>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" s="28">
+        <v>11</v>
+      </c>
+      <c r="B465" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C465" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D465" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E465" s="26"/>
+      <c r="F465" s="26"/>
+      <c r="G465" s="27"/>
+      <c r="H465" s="26"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" s="28">
+        <v>11</v>
+      </c>
+      <c r="B466" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C466" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D466" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E466" s="26"/>
+      <c r="F466" s="26"/>
+      <c r="G466" s="27"/>
+      <c r="H466" s="26"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" s="28">
+        <v>11</v>
+      </c>
+      <c r="B467" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C467" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D467" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E467" s="26"/>
+      <c r="F467" s="26"/>
+      <c r="G467" s="27"/>
+      <c r="H467" s="26"/>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" s="28">
+        <v>11</v>
+      </c>
+      <c r="B468" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C468" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D468" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E468" s="26"/>
+      <c r="F468" s="25"/>
+      <c r="G468" s="27">
+        <v>7</v>
+      </c>
+      <c r="H468" s="26"/>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" s="28">
+        <v>11</v>
+      </c>
+      <c r="B469" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C469" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D469" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E469" s="26"/>
+      <c r="F469" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="G469" s="27"/>
+      <c r="H469" s="26"/>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470" s="28">
+        <v>11</v>
+      </c>
+      <c r="B470" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C470" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D470" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E470" s="26"/>
+      <c r="F470" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G470" s="27"/>
+      <c r="H470" s="26"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471" s="28">
+        <v>11</v>
+      </c>
+      <c r="B471" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C471" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D471" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E471" s="26"/>
+      <c r="F471" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G471" s="27"/>
+      <c r="H471" s="26"/>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472" s="28">
+        <v>11</v>
+      </c>
+      <c r="B472" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C472" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D472" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E472" s="26"/>
+      <c r="F472" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G472" s="27"/>
+      <c r="H472" s="26"/>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" s="28">
+        <v>11</v>
+      </c>
+      <c r="B473" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C473" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D473" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E473" s="26"/>
+      <c r="F473" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G473" s="27"/>
+      <c r="H473" s="26"/>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474" s="28">
+        <v>11</v>
+      </c>
+      <c r="B474" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C474" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D474" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E474" s="26"/>
+      <c r="F474" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G474" s="27"/>
+      <c r="H474" s="26"/>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475" s="28">
+        <v>11</v>
+      </c>
+      <c r="B475" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C475" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D475" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E475" s="26"/>
+      <c r="F475" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G475" s="27"/>
+      <c r="H475" s="26"/>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476" s="28">
+        <v>11</v>
+      </c>
+      <c r="B476" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C476" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D476" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E476" s="26"/>
+      <c r="F476" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G476" s="27"/>
+      <c r="H476" s="26"/>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" s="28">
+        <v>11</v>
+      </c>
+      <c r="B477" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C477" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D477" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E477" s="26"/>
+      <c r="F477" s="26"/>
+      <c r="G477" s="27"/>
+      <c r="H477" s="26"/>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478" s="28">
+        <v>11</v>
+      </c>
+      <c r="B478" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C478" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D478" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E478" s="26"/>
+      <c r="F478" s="26">
+        <v>1</v>
+      </c>
+      <c r="G478" s="27"/>
+      <c r="H478" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479" s="28">
+        <v>12</v>
+      </c>
+      <c r="B479" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C479" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E479" s="26"/>
+      <c r="F479" s="26"/>
+      <c r="G479" s="27"/>
+      <c r="H479" s="26"/>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480" s="28">
+        <v>12</v>
+      </c>
+      <c r="B480" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C480" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D480" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E480" s="26"/>
+      <c r="F480" s="26"/>
+      <c r="G480" s="27">
+        <v>8</v>
+      </c>
+      <c r="H480" s="26"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" s="28">
+        <v>12</v>
+      </c>
+      <c r="B481" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C481" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D481" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E481" s="26"/>
+      <c r="F481" s="26"/>
+      <c r="G481" s="27">
+        <v>3</v>
+      </c>
+      <c r="H481" s="26"/>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482" s="28">
+        <v>12</v>
+      </c>
+      <c r="B482" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C482" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D482" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E482" s="26"/>
+      <c r="F482" s="26"/>
+      <c r="G482" s="27"/>
+      <c r="H482" s="26"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483" s="28">
+        <v>12</v>
+      </c>
+      <c r="B483" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C483" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D483" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E483" s="26"/>
+      <c r="F483" s="26"/>
+      <c r="G483" s="27"/>
+      <c r="H483" s="26"/>
+    </row>
+    <row r="484" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A484" s="28">
+        <v>12</v>
+      </c>
+      <c r="B484" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C484" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D484" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E484" s="26"/>
+      <c r="F484" s="26"/>
+      <c r="G484" s="27">
+        <v>14</v>
+      </c>
+      <c r="H484" s="26"/>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" s="28">
+        <v>12</v>
+      </c>
+      <c r="B485" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C485" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D485" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E485" s="26"/>
+      <c r="F485" s="26">
+        <v>60</v>
+      </c>
+      <c r="G485" s="27"/>
+      <c r="H485" s="26"/>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486" s="28">
+        <v>12</v>
+      </c>
+      <c r="B486" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C486" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E486" s="26"/>
+      <c r="F486" s="26"/>
+      <c r="G486" s="27"/>
+      <c r="H486" s="26"/>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487" s="28">
+        <v>12</v>
+      </c>
+      <c r="B487" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C487" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D487" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E487" s="26"/>
+      <c r="F487" s="26"/>
+      <c r="G487" s="27"/>
+      <c r="H487" s="26"/>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488" s="28">
+        <v>12</v>
+      </c>
+      <c r="B488" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C488" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D488" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E488" s="26"/>
+      <c r="F488" s="26"/>
+      <c r="G488" s="27"/>
+      <c r="H488" s="26"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" s="28">
+        <v>12</v>
+      </c>
+      <c r="B489" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C489" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E489" s="26"/>
+      <c r="F489" s="26"/>
+      <c r="G489" s="27"/>
+      <c r="H489" s="26"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490" s="28">
+        <v>12</v>
+      </c>
+      <c r="B490" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C490" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D490" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E490" s="26"/>
+      <c r="F490" s="26"/>
+      <c r="G490" s="27"/>
+      <c r="H490" s="26"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491" s="28">
+        <v>12</v>
+      </c>
+      <c r="B491" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C491" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D491" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E491" s="26"/>
+      <c r="F491" s="26"/>
+      <c r="G491" s="27"/>
+      <c r="H491" s="26"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492" s="28">
+        <v>12</v>
+      </c>
+      <c r="B492" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C492" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D492" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E492" s="26"/>
+      <c r="F492" s="26"/>
+      <c r="G492" s="27"/>
+      <c r="H492" s="26"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" s="28">
+        <v>12</v>
+      </c>
+      <c r="B493" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C493" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E493" s="26"/>
+      <c r="F493" s="26"/>
+      <c r="G493" s="27"/>
+      <c r="H493" s="26"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494" s="28">
+        <v>12</v>
+      </c>
+      <c r="B494" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C494" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D494" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E494" s="26"/>
+      <c r="F494" s="26"/>
+      <c r="G494" s="27"/>
+      <c r="H494" s="26"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495" s="28">
+        <v>12</v>
+      </c>
+      <c r="B495" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C495" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D495" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E495" s="26"/>
+      <c r="F495" s="26"/>
+      <c r="G495" s="27"/>
+      <c r="H495" s="26"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496" s="28">
+        <v>12</v>
+      </c>
+      <c r="B496" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C496" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D496" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E496" s="26"/>
+      <c r="F496" s="26"/>
+      <c r="G496" s="27"/>
+      <c r="H496" s="26"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" s="28">
+        <v>12</v>
+      </c>
+      <c r="B497" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C497" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D497" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E497" s="26"/>
+      <c r="F497" s="26"/>
+      <c r="G497" s="27"/>
+      <c r="H497" s="26"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" s="28">
+        <v>12</v>
+      </c>
+      <c r="B498" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C498" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D498" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E498" s="26"/>
+      <c r="F498" s="26"/>
+      <c r="G498" s="27"/>
+      <c r="H498" s="26"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" s="28">
+        <v>12</v>
+      </c>
+      <c r="B499" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C499" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D499" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E499" s="26"/>
+      <c r="F499" s="26"/>
+      <c r="G499" s="27"/>
+      <c r="H499" s="26"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" s="28">
+        <v>12</v>
+      </c>
+      <c r="B500" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C500" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D500" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E500" s="26"/>
+      <c r="F500" s="26"/>
+      <c r="G500" s="27"/>
+      <c r="H500" s="26"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" s="28">
+        <v>12</v>
+      </c>
+      <c r="B501" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C501" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D501" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E501" s="26"/>
+      <c r="F501" s="26"/>
+      <c r="G501" s="27"/>
+      <c r="H501" s="26"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" s="28">
+        <v>12</v>
+      </c>
+      <c r="B502" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C502" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E502" s="26"/>
+      <c r="F502" s="26"/>
+      <c r="G502" s="27"/>
+      <c r="H502" s="26"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503" s="28">
+        <v>12</v>
+      </c>
+      <c r="B503" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C503" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D503" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E503" s="26"/>
+      <c r="F503" s="26"/>
+      <c r="G503" s="27"/>
+      <c r="H503" s="26"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" s="28">
+        <v>12</v>
+      </c>
+      <c r="B504" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C504" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E504" s="26"/>
+      <c r="F504" s="26"/>
+      <c r="G504" s="27"/>
+      <c r="H504" s="26"/>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" s="28">
+        <v>12</v>
+      </c>
+      <c r="B505" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C505" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D505" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E505" s="26"/>
+      <c r="F505" s="26"/>
+      <c r="G505" s="27"/>
+      <c r="H505" s="26"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" s="28">
+        <v>12</v>
+      </c>
+      <c r="B506" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C506" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D506" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E506" s="26"/>
+      <c r="F506" s="26"/>
+      <c r="G506" s="27"/>
+      <c r="H506" s="26"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" s="28">
+        <v>12</v>
+      </c>
+      <c r="B507" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C507" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D507" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E507" s="26"/>
+      <c r="F507" s="25"/>
+      <c r="G507" s="27">
+        <v>7</v>
+      </c>
+      <c r="H507" s="26"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" s="28">
+        <v>12</v>
+      </c>
+      <c r="B508" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C508" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D508" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E508" s="26"/>
+      <c r="F508" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="G508" s="27"/>
+      <c r="H508" s="26"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" s="28">
+        <v>12</v>
+      </c>
+      <c r="B509" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C509" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D509" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E509" s="26"/>
+      <c r="F509" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G509" s="27"/>
+      <c r="H509" s="26"/>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" s="28">
+        <v>12</v>
+      </c>
+      <c r="B510" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C510" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D510" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E510" s="26"/>
+      <c r="F510" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G510" s="27"/>
+      <c r="H510" s="26"/>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511" s="28">
+        <v>12</v>
+      </c>
+      <c r="B511" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C511" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E511" s="26"/>
+      <c r="F511" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G511" s="27"/>
+      <c r="H511" s="26"/>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" s="28">
+        <v>12</v>
+      </c>
+      <c r="B512" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C512" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D512" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E512" s="26"/>
+      <c r="F512" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G512" s="27"/>
+      <c r="H512" s="26"/>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" s="28">
+        <v>12</v>
+      </c>
+      <c r="B513" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C513" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D513" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E513" s="26"/>
+      <c r="F513" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G513" s="27"/>
+      <c r="H513" s="26"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514" s="28">
+        <v>12</v>
+      </c>
+      <c r="B514" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C514" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D514" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E514" s="26"/>
+      <c r="F514" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G514" s="27"/>
+      <c r="H514" s="26"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" s="28">
+        <v>12</v>
+      </c>
+      <c r="B515" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C515" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D515" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E515" s="26"/>
+      <c r="F515" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G515" s="27"/>
+      <c r="H515" s="26"/>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516" s="28">
+        <v>12</v>
+      </c>
+      <c r="B516" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C516" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D516" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E516" s="26"/>
+      <c r="F516" s="26"/>
+      <c r="G516" s="27"/>
+      <c r="H516" s="26"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" s="28">
+        <v>12</v>
+      </c>
+      <c r="B517" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C517" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D517" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E517" s="26"/>
+      <c r="F517" s="26">
+        <v>1</v>
+      </c>
+      <c r="G517" s="27"/>
+      <c r="H517" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" s="28">
+        <v>13</v>
+      </c>
+      <c r="B518" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C518" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D518" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E518" s="26"/>
+      <c r="F518" s="26"/>
+      <c r="G518" s="27"/>
+      <c r="H518" s="26"/>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" s="28">
+        <v>13</v>
+      </c>
+      <c r="B519" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C519" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D519" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E519" s="26"/>
+      <c r="F519" s="26"/>
+      <c r="G519" s="27">
+        <v>8</v>
+      </c>
+      <c r="H519" s="26"/>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" s="28">
+        <v>13</v>
+      </c>
+      <c r="B520" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C520" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D520" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E520" s="26"/>
+      <c r="F520" s="26"/>
+      <c r="G520" s="27">
+        <v>3</v>
+      </c>
+      <c r="H520" s="26"/>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" s="28">
+        <v>13</v>
+      </c>
+      <c r="B521" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C521" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E521" s="26"/>
+      <c r="F521" s="26"/>
+      <c r="G521" s="27"/>
+      <c r="H521" s="26"/>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" s="28">
+        <v>13</v>
+      </c>
+      <c r="B522" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C522" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E522" s="26"/>
+      <c r="F522" s="26"/>
+      <c r="G522" s="27"/>
+      <c r="H522" s="26"/>
+    </row>
+    <row r="523" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A523" s="28">
+        <v>13</v>
+      </c>
+      <c r="B523" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C523" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D523" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E523" s="26"/>
+      <c r="F523" s="26"/>
+      <c r="G523" s="27">
+        <v>15</v>
+      </c>
+      <c r="H523" s="26"/>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" s="28">
+        <v>13</v>
+      </c>
+      <c r="B524" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C524" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D524" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E524" s="26"/>
+      <c r="F524" s="26">
+        <v>60</v>
+      </c>
+      <c r="G524" s="27"/>
+      <c r="H524" s="26"/>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" s="28">
+        <v>13</v>
+      </c>
+      <c r="B525" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C525" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E525" s="26"/>
+      <c r="F525" s="26"/>
+      <c r="G525" s="27"/>
+      <c r="H525" s="26"/>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526" s="28">
+        <v>13</v>
+      </c>
+      <c r="B526" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C526" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D526" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E526" s="26"/>
+      <c r="F526" s="26"/>
+      <c r="G526" s="27"/>
+      <c r="H526" s="26"/>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527" s="28">
+        <v>13</v>
+      </c>
+      <c r="B527" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C527" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D527" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E527" s="26"/>
+      <c r="F527" s="26"/>
+      <c r="G527" s="27"/>
+      <c r="H527" s="26"/>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" s="28">
+        <v>13</v>
+      </c>
+      <c r="B528" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C528" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E528" s="26"/>
+      <c r="F528" s="26"/>
+      <c r="G528" s="27"/>
+      <c r="H528" s="26"/>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" s="28">
+        <v>13</v>
+      </c>
+      <c r="B529" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C529" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E529" s="26"/>
+      <c r="F529" s="26"/>
+      <c r="G529" s="27"/>
+      <c r="H529" s="26"/>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" s="28">
+        <v>13</v>
+      </c>
+      <c r="B530" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C530" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D530" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E530" s="26"/>
+      <c r="F530" s="26"/>
+      <c r="G530" s="27"/>
+      <c r="H530" s="26"/>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" s="28">
+        <v>13</v>
+      </c>
+      <c r="B531" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C531" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E531" s="26"/>
+      <c r="F531" s="26"/>
+      <c r="G531" s="27"/>
+      <c r="H531" s="26"/>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532" s="28">
+        <v>13</v>
+      </c>
+      <c r="B532" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C532" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E532" s="26"/>
+      <c r="F532" s="26"/>
+      <c r="G532" s="27"/>
+      <c r="H532" s="26"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" s="28">
+        <v>13</v>
+      </c>
+      <c r="B533" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C533" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D533" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E533" s="26"/>
+      <c r="F533" s="26"/>
+      <c r="G533" s="27"/>
+      <c r="H533" s="26"/>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534" s="28">
+        <v>13</v>
+      </c>
+      <c r="B534" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C534" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D534" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E534" s="26"/>
+      <c r="F534" s="26"/>
+      <c r="G534" s="27"/>
+      <c r="H534" s="26"/>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535" s="28">
+        <v>13</v>
+      </c>
+      <c r="B535" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C535" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D535" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E535" s="26"/>
+      <c r="F535" s="26"/>
+      <c r="G535" s="27"/>
+      <c r="H535" s="26"/>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536" s="28">
+        <v>13</v>
+      </c>
+      <c r="B536" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C536" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D536" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E536" s="26"/>
+      <c r="F536" s="26"/>
+      <c r="G536" s="27"/>
+      <c r="H536" s="26"/>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" s="28">
+        <v>13</v>
+      </c>
+      <c r="B537" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C537" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D537" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E537" s="26"/>
+      <c r="F537" s="26"/>
+      <c r="G537" s="27"/>
+      <c r="H537" s="26"/>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538" s="28">
+        <v>13</v>
+      </c>
+      <c r="B538" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C538" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D538" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E538" s="26"/>
+      <c r="F538" s="26"/>
+      <c r="G538" s="27"/>
+      <c r="H538" s="26"/>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539" s="28">
+        <v>13</v>
+      </c>
+      <c r="B539" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C539" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D539" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E539" s="26"/>
+      <c r="F539" s="26"/>
+      <c r="G539" s="27"/>
+      <c r="H539" s="26"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" s="28">
+        <v>13</v>
+      </c>
+      <c r="B540" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C540" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E540" s="26"/>
+      <c r="F540" s="26"/>
+      <c r="G540" s="27"/>
+      <c r="H540" s="26"/>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" s="28">
+        <v>13</v>
+      </c>
+      <c r="B541" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C541" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D541" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E541" s="26"/>
+      <c r="F541" s="26"/>
+      <c r="G541" s="27"/>
+      <c r="H541" s="26"/>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542" s="28">
+        <v>13</v>
+      </c>
+      <c r="B542" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C542" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D542" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E542" s="26"/>
+      <c r="F542" s="26"/>
+      <c r="G542" s="27"/>
+      <c r="H542" s="26"/>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543" s="28">
+        <v>13</v>
+      </c>
+      <c r="B543" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C543" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D543" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E543" s="26"/>
+      <c r="F543" s="26"/>
+      <c r="G543" s="27"/>
+      <c r="H543" s="26"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" s="28">
+        <v>13</v>
+      </c>
+      <c r="B544" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C544" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D544" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E544" s="26"/>
+      <c r="F544" s="26"/>
+      <c r="G544" s="27"/>
+      <c r="H544" s="26"/>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" s="28">
+        <v>13</v>
+      </c>
+      <c r="B545" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C545" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D545" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E545" s="26"/>
+      <c r="F545" s="26"/>
+      <c r="G545" s="27"/>
+      <c r="H545" s="26"/>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546" s="28">
+        <v>13</v>
+      </c>
+      <c r="B546" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C546" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D546" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E546" s="26"/>
+      <c r="F546" s="26"/>
+      <c r="G546" s="27"/>
+      <c r="H546" s="26"/>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547" s="28">
+        <v>13</v>
+      </c>
+      <c r="B547" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C547" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D547" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E547" s="26"/>
+      <c r="F547" s="26"/>
+      <c r="G547" s="27"/>
+      <c r="H547" s="26"/>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548" s="28">
+        <v>13</v>
+      </c>
+      <c r="B548" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C548" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E548" s="26"/>
+      <c r="F548" s="26"/>
+      <c r="G548" s="27"/>
+      <c r="H548" s="26"/>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" s="28">
+        <v>13</v>
+      </c>
+      <c r="B549" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C549" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D549" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E549" s="26"/>
+      <c r="F549" s="26"/>
+      <c r="G549" s="27"/>
+      <c r="H549" s="26"/>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550" s="28">
+        <v>13</v>
+      </c>
+      <c r="B550" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C550" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D550" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E550" s="26"/>
+      <c r="F550" s="26"/>
+      <c r="G550" s="27"/>
+      <c r="H550" s="26"/>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551" s="28">
+        <v>13</v>
+      </c>
+      <c r="B551" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C551" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D551" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E551" s="26"/>
+      <c r="F551" s="26"/>
+      <c r="G551" s="27"/>
+      <c r="H551" s="26"/>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552" s="28">
+        <v>13</v>
+      </c>
+      <c r="B552" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C552" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D552" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E552" s="26"/>
+      <c r="F552" s="26"/>
+      <c r="G552" s="27"/>
+      <c r="H552" s="26"/>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553" s="28">
+        <v>13</v>
+      </c>
+      <c r="B553" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C553" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D553" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E553" s="26"/>
+      <c r="F553" s="26"/>
+      <c r="G553" s="27"/>
+      <c r="H553" s="26"/>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554" s="28">
+        <v>13</v>
+      </c>
+      <c r="B554" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C554" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D554" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E554" s="26"/>
+      <c r="F554" s="26"/>
+      <c r="G554" s="27"/>
+      <c r="H554" s="26"/>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555" s="28">
+        <v>13</v>
+      </c>
+      <c r="B555" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C555" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D555" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E555" s="26"/>
+      <c r="F555" s="26"/>
+      <c r="G555" s="27"/>
+      <c r="H555" s="26"/>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556" s="28">
+        <v>13</v>
+      </c>
+      <c r="B556" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C556" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D556" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E556" s="26"/>
+      <c r="F556" s="26"/>
+      <c r="G556" s="27"/>
+      <c r="H556" s="26"/>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A557" s="28">
+        <v>13</v>
+      </c>
+      <c r="B557" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C557" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D557" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E557" s="26"/>
+      <c r="F557" s="25"/>
+      <c r="G557" s="27">
+        <v>7</v>
+      </c>
+      <c r="H557" s="26"/>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A558" s="28">
+        <v>13</v>
+      </c>
+      <c r="B558" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C558" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D558" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E558" s="26"/>
+      <c r="F558" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="G558" s="27"/>
+      <c r="H558" s="26"/>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A559" s="28">
+        <v>13</v>
+      </c>
+      <c r="B559" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C559" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D559" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E559" s="26"/>
+      <c r="F559" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G559" s="27"/>
+      <c r="H559" s="26"/>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560" s="28">
+        <v>13</v>
+      </c>
+      <c r="B560" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C560" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D560" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E560" s="26"/>
+      <c r="F560" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G560" s="27"/>
+      <c r="H560" s="26"/>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561" s="28">
+        <v>13</v>
+      </c>
+      <c r="B561" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C561" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D561" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E561" s="26"/>
+      <c r="F561" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G561" s="27"/>
+      <c r="H561" s="26"/>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562" s="28">
+        <v>13</v>
+      </c>
+      <c r="B562" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C562" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E562" s="26"/>
+      <c r="F562" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G562" s="27"/>
+      <c r="H562" s="26"/>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563" s="28">
+        <v>13</v>
+      </c>
+      <c r="B563" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C563" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D563" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E563" s="26"/>
+      <c r="F563" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G563" s="27"/>
+      <c r="H563" s="26"/>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564" s="28">
+        <v>13</v>
+      </c>
+      <c r="B564" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C564" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D564" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E564" s="26"/>
+      <c r="F564" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G564" s="27"/>
+      <c r="H564" s="26"/>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A565" s="28">
+        <v>13</v>
+      </c>
+      <c r="B565" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C565" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D565" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E565" s="26"/>
+      <c r="F565" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G565" s="27"/>
+      <c r="H565" s="26"/>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566" s="28">
+        <v>13</v>
+      </c>
+      <c r="B566" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C566" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D566" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E566" s="26"/>
+      <c r="F566" s="26"/>
+      <c r="G566" s="27"/>
+      <c r="H566" s="26"/>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567" s="28">
+        <v>13</v>
+      </c>
+      <c r="B567" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C567" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D567" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E567" s="26"/>
+      <c r="F567" s="26">
+        <v>1</v>
+      </c>
+      <c r="G567" s="27"/>
+      <c r="H567" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568" s="28">
+        <v>14</v>
+      </c>
+      <c r="B568" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C568" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D568" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E568" s="26"/>
+      <c r="F568" s="26"/>
+      <c r="G568" s="27"/>
+      <c r="H568" s="26"/>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569" s="28">
+        <v>14</v>
+      </c>
+      <c r="B569" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C569" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D569" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E569" s="26"/>
+      <c r="F569" s="26"/>
+      <c r="G569" s="27">
+        <v>8</v>
+      </c>
+      <c r="H569" s="26"/>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570" s="28">
+        <v>14</v>
+      </c>
+      <c r="B570" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C570" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D570" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E570" s="26"/>
+      <c r="F570" s="26"/>
+      <c r="G570" s="27">
+        <v>3</v>
+      </c>
+      <c r="H570" s="26"/>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571" s="28">
+        <v>14</v>
+      </c>
+      <c r="B571" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C571" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D571" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E571" s="26"/>
+      <c r="F571" s="26"/>
+      <c r="G571" s="27"/>
+      <c r="H571" s="26"/>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572" s="28">
+        <v>14</v>
+      </c>
+      <c r="B572" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C572" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D572" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E572" s="26"/>
+      <c r="F572" s="26"/>
+      <c r="G572" s="27"/>
+      <c r="H572" s="26"/>
+    </row>
+    <row r="573" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A573" s="28">
+        <v>14</v>
+      </c>
+      <c r="B573" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C573" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D573" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E573" s="26"/>
+      <c r="F573" s="26"/>
+      <c r="G573" s="27">
+        <v>16</v>
+      </c>
+      <c r="H573" s="26"/>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574" s="28">
+        <v>14</v>
+      </c>
+      <c r="B574" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C574" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D574" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E574" s="26"/>
+      <c r="F574" s="26">
+        <v>60</v>
+      </c>
+      <c r="G574" s="27"/>
+      <c r="H574" s="26"/>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575" s="28">
+        <v>14</v>
+      </c>
+      <c r="B575" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C575" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D575" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E575" s="26"/>
+      <c r="F575" s="26"/>
+      <c r="G575" s="27"/>
+      <c r="H575" s="26"/>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576" s="28">
+        <v>14</v>
+      </c>
+      <c r="B576" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C576" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E576" s="26"/>
+      <c r="F576" s="26"/>
+      <c r="G576" s="27"/>
+      <c r="H576" s="26"/>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" s="28">
+        <v>14</v>
+      </c>
+      <c r="B577" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C577" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D577" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E577" s="26"/>
+      <c r="F577" s="26"/>
+      <c r="G577" s="27"/>
+      <c r="H577" s="26"/>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578" s="28">
+        <v>14</v>
+      </c>
+      <c r="B578" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C578" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D578" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E578" s="26"/>
+      <c r="F578" s="26"/>
+      <c r="G578" s="27"/>
+      <c r="H578" s="26"/>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579" s="28">
+        <v>14</v>
+      </c>
+      <c r="B579" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C579" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D579" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E579" s="26"/>
+      <c r="F579" s="26"/>
+      <c r="G579" s="27"/>
+      <c r="H579" s="26"/>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580" s="28">
+        <v>14</v>
+      </c>
+      <c r="B580" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C580" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E580" s="26"/>
+      <c r="F580" s="26"/>
+      <c r="G580" s="27"/>
+      <c r="H580" s="26"/>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581" s="28">
+        <v>14</v>
+      </c>
+      <c r="B581" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C581" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D581" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E581" s="26"/>
+      <c r="F581" s="26"/>
+      <c r="G581" s="27"/>
+      <c r="H581" s="26"/>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582" s="28">
+        <v>14</v>
+      </c>
+      <c r="B582" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C582" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D582" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E582" s="26"/>
+      <c r="F582" s="26"/>
+      <c r="G582" s="27"/>
+      <c r="H582" s="26"/>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583" s="28">
+        <v>14</v>
+      </c>
+      <c r="B583" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C583" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D583" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E583" s="26"/>
+      <c r="F583" s="26"/>
+      <c r="G583" s="27"/>
+      <c r="H583" s="26"/>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584" s="28">
+        <v>14</v>
+      </c>
+      <c r="B584" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C584" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D584" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E584" s="26"/>
+      <c r="F584" s="26"/>
+      <c r="G584" s="27"/>
+      <c r="H584" s="26"/>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585" s="28">
+        <v>14</v>
+      </c>
+      <c r="B585" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C585" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D585" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E585" s="26"/>
+      <c r="F585" s="26"/>
+      <c r="G585" s="27"/>
+      <c r="H585" s="26"/>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586" s="28">
+        <v>14</v>
+      </c>
+      <c r="B586" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C586" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D586" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E586" s="26"/>
+      <c r="F586" s="26"/>
+      <c r="G586" s="27"/>
+      <c r="H586" s="26"/>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587" s="28">
+        <v>13</v>
+      </c>
+      <c r="B587" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C587" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D587" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E587" s="26"/>
+      <c r="F587" s="26"/>
+      <c r="G587" s="27"/>
+      <c r="H587" s="26"/>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A588" s="28">
+        <v>13</v>
+      </c>
+      <c r="B588" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C588" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D588" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E588" s="26"/>
+      <c r="F588" s="26"/>
+      <c r="G588" s="27"/>
+      <c r="H588" s="26"/>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589" s="28">
+        <v>14</v>
+      </c>
+      <c r="B589" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C589" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D589" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E589" s="26"/>
+      <c r="F589" s="26"/>
+      <c r="G589" s="27"/>
+      <c r="H589" s="26"/>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A590" s="28">
+        <v>14</v>
+      </c>
+      <c r="B590" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C590" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D590" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E590" s="26"/>
+      <c r="F590" s="26"/>
+      <c r="G590" s="27"/>
+      <c r="H590" s="26"/>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A591" s="28">
+        <v>14</v>
+      </c>
+      <c r="B591" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C591" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E591" s="26"/>
+      <c r="F591" s="26"/>
+      <c r="G591" s="27"/>
+      <c r="H591" s="26"/>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A592" s="28">
+        <v>14</v>
+      </c>
+      <c r="B592" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C592" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D592" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E592" s="26"/>
+      <c r="F592" s="26"/>
+      <c r="G592" s="27"/>
+      <c r="H592" s="26"/>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593" s="28">
+        <v>14</v>
+      </c>
+      <c r="B593" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C593" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D593" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E593" s="26"/>
+      <c r="F593" s="26"/>
+      <c r="G593" s="27"/>
+      <c r="H593" s="26"/>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594" s="28">
+        <v>14</v>
+      </c>
+      <c r="B594" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C594" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D594" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E594" s="26"/>
+      <c r="F594" s="26"/>
+      <c r="G594" s="27"/>
+      <c r="H594" s="26"/>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595" s="28">
+        <v>14</v>
+      </c>
+      <c r="B595" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C595" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D595" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E595" s="26"/>
+      <c r="F595" s="26"/>
+      <c r="G595" s="27"/>
+      <c r="H595" s="26"/>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596" s="28">
+        <v>14</v>
+      </c>
+      <c r="B596" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C596" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E596" s="26"/>
+      <c r="F596" s="25"/>
+      <c r="G596" s="27">
+        <v>7</v>
+      </c>
+      <c r="H596" s="26"/>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597" s="28">
+        <v>14</v>
+      </c>
+      <c r="B597" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C597" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D597" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E597" s="26"/>
+      <c r="F597" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="G597" s="27"/>
+      <c r="H597" s="26"/>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598" s="28">
+        <v>14</v>
+      </c>
+      <c r="B598" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C598" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D598" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E598" s="26"/>
+      <c r="F598" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G598" s="27"/>
+      <c r="H598" s="26"/>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599" s="28">
+        <v>14</v>
+      </c>
+      <c r="B599" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C599" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D599" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E599" s="26"/>
+      <c r="F599" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G599" s="27"/>
+      <c r="H599" s="26"/>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600" s="28">
+        <v>14</v>
+      </c>
+      <c r="B600" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C600" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D600" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E600" s="26"/>
+      <c r="F600" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G600" s="27"/>
+      <c r="H600" s="26"/>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601" s="28">
+        <v>14</v>
+      </c>
+      <c r="B601" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C601" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D601" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E601" s="26"/>
+      <c r="F601" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G601" s="27"/>
+      <c r="H601" s="26"/>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602" s="28">
+        <v>14</v>
+      </c>
+      <c r="B602" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C602" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D602" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E602" s="26"/>
+      <c r="F602" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G602" s="27"/>
+      <c r="H602" s="26"/>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603" s="28">
+        <v>14</v>
+      </c>
+      <c r="B603" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C603" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D603" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E603" s="26"/>
+      <c r="F603" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G603" s="27"/>
+      <c r="H603" s="26"/>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604" s="28">
+        <v>14</v>
+      </c>
+      <c r="B604" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C604" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D604" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E604" s="26"/>
+      <c r="F604" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G604" s="27"/>
+      <c r="H604" s="26"/>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605" s="28">
+        <v>14</v>
+      </c>
+      <c r="B605" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C605" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D605" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E605" s="26"/>
+      <c r="F605" s="26"/>
+      <c r="G605" s="27"/>
+      <c r="H605" s="26"/>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606" s="28">
+        <v>14</v>
+      </c>
+      <c r="B606" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C606" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D606" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E606" s="26"/>
+      <c r="F606" s="26">
+        <v>1</v>
+      </c>
+      <c r="G606" s="27"/>
+      <c r="H606" s="29" t="s">
+        <v>437</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -6770,7 +13978,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" tabRatio="910" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" tabRatio="910" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -2481,8 +2481,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,8 +2545,8 @@
       <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="b">
-        <v>0</v>
+      <c r="E3" s="26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2665,7 +2665,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2682,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2699,7 +2699,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2716,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2765,7 +2765,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\surveyor-qa\selenium-wd\data\"/>
     </mc:Choice>
@@ -46,7 +46,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="481">
   <si>
     <t>ID</t>
   </si>
@@ -1644,12 +1644,16 @@
   </si>
   <si>
     <t>Zoom Level: 17</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2081,12 +2085,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2194,14 +2198,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2487,12 +2491,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="68" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.21875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" style="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="21" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="15.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="68.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="9.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="6.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="13" width="26.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,6 +2535,9 @@
       <c r="E2" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
@@ -2548,6 +2555,9 @@
       <c r="E3" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -2565,6 +2575,9 @@
       <c r="E4" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
@@ -2582,6 +2595,9 @@
       <c r="E5" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="F5" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
@@ -2598,6 +2614,9 @@
       </c>
       <c r="E6" s="26" t="b">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2771,14 +2790,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" style="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.77734375" style="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="11" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="38.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="38.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="8.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="13" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -14111,7 +14130,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14136,15 +14155,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.88671875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="14" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="21" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="25.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="49.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="45.21875" collapsed="true"/>
+    <col min="5" max="14" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="17" width="25.21875" collapsed="true"/>
+    <col min="16" max="21" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="17" width="24.21875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="481">
   <si>
     <t>ID</t>
   </si>
@@ -1643,26 +1643,17 @@
     <t>Start Analyzer</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>CHECK DISABLED: DE1484</t>
   </si>
   <si>
     <t>Run the survey for 20 seconds</t>
-  </si>
-  <si>
-    <t>When adding field notes &amp; VerifyLISAIsShownOnMap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1724,13 +1715,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1744,17 +1728,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1771,12 +1750,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1837,15 +1815,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2531,10 +2506,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2581,11 +2556,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
@@ -2601,11 +2575,9 @@
         <v>3</v>
       </c>
       <c r="E3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -2623,12 +2595,7 @@
       <c r="E4" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" t="s">
-        <v>171</v>
-      </c>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
@@ -2644,14 +2611,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
@@ -2667,14 +2630,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
@@ -2690,14 +2649,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G7" t="s">
-        <v>166</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
@@ -2713,14 +2668,9 @@
         <v>8</v>
       </c>
       <c r="E8" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G8" t="s">
-        <v>166</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
@@ -2736,11 +2686,9 @@
         <v>8</v>
       </c>
       <c r="E9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
@@ -2756,11 +2704,9 @@
         <v>8</v>
       </c>
       <c r="E10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -2776,14 +2722,9 @@
         <v>8</v>
       </c>
       <c r="E11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G11" t="s">
-        <v>171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
@@ -2799,14 +2740,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>483</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
@@ -2822,11 +2759,9 @@
         <v>8</v>
       </c>
       <c r="E13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
@@ -2842,14 +2777,9 @@
         <v>8</v>
       </c>
       <c r="E14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G14" t="s">
-        <v>171</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
@@ -2865,11 +2795,21 @@
         <v>8</v>
       </c>
       <c r="E15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2883,8 +2823,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2992,19 +2932,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="27">
-        <v>3</v>
-      </c>
+      <c r="G6" s="27"/>
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3012,17 +2950,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27">
+        <v>3</v>
+      </c>
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3461,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3749,19 +3689,17 @@
         <v>2</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
-      <c r="G52" s="27">
-        <v>3</v>
-      </c>
+      <c r="G52" s="27"/>
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3769,17 +3707,19 @@
         <v>2</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
+      <c r="G53" s="27">
+        <v>3</v>
+      </c>
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4238,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4628,19 +4568,17 @@
         <v>3</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
-      <c r="G99" s="27">
-        <v>3</v>
-      </c>
+      <c r="G99" s="27"/>
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4648,17 +4586,19 @@
         <v>3</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
+      <c r="G100" s="27">
+        <v>3</v>
+      </c>
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4740,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>327</v>
@@ -5062,7 +5002,7 @@
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5416,19 +5356,17 @@
         <v>4</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E141" s="26"/>
       <c r="F141" s="26"/>
-      <c r="G141" s="27">
-        <v>3</v>
-      </c>
+      <c r="G141" s="27"/>
       <c r="H141" s="26"/>
     </row>
     <row r="142" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5436,17 +5374,19 @@
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E142" s="26"/>
       <c r="F142" s="26"/>
-      <c r="G142" s="27"/>
+      <c r="G142" s="27">
+        <v>3</v>
+      </c>
       <c r="H142" s="26"/>
     </row>
     <row r="143" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5528,7 +5468,7 @@
         <v>4</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>327</v>
@@ -5850,7 +5790,7 @@
       </c>
       <c r="G164" s="14"/>
       <c r="H164" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6204,19 +6144,17 @@
         <v>5</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
-      <c r="G183" s="27">
-        <v>3</v>
-      </c>
+      <c r="G183" s="27"/>
       <c r="H183" s="26"/>
     </row>
     <row r="184" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6224,17 +6162,19 @@
         <v>5</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E184" s="26"/>
       <c r="F184" s="26"/>
-      <c r="G184" s="27"/>
+      <c r="G184" s="27">
+        <v>3</v>
+      </c>
       <c r="H184" s="26"/>
     </row>
     <row r="185" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6316,7 +6256,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>327</v>
@@ -6638,7 +6578,7 @@
       </c>
       <c r="G206" s="14"/>
       <c r="H206" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6992,19 +6932,17 @@
         <v>6</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E225" s="26"/>
       <c r="F225" s="26"/>
-      <c r="G225" s="27">
-        <v>3</v>
-      </c>
+      <c r="G225" s="27"/>
       <c r="H225" s="26"/>
     </row>
     <row r="226" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7012,17 +6950,19 @@
         <v>6</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E226" s="26"/>
       <c r="F226" s="26"/>
-      <c r="G226" s="27"/>
+      <c r="G226" s="27">
+        <v>3</v>
+      </c>
       <c r="H226" s="26"/>
     </row>
     <row r="227" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7104,7 +7044,7 @@
         <v>6</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>327</v>
@@ -7426,7 +7366,7 @@
       </c>
       <c r="G248" s="14"/>
       <c r="H248" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="249" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7780,19 +7720,17 @@
         <v>7</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E267" s="26"/>
       <c r="F267" s="26"/>
-      <c r="G267" s="27">
-        <v>3</v>
-      </c>
+      <c r="G267" s="27"/>
       <c r="H267" s="26"/>
     </row>
     <row r="268" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7800,17 +7738,19 @@
         <v>7</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E268" s="26"/>
       <c r="F268" s="26"/>
-      <c r="G268" s="27"/>
+      <c r="G268" s="27">
+        <v>3</v>
+      </c>
       <c r="H268" s="26"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -7892,7 +7832,7 @@
         <v>7</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C273" s="26" t="s">
         <v>327</v>
@@ -8394,7 +8334,7 @@
       </c>
       <c r="G300" s="27"/>
       <c r="H300" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8768,19 +8708,17 @@
         <v>8</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E320" s="26"/>
       <c r="F320" s="26"/>
-      <c r="G320" s="27">
-        <v>3</v>
-      </c>
+      <c r="G320" s="27"/>
       <c r="H320" s="26"/>
     </row>
     <row r="321" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -8788,17 +8726,19 @@
         <v>8</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E321" s="26"/>
       <c r="F321" s="26"/>
-      <c r="G321" s="27"/>
+      <c r="G321" s="27">
+        <v>3</v>
+      </c>
       <c r="H321" s="26"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -8880,7 +8820,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C326" s="26" t="s">
         <v>327</v>
@@ -9437,7 +9377,7 @@
       </c>
       <c r="G356" s="27"/>
       <c r="H356" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -9831,19 +9771,17 @@
         <v>9</v>
       </c>
       <c r="B377" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C377" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D377" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E377" s="26"/>
       <c r="F377" s="26"/>
-      <c r="G377" s="27">
-        <v>3</v>
-      </c>
+      <c r="G377" s="27"/>
       <c r="H377" s="26"/>
     </row>
     <row r="378" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -9851,17 +9789,19 @@
         <v>9</v>
       </c>
       <c r="B378" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C378" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E378" s="26"/>
       <c r="F378" s="26"/>
-      <c r="G378" s="27"/>
+      <c r="G378" s="27">
+        <v>3</v>
+      </c>
       <c r="H378" s="26"/>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -9943,7 +9883,7 @@
         <v>9</v>
       </c>
       <c r="B383" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C383" s="26" t="s">
         <v>327</v>
@@ -10265,7 +10205,7 @@
       </c>
       <c r="G400" s="27"/>
       <c r="H400" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -10637,19 +10577,17 @@
         <v>10</v>
       </c>
       <c r="B420" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C420" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D420" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E420" s="26"/>
       <c r="F420" s="26"/>
-      <c r="G420" s="27">
-        <v>3</v>
-      </c>
+      <c r="G420" s="27"/>
       <c r="H420" s="26"/>
     </row>
     <row r="421" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -10657,17 +10595,19 @@
         <v>10</v>
       </c>
       <c r="B421" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C421" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D421" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E421" s="26"/>
       <c r="F421" s="26"/>
-      <c r="G421" s="27"/>
+      <c r="G421" s="27">
+        <v>3</v>
+      </c>
       <c r="H421" s="26"/>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -10749,7 +10689,7 @@
         <v>10</v>
       </c>
       <c r="B426" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C426" s="26" t="s">
         <v>327</v>
@@ -11144,7 +11084,7 @@
       </c>
       <c r="G447" s="27"/>
       <c r="H447" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
@@ -11518,19 +11458,17 @@
         <v>11</v>
       </c>
       <c r="B467" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C467" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E467" s="26"/>
       <c r="F467" s="26"/>
-      <c r="G467" s="27">
-        <v>3</v>
-      </c>
+      <c r="G467" s="27"/>
       <c r="H467" s="26"/>
     </row>
     <row r="468" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -11538,17 +11476,19 @@
         <v>11</v>
       </c>
       <c r="B468" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C468" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D468" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E468" s="26"/>
       <c r="F468" s="26"/>
-      <c r="G468" s="27"/>
+      <c r="G468" s="27">
+        <v>3</v>
+      </c>
       <c r="H468" s="26"/>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -11630,7 +11570,7 @@
         <v>11</v>
       </c>
       <c r="B473" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C473" s="26" t="s">
         <v>327</v>
@@ -12025,7 +11965,7 @@
       </c>
       <c r="G494" s="27"/>
       <c r="H494" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
@@ -12399,19 +12339,17 @@
         <v>12</v>
       </c>
       <c r="B514" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C514" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D514" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E514" s="26"/>
       <c r="F514" s="26"/>
-      <c r="G514" s="27">
-        <v>3</v>
-      </c>
+      <c r="G514" s="27"/>
       <c r="H514" s="26"/>
     </row>
     <row r="515" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -12419,17 +12357,19 @@
         <v>12</v>
       </c>
       <c r="B515" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C515" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D515" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E515" s="26"/>
       <c r="F515" s="26"/>
-      <c r="G515" s="27"/>
+      <c r="G515" s="27">
+        <v>3</v>
+      </c>
       <c r="H515" s="26"/>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
@@ -12511,7 +12451,7 @@
         <v>12</v>
       </c>
       <c r="B520" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C520" s="26" t="s">
         <v>327</v>
@@ -12833,7 +12773,7 @@
       </c>
       <c r="G537" s="27"/>
       <c r="H537" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
@@ -13205,19 +13145,17 @@
         <v>13</v>
       </c>
       <c r="B557" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C557" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D557" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E557" s="26"/>
       <c r="F557" s="26"/>
-      <c r="G557" s="27">
-        <v>3</v>
-      </c>
+      <c r="G557" s="27"/>
       <c r="H557" s="26"/>
     </row>
     <row r="558" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -13225,17 +13163,19 @@
         <v>13</v>
       </c>
       <c r="B558" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C558" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D558" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E558" s="26"/>
       <c r="F558" s="26"/>
-      <c r="G558" s="27"/>
+      <c r="G558" s="27">
+        <v>3</v>
+      </c>
       <c r="H558" s="26"/>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
@@ -13317,7 +13257,7 @@
         <v>13</v>
       </c>
       <c r="B563" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C563" s="26" t="s">
         <v>327</v>
@@ -13712,7 +13652,7 @@
       </c>
       <c r="G584" s="27"/>
       <c r="H584" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.3">
@@ -14086,19 +14026,17 @@
         <v>14</v>
       </c>
       <c r="B604" s="25" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="C604" s="26" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="D604" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E604" s="26"/>
       <c r="F604" s="26"/>
-      <c r="G604" s="27">
-        <v>3</v>
-      </c>
+      <c r="G604" s="27"/>
       <c r="H604" s="26"/>
     </row>
     <row r="605" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -14106,17 +14044,19 @@
         <v>14</v>
       </c>
       <c r="B605" s="25" t="s">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="C605" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D605" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E605" s="26"/>
       <c r="F605" s="26"/>
-      <c r="G605" s="27"/>
+      <c r="G605" s="27">
+        <v>3</v>
+      </c>
       <c r="H605" s="26"/>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.3">
@@ -14198,7 +14138,7 @@
         <v>14</v>
       </c>
       <c r="B610" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C610" s="26" t="s">
         <v>327</v>
@@ -14520,7 +14460,7 @@
       </c>
       <c r="G627" s="27"/>
       <c r="H627" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.3">
@@ -14813,10 +14753,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D557:D558 D267:D268 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D604:D605 D2:D262 D327:D328 D427:D428 D474:D475 D564:D565">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D223 D224:D262">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4248">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C223 C224:C4248">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\surveyor-qa\selenium-wd\data\"/>
     </mc:Choice>
@@ -46,7 +46,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="482">
   <si>
     <t>ID</t>
   </si>
@@ -1647,12 +1647,16 @@
   </si>
   <si>
     <t>Run the survey for 20 seconds</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2108,12 +2112,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,14 +2225,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2514,12 +2518,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5546875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="68" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.21875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" style="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="21" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="15.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="68.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="9.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="6.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="13" width="26.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2558,7 +2562,9 @@
       <c r="E2" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" t="s">
+        <v>481</v>
+      </c>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2577,7 +2583,9 @@
       <c r="E3" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -2829,14 +2837,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" style="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.77734375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.77734375" style="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="11" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="38.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="38.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="13" width="8.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="18.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="13" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -14764,7 +14772,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14789,15 +14797,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.88671875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="14" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="21" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="25.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="49.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="45.21875" collapsed="true"/>
+    <col min="5" max="14" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="17" width="25.21875" collapsed="true"/>
+    <col min="16" max="21" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="17" width="24.21875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="17" width="22.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="622">
   <si>
     <t>ID</t>
   </si>
@@ -1863,13 +1863,220 @@
   </si>
   <si>
     <t>verifySurveyInfoTimeRemainingLabelIsTickingBackward</t>
+  </si>
+  <si>
+    <t>TC1227</t>
+  </si>
+  <si>
+    <t>TC1230</t>
+  </si>
+  <si>
+    <t>TC1261</t>
+  </si>
+  <si>
+    <t>TC1269</t>
+  </si>
+  <si>
+    <t>TC1420</t>
+  </si>
+  <si>
+    <t>TC1421</t>
+  </si>
+  <si>
+    <t>TC1422</t>
+  </si>
+  <si>
+    <t>TC1428</t>
+  </si>
+  <si>
+    <t>Start Driving Survey - Curtain view</t>
+  </si>
+  <si>
+    <t>Verify restrictions on the maximum zoom level at which assets are displayed</t>
+  </si>
+  <si>
+    <t>Driver View - Returning from Curtain View should restore user selected map view combination</t>
+  </si>
+  <si>
+    <t>Navigate to Driver view when system is shutdown</t>
+  </si>
+  <si>
+    <t>Assessment mode - Satellite View - Driver view has only breadcrumb and FOV; no LISAs or indications</t>
+  </si>
+  <si>
+    <t>Assessment mode Satelite View - Reference Bottle Measurement and Isotopic Capture buttons not present</t>
+  </si>
+  <si>
+    <t>Assessment mode Satellite View - LISA, Indications, Isotopic Analysis, Field Notes not present in Display menu</t>
+  </si>
+  <si>
+    <t>Assessment mode - Map View - Driver view has only breadcrumb and FOV; no LISAs or indications</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Left Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Right Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Up Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Down Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Zoom Out Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Zoom In Button</t>
+  </si>
+  <si>
+    <t>Click on Return Button</t>
+  </si>
+  <si>
+    <t>Turn Position Button OFF</t>
+  </si>
+  <si>
+    <t>Verify blue curtain appears</t>
+  </si>
+  <si>
+    <t>Verify map rotates clockwise</t>
+  </si>
+  <si>
+    <t>Verify map rotates counter-clockwise</t>
+  </si>
+  <si>
+    <t>Verify map foreground tilts up</t>
+  </si>
+  <si>
+    <t>Verify map foreground tilts down</t>
+  </si>
+  <si>
+    <t>Verify map zooms out</t>
+  </si>
+  <si>
+    <t>Verify map zooms in</t>
+  </si>
+  <si>
+    <t>Verify Position is turned OFF</t>
+  </si>
+  <si>
+    <t>Verify map moves to the right</t>
+  </si>
+  <si>
+    <t>Verify map moves to the left</t>
+  </si>
+  <si>
+    <t>Verify map moves down</t>
+  </si>
+  <si>
+    <t>Verify map moves up</t>
+  </si>
+  <si>
+    <t>Verify Assets displayed on Map</t>
+  </si>
+  <si>
+    <t>Wait for 5 seconds</t>
+  </si>
+  <si>
+    <t>Wait 2 seconds</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Return Button</t>
+  </si>
+  <si>
+    <t>Click Stop Survey Button</t>
+  </si>
+  <si>
+    <t>Click Shutdown Button</t>
+  </si>
+  <si>
+    <t>Click Shutdown Confirmation Button</t>
+  </si>
+  <si>
+    <t>Verify Dashboard page</t>
+  </si>
+  <si>
+    <t>Wait 10 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Light Survey Type: Assessment </t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Light Survey Type: Assessment</t>
+  </si>
+  <si>
+    <t>Verify Indications NOT displayed on Map</t>
+  </si>
+  <si>
+    <t>Click on Mode Button</t>
+  </si>
+  <si>
+    <t>Verify Stop Survey button is present on menu</t>
+  </si>
+  <si>
+    <t>Verify Isotopic Capture button is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Reference Bottle Measurement button is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Click on Display Button</t>
+  </si>
+  <si>
+    <t>Verify 8 Hour History option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify Windrose option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify FOV option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify LISA option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Field Notes option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Isotopic Analysis is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Indications option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>US 2045 filed</t>
+  </si>
+  <si>
+    <t>US 2046 filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Mode Button </t>
+  </si>
+  <si>
+    <t>DE1636 filed</t>
+  </si>
+  <si>
+    <t>US2049 filed</t>
+  </si>
+  <si>
+    <t>US2025</t>
+  </si>
+  <si>
+    <t>DE1646 filed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,8 +2150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1962,6 +2175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1976,7 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2050,6 +2269,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2738,10 +2974,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2788,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -2807,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="26"/>
     </row>
@@ -2825,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="26"/>
     </row>
@@ -2843,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="6"/>
@@ -2862,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="6"/>
@@ -2881,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="6"/>
@@ -2900,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -2918,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -2936,7 +3172,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="26"/>
     </row>
@@ -2954,7 +3190,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -2972,7 +3208,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -2991,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="26"/>
     </row>
@@ -3009,7 +3245,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="26"/>
     </row>
@@ -3027,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="26"/>
     </row>
@@ -3045,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="26"/>
     </row>
@@ -3063,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="26"/>
     </row>
@@ -3081,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="26"/>
     </row>
@@ -3099,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="26"/>
     </row>
@@ -3117,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3134,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3168,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3185,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3202,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3219,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3236,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3253,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3270,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3287,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3304,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3321,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3338,8 +3574,147 @@
         <v>4</v>
       </c>
       <c r="E33" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D34" s="13">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D35" s="26">
+        <v>4</v>
+      </c>
+      <c r="E35" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="26">
+        <v>4</v>
+      </c>
+      <c r="E36" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" s="26">
+        <v>4</v>
+      </c>
+      <c r="E37" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>37</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D38" s="26">
+        <v>4</v>
+      </c>
+      <c r="E38" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="26">
+        <v>4</v>
+      </c>
+      <c r="E39" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D40" s="26">
+        <v>4</v>
+      </c>
+      <c r="E40" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>40</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" s="26">
+        <v>4</v>
+      </c>
+      <c r="E41" s="26" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3351,10 +3726,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H1429"/>
+  <dimension ref="A1:H1580"/>
   <sheetViews>
-    <sheetView topLeftCell="A1402" workbookViewId="0">
-      <selection activeCell="E1424" sqref="E1424"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1574" sqref="D1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30051,12 +30426,2764 @@
       <c r="G1429" s="27"/>
       <c r="H1429" s="26"/>
     </row>
+    <row r="1430" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1430" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1430" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1430" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1430" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1430" s="26"/>
+      <c r="F1430" s="26"/>
+      <c r="G1430" s="27"/>
+      <c r="H1430" s="26"/>
+    </row>
+    <row r="1431" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1431" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1431" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1431" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1431" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1431" s="26"/>
+      <c r="F1431" s="26"/>
+      <c r="G1431" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1431" s="26"/>
+    </row>
+    <row r="1432" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1432" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1432" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1432" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1432" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1432" s="26"/>
+      <c r="F1432" s="26"/>
+      <c r="G1432" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1432" s="26"/>
+    </row>
+    <row r="1433" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1433" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1433" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1433" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1433" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1433" s="26"/>
+      <c r="F1433" s="26"/>
+      <c r="G1433" s="27"/>
+      <c r="H1433" s="26"/>
+    </row>
+    <row r="1434" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1434" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1434" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1434" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1434" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1434" s="26"/>
+      <c r="F1434" s="26"/>
+      <c r="G1434" s="27"/>
+      <c r="H1434" s="26"/>
+    </row>
+    <row r="1435" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1435" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1435" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1435" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1435" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1435" s="26"/>
+      <c r="F1435" s="26"/>
+      <c r="G1435" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1435" s="26"/>
+    </row>
+    <row r="1436" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1436" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1436" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1436" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1436" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1436" s="26"/>
+      <c r="F1436" s="26"/>
+      <c r="G1436" s="27"/>
+      <c r="H1436" s="26"/>
+    </row>
+    <row r="1437" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1437" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1437" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1437" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1437" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1437" s="26"/>
+      <c r="F1437" s="26"/>
+      <c r="G1437" s="27">
+        <v>6</v>
+      </c>
+      <c r="H1437" s="26"/>
+    </row>
+    <row r="1438" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1438" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1438" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1438" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1438" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1438" s="29"/>
+      <c r="F1438" s="29"/>
+      <c r="G1438" s="40"/>
+      <c r="H1438" s="29"/>
+    </row>
+    <row r="1439" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1439" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1439" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1439" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1439" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1439" s="29"/>
+      <c r="F1439" s="29">
+        <v>1</v>
+      </c>
+      <c r="G1439" s="40"/>
+      <c r="H1439" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1440" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1440" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1440" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1440" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1441" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1441" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1441" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1441" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1441" s="26"/>
+      <c r="F1441" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1441" s="27"/>
+      <c r="H1441" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1442" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1442" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1442" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1442" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1443" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1443" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1443" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1443" s="26"/>
+      <c r="F1443" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1443" s="27"/>
+      <c r="H1443" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1444" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1444" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1444" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1444" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1445" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1445" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1445" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1445" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1445" s="26"/>
+      <c r="F1445" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1445" s="27"/>
+      <c r="H1445" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1446" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1446" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1446" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1446" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1447" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1447" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1447" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1447" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1447" s="26"/>
+      <c r="F1447" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1447" s="27"/>
+      <c r="H1447" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1448" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1448" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1448" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1448" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1449" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1449" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1449" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1449" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1449" s="26"/>
+      <c r="F1449" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1449" s="27"/>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1450" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1450" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1450" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1450" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1451" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1451" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1451" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1451" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1451" s="26"/>
+      <c r="F1451" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1451" s="27"/>
+      <c r="H1451" s="26"/>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1452" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1452" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1452" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1452" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1453" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1453" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1453" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1453" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1454" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1454" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1454" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1454" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1454" s="26"/>
+      <c r="F1454" s="26"/>
+      <c r="G1454" s="27"/>
+      <c r="H1454" s="26"/>
+    </row>
+    <row r="1455" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1455" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1455" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1455" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1455" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1455" s="29"/>
+      <c r="F1455" s="29"/>
+      <c r="G1455" s="40"/>
+      <c r="H1455" s="29"/>
+    </row>
+    <row r="1456" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1456" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1456" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1456" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1456" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1456" s="29"/>
+      <c r="F1456" s="29">
+        <v>1</v>
+      </c>
+      <c r="G1456" s="40"/>
+      <c r="H1456" s="29"/>
+    </row>
+    <row r="1457" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1457" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1457" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1457" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1457" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1457" s="26"/>
+      <c r="F1457" s="26"/>
+      <c r="G1457" s="27"/>
+      <c r="H1457" s="26"/>
+    </row>
+    <row r="1458" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1458" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1458" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1458" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1458" s="26"/>
+      <c r="F1458" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1458" s="27"/>
+      <c r="H1458" s="26"/>
+    </row>
+    <row r="1459" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1459" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1459" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1459" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1459" s="26"/>
+      <c r="F1459" s="26"/>
+      <c r="G1459" s="27"/>
+      <c r="H1459" s="26"/>
+    </row>
+    <row r="1460" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1460" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1460" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1460" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1460" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1460" s="26"/>
+      <c r="F1460" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1460" s="27"/>
+      <c r="H1460" s="26"/>
+    </row>
+    <row r="1461" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1461" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1461" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1461" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1461" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1461" s="26"/>
+      <c r="F1461" s="26"/>
+      <c r="G1461" s="27"/>
+      <c r="H1461" s="26"/>
+    </row>
+    <row r="1462" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1462" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1462" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1462" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1462" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1462" s="26"/>
+      <c r="F1462" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1462" s="27"/>
+      <c r="H1462" s="26"/>
+    </row>
+    <row r="1463" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1463" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1463" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1463" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1463" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1463" s="26"/>
+      <c r="F1463" s="26"/>
+      <c r="G1463" s="27"/>
+      <c r="H1463" s="26"/>
+    </row>
+    <row r="1464" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1464" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1464" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1464" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1464" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1464" s="26"/>
+      <c r="F1464" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1464" s="27"/>
+      <c r="H1464" s="26"/>
+    </row>
+    <row r="1465" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1465" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1465" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1465" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1465" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1465" s="26"/>
+      <c r="F1465" s="26"/>
+      <c r="G1465" s="27"/>
+      <c r="H1465" s="26"/>
+    </row>
+    <row r="1466" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1466" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1466" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1466" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1466" s="26"/>
+      <c r="F1466" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1466" s="27"/>
+      <c r="H1466" s="26"/>
+    </row>
+    <row r="1467" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1467" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1467" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1467" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1467" s="26"/>
+      <c r="F1467" s="26"/>
+      <c r="G1467" s="27"/>
+      <c r="H1467" s="26"/>
+    </row>
+    <row r="1468" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1468" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1468" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1468" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1468" s="26"/>
+      <c r="F1468" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1468" s="27"/>
+      <c r="H1468" s="26"/>
+    </row>
+    <row r="1469" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1469" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1469" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1469" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1469" s="26"/>
+      <c r="F1469" s="26"/>
+      <c r="G1469" s="27"/>
+      <c r="H1469" s="26"/>
+    </row>
+    <row r="1470" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1470" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1470" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1470" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1470" s="26"/>
+      <c r="F1470" s="26"/>
+      <c r="G1470" s="27"/>
+      <c r="H1470" s="26"/>
+    </row>
+    <row r="1471" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1471" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1471" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1471" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1471" s="26"/>
+      <c r="F1471" s="26"/>
+      <c r="G1471" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1471" s="26"/>
+    </row>
+    <row r="1472" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1472" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1472" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1472" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1472" s="26"/>
+      <c r="F1472" s="26"/>
+      <c r="G1472" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1472" s="26"/>
+    </row>
+    <row r="1473" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1473" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1473" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1473" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1473" s="26"/>
+      <c r="F1473" s="26"/>
+      <c r="G1473" s="27"/>
+      <c r="H1473" s="26"/>
+    </row>
+    <row r="1474" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1474" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1474" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1474" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1474" s="26"/>
+      <c r="F1474" s="26"/>
+      <c r="G1474" s="27"/>
+      <c r="H1474" s="26"/>
+    </row>
+    <row r="1475" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1475" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1475" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1475" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1475" s="26"/>
+      <c r="F1475" s="26"/>
+      <c r="G1475" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1475" s="26"/>
+    </row>
+    <row r="1476" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1476" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1476" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1476" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1476" s="26"/>
+      <c r="F1476" s="26"/>
+      <c r="G1476" s="27"/>
+      <c r="H1476" s="26"/>
+    </row>
+    <row r="1477" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1477" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1477" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1477" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1477" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1477" s="26"/>
+      <c r="F1477" s="26"/>
+      <c r="G1477" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1477" s="26"/>
+    </row>
+    <row r="1478" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1478" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1478" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1478" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1478" s="26"/>
+      <c r="F1478" s="26"/>
+      <c r="G1478" s="27"/>
+      <c r="H1478" s="26"/>
+    </row>
+    <row r="1479" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1479" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1479" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1479" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1479" s="26"/>
+      <c r="F1479" s="26"/>
+      <c r="G1479" s="27"/>
+      <c r="H1479" s="26"/>
+    </row>
+    <row r="1480" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1480" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1480" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1480" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1480" s="26"/>
+      <c r="F1480" s="26">
+        <v>2</v>
+      </c>
+      <c r="G1480" s="27"/>
+      <c r="H1480" s="26"/>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1481" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1481" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1481" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1481" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1482" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1482" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1482" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1482" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1483" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1483" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1483" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1483" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1484" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1484" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1484" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1484" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1485" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1485" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1485" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1485" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1486" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1486" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1486" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1486" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1487" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1487" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1487" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1487" s="26"/>
+      <c r="F1487" s="26">
+        <v>5</v>
+      </c>
+      <c r="G1487" s="27"/>
+      <c r="H1487" s="26"/>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1488" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1488" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1488" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1488" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1488" s="13">
+        <v>1</v>
+      </c>
+      <c r="H1488" s="31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1489" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1489" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1489" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1489" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1490" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1490" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1490" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1490" s="26"/>
+      <c r="F1490" s="26">
+        <v>5</v>
+      </c>
+      <c r="G1490" s="27"/>
+      <c r="H1490" s="26"/>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1491" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1491" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1491" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1491" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1492" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1492" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1492" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1492" s="26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1493" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1493" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1493" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1493" s="26"/>
+      <c r="F1493" s="26"/>
+      <c r="G1493" s="27"/>
+      <c r="H1493" s="26"/>
+    </row>
+    <row r="1494" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1494" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1494" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1494" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1494" s="26"/>
+      <c r="F1494" s="26"/>
+      <c r="G1494" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1494" s="26"/>
+    </row>
+    <row r="1495" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1495" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1495" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1495" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1495" s="26"/>
+      <c r="F1495" s="26"/>
+      <c r="G1495" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1495" s="26"/>
+    </row>
+    <row r="1496" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1496" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1496" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1496" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1496" s="26"/>
+      <c r="F1496" s="26"/>
+      <c r="G1496" s="27"/>
+      <c r="H1496" s="26"/>
+    </row>
+    <row r="1497" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1497" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1497" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1497" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1497" s="26"/>
+      <c r="F1497" s="26"/>
+      <c r="G1497" s="27"/>
+      <c r="H1497" s="26"/>
+    </row>
+    <row r="1498" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1498" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1498" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1498" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1498" s="26"/>
+      <c r="F1498" s="26"/>
+      <c r="G1498" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1498" s="26"/>
+    </row>
+    <row r="1499" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1499" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1499" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1499" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1499" s="26"/>
+      <c r="F1499" s="26"/>
+      <c r="G1499" s="27"/>
+      <c r="H1499" s="26"/>
+    </row>
+    <row r="1500" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1500" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1500" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1500" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1500" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1500" s="26"/>
+      <c r="F1500" s="26"/>
+      <c r="G1500" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1500" s="26"/>
+    </row>
+    <row r="1501" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1501" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1501" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1501" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1501" s="26"/>
+      <c r="F1501" s="26"/>
+      <c r="G1501" s="27"/>
+      <c r="H1501" s="26"/>
+    </row>
+    <row r="1502" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1502" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1502" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1502" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1502" s="26"/>
+      <c r="F1502" s="26"/>
+      <c r="G1502" s="27"/>
+      <c r="H1502" s="26"/>
+    </row>
+    <row r="1503" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="38">
+        <v>35</v>
+      </c>
+      <c r="B1503" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1503" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1503" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1503" s="29"/>
+      <c r="F1503" s="29"/>
+      <c r="G1503" s="40"/>
+      <c r="H1503" s="29"/>
+    </row>
+    <row r="1504" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="38">
+        <v>35</v>
+      </c>
+      <c r="B1504" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1504" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1504" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1504" s="29"/>
+      <c r="F1504" s="29"/>
+      <c r="G1504" s="40"/>
+      <c r="H1504" s="29"/>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1505" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1505" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1505" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1505" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1506" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1506" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1506" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1506" s="26"/>
+      <c r="F1506" s="26"/>
+      <c r="G1506" s="27"/>
+      <c r="H1506" s="26"/>
+    </row>
+    <row r="1507" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1507" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1507" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1507" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1507" s="26"/>
+      <c r="F1507" s="26"/>
+      <c r="G1507" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1507" s="26"/>
+    </row>
+    <row r="1508" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1508" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1508" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1508" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1508" s="26"/>
+      <c r="F1508" s="26"/>
+      <c r="G1508" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1508" s="26"/>
+    </row>
+    <row r="1509" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1509" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1509" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1509" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1509" s="26"/>
+      <c r="F1509" s="26"/>
+      <c r="G1509" s="27"/>
+      <c r="H1509" s="26"/>
+    </row>
+    <row r="1510" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1510" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1510" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1510" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1510" s="26"/>
+      <c r="F1510" s="26"/>
+      <c r="G1510" s="27"/>
+      <c r="H1510" s="26"/>
+    </row>
+    <row r="1511" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1511" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1511" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1511" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1511" s="26"/>
+      <c r="F1511" s="26"/>
+      <c r="G1511" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1511" s="26"/>
+    </row>
+    <row r="1512" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1512" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1512" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1512" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1512" s="26"/>
+      <c r="F1512" s="26"/>
+      <c r="G1512" s="27"/>
+      <c r="H1512" s="26"/>
+    </row>
+    <row r="1513" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1513" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1513" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1513" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1513" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1513" s="26"/>
+      <c r="F1513" s="26"/>
+      <c r="G1513" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1513" s="26"/>
+    </row>
+    <row r="1514" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1514" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1514" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1514" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1514" s="26"/>
+      <c r="F1514" s="26">
+        <v>10</v>
+      </c>
+      <c r="G1514" s="27"/>
+      <c r="H1514" s="26"/>
+    </row>
+    <row r="1515" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1515" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1515" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1515" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1515" s="26"/>
+      <c r="F1515" s="26"/>
+      <c r="G1515" s="27"/>
+      <c r="H1515" s="26"/>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1516" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1516" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1516" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1516" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1517" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1517" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1517" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1517" s="26"/>
+      <c r="F1517" s="26"/>
+      <c r="G1517" s="27"/>
+      <c r="H1517" s="26"/>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1518" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1518" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1518" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1518" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1519" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1519" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1519" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1519" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1520" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1520" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1520" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1520" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1520" s="13">
+        <v>1</v>
+      </c>
+      <c r="H1520" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1521" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1521" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1521" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1521" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1521" s="26"/>
+      <c r="F1521" s="26"/>
+      <c r="G1521" s="27"/>
+      <c r="H1521" s="26"/>
+    </row>
+    <row r="1522" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1522" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1522" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1522" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1522" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1522" s="26"/>
+      <c r="F1522" s="26"/>
+      <c r="G1522" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1522" s="26"/>
+    </row>
+    <row r="1523" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1523" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1523" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1523" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1523" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1523" s="26"/>
+      <c r="F1523" s="26"/>
+      <c r="G1523" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1523" s="26"/>
+    </row>
+    <row r="1524" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1524" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1524" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1524" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1524" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1524" s="26"/>
+      <c r="F1524" s="26"/>
+      <c r="G1524" s="27"/>
+      <c r="H1524" s="26"/>
+    </row>
+    <row r="1525" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1525" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1525" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1525" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1525" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1525" s="26"/>
+      <c r="F1525" s="26"/>
+      <c r="G1525" s="27"/>
+      <c r="H1525" s="26"/>
+    </row>
+    <row r="1526" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1526" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1526" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1526" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1526" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1526" s="26"/>
+      <c r="F1526" s="26"/>
+      <c r="G1526" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1526" s="26"/>
+    </row>
+    <row r="1527" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1527" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1527" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1527" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1527" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1527" s="26"/>
+      <c r="F1527" s="26"/>
+      <c r="G1527" s="27"/>
+      <c r="H1527" s="26"/>
+    </row>
+    <row r="1528" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1528" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1528" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1528" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1528" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1528" s="26"/>
+      <c r="F1528" s="26"/>
+      <c r="G1528" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1528" s="26"/>
+    </row>
+    <row r="1529" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1529" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1529" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1529" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1529" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1529" s="26"/>
+      <c r="F1529" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1529" s="27"/>
+      <c r="H1529" s="26"/>
+    </row>
+    <row r="1530" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1530" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1530" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1530" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1530" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1530" s="26"/>
+      <c r="F1530" s="26"/>
+      <c r="G1530" s="27"/>
+      <c r="H1530" s="26"/>
+    </row>
+    <row r="1531" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1531" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1531" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1531" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1531" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1531" s="26"/>
+      <c r="F1531" s="26"/>
+      <c r="G1531" s="27"/>
+      <c r="H1531" s="26"/>
+    </row>
+    <row r="1532" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1532" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1532" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1532" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1532" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1532" s="26"/>
+      <c r="F1532" s="26"/>
+      <c r="G1532" s="27"/>
+      <c r="H1532" s="26"/>
+    </row>
+    <row r="1533" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1533" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1533" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1533" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1533" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1533" s="26"/>
+      <c r="F1533" s="26"/>
+      <c r="G1533" s="27"/>
+      <c r="H1533" s="26"/>
+    </row>
+    <row r="1534" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1534" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1534" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1534" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1534" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1534" s="26"/>
+      <c r="F1534" s="26"/>
+      <c r="G1534" s="27"/>
+      <c r="H1534" s="26"/>
+    </row>
+    <row r="1535" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1535" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1535" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1535" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1535" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1535" s="26"/>
+      <c r="F1535" s="26"/>
+      <c r="G1535" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1535" s="26"/>
+    </row>
+    <row r="1536" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1536" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1536" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1536" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1536" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1536" s="26"/>
+      <c r="F1536" s="26"/>
+      <c r="G1536" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1536" s="26"/>
+    </row>
+    <row r="1537" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1537" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1537" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1537" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1537" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1537" s="26"/>
+      <c r="F1537" s="26"/>
+      <c r="G1537" s="27"/>
+      <c r="H1537" s="26"/>
+    </row>
+    <row r="1538" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1538" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1538" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1538" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1538" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1538" s="26"/>
+      <c r="F1538" s="26"/>
+      <c r="G1538" s="27"/>
+      <c r="H1538" s="26"/>
+    </row>
+    <row r="1539" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1539" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1539" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1539" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1539" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1539" s="26"/>
+      <c r="F1539" s="26"/>
+      <c r="G1539" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1539" s="26"/>
+    </row>
+    <row r="1540" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1540" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1540" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1540" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1540" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1540" s="26"/>
+      <c r="F1540" s="26"/>
+      <c r="G1540" s="27"/>
+      <c r="H1540" s="26"/>
+    </row>
+    <row r="1541" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1541" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1541" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1541" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1541" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1541" s="26"/>
+      <c r="F1541" s="26"/>
+      <c r="G1541" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1541" s="26"/>
+    </row>
+    <row r="1542" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1542" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1542" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1542" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1542" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1542" s="26"/>
+      <c r="F1542" s="26"/>
+      <c r="G1542" s="27"/>
+      <c r="H1542" s="26"/>
+    </row>
+    <row r="1543" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1543" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1543" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1543" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1543" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1543" s="26"/>
+      <c r="F1543" s="26"/>
+      <c r="G1543" s="27"/>
+      <c r="H1543" s="26"/>
+    </row>
+    <row r="1544" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1544" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1544" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1544" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1544" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1544" s="26"/>
+      <c r="F1544" s="26"/>
+      <c r="G1544" s="27"/>
+      <c r="H1544" s="26"/>
+    </row>
+    <row r="1545" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1545" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1545" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1545" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1545" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1545" s="26"/>
+      <c r="F1545" s="26">
+        <v>1</v>
+      </c>
+      <c r="H1545" s="43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1546" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1546" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1546" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1546" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1546" s="26"/>
+      <c r="F1546" s="26"/>
+      <c r="G1546" s="27"/>
+      <c r="H1546" s="26"/>
+    </row>
+    <row r="1547" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1547" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1547" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1547" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1547" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1547" s="26"/>
+      <c r="F1547" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1547" s="27"/>
+      <c r="H1547" s="43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1548" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1548" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1548" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1548" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1548" s="26"/>
+      <c r="F1548" s="26"/>
+      <c r="G1548" s="27"/>
+      <c r="H1548" s="26"/>
+    </row>
+    <row r="1549" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1549" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1549" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1549" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1549" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1549" s="26"/>
+      <c r="F1549" s="26"/>
+      <c r="G1549" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1549" s="26"/>
+    </row>
+    <row r="1550" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1550" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1550" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1550" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1550" s="26"/>
+      <c r="F1550" s="26"/>
+      <c r="G1550" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1550" s="26"/>
+    </row>
+    <row r="1551" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1551" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1551" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1551" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1551" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1551" s="26"/>
+      <c r="F1551" s="26"/>
+      <c r="G1551" s="27"/>
+      <c r="H1551" s="26"/>
+    </row>
+    <row r="1552" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1552" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1552" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1552" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1552" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1552" s="26"/>
+      <c r="F1552" s="26"/>
+      <c r="G1552" s="27"/>
+      <c r="H1552" s="26"/>
+    </row>
+    <row r="1553" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1553" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1553" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1553" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1553" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1553" s="26"/>
+      <c r="F1553" s="26"/>
+      <c r="G1553" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1553" s="26"/>
+    </row>
+    <row r="1554" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1554" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1554" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1554" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1554" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1554" s="26"/>
+      <c r="F1554" s="26"/>
+      <c r="G1554" s="27"/>
+      <c r="H1554" s="26"/>
+    </row>
+    <row r="1555" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1555" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1555" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1555" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1555" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1555" s="26"/>
+      <c r="F1555" s="26"/>
+      <c r="G1555" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1555" s="26"/>
+    </row>
+    <row r="1556" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1556" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1556" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1556" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1556" s="26"/>
+      <c r="F1556" s="26"/>
+      <c r="G1556" s="27"/>
+      <c r="H1556" s="26"/>
+    </row>
+    <row r="1557" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1557" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1557" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1557" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1557" s="26"/>
+      <c r="F1557" s="26"/>
+      <c r="G1557" s="27"/>
+      <c r="H1557" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1558" s="28"/>
+      <c r="B1558" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1558" s="26"/>
+      <c r="D1558" s="26"/>
+      <c r="E1558" s="26"/>
+      <c r="F1558" s="26"/>
+      <c r="G1558" s="27"/>
+      <c r="H1558" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1559" s="28"/>
+      <c r="B1559" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1559" s="26"/>
+      <c r="D1559" s="26"/>
+      <c r="E1559" s="26"/>
+      <c r="F1559" s="26"/>
+      <c r="G1559" s="27"/>
+      <c r="H1559" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1560" s="28"/>
+      <c r="B1560" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1560" s="26"/>
+      <c r="D1560" s="26"/>
+      <c r="E1560" s="26"/>
+      <c r="F1560" s="26"/>
+      <c r="G1560" s="27"/>
+      <c r="H1560" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1561" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1561" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1561" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1561" s="26"/>
+      <c r="F1561" s="26"/>
+      <c r="G1561" s="27"/>
+      <c r="H1561" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1562" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1562" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1562" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1562" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1562" s="26"/>
+      <c r="F1562" s="26"/>
+      <c r="G1562" s="27"/>
+      <c r="H1562" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1563" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1563" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1563" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1563" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1563" s="26"/>
+      <c r="F1563" s="26"/>
+      <c r="G1563" s="27"/>
+      <c r="H1563" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1564" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1564" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1564" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1564" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1564" s="26"/>
+      <c r="F1564" s="26"/>
+      <c r="G1564" s="27"/>
+      <c r="H1564" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1565" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1565" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1565" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1565" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1565" s="26"/>
+      <c r="F1565" s="26"/>
+      <c r="G1565" s="27"/>
+      <c r="H1565" s="26"/>
+    </row>
+    <row r="1566" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1566" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1566" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1566" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1566" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1566" s="26"/>
+      <c r="F1566" s="26"/>
+      <c r="G1566" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1566" s="26"/>
+    </row>
+    <row r="1567" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1567" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1567" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1567" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1567" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1567" s="26"/>
+      <c r="F1567" s="26"/>
+      <c r="G1567" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1567" s="26"/>
+    </row>
+    <row r="1568" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1568" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1568" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1568" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1568" s="26"/>
+      <c r="F1568" s="26"/>
+      <c r="G1568" s="27"/>
+      <c r="H1568" s="26"/>
+    </row>
+    <row r="1569" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1569" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1569" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1569" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1569" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1569" s="26"/>
+      <c r="F1569" s="26"/>
+      <c r="G1569" s="27"/>
+      <c r="H1569" s="26"/>
+    </row>
+    <row r="1570" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1570" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1570" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1570" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1570" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1570" s="26"/>
+      <c r="F1570" s="26"/>
+      <c r="G1570" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1570" s="26"/>
+    </row>
+    <row r="1571" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1571" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1571" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1571" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1571" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1571" s="26"/>
+      <c r="F1571" s="26"/>
+      <c r="G1571" s="27"/>
+      <c r="H1571" s="26"/>
+    </row>
+    <row r="1572" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1572" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1572" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1572" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1572" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1572" s="26"/>
+      <c r="F1572" s="26"/>
+      <c r="G1572" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1572" s="26"/>
+    </row>
+    <row r="1573" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1573" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1573" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1573" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1573" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1573" s="26"/>
+      <c r="F1573" s="26"/>
+      <c r="G1573" s="27"/>
+      <c r="H1573" s="26"/>
+    </row>
+    <row r="1574" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1574" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1574" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1574" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1574" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1574" s="26"/>
+      <c r="F1574" s="26"/>
+      <c r="G1574" s="27"/>
+      <c r="H1574" s="26"/>
+    </row>
+    <row r="1575" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1575" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1575" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1575" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1575" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1575" s="26"/>
+      <c r="F1575" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1575" s="27"/>
+      <c r="H1575" s="26"/>
+    </row>
+    <row r="1576" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1576" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1576" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1576" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1576" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1576" s="26"/>
+      <c r="F1576" s="26"/>
+      <c r="G1576" s="27"/>
+      <c r="H1576" s="26"/>
+    </row>
+    <row r="1577" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1577" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1577" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1577" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1577" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1577" s="26"/>
+      <c r="F1577" s="26"/>
+      <c r="G1577" s="27"/>
+      <c r="H1577" s="26"/>
+    </row>
+    <row r="1578" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1578" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1578" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1578" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1578" s="26"/>
+      <c r="F1578" s="26"/>
+      <c r="G1578" s="27"/>
+      <c r="H1578" s="26"/>
+    </row>
+    <row r="1579" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1579" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1579" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1579" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1579" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1579" s="26"/>
+      <c r="F1579" s="26"/>
+      <c r="G1579" s="27"/>
+      <c r="H1579" s="26"/>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1580" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1580" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1580" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1580" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1555:D1564 D1541:D1547 D1569:D1570 D1572 D1573:D1580">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1572 C1573:C4210">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -30070,7 +33197,7 @@
           <x14:formula1>
             <xm:f>'Page Objects And Actions'!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C4171:C1048576</xm:sqref>
+          <xm:sqref>C4211:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30083,8 +33210,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D171" sqref="D2:D171"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="622">
   <si>
     <t>ID</t>
   </si>
@@ -3728,8 +3728,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1574" sqref="D1574"/>
+    <sheetView tabSelected="1" topLeftCell="A1556" workbookViewId="0">
+      <selection activeCell="F1557" sqref="F1557:F1564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32756,7 +32756,9 @@
         <v>360</v>
       </c>
       <c r="E1557" s="26"/>
-      <c r="F1557" s="26"/>
+      <c r="F1557" s="26">
+        <v>1</v>
+      </c>
       <c r="G1557" s="27"/>
       <c r="H1557" s="31" t="s">
         <v>620</v>
@@ -32767,10 +32769,16 @@
       <c r="B1558" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="C1558" s="26"/>
-      <c r="D1558" s="26"/>
+      <c r="C1558" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1558" s="26" t="s">
+        <v>360</v>
+      </c>
       <c r="E1558" s="26"/>
-      <c r="F1558" s="26"/>
+      <c r="F1558" s="26">
+        <v>1</v>
+      </c>
       <c r="G1558" s="27"/>
       <c r="H1558" s="31" t="s">
         <v>620</v>
@@ -32781,10 +32789,16 @@
       <c r="B1559" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="C1559" s="26"/>
-      <c r="D1559" s="26"/>
+      <c r="C1559" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1559" s="26" t="s">
+        <v>360</v>
+      </c>
       <c r="E1559" s="26"/>
-      <c r="F1559" s="26"/>
+      <c r="F1559" s="26">
+        <v>1</v>
+      </c>
       <c r="G1559" s="27"/>
       <c r="H1559" s="31" t="s">
         <v>620</v>
@@ -32795,10 +32809,16 @@
       <c r="B1560" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="C1560" s="26"/>
-      <c r="D1560" s="26"/>
+      <c r="C1560" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1560" s="26" t="s">
+        <v>360</v>
+      </c>
       <c r="E1560" s="26"/>
-      <c r="F1560" s="26"/>
+      <c r="F1560" s="26">
+        <v>1</v>
+      </c>
       <c r="G1560" s="27"/>
       <c r="H1560" s="31" t="s">
         <v>620</v>
@@ -32818,7 +32838,9 @@
         <v>360</v>
       </c>
       <c r="E1561" s="26"/>
-      <c r="F1561" s="26"/>
+      <c r="F1561" s="26">
+        <v>1</v>
+      </c>
       <c r="G1561" s="27"/>
       <c r="H1561" s="31" t="s">
         <v>620</v>
@@ -32838,7 +32860,9 @@
         <v>360</v>
       </c>
       <c r="E1562" s="26"/>
-      <c r="F1562" s="26"/>
+      <c r="F1562" s="26">
+        <v>1</v>
+      </c>
       <c r="G1562" s="27"/>
       <c r="H1562" s="31" t="s">
         <v>620</v>
@@ -32858,7 +32882,9 @@
         <v>360</v>
       </c>
       <c r="E1563" s="26"/>
-      <c r="F1563" s="26"/>
+      <c r="F1563" s="26">
+        <v>1</v>
+      </c>
       <c r="G1563" s="27"/>
       <c r="H1563" s="31" t="s">
         <v>620</v>
@@ -32878,7 +32904,9 @@
         <v>360</v>
       </c>
       <c r="E1564" s="26"/>
-      <c r="F1564" s="26"/>
+      <c r="F1564" s="26">
+        <v>1</v>
+      </c>
       <c r="G1564" s="27"/>
       <c r="H1564" s="31" t="s">
         <v>620</v>
@@ -33180,10 +33208,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1555:D1564 D1541:D1547 D1569:D1570 D1572 D1573:D1580">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1572:D1580 D1541:D1547 D1569:D1570 D1555:D1564">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1572 C1573:C4210">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4210">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -2977,7 +2977,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="26"/>
     </row>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="26"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="6"/>
@@ -3098,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="6"/>
@@ -3117,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="6"/>
@@ -3136,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -3154,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -3172,7 +3172,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="26"/>
     </row>
@@ -3190,7 +3190,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -3208,7 +3208,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -3227,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="26"/>
     </row>
@@ -3245,7 +3245,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="26"/>
     </row>
@@ -3263,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="26"/>
     </row>
@@ -3281,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="26"/>
     </row>
@@ -3299,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="26"/>
     </row>
@@ -3317,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="26"/>
     </row>
@@ -3335,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="26"/>
     </row>
@@ -3353,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3387,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3438,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3455,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3472,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3523,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
       <c r="D34" s="13">
         <v>4</v>
       </c>
-      <c r="E34" s="13" t="b">
+      <c r="E34" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3659,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
   <dimension ref="A1:H1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1556" workbookViewId="0">
-      <selection activeCell="F1557" sqref="F1557:F1564"/>
+      <selection activeCell="B1572" sqref="B1572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32765,7 +32765,9 @@
       </c>
     </row>
     <row r="1558" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1558" s="28"/>
+      <c r="A1558" s="28">
+        <v>39</v>
+      </c>
       <c r="B1558" s="25" t="s">
         <v>608</v>
       </c>
@@ -32785,7 +32787,9 @@
       </c>
     </row>
     <row r="1559" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1559" s="28"/>
+      <c r="A1559" s="28">
+        <v>39</v>
+      </c>
       <c r="B1559" s="25" t="s">
         <v>609</v>
       </c>
@@ -32805,7 +32809,9 @@
       </c>
     </row>
     <row r="1560" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1560" s="28"/>
+      <c r="A1560" s="28">
+        <v>39</v>
+      </c>
       <c r="B1560" s="25" t="s">
         <v>610</v>
       </c>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5832" uniqueCount="670">
   <si>
     <t>ID</t>
   </si>
@@ -1863,13 +1863,364 @@
   </si>
   <si>
     <t>verifySurveyInfoTimeRemainingLabelIsTickingBackward</t>
+  </si>
+  <si>
+    <t>TC1227</t>
+  </si>
+  <si>
+    <t>TC1230</t>
+  </si>
+  <si>
+    <t>TC1261</t>
+  </si>
+  <si>
+    <t>TC1269</t>
+  </si>
+  <si>
+    <t>TC1420</t>
+  </si>
+  <si>
+    <t>TC1421</t>
+  </si>
+  <si>
+    <t>TC1422</t>
+  </si>
+  <si>
+    <t>TC1428</t>
+  </si>
+  <si>
+    <t>Start Driving Survey - Curtain view</t>
+  </si>
+  <si>
+    <t>Verify restrictions on the maximum zoom level at which assets are displayed</t>
+  </si>
+  <si>
+    <t>Driver View - Returning from Curtain View should restore user selected map view combination</t>
+  </si>
+  <si>
+    <t>Navigate to Driver view when system is shutdown</t>
+  </si>
+  <si>
+    <t>Assessment mode - Satellite View - Driver view has only breadcrumb and FOV; no LISAs or indications</t>
+  </si>
+  <si>
+    <t>Assessment mode Satelite View - Reference Bottle Measurement and Isotopic Capture buttons not present</t>
+  </si>
+  <si>
+    <t>Assessment mode Satellite View - LISA, Indications, Isotopic Analysis, Field Notes not present in Display menu</t>
+  </si>
+  <si>
+    <t>Assessment mode - Map View - Driver view has only breadcrumb and FOV; no LISAs or indications</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Left Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Right Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Up Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Down Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Zoom Out Button</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Zoom In Button</t>
+  </si>
+  <si>
+    <t>Click on Return Button</t>
+  </si>
+  <si>
+    <t>Turn Position Button OFF</t>
+  </si>
+  <si>
+    <t>Verify blue curtain appears</t>
+  </si>
+  <si>
+    <t>Verify map rotates clockwise</t>
+  </si>
+  <si>
+    <t>Verify map rotates counter-clockwise</t>
+  </si>
+  <si>
+    <t>Verify map foreground tilts up</t>
+  </si>
+  <si>
+    <t>Verify map foreground tilts down</t>
+  </si>
+  <si>
+    <t>Verify map zooms out</t>
+  </si>
+  <si>
+    <t>Verify map zooms in</t>
+  </si>
+  <si>
+    <t>Verify Position is turned OFF</t>
+  </si>
+  <si>
+    <t>Verify map moves to the right</t>
+  </si>
+  <si>
+    <t>Verify map moves to the left</t>
+  </si>
+  <si>
+    <t>Verify map moves down</t>
+  </si>
+  <si>
+    <t>Verify map moves up</t>
+  </si>
+  <si>
+    <t>Verify Assets displayed on Map</t>
+  </si>
+  <si>
+    <t>Wait for 5 seconds</t>
+  </si>
+  <si>
+    <t>Wait 2 seconds</t>
+  </si>
+  <si>
+    <t>Click on Curtain View Return Button</t>
+  </si>
+  <si>
+    <t>Click Stop Survey Button</t>
+  </si>
+  <si>
+    <t>Click Shutdown Button</t>
+  </si>
+  <si>
+    <t>Click Shutdown Confirmation Button</t>
+  </si>
+  <si>
+    <t>Verify Dashboard page</t>
+  </si>
+  <si>
+    <t>Wait 10 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Light Survey Type: Assessment </t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Light Survey Type: Assessment</t>
+  </si>
+  <si>
+    <t>Verify Indications NOT displayed on Map</t>
+  </si>
+  <si>
+    <t>Click on Mode Button</t>
+  </si>
+  <si>
+    <t>Verify Stop Survey button is present on menu</t>
+  </si>
+  <si>
+    <t>Verify Isotopic Capture button is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Reference Bottle Measurement button is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Click on Display Button</t>
+  </si>
+  <si>
+    <t>Verify 8 Hour History option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify Windrose option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify FOV option is present on menu</t>
+  </si>
+  <si>
+    <t>Verify LISA option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Field Notes option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Isotopic Analysis is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Indications option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>US 2045 filed</t>
+  </si>
+  <si>
+    <t>US 2046 filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Mode Button </t>
+  </si>
+  <si>
+    <t>DE1636 filed</t>
+  </si>
+  <si>
+    <t>US2049 filed</t>
+  </si>
+  <si>
+    <t>US2025</t>
+  </si>
+  <si>
+    <t>DE1646 filed</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitch8HourHistoryButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchWindroseButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchConcentrationChartButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchNotesButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchIsotopicAnalysisButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchIndicationsButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchLisasButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchFovsButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeCastIronButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeCopperButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeOtherPlasticButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypePEPlasticButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeProtectedSteelButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeUnProtectedSteelButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisUseAllPipesButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisBoundaryBigBoundaryButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisBoundarySmallBoundaryButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyGisUseAllBoundariesButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyStartSurveyButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyStartEQSurveyButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifySystemShutdownButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyStopDrivingSurveyButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyStartIsotopicCaptureButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyRefBottleMeasButtonIsVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitch8HourHistoryButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchWindroseButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchConcentrationChartButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchNotesButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchIsotopicAnalysisButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchIndicationsButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchLisasButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyDisplaySwitchFovsButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeCastIronButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeCopperButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeOtherPlasticButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypePEPlasticButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeProtectedSteelButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisMaterialTypeUnProtectedSteelButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisUseAllPipesButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisBoundaryBigBoundaryButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisBoundarySmallBoundaryButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyGisUseAllBoundariesButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyStartSurveyButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyStartEQSurveyButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifySystemShutdownButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyStopDrivingSurveyButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyStartIsotopicCaptureButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>verifyRefBottleMeasButtonIsNotVisible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,8 +2294,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1962,6 +2319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1976,7 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2050,6 +2413,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2738,10 +3118,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,6 +3721,145 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D34" s="13">
+        <v>4</v>
+      </c>
+      <c r="E34" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D35" s="26">
+        <v>4</v>
+      </c>
+      <c r="E35" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="26">
+        <v>4</v>
+      </c>
+      <c r="E36" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" s="26">
+        <v>4</v>
+      </c>
+      <c r="E37" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>37</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D38" s="26">
+        <v>4</v>
+      </c>
+      <c r="E38" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="26">
+        <v>4</v>
+      </c>
+      <c r="E39" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D40" s="26">
+        <v>4</v>
+      </c>
+      <c r="E40" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>40</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" s="26">
+        <v>4</v>
+      </c>
+      <c r="E41" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3351,10 +3870,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H1429"/>
+  <dimension ref="A1:H1580"/>
   <sheetViews>
-    <sheetView topLeftCell="A1402" workbookViewId="0">
-      <selection activeCell="E1424" sqref="E1424"/>
+    <sheetView topLeftCell="A1556" workbookViewId="0">
+      <selection activeCell="B1572" sqref="B1572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30051,12 +30570,2798 @@
       <c r="G1429" s="27"/>
       <c r="H1429" s="26"/>
     </row>
+    <row r="1430" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1430" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1430" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1430" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1430" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1430" s="26"/>
+      <c r="F1430" s="26"/>
+      <c r="G1430" s="27"/>
+      <c r="H1430" s="26"/>
+    </row>
+    <row r="1431" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1431" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1431" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1431" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1431" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1431" s="26"/>
+      <c r="F1431" s="26"/>
+      <c r="G1431" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1431" s="26"/>
+    </row>
+    <row r="1432" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1432" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1432" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1432" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1432" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1432" s="26"/>
+      <c r="F1432" s="26"/>
+      <c r="G1432" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1432" s="26"/>
+    </row>
+    <row r="1433" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1433" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1433" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1433" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1433" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1433" s="26"/>
+      <c r="F1433" s="26"/>
+      <c r="G1433" s="27"/>
+      <c r="H1433" s="26"/>
+    </row>
+    <row r="1434" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1434" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1434" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1434" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1434" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1434" s="26"/>
+      <c r="F1434" s="26"/>
+      <c r="G1434" s="27"/>
+      <c r="H1434" s="26"/>
+    </row>
+    <row r="1435" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1435" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1435" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1435" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1435" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1435" s="26"/>
+      <c r="F1435" s="26"/>
+      <c r="G1435" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1435" s="26"/>
+    </row>
+    <row r="1436" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1436" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1436" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1436" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1436" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1436" s="26"/>
+      <c r="F1436" s="26"/>
+      <c r="G1436" s="27"/>
+      <c r="H1436" s="26"/>
+    </row>
+    <row r="1437" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1437" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1437" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1437" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1437" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1437" s="26"/>
+      <c r="F1437" s="26"/>
+      <c r="G1437" s="27">
+        <v>6</v>
+      </c>
+      <c r="H1437" s="26"/>
+    </row>
+    <row r="1438" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1438" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1438" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1438" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1438" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1438" s="29"/>
+      <c r="F1438" s="29"/>
+      <c r="G1438" s="40"/>
+      <c r="H1438" s="29"/>
+    </row>
+    <row r="1439" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1439" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1439" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1439" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1439" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1439" s="29"/>
+      <c r="F1439" s="29">
+        <v>1</v>
+      </c>
+      <c r="G1439" s="40"/>
+      <c r="H1439" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1440" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1440" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1440" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1440" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1441" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1441" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1441" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1441" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1441" s="26"/>
+      <c r="F1441" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1441" s="27"/>
+      <c r="H1441" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1442" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1442" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1442" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1442" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1443" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1443" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1443" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1443" s="26"/>
+      <c r="F1443" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1443" s="27"/>
+      <c r="H1443" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1444" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1444" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1444" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1444" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1445" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1445" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1445" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1445" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1445" s="26"/>
+      <c r="F1445" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1445" s="27"/>
+      <c r="H1445" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1446" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1446" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1446" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1446" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1447" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1447" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1447" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1447" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1447" s="26"/>
+      <c r="F1447" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1447" s="27"/>
+      <c r="H1447" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1448" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1448" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1448" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1448" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1449" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1449" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1449" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1449" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1449" s="26"/>
+      <c r="F1449" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1449" s="27"/>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1450" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1450" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1450" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1450" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1451" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1451" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1451" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1451" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1451" s="26"/>
+      <c r="F1451" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1451" s="27"/>
+      <c r="H1451" s="26"/>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1452" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1452" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1452" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1452" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1453" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1453" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1453" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1453" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1454" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1454" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1454" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1454" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1454" s="26"/>
+      <c r="F1454" s="26"/>
+      <c r="G1454" s="27"/>
+      <c r="H1454" s="26"/>
+    </row>
+    <row r="1455" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1455" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1455" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1455" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1455" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1455" s="29"/>
+      <c r="F1455" s="29"/>
+      <c r="G1455" s="40"/>
+      <c r="H1455" s="29"/>
+    </row>
+    <row r="1456" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1456" s="38">
+        <v>33</v>
+      </c>
+      <c r="B1456" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1456" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1456" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1456" s="29"/>
+      <c r="F1456" s="29">
+        <v>1</v>
+      </c>
+      <c r="G1456" s="40"/>
+      <c r="H1456" s="29"/>
+    </row>
+    <row r="1457" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1457" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1457" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1457" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1457" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1457" s="26"/>
+      <c r="F1457" s="26"/>
+      <c r="G1457" s="27"/>
+      <c r="H1457" s="26"/>
+    </row>
+    <row r="1458" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1458" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1458" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1458" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1458" s="26"/>
+      <c r="F1458" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1458" s="27"/>
+      <c r="H1458" s="26"/>
+    </row>
+    <row r="1459" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1459" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1459" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1459" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1459" s="26"/>
+      <c r="F1459" s="26"/>
+      <c r="G1459" s="27"/>
+      <c r="H1459" s="26"/>
+    </row>
+    <row r="1460" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1460" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1460" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1460" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1460" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1460" s="26"/>
+      <c r="F1460" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1460" s="27"/>
+      <c r="H1460" s="26"/>
+    </row>
+    <row r="1461" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1461" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1461" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1461" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1461" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1461" s="26"/>
+      <c r="F1461" s="26"/>
+      <c r="G1461" s="27"/>
+      <c r="H1461" s="26"/>
+    </row>
+    <row r="1462" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1462" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1462" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1462" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1462" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1462" s="26"/>
+      <c r="F1462" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1462" s="27"/>
+      <c r="H1462" s="26"/>
+    </row>
+    <row r="1463" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1463" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1463" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1463" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1463" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1463" s="26"/>
+      <c r="F1463" s="26"/>
+      <c r="G1463" s="27"/>
+      <c r="H1463" s="26"/>
+    </row>
+    <row r="1464" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1464" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1464" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1464" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1464" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1464" s="26"/>
+      <c r="F1464" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1464" s="27"/>
+      <c r="H1464" s="26"/>
+    </row>
+    <row r="1465" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1465" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1465" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1465" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1465" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1465" s="26"/>
+      <c r="F1465" s="26"/>
+      <c r="G1465" s="27"/>
+      <c r="H1465" s="26"/>
+    </row>
+    <row r="1466" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1466" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1466" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1466" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1466" s="26"/>
+      <c r="F1466" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1466" s="27"/>
+      <c r="H1466" s="26"/>
+    </row>
+    <row r="1467" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1467" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1467" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1467" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1467" s="26"/>
+      <c r="F1467" s="26"/>
+      <c r="G1467" s="27"/>
+      <c r="H1467" s="26"/>
+    </row>
+    <row r="1468" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1468" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1468" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1468" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1468" s="26"/>
+      <c r="F1468" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1468" s="27"/>
+      <c r="H1468" s="26"/>
+    </row>
+    <row r="1469" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="28">
+        <v>33</v>
+      </c>
+      <c r="B1469" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1469" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1469" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1469" s="26"/>
+      <c r="F1469" s="26"/>
+      <c r="G1469" s="27"/>
+      <c r="H1469" s="26"/>
+    </row>
+    <row r="1470" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1470" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1470" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1470" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1470" s="26"/>
+      <c r="F1470" s="26"/>
+      <c r="G1470" s="27"/>
+      <c r="H1470" s="26"/>
+    </row>
+    <row r="1471" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1471" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1471" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1471" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1471" s="26"/>
+      <c r="F1471" s="26"/>
+      <c r="G1471" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1471" s="26"/>
+    </row>
+    <row r="1472" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1472" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1472" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1472" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1472" s="26"/>
+      <c r="F1472" s="26"/>
+      <c r="G1472" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1472" s="26"/>
+    </row>
+    <row r="1473" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1473" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1473" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1473" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1473" s="26"/>
+      <c r="F1473" s="26"/>
+      <c r="G1473" s="27"/>
+      <c r="H1473" s="26"/>
+    </row>
+    <row r="1474" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1474" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1474" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1474" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1474" s="26"/>
+      <c r="F1474" s="26"/>
+      <c r="G1474" s="27"/>
+      <c r="H1474" s="26"/>
+    </row>
+    <row r="1475" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1475" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1475" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1475" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1475" s="26"/>
+      <c r="F1475" s="26"/>
+      <c r="G1475" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1475" s="26"/>
+    </row>
+    <row r="1476" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1476" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1476" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1476" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1476" s="26"/>
+      <c r="F1476" s="26"/>
+      <c r="G1476" s="27"/>
+      <c r="H1476" s="26"/>
+    </row>
+    <row r="1477" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1477" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1477" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1477" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1477" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1477" s="26"/>
+      <c r="F1477" s="26"/>
+      <c r="G1477" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1477" s="26"/>
+    </row>
+    <row r="1478" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1478" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1478" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1478" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1478" s="26"/>
+      <c r="F1478" s="26"/>
+      <c r="G1478" s="27"/>
+      <c r="H1478" s="26"/>
+    </row>
+    <row r="1479" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1479" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1479" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1479" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1479" s="26"/>
+      <c r="F1479" s="26"/>
+      <c r="G1479" s="27"/>
+      <c r="H1479" s="26"/>
+    </row>
+    <row r="1480" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1480" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1480" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1480" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1480" s="26"/>
+      <c r="F1480" s="26">
+        <v>2</v>
+      </c>
+      <c r="G1480" s="27"/>
+      <c r="H1480" s="26"/>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1481" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1481" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1481" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1481" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1482" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1482" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1482" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1482" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1483" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1483" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1483" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1483" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1484" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1484" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1484" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1484" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1485" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1485" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1485" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1485" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1486" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1486" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1486" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1486" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1487" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1487" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1487" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1487" s="26"/>
+      <c r="F1487" s="26">
+        <v>5</v>
+      </c>
+      <c r="G1487" s="27"/>
+      <c r="H1487" s="26"/>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1488" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1488" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1488" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1488" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1488" s="13">
+        <v>1</v>
+      </c>
+      <c r="H1488" s="31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1489" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1489" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1489" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1489" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1490" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1490" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1490" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1490" s="26"/>
+      <c r="F1490" s="26">
+        <v>5</v>
+      </c>
+      <c r="G1490" s="27"/>
+      <c r="H1490" s="26"/>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1491" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1491" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1491" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1491" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1492" s="28">
+        <v>34</v>
+      </c>
+      <c r="B1492" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1492" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1492" s="26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1493" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1493" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1493" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1493" s="26"/>
+      <c r="F1493" s="26"/>
+      <c r="G1493" s="27"/>
+      <c r="H1493" s="26"/>
+    </row>
+    <row r="1494" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1494" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1494" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1494" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1494" s="26"/>
+      <c r="F1494" s="26"/>
+      <c r="G1494" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1494" s="26"/>
+    </row>
+    <row r="1495" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1495" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1495" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1495" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1495" s="26"/>
+      <c r="F1495" s="26"/>
+      <c r="G1495" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1495" s="26"/>
+    </row>
+    <row r="1496" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1496" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1496" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1496" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1496" s="26"/>
+      <c r="F1496" s="26"/>
+      <c r="G1496" s="27"/>
+      <c r="H1496" s="26"/>
+    </row>
+    <row r="1497" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1497" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1497" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1497" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1497" s="26"/>
+      <c r="F1497" s="26"/>
+      <c r="G1497" s="27"/>
+      <c r="H1497" s="26"/>
+    </row>
+    <row r="1498" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1498" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1498" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1498" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1498" s="26"/>
+      <c r="F1498" s="26"/>
+      <c r="G1498" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1498" s="26"/>
+    </row>
+    <row r="1499" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1499" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1499" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1499" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1499" s="26"/>
+      <c r="F1499" s="26"/>
+      <c r="G1499" s="27"/>
+      <c r="H1499" s="26"/>
+    </row>
+    <row r="1500" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1500" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1500" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1500" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1500" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1500" s="26"/>
+      <c r="F1500" s="26"/>
+      <c r="G1500" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1500" s="26"/>
+    </row>
+    <row r="1501" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1501" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1501" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1501" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1501" s="26"/>
+      <c r="F1501" s="26"/>
+      <c r="G1501" s="27"/>
+      <c r="H1501" s="26"/>
+    </row>
+    <row r="1502" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1502" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1502" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1502" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1502" s="26"/>
+      <c r="F1502" s="26"/>
+      <c r="G1502" s="27"/>
+      <c r="H1502" s="26"/>
+    </row>
+    <row r="1503" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="38">
+        <v>35</v>
+      </c>
+      <c r="B1503" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1503" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1503" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1503" s="29"/>
+      <c r="F1503" s="29"/>
+      <c r="G1503" s="40"/>
+      <c r="H1503" s="29"/>
+    </row>
+    <row r="1504" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="38">
+        <v>35</v>
+      </c>
+      <c r="B1504" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1504" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1504" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1504" s="29"/>
+      <c r="F1504" s="29"/>
+      <c r="G1504" s="40"/>
+      <c r="H1504" s="29"/>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1505" s="28">
+        <v>35</v>
+      </c>
+      <c r="B1505" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1505" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1505" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1506" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1506" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1506" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1506" s="26"/>
+      <c r="F1506" s="26"/>
+      <c r="G1506" s="27"/>
+      <c r="H1506" s="26"/>
+    </row>
+    <row r="1507" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1507" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1507" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1507" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1507" s="26"/>
+      <c r="F1507" s="26"/>
+      <c r="G1507" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1507" s="26"/>
+    </row>
+    <row r="1508" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1508" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1508" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1508" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1508" s="26"/>
+      <c r="F1508" s="26"/>
+      <c r="G1508" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1508" s="26"/>
+    </row>
+    <row r="1509" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1509" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1509" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1509" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1509" s="26"/>
+      <c r="F1509" s="26"/>
+      <c r="G1509" s="27"/>
+      <c r="H1509" s="26"/>
+    </row>
+    <row r="1510" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1510" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1510" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1510" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1510" s="26"/>
+      <c r="F1510" s="26"/>
+      <c r="G1510" s="27"/>
+      <c r="H1510" s="26"/>
+    </row>
+    <row r="1511" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1511" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1511" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1511" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1511" s="26"/>
+      <c r="F1511" s="26"/>
+      <c r="G1511" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1511" s="26"/>
+    </row>
+    <row r="1512" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1512" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1512" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1512" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1512" s="26"/>
+      <c r="F1512" s="26"/>
+      <c r="G1512" s="27"/>
+      <c r="H1512" s="26"/>
+    </row>
+    <row r="1513" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1513" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1513" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1513" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1513" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1513" s="26"/>
+      <c r="F1513" s="26"/>
+      <c r="G1513" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1513" s="26"/>
+    </row>
+    <row r="1514" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1514" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1514" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1514" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1514" s="26"/>
+      <c r="F1514" s="26">
+        <v>10</v>
+      </c>
+      <c r="G1514" s="27"/>
+      <c r="H1514" s="26"/>
+    </row>
+    <row r="1515" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1515" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1515" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1515" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1515" s="26"/>
+      <c r="F1515" s="26"/>
+      <c r="G1515" s="27"/>
+      <c r="H1515" s="26"/>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1516" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1516" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1516" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1516" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1517" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1517" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1517" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1517" s="26"/>
+      <c r="F1517" s="26"/>
+      <c r="G1517" s="27"/>
+      <c r="H1517" s="26"/>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1518" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1518" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1518" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1518" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1519" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1519" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1519" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1519" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1520" s="28">
+        <v>36</v>
+      </c>
+      <c r="B1520" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1520" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1520" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1520" s="13">
+        <v>1</v>
+      </c>
+      <c r="H1520" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1521" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1521" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1521" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1521" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1521" s="26"/>
+      <c r="F1521" s="26"/>
+      <c r="G1521" s="27"/>
+      <c r="H1521" s="26"/>
+    </row>
+    <row r="1522" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1522" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1522" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1522" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1522" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1522" s="26"/>
+      <c r="F1522" s="26"/>
+      <c r="G1522" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1522" s="26"/>
+    </row>
+    <row r="1523" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1523" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1523" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1523" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1523" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1523" s="26"/>
+      <c r="F1523" s="26"/>
+      <c r="G1523" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1523" s="26"/>
+    </row>
+    <row r="1524" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1524" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1524" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1524" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1524" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1524" s="26"/>
+      <c r="F1524" s="26"/>
+      <c r="G1524" s="27"/>
+      <c r="H1524" s="26"/>
+    </row>
+    <row r="1525" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1525" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1525" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1525" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1525" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1525" s="26"/>
+      <c r="F1525" s="26"/>
+      <c r="G1525" s="27"/>
+      <c r="H1525" s="26"/>
+    </row>
+    <row r="1526" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1526" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1526" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1526" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1526" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1526" s="26"/>
+      <c r="F1526" s="26"/>
+      <c r="G1526" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1526" s="26"/>
+    </row>
+    <row r="1527" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1527" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1527" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1527" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1527" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1527" s="26"/>
+      <c r="F1527" s="26"/>
+      <c r="G1527" s="27"/>
+      <c r="H1527" s="26"/>
+    </row>
+    <row r="1528" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1528" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1528" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1528" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1528" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1528" s="26"/>
+      <c r="F1528" s="26"/>
+      <c r="G1528" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1528" s="26"/>
+    </row>
+    <row r="1529" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1529" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1529" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1529" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1529" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1529" s="26"/>
+      <c r="F1529" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1529" s="27"/>
+      <c r="H1529" s="26"/>
+    </row>
+    <row r="1530" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1530" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1530" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1530" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1530" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1530" s="26"/>
+      <c r="F1530" s="26"/>
+      <c r="G1530" s="27"/>
+      <c r="H1530" s="26"/>
+    </row>
+    <row r="1531" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1531" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1531" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1531" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1531" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1531" s="26"/>
+      <c r="F1531" s="26"/>
+      <c r="G1531" s="27"/>
+      <c r="H1531" s="26"/>
+    </row>
+    <row r="1532" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1532" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1532" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1532" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1532" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1532" s="26"/>
+      <c r="F1532" s="26"/>
+      <c r="G1532" s="27"/>
+      <c r="H1532" s="26"/>
+    </row>
+    <row r="1533" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1533" s="28">
+        <v>37</v>
+      </c>
+      <c r="B1533" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1533" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1533" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1533" s="26"/>
+      <c r="F1533" s="26"/>
+      <c r="G1533" s="27"/>
+      <c r="H1533" s="26"/>
+    </row>
+    <row r="1534" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1534" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1534" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1534" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1534" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1534" s="26"/>
+      <c r="F1534" s="26"/>
+      <c r="G1534" s="27"/>
+      <c r="H1534" s="26"/>
+    </row>
+    <row r="1535" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1535" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1535" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1535" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1535" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1535" s="26"/>
+      <c r="F1535" s="26"/>
+      <c r="G1535" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1535" s="26"/>
+    </row>
+    <row r="1536" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1536" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1536" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1536" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1536" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1536" s="26"/>
+      <c r="F1536" s="26"/>
+      <c r="G1536" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1536" s="26"/>
+    </row>
+    <row r="1537" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1537" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1537" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1537" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1537" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1537" s="26"/>
+      <c r="F1537" s="26"/>
+      <c r="G1537" s="27"/>
+      <c r="H1537" s="26"/>
+    </row>
+    <row r="1538" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1538" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1538" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1538" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1538" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1538" s="26"/>
+      <c r="F1538" s="26"/>
+      <c r="G1538" s="27"/>
+      <c r="H1538" s="26"/>
+    </row>
+    <row r="1539" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1539" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1539" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1539" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1539" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1539" s="26"/>
+      <c r="F1539" s="26"/>
+      <c r="G1539" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1539" s="26"/>
+    </row>
+    <row r="1540" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1540" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1540" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1540" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1540" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1540" s="26"/>
+      <c r="F1540" s="26"/>
+      <c r="G1540" s="27"/>
+      <c r="H1540" s="26"/>
+    </row>
+    <row r="1541" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1541" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1541" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1541" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1541" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1541" s="26"/>
+      <c r="F1541" s="26"/>
+      <c r="G1541" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1541" s="26"/>
+    </row>
+    <row r="1542" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1542" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1542" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1542" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1542" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1542" s="26"/>
+      <c r="F1542" s="26"/>
+      <c r="G1542" s="27"/>
+      <c r="H1542" s="26"/>
+    </row>
+    <row r="1543" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1543" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1543" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1543" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1543" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1543" s="26"/>
+      <c r="F1543" s="26"/>
+      <c r="G1543" s="27"/>
+      <c r="H1543" s="26"/>
+    </row>
+    <row r="1544" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1544" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1544" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1544" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1544" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1544" s="26"/>
+      <c r="F1544" s="26"/>
+      <c r="G1544" s="27"/>
+      <c r="H1544" s="26"/>
+    </row>
+    <row r="1545" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1545" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1545" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1545" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1545" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1545" s="26"/>
+      <c r="F1545" s="26">
+        <v>1</v>
+      </c>
+      <c r="H1545" s="43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1546" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1546" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1546" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1546" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1546" s="26"/>
+      <c r="F1546" s="26"/>
+      <c r="G1546" s="27"/>
+      <c r="H1546" s="26"/>
+    </row>
+    <row r="1547" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1547" s="28">
+        <v>38</v>
+      </c>
+      <c r="B1547" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1547" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1547" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1547" s="26"/>
+      <c r="F1547" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1547" s="27"/>
+      <c r="H1547" s="43" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1548" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1548" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1548" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1548" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1548" s="26"/>
+      <c r="F1548" s="26"/>
+      <c r="G1548" s="27"/>
+      <c r="H1548" s="26"/>
+    </row>
+    <row r="1549" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1549" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1549" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1549" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1549" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1549" s="26"/>
+      <c r="F1549" s="26"/>
+      <c r="G1549" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1549" s="26"/>
+    </row>
+    <row r="1550" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1550" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1550" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1550" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1550" s="26"/>
+      <c r="F1550" s="26"/>
+      <c r="G1550" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1550" s="26"/>
+    </row>
+    <row r="1551" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1551" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1551" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1551" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1551" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1551" s="26"/>
+      <c r="F1551" s="26"/>
+      <c r="G1551" s="27"/>
+      <c r="H1551" s="26"/>
+    </row>
+    <row r="1552" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1552" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1552" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1552" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1552" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1552" s="26"/>
+      <c r="F1552" s="26"/>
+      <c r="G1552" s="27"/>
+      <c r="H1552" s="26"/>
+    </row>
+    <row r="1553" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1553" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1553" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1553" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1553" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1553" s="26"/>
+      <c r="F1553" s="26"/>
+      <c r="G1553" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1553" s="26"/>
+    </row>
+    <row r="1554" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1554" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1554" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1554" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1554" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1554" s="26"/>
+      <c r="F1554" s="26"/>
+      <c r="G1554" s="27"/>
+      <c r="H1554" s="26"/>
+    </row>
+    <row r="1555" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1555" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1555" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1555" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1555" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1555" s="26"/>
+      <c r="F1555" s="26"/>
+      <c r="G1555" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1555" s="26"/>
+    </row>
+    <row r="1556" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1556" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1556" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1556" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1556" s="26"/>
+      <c r="F1556" s="26"/>
+      <c r="G1556" s="27"/>
+      <c r="H1556" s="26"/>
+    </row>
+    <row r="1557" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1557" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1557" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1557" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1557" s="26"/>
+      <c r="F1557" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1557" s="27"/>
+      <c r="H1557" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1558" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1558" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1558" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1558" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1558" s="26"/>
+      <c r="F1558" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1558" s="27"/>
+      <c r="H1558" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1559" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1559" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1559" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1559" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1559" s="26"/>
+      <c r="F1559" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1559" s="27"/>
+      <c r="H1559" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1560" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1560" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1560" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1560" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1560" s="26"/>
+      <c r="F1560" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1560" s="27"/>
+      <c r="H1560" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1561" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1561" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1561" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1561" s="26"/>
+      <c r="F1561" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1561" s="27"/>
+      <c r="H1561" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1562" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1562" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1562" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1562" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1562" s="26"/>
+      <c r="F1562" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1562" s="27"/>
+      <c r="H1562" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1563" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1563" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1563" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1563" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1563" s="26"/>
+      <c r="F1563" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1563" s="27"/>
+      <c r="H1563" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" s="6" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1564" s="28">
+        <v>39</v>
+      </c>
+      <c r="B1564" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1564" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1564" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1564" s="26"/>
+      <c r="F1564" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1564" s="27"/>
+      <c r="H1564" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1565" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1565" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1565" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1565" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1565" s="26"/>
+      <c r="F1565" s="26"/>
+      <c r="G1565" s="27"/>
+      <c r="H1565" s="26"/>
+    </row>
+    <row r="1566" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1566" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1566" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1566" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1566" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1566" s="26"/>
+      <c r="F1566" s="26"/>
+      <c r="G1566" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1566" s="26"/>
+    </row>
+    <row r="1567" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1567" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1567" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1567" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1567" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1567" s="26"/>
+      <c r="F1567" s="26"/>
+      <c r="G1567" s="27">
+        <v>3</v>
+      </c>
+      <c r="H1567" s="26"/>
+    </row>
+    <row r="1568" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1568" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1568" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1568" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1568" s="26"/>
+      <c r="F1568" s="26"/>
+      <c r="G1568" s="27"/>
+      <c r="H1568" s="26"/>
+    </row>
+    <row r="1569" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1569" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1569" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1569" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1569" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1569" s="26"/>
+      <c r="F1569" s="26"/>
+      <c r="G1569" s="27"/>
+      <c r="H1569" s="26"/>
+    </row>
+    <row r="1570" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1570" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1570" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1570" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1570" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1570" s="26"/>
+      <c r="F1570" s="26"/>
+      <c r="G1570" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1570" s="26"/>
+    </row>
+    <row r="1571" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1571" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1571" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1571" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1571" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1571" s="26"/>
+      <c r="F1571" s="26"/>
+      <c r="G1571" s="27"/>
+      <c r="H1571" s="26"/>
+    </row>
+    <row r="1572" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1572" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1572" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1572" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1572" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1572" s="26"/>
+      <c r="F1572" s="26"/>
+      <c r="G1572" s="27">
+        <v>30</v>
+      </c>
+      <c r="H1572" s="26"/>
+    </row>
+    <row r="1573" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1573" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1573" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1573" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1573" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1573" s="26"/>
+      <c r="F1573" s="26"/>
+      <c r="G1573" s="27"/>
+      <c r="H1573" s="26"/>
+    </row>
+    <row r="1574" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1574" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1574" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1574" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1574" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1574" s="26"/>
+      <c r="F1574" s="26"/>
+      <c r="G1574" s="27"/>
+      <c r="H1574" s="26"/>
+    </row>
+    <row r="1575" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1575" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1575" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1575" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1575" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1575" s="26"/>
+      <c r="F1575" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1575" s="27"/>
+      <c r="H1575" s="26"/>
+    </row>
+    <row r="1576" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1576" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1576" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1576" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1576" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1576" s="26"/>
+      <c r="F1576" s="26"/>
+      <c r="G1576" s="27"/>
+      <c r="H1576" s="26"/>
+    </row>
+    <row r="1577" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1577" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1577" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1577" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1577" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1577" s="26"/>
+      <c r="F1577" s="26"/>
+      <c r="G1577" s="27"/>
+      <c r="H1577" s="26"/>
+    </row>
+    <row r="1578" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1578" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1578" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1578" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1578" s="26"/>
+      <c r="F1578" s="26"/>
+      <c r="G1578" s="27"/>
+      <c r="H1578" s="26"/>
+    </row>
+    <row r="1579" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1579" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1579" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1579" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1579" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1579" s="26"/>
+      <c r="F1579" s="26"/>
+      <c r="G1579" s="27"/>
+      <c r="H1579" s="26"/>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1580" s="28">
+        <v>40</v>
+      </c>
+      <c r="B1580" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1580" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1580" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1572:D1580 D1541:D1547 D1569:D1570 D1555:D1564">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4210">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -30070,7 +33375,7 @@
           <x14:formula1>
             <xm:f>'Page Objects And Actions'!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C4171:C1048576</xm:sqref>
+          <xm:sqref>C4211:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30081,10 +33386,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X171"/>
+  <dimension ref="A1:X219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D171" sqref="D2:D171"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31738,7 +35043,7 @@
         <v>274</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>71</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
@@ -31746,7 +35051,7 @@
         <v>263</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>72</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
@@ -31754,7 +35059,7 @@
         <v>314</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>401</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
@@ -31762,7 +35067,7 @@
         <v>315</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>183</v>
+        <v>624</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
@@ -31770,337 +35075,577 @@
         <v>316</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>181</v>
+        <v>653</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D107" s="17" t="s">
-        <v>73</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" s="17" t="s">
-        <v>74</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" s="17" t="s">
-        <v>177</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" s="17" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" s="17" t="s">
-        <v>76</v>
+        <v>650</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="17" t="s">
-        <v>77</v>
+        <v>626</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="17" t="s">
-        <v>78</v>
+        <v>652</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="17" t="s">
-        <v>79</v>
+        <v>628</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="17" t="s">
-        <v>80</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="17" t="s">
-        <v>174</v>
+        <v>625</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="17" t="s">
-        <v>166</v>
+        <v>647</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="17" t="s">
-        <v>173</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="17" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="17" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="17" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="17" t="s">
-        <v>385</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="17" t="s">
-        <v>323</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="17" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="17" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="17" t="s">
-        <v>83</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="17" t="s">
-        <v>84</v>
+        <v>637</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="17" t="s">
-        <v>85</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="17" t="s">
-        <v>86</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="17" t="s">
-        <v>87</v>
+        <v>654</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="17" t="s">
-        <v>386</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="17" t="s">
-        <v>88</v>
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="17" t="s">
-        <v>89</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="17" t="s">
-        <v>90</v>
+        <v>656</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
-        <v>91</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
-        <v>321</v>
+        <v>657</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
-        <v>320</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="17" t="s">
-        <v>92</v>
+        <v>658</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
-        <v>93</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
-        <v>209</v>
+        <v>659</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
-        <v>205</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
-        <v>95</v>
+        <v>663</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
-        <v>193</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
-        <v>192</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
-        <v>185</v>
+        <v>636</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="17" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="17" t="s">
-        <v>550</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="17" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="17" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="17" t="s">
-        <v>325</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="17" t="s">
-        <v>551</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="17" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="17" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="17" t="s">
-        <v>552</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="17" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="17" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="17" t="s">
-        <v>319</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="17" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="17" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="17" t="s">
-        <v>99</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="17" t="s">
-        <v>184</v>
+        <v>645</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="17" t="s">
-        <v>182</v>
+        <v>386</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D172" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D173" s="17" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D174" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D175" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D176" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D177" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D178" s="17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D179" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D180" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D181" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D182" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D183" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D184" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D185" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D186" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D187" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D188" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D189" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D190" s="17" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D191" s="17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D192" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D193" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D194" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D195" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D196" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D197" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D198" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D199" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D200" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D201" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D202" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D203" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D204" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D205" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D206" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D207" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D208" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D209" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D210" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D211" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D212" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D213" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D214" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D215" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D216" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D217" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D218" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D219" s="17" t="s">
         <v>461</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D171">
-    <sortCondition ref="D171"/>
+  <sortState ref="D2:D219">
+    <sortCondition ref="D219"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="910" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,20 @@
     <definedName name="ManageLocationsPage">'Page Objects And Actions'!$K$2:$K$50</definedName>
     <definedName name="ManageRefGasBottlesPage">'Page Objects And Actions'!$L$2:$L$50</definedName>
     <definedName name="ManageReleaseNotesPage">'Page Objects And Actions'!$M$2:$M$50</definedName>
-    <definedName name="ManageSurveyorHistoriesPage">'Page Objects And Actions'!$O$2:$BO$50</definedName>
+    <definedName name="ManageSurveyorHistoriesPage">'Page Objects And Actions'!$O$2:$BQ$50</definedName>
     <definedName name="ManageSurveyorPage">'Page Objects And Actions'!$N$2:$N$50</definedName>
     <definedName name="ManageUsersPage">'Page Objects And Actions'!$P$2:$P$50</definedName>
     <definedName name="MeasurementSessionsPage">'Page Objects And Actions'!$Q$2:$Q$50</definedName>
-    <definedName name="PageObject_Name">'Page Objects And Actions'!$A$2:$A$24</definedName>
-    <definedName name="PrimePage">'Page Objects And Actions'!$R$2:$R$50</definedName>
-    <definedName name="ReferenceGasReportsPage">'Page Objects And Actions'!$S$2:$S$50</definedName>
-    <definedName name="SendFeedbackPage">'Page Objects And Actions'!$T$2:$T$50</definedName>
-    <definedName name="SurveyorHistoryReportsPage">'Page Objects And Actions'!$V$2:$V$50</definedName>
-    <definedName name="SurveyorSystemsPage">'Page Objects And Actions'!$U$2:$U$50</definedName>
-    <definedName name="TestEnvironment">'Page Objects And Actions'!$X$2:$X$11</definedName>
-    <definedName name="UserFeedbackPage">'Page Objects And Actions'!$W$2:$W$50</definedName>
+    <definedName name="ObserverViewPage">'Page Objects And Actions'!$R$2:$R$184</definedName>
+    <definedName name="PageObject_Name">'Page Objects And Actions'!$A$2:$A$26</definedName>
+    <definedName name="PrimePage">'Page Objects And Actions'!$S$2:$S$50</definedName>
+    <definedName name="ReferenceGasReportsPage">'Page Objects And Actions'!$T$2:$T$50</definedName>
+    <definedName name="SendFeedbackPage">'Page Objects And Actions'!$U$2:$U$50</definedName>
+    <definedName name="SurveyorHistoryReportsPage">'Page Objects And Actions'!$W$2:$W$50</definedName>
+    <definedName name="SurveyorSystemsPage">'Page Objects And Actions'!$V$2:$V$50</definedName>
+    <definedName name="SurveyViewPage">'Page Objects And Actions'!$X$2:$X$139</definedName>
+    <definedName name="TestEnvironment">'Page Objects And Actions'!$Z$2:$Z$11</definedName>
+    <definedName name="UserFeedbackPage">'Page Objects And Actions'!$Y$2:$Y$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -204,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5832" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="676">
   <si>
     <t>ID</t>
   </si>
@@ -2214,6 +2216,24 @@
   </si>
   <si>
     <t>verifyRefBottleMeasButtonIsNotVisible</t>
+  </si>
+  <si>
+    <t>ObserverViewPage</t>
+  </si>
+  <si>
+    <t>SurveyViewPage</t>
+  </si>
+  <si>
+    <t>verifyObserverViewPageIsOpened</t>
+  </si>
+  <si>
+    <t>verifyStatusButtonIsGreenWithPlus</t>
+  </si>
+  <si>
+    <t>verifyStatusButtonIsCollapsed</t>
+  </si>
+  <si>
+    <t>verifySurveyViewPageIsOpened</t>
   </si>
 </sst>
 </file>
@@ -33373,7 +33393,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Page Objects And Actions'!$A$2:$A$23</xm:f>
+            <xm:f>'Page Objects And Actions'!$A$2:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>C4211:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -33386,10 +33406,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X219"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33400,12 +33420,15 @@
     <col min="4" max="4" width="45.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="14" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="25.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="21" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="45.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="22" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="24.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="45.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="22.44140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -33458,28 +33481,34 @@
         <v>23</v>
       </c>
       <c r="R1" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
@@ -33550,10 +33579,16 @@
         <v>39</v>
       </c>
       <c r="X2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="17" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -33624,10 +33659,16 @@
         <v>41</v>
       </c>
       <c r="X3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -33698,10 +33739,16 @@
         <v>40</v>
       </c>
       <c r="X4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -33772,10 +33819,16 @@
         <v>42</v>
       </c>
       <c r="X5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="17" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
@@ -33828,7 +33881,7 @@
         <v>43</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S6" s="17" t="s">
         <v>43</v>
@@ -33846,10 +33899,16 @@
         <v>43</v>
       </c>
       <c r="X6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
@@ -33902,7 +33961,7 @@
         <v>44</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S7" s="17" t="s">
         <v>44</v>
@@ -33920,10 +33979,16 @@
         <v>44</v>
       </c>
       <c r="X7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="17" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
@@ -33976,7 +34041,7 @@
         <v>202</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="S8" s="17" t="s">
         <v>202</v>
@@ -33994,10 +34059,16 @@
         <v>202</v>
       </c>
       <c r="X8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z8" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -34050,7 +34121,7 @@
         <v>45</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S9" s="17" t="s">
         <v>45</v>
@@ -34067,8 +34138,14 @@
       <c r="W9" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -34121,7 +34198,7 @@
         <v>46</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="S10" s="17" t="s">
         <v>46</v>
@@ -34138,8 +34215,14 @@
       <c r="W10" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
@@ -34192,7 +34275,7 @@
         <v>47</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S11" s="17" t="s">
         <v>47</v>
@@ -34209,8 +34292,14 @@
       <c r="W11" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
@@ -34263,7 +34352,7 @@
         <v>48</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="S12" s="17" t="s">
         <v>48</v>
@@ -34280,8 +34369,14 @@
       <c r="W12" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
@@ -34294,8 +34389,14 @@
       <c r="H13" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
@@ -34308,8 +34409,14 @@
       <c r="H14" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R14" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
@@ -34322,8 +34429,14 @@
       <c r="H15" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
@@ -34333,8 +34446,14 @@
       <c r="D16" s="17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R16" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
@@ -34344,10 +34463,16 @@
       <c r="D17" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>24</v>
+        <v>670</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>219</v>
@@ -34355,10 +34480,16 @@
       <c r="D18" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R18" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>214</v>
@@ -34366,10 +34497,16 @@
       <c r="D19" s="17" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>220</v>
@@ -34377,10 +34514,16 @@
       <c r="D20" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>240</v>
@@ -34388,10 +34531,16 @@
       <c r="D21" s="17" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R21" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>221</v>
@@ -34399,10 +34548,16 @@
       <c r="D22" s="17" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R22" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>224</v>
@@ -34410,10 +34565,16 @@
       <c r="D23" s="17" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="X23" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>327</v>
+        <v>671</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>36</v>
@@ -34421,1089 +34582,1926 @@
       <c r="D24" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="17" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>327</v>
+      </c>
       <c r="C26" s="17" t="s">
         <v>231</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R26" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C27" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R27" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="X27" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
         <v>228</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C29" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C30" s="17" t="s">
         <v>242</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X30" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
         <v>244</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="R31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X31" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="17" t="s">
         <v>243</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C33" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R33" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="X33" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C34" s="17" t="s">
         <v>235</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R34" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="X34" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C35" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R35" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="X35" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C36" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R36" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="X36" s="17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C37" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="X37" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C38" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R38" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="X38" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C39" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R39" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X39" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C40" s="17" t="s">
         <v>202</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R40" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X40" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C41" s="17" t="s">
         <v>250</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R41" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X41" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C42" s="17" t="s">
         <v>251</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R42" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X42" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
         <v>226</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R43" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X43" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C44" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R44" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X44" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C45" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R45" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X45" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C46" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R46" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="X46" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R47" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="X47" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
         <v>229</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R48" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X48" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C49" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R49" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X49" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C50" s="17" t="s">
         <v>236</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R50" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X50" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R51" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X51" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R52" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X52" s="17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
         <v>249</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R53" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="X53" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C54" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R54" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X54" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R55" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="X55" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R56" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="X56" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C57" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R57" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="X57" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C58" s="17" t="s">
         <v>279</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R58" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="X58" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
         <v>295</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R59" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="X59" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C60" s="17" t="s">
         <v>277</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R60" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="X60" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
         <v>278</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R61" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="X61" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C62" s="17" t="s">
         <v>280</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R62" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="X62" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C63" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R63" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="X63" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
         <v>275</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R64" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="X64" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C65" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R65" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X65" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C66" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R66" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X66" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C67" s="17" t="s">
         <v>285</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R67" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="X67" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C68" s="17" t="s">
         <v>267</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R68" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="X68" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C69" s="17" t="s">
         <v>256</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R69" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="X69" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C70" s="17" t="s">
         <v>307</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R70" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X70" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C71" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R71" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="X71" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C72" s="17" t="s">
         <v>253</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R72" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="X72" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C73" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R73" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="X73" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C74" s="17" t="s">
         <v>303</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R74" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X74" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C75" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R75" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="X75" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C76" s="17" t="s">
         <v>254</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R76" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="X76" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C77" s="17" t="s">
         <v>286</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R77" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="X77" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C78" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R78" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X78" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C79" s="17" t="s">
         <v>294</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R79" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X79" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
         <v>282</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R80" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="X80" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C81" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R81" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="X81" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C82" s="17" t="s">
         <v>291</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R82" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X82" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C83" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R83" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X83" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C84" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R84" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X84" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C85" s="17" t="s">
         <v>288</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R85" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X85" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
         <v>292</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R86" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X86" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C87" s="17" t="s">
         <v>284</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R87" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X87" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C88" s="17" t="s">
         <v>266</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R88" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="X88" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C89" s="17" t="s">
         <v>255</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R89" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X89" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C90" s="17" t="s">
         <v>268</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R90" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X90" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C91" s="17" t="s">
         <v>257</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R91" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X91" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C92" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R92" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X92" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C93" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R93" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="X93" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C94" s="17" t="s">
         <v>270</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R94" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="X94" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C95" s="17" t="s">
         <v>259</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R95" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="X95" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C96" s="17" t="s">
         <v>271</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R96" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="X96" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C97" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R97" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="X97" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C98" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R98" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="X98" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C99" s="17" t="s">
         <v>261</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R99" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="X99" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C100" s="17" t="s">
         <v>273</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R100" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="X100" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C101" s="17" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R101" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="X101" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C102" s="17" t="s">
         <v>274</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R102" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X102" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C103" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R103" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="X103" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C104" s="18" t="s">
         <v>314</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R104" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="X104" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="105" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C105" s="18" t="s">
         <v>315</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R105" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="X105" s="17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="106" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C106" s="18" t="s">
         <v>316</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R106" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="X106" s="17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="107" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D107" s="17" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R107" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="X107" s="17" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="108" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D108" s="17" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R108" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="X108" s="17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="109" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D109" s="17" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R109" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="X109" s="17" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="110" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D110" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R110" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="X110" s="17" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="111" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D111" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="R111" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X111" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="112" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D112" s="17" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R112" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X112" s="17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="113" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D113" s="17" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R113" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="X113" s="17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="114" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D114" s="17" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R114" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="X114" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="115" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D115" s="17" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R115" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X115" s="17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="116" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D116" s="17" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R116" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X116" s="17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="117" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D117" s="17" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R117" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="X117" s="17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="118" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D118" s="17" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R118" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="X118" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="119" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D119" s="17" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R119" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="X119" s="17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="120" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D120" s="17" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R120" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="X120" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="121" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D121" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R121" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="X121" s="17" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="122" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D122" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R122" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="X122" s="17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="123" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D123" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R123" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="X123" s="17" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="124" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D124" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R124" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="X124" s="17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="125" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D125" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R125" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="X125" s="17" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="126" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D126" s="17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R126" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="X126" s="17" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="127" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D127" s="17" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R127" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="X127" s="17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="128" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D128" s="17" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R128" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="X128" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="129" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D129" s="17" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R129" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="X129" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="130" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D130" s="17" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R130" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="X130" s="17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="131" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D131" s="17" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R131" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="X131" s="17" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="132" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D132" s="17" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R132" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="X132" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="133" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D133" s="17" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R133" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X133" s="17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="134" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D134" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R134" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X134" s="17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="135" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D135" s="17" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R135" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="X135" s="17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="136" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D136" s="17" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R136" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="X136" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="137" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D137" s="17" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R137" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="X137" s="17" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="138" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D138" s="17" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R138" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="X138" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="139" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D139" s="17" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R139" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="X139" s="17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="140" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D140" s="17" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R140" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R141" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R142" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R143" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R144" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R145" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R146" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R147" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R148" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R149" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="150" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R150" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="151" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R151" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D152" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R152" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D153" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R153" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D154" s="17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R154" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D155" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R155" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D156" s="17" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R156" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D157" s="17" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R157" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="158" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D158" s="17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R158" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="159" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D159" s="17" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R159" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D160" s="17" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R160" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D161" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R161" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="162" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D162" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R162" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D163" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R163" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D164" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R164" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D165" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R165" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D166" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R166" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D167" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R167" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D168" s="17" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R168" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D169" s="17" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R169" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D170" s="17" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R170" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="171" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D171" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R171" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D172" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R172" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D173" s="17" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R173" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D174" s="17" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R174" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="175" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D175" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R175" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D176" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R176" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="177" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D177" s="17" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R177" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="178" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D178" s="17" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R178" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D179" s="17" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R179" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D180" s="17" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R180" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D181" s="17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R181" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D182" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R182" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D183" s="17" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R183" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D184" s="17" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="R184" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="185" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D185" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D186" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D187" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D188" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D189" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D190" s="17" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D191" s="17" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D192" s="17" t="s">
         <v>193</v>
       </c>
@@ -35644,8 +36642,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D219">
-    <sortCondition ref="D219"/>
+  <sortState ref="R2:R184">
+    <sortCondition ref="R2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="679">
   <si>
     <t>ID</t>
   </si>
@@ -2234,6 +2234,15 @@
   </si>
   <si>
     <t>verifySurveyViewPageIsOpened</t>
+  </si>
+  <si>
+    <t>clickOnViewAllDrivingSurveysLink</t>
+  </si>
+  <si>
+    <t>clickOnFirstOnlineSurveyorLink</t>
+  </si>
+  <si>
+    <t>clickOnFirstMatchingDrivingSurvey</t>
   </si>
 </sst>
 </file>
@@ -33408,8 +33417,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="R125" workbookViewId="0">
+      <selection activeCell="X140" sqref="X2:X140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34386,6 +34395,9 @@
       <c r="D13" s="17" t="s">
         <v>57</v>
       </c>
+      <c r="G13" s="17" t="s">
+        <v>676</v>
+      </c>
       <c r="H13" s="17" t="s">
         <v>48</v>
       </c>
@@ -34406,6 +34418,9 @@
       <c r="D14" s="17" t="s">
         <v>473</v>
       </c>
+      <c r="G14" s="17" t="s">
+        <v>677</v>
+      </c>
       <c r="H14" s="17" t="s">
         <v>197</v>
       </c>
@@ -34426,6 +34441,9 @@
       <c r="D15" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="G15" s="17" t="s">
+        <v>678</v>
+      </c>
       <c r="H15" s="17" t="s">
         <v>196</v>
       </c>
@@ -34690,7 +34708,7 @@
         <v>48</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
@@ -34704,7 +34722,7 @@
         <v>64</v>
       </c>
       <c r="X32" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="3:24" x14ac:dyDescent="0.3">
@@ -34718,7 +34736,7 @@
         <v>393</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="3:24" x14ac:dyDescent="0.3">
@@ -34732,7 +34750,7 @@
         <v>395</v>
       </c>
       <c r="X34" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.3">
@@ -34746,7 +34764,7 @@
         <v>394</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.3">
@@ -34760,7 +34778,7 @@
         <v>398</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>398</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.3">
@@ -34998,7 +35016,7 @@
         <v>141</v>
       </c>
       <c r="X53" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.3">
@@ -35012,7 +35030,7 @@
         <v>157</v>
       </c>
       <c r="X54" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.3">
@@ -35026,7 +35044,7 @@
         <v>390</v>
       </c>
       <c r="X55" s="17" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.3">
@@ -35040,7 +35058,7 @@
         <v>392</v>
       </c>
       <c r="X56" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.3">
@@ -35054,7 +35072,7 @@
         <v>391</v>
       </c>
       <c r="X57" s="17" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.3">
@@ -35068,7 +35086,7 @@
         <v>399</v>
       </c>
       <c r="X58" s="17" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.3">
@@ -35474,7 +35492,7 @@
         <v>168</v>
       </c>
       <c r="X87" s="17" t="s">
-        <v>71</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="3:24" x14ac:dyDescent="0.3">
@@ -35488,7 +35506,7 @@
         <v>194</v>
       </c>
       <c r="X88" s="17" t="s">
-        <v>72</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="3:24" x14ac:dyDescent="0.3">
@@ -35502,7 +35520,7 @@
         <v>175</v>
       </c>
       <c r="X89" s="17" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90" spans="3:24" x14ac:dyDescent="0.3">
@@ -35516,7 +35534,7 @@
         <v>167</v>
       </c>
       <c r="X90" s="17" t="s">
-        <v>183</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="3:24" x14ac:dyDescent="0.3">
@@ -35530,7 +35548,7 @@
         <v>180</v>
       </c>
       <c r="X91" s="17" t="s">
-        <v>181</v>
+        <v>653</v>
       </c>
     </row>
     <row r="92" spans="3:24" x14ac:dyDescent="0.3">
@@ -35544,7 +35562,7 @@
         <v>172</v>
       </c>
       <c r="X92" s="17" t="s">
-        <v>177</v>
+        <v>629</v>
       </c>
     </row>
     <row r="93" spans="3:24" x14ac:dyDescent="0.3">
@@ -35558,7 +35576,7 @@
         <v>646</v>
       </c>
       <c r="X93" s="17" t="s">
-        <v>169</v>
+        <v>651</v>
       </c>
     </row>
     <row r="94" spans="3:24" x14ac:dyDescent="0.3">
@@ -35572,7 +35590,7 @@
         <v>622</v>
       </c>
       <c r="X94" s="17" t="s">
-        <v>75</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" spans="3:24" x14ac:dyDescent="0.3">
@@ -35586,7 +35604,7 @@
         <v>648</v>
       </c>
       <c r="X95" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="3:24" x14ac:dyDescent="0.3">
@@ -35600,7 +35618,7 @@
         <v>624</v>
       </c>
       <c r="X96" s="17" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="3:24" x14ac:dyDescent="0.3">
@@ -35614,7 +35632,7 @@
         <v>653</v>
       </c>
       <c r="X97" s="17" t="s">
-        <v>166</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="3:24" x14ac:dyDescent="0.3">
@@ -35628,7 +35646,7 @@
         <v>629</v>
       </c>
       <c r="X98" s="17" t="s">
-        <v>173</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="3:24" x14ac:dyDescent="0.3">
@@ -35642,7 +35660,7 @@
         <v>651</v>
       </c>
       <c r="X99" s="17" t="s">
-        <v>165</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="3:24" x14ac:dyDescent="0.3">
@@ -35656,7 +35674,7 @@
         <v>627</v>
       </c>
       <c r="X100" s="17" t="s">
-        <v>203</v>
+        <v>628</v>
       </c>
     </row>
     <row r="101" spans="3:24" x14ac:dyDescent="0.3">
@@ -35670,7 +35688,7 @@
         <v>71</v>
       </c>
       <c r="X101" s="17" t="s">
-        <v>204</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="3:24" x14ac:dyDescent="0.3">
@@ -35684,7 +35702,7 @@
         <v>72</v>
       </c>
       <c r="X102" s="17" t="s">
-        <v>385</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="3:24" x14ac:dyDescent="0.3">
@@ -35698,7 +35716,7 @@
         <v>650</v>
       </c>
       <c r="X103" s="17" t="s">
-        <v>386</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="3:24" x14ac:dyDescent="0.3">
@@ -35712,7 +35730,7 @@
         <v>626</v>
       </c>
       <c r="X104" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="105" spans="3:24" x14ac:dyDescent="0.3">
@@ -35726,7 +35744,7 @@
         <v>652</v>
       </c>
       <c r="X105" s="17" t="s">
-        <v>623</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="3:24" x14ac:dyDescent="0.3">
@@ -35740,7 +35758,7 @@
         <v>628</v>
       </c>
       <c r="X106" s="17" t="s">
-        <v>624</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="3:24" x14ac:dyDescent="0.3">
@@ -35751,7 +35769,7 @@
         <v>649</v>
       </c>
       <c r="X107" s="17" t="s">
-        <v>625</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="3:24" x14ac:dyDescent="0.3">
@@ -35762,7 +35780,7 @@
         <v>625</v>
       </c>
       <c r="X108" s="17" t="s">
-        <v>626</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="3:24" x14ac:dyDescent="0.3">
@@ -35773,7 +35791,7 @@
         <v>647</v>
       </c>
       <c r="X109" s="17" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
     </row>
     <row r="110" spans="3:24" x14ac:dyDescent="0.3">
@@ -35784,7 +35802,7 @@
         <v>623</v>
       </c>
       <c r="X110" s="17" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="3:24" x14ac:dyDescent="0.3">
@@ -35795,7 +35813,7 @@
         <v>183</v>
       </c>
       <c r="X111" s="17" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="3:24" x14ac:dyDescent="0.3">
@@ -35806,7 +35824,7 @@
         <v>181</v>
       </c>
       <c r="X112" s="17" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="113" spans="4:24" x14ac:dyDescent="0.3">
@@ -35817,7 +35835,7 @@
         <v>73</v>
       </c>
       <c r="X113" s="17" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="4:24" x14ac:dyDescent="0.3">
@@ -35828,7 +35846,7 @@
         <v>74</v>
       </c>
       <c r="X114" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115" spans="4:24" x14ac:dyDescent="0.3">
@@ -35839,7 +35857,7 @@
         <v>177</v>
       </c>
       <c r="X115" s="17" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
     </row>
     <row r="116" spans="4:24" x14ac:dyDescent="0.3">
@@ -35850,7 +35868,7 @@
         <v>169</v>
       </c>
       <c r="X116" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="117" spans="4:24" x14ac:dyDescent="0.3">
@@ -35861,7 +35879,7 @@
         <v>661</v>
       </c>
       <c r="X117" s="17" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
     </row>
     <row r="118" spans="4:24" x14ac:dyDescent="0.3">
@@ -35872,7 +35890,7 @@
         <v>637</v>
       </c>
       <c r="X118" s="17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="119" spans="4:24" x14ac:dyDescent="0.3">
@@ -35883,7 +35901,7 @@
         <v>662</v>
       </c>
       <c r="X119" s="17" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
     </row>
     <row r="120" spans="4:24" x14ac:dyDescent="0.3">
@@ -35894,7 +35912,7 @@
         <v>638</v>
       </c>
       <c r="X120" s="17" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" spans="4:24" x14ac:dyDescent="0.3">
@@ -35905,7 +35923,7 @@
         <v>654</v>
       </c>
       <c r="X121" s="17" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="122" spans="4:24" x14ac:dyDescent="0.3">
@@ -35916,7 +35934,7 @@
         <v>630</v>
       </c>
       <c r="X122" s="17" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="4:24" x14ac:dyDescent="0.3">
@@ -35927,7 +35945,7 @@
         <v>655</v>
       </c>
       <c r="X123" s="17" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="124" spans="4:24" x14ac:dyDescent="0.3">
@@ -35938,7 +35956,7 @@
         <v>631</v>
       </c>
       <c r="X124" s="17" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="4:24" x14ac:dyDescent="0.3">
@@ -35949,7 +35967,7 @@
         <v>656</v>
       </c>
       <c r="X125" s="17" t="s">
-        <v>649</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="4:24" x14ac:dyDescent="0.3">
@@ -35960,7 +35978,7 @@
         <v>632</v>
       </c>
       <c r="X126" s="17" t="s">
-        <v>650</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="4:24" x14ac:dyDescent="0.3">
@@ -35971,7 +35989,7 @@
         <v>657</v>
       </c>
       <c r="X127" s="17" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128" spans="4:24" x14ac:dyDescent="0.3">
@@ -35982,7 +36000,7 @@
         <v>633</v>
       </c>
       <c r="X128" s="17" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="4:24" x14ac:dyDescent="0.3">
@@ -35993,7 +36011,7 @@
         <v>658</v>
       </c>
       <c r="X129" s="17" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="130" spans="4:24" x14ac:dyDescent="0.3">
@@ -36004,7 +36022,7 @@
         <v>634</v>
       </c>
       <c r="X130" s="17" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131" spans="4:24" x14ac:dyDescent="0.3">
@@ -36015,7 +36033,7 @@
         <v>659</v>
       </c>
       <c r="X131" s="17" t="s">
-        <v>655</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="4:24" x14ac:dyDescent="0.3">
@@ -36026,7 +36044,7 @@
         <v>635</v>
       </c>
       <c r="X132" s="17" t="s">
-        <v>656</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.3">
@@ -36037,7 +36055,7 @@
         <v>75</v>
       </c>
       <c r="X133" s="17" t="s">
-        <v>657</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="4:24" x14ac:dyDescent="0.3">
@@ -36048,7 +36066,7 @@
         <v>76</v>
       </c>
       <c r="X134" s="17" t="s">
-        <v>658</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="4:24" x14ac:dyDescent="0.3">
@@ -36059,7 +36077,7 @@
         <v>663</v>
       </c>
       <c r="X135" s="17" t="s">
-        <v>659</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="4:24" x14ac:dyDescent="0.3">
@@ -36070,7 +36088,7 @@
         <v>639</v>
       </c>
       <c r="X136" s="17" t="s">
-        <v>660</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="4:24" x14ac:dyDescent="0.3">
@@ -36081,7 +36099,7 @@
         <v>660</v>
       </c>
       <c r="X137" s="17" t="s">
-        <v>661</v>
+        <v>385</v>
       </c>
     </row>
     <row r="138" spans="4:24" x14ac:dyDescent="0.3">
@@ -36092,7 +36110,7 @@
         <v>636</v>
       </c>
       <c r="X138" s="17" t="s">
-        <v>662</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="4:24" x14ac:dyDescent="0.3">
@@ -36103,7 +36121,7 @@
         <v>77</v>
       </c>
       <c r="X139" s="17" t="s">
-        <v>663</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="4:24" x14ac:dyDescent="0.3">
@@ -36113,6 +36131,9 @@
       <c r="R140" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="X140" s="17" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="141" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D141" s="17" t="s">
@@ -36642,8 +36663,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="R2:R184">
-    <sortCondition ref="R2"/>
+  <sortState ref="X2:X140">
+    <sortCondition ref="X140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="685">
   <si>
     <t>ID</t>
   </si>
@@ -2243,6 +2243,24 @@
   </si>
   <si>
     <t>clickOnFirstMatchingDrivingSurvey</t>
+  </si>
+  <si>
+    <t>verifyIsotopicCaptureResultIsPresentOnMap</t>
+  </si>
+  <si>
+    <t>verifyIsotopicCaptureResultIsNotPresentOnMap</t>
+  </si>
+  <si>
+    <t>verifyRefGasCaptureResultIsPresentOnMap</t>
+  </si>
+  <si>
+    <t>verifyRefGasCaptureResultIsNotPresentOnMap</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoStartTimeLabelHasCorrectTimeFormat</t>
+  </si>
+  <si>
+    <t>verifySurveyInfoEndTimeLabelHasCorrectTimeFormat</t>
   </si>
 </sst>
 </file>
@@ -3901,8 +3919,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1580"/>
   <sheetViews>
-    <sheetView topLeftCell="A1556" workbookViewId="0">
-      <selection activeCell="B1572" sqref="B1572"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33415,10 +33433,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:Z219"/>
+  <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R125" workbookViewId="0">
-      <selection activeCell="X140" sqref="X2:X140"/>
+    <sheetView tabSelected="1" topLeftCell="R173" workbookViewId="0">
+      <selection activeCell="R188" sqref="R2:R188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36055,7 +36073,7 @@
         <v>75</v>
       </c>
       <c r="X133" s="17" t="s">
-        <v>173</v>
+        <v>680</v>
       </c>
     </row>
     <row r="134" spans="4:24" x14ac:dyDescent="0.3">
@@ -36066,7 +36084,7 @@
         <v>76</v>
       </c>
       <c r="X134" s="17" t="s">
-        <v>165</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="4:24" x14ac:dyDescent="0.3">
@@ -36077,7 +36095,7 @@
         <v>663</v>
       </c>
       <c r="X135" s="17" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="4:24" x14ac:dyDescent="0.3">
@@ -36088,7 +36106,7 @@
         <v>639</v>
       </c>
       <c r="X136" s="17" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="4:24" x14ac:dyDescent="0.3">
@@ -36099,7 +36117,7 @@
         <v>660</v>
       </c>
       <c r="X137" s="17" t="s">
-        <v>385</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="4:24" x14ac:dyDescent="0.3">
@@ -36110,7 +36128,7 @@
         <v>636</v>
       </c>
       <c r="X138" s="17" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="4:24" x14ac:dyDescent="0.3">
@@ -36121,7 +36139,7 @@
         <v>77</v>
       </c>
       <c r="X139" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="4:24" x14ac:dyDescent="0.3">
@@ -36132,7 +36150,7 @@
         <v>78</v>
       </c>
       <c r="X140" s="17" t="s">
-        <v>675</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="4:24" x14ac:dyDescent="0.3">
@@ -36142,6 +36160,9 @@
       <c r="R141" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="X141" s="17" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="142" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D142" s="17" t="s">
@@ -36150,6 +36171,9 @@
       <c r="R142" s="17" t="s">
         <v>80</v>
       </c>
+      <c r="X142" s="17" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="143" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D143" s="17" t="s">
@@ -36158,6 +36182,9 @@
       <c r="R143" s="17" t="s">
         <v>174</v>
       </c>
+      <c r="X143" s="17" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="144" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D144" s="17" t="s">
@@ -36166,505 +36193,546 @@
       <c r="R144" s="17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="145" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="X144" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D145" s="17" t="s">
         <v>663</v>
       </c>
       <c r="R145" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="4:18" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="X145" s="17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="146" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D146" s="17" t="s">
         <v>639</v>
       </c>
       <c r="R146" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="4:18" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+      <c r="X146" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D147" s="17" t="s">
         <v>660</v>
       </c>
       <c r="R147" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="4:18" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
         <v>636</v>
       </c>
       <c r="R148" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="149" spans="4:18" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D149" s="17" t="s">
         <v>77</v>
       </c>
       <c r="R149" s="17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="150" spans="4:18" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D150" s="17" t="s">
         <v>78</v>
       </c>
       <c r="R150" s="17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="151" spans="4:18" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D151" s="17" t="s">
         <v>79</v>
       </c>
       <c r="R151" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="152" spans="4:18" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D152" s="17" t="s">
         <v>80</v>
       </c>
       <c r="R152" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153" spans="4:18" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="153" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D153" s="17" t="s">
         <v>174</v>
       </c>
       <c r="R153" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="154" spans="4:18" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D154" s="17" t="s">
         <v>166</v>
       </c>
       <c r="R154" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D155" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="R155" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D156" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="R156" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D155" s="17" t="s">
+    <row r="157" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D157" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="R155" s="17" t="s">
+      <c r="R157" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D156" s="17" t="s">
+    <row r="158" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D158" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="R156" s="17" t="s">
+      <c r="R158" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D157" s="17" t="s">
+    <row r="159" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D159" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="R157" s="17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="158" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D158" s="17" t="s">
+      <c r="R159" s="17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="160" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D160" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="R158" s="17" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="159" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D159" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="R159" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="160" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D160" s="17" t="s">
-        <v>323</v>
-      </c>
       <c r="R160" s="17" t="s">
-        <v>205</v>
+        <v>681</v>
       </c>
     </row>
     <row r="161" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D161" s="17" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="R161" s="17" t="s">
-        <v>673</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D162" s="17" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="R162" s="17" t="s">
-        <v>206</v>
+        <v>674</v>
       </c>
     </row>
     <row r="163" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D163" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R163" s="17" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D164" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R164" s="17" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D165" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R165" s="17" t="s">
-        <v>185</v>
+        <v>673</v>
       </c>
     </row>
     <row r="166" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D166" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R166" s="17" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D167" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R167" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D168" s="17" t="s">
-        <v>669</v>
+        <v>86</v>
       </c>
       <c r="R168" s="17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D169" s="17" t="s">
-        <v>645</v>
+        <v>87</v>
       </c>
       <c r="R169" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D170" s="17" t="s">
-        <v>386</v>
+        <v>669</v>
       </c>
       <c r="R170" s="17" t="s">
-        <v>550</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D171" s="17" t="s">
-        <v>88</v>
+        <v>645</v>
       </c>
       <c r="R171" s="17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D172" s="17" t="s">
-        <v>89</v>
+        <v>682</v>
       </c>
       <c r="R172" s="17" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D173" s="17" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="R173" s="17" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D174" s="17" t="s">
-        <v>641</v>
+        <v>386</v>
       </c>
       <c r="R174" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D175" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R175" s="17" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D176" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R176" s="17" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D177" s="17" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="R177" s="17" t="s">
-        <v>552</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D178" s="17" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="R178" s="17" t="s">
-        <v>208</v>
+        <v>551</v>
       </c>
     </row>
     <row r="179" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D179" s="17" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="R179" s="17" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D180" s="17" t="s">
-        <v>320</v>
+        <v>91</v>
       </c>
       <c r="R180" s="17" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D181" s="17" t="s">
-        <v>92</v>
+        <v>668</v>
       </c>
       <c r="R181" s="17" t="s">
-        <v>99</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D182" s="17" t="s">
-        <v>93</v>
+        <v>644</v>
       </c>
       <c r="R182" s="17" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D183" s="17" t="s">
-        <v>664</v>
+        <v>321</v>
       </c>
       <c r="R183" s="17" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D184" s="17" t="s">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="R184" s="17" t="s">
-        <v>461</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D185" s="17" t="s">
-        <v>209</v>
+        <v>92</v>
+      </c>
+      <c r="R185" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D186" s="17" t="s">
-        <v>205</v>
+        <v>93</v>
+      </c>
+      <c r="R186" s="17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D187" s="17" t="s">
-        <v>206</v>
+        <v>664</v>
+      </c>
+      <c r="R187" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D188" s="17" t="s">
-        <v>94</v>
+        <v>640</v>
+      </c>
+      <c r="R188" s="17" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D189" s="17" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D190" s="17" t="s">
-        <v>667</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D191" s="17" t="s">
-        <v>643</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D192" s="17" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="17" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="17" t="s">
-        <v>185</v>
+        <v>667</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="17" t="s">
-        <v>191</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="17" t="s">
-        <v>550</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200" s="17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201" s="17" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202" s="17" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204" s="17" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D205" s="17" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D206" s="17" t="s">
-        <v>552</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207" s="17" t="s">
-        <v>208</v>
+        <v>551</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208" s="17" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D209" s="17" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D210" s="17" t="s">
-        <v>96</v>
+        <v>552</v>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D211" s="17" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D212" s="17" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213" s="17" t="s">
-        <v>666</v>
+        <v>319</v>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D214" s="17" t="s">
-        <v>642</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D215" s="17" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D216" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D217" s="17" t="s">
-        <v>184</v>
+        <v>666</v>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D218" s="17" t="s">
-        <v>182</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D219" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D220" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D221" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D222" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D223" s="17" t="s">
         <v>461</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="X2:X140">
-    <sortCondition ref="X140"/>
+  <sortState ref="R2:R188">
+    <sortCondition ref="R188"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3919,8 +3919,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1580"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A1562" workbookViewId="0">
+      <selection activeCell="F1577" sqref="F1577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33435,7 +33435,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R173" workbookViewId="0">
+    <sheetView topLeftCell="R173" workbookViewId="0">
       <selection activeCell="R188" sqref="R2:R188"/>
     </sheetView>
   </sheetViews>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3167,8 +3167,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -3234,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="26"/>
     </row>
@@ -3252,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="26"/>
     </row>
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="6"/>
@@ -3289,7 +3289,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="6"/>
@@ -3308,7 +3308,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="6"/>
@@ -3327,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -3345,7 +3345,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -3363,7 +3363,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="26"/>
     </row>
@@ -3381,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -3399,7 +3399,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -3919,8 +3919,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1562" workbookViewId="0">
-      <selection activeCell="F1577" sqref="F1577"/>
+    <sheetView topLeftCell="A1562" workbookViewId="0">
+      <selection activeCell="C1587" sqref="C1587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7604" uniqueCount="752">
   <si>
     <t>ID</t>
   </si>
@@ -2261,6 +2261,207 @@
   </si>
   <si>
     <t>verifySurveyInfoEndTimeLabelHasCorrectTimeFormat</t>
+  </si>
+  <si>
+    <t>TC1429</t>
+  </si>
+  <si>
+    <t>Assessment mode - Satellite View - FOV only</t>
+  </si>
+  <si>
+    <t>TC1430</t>
+  </si>
+  <si>
+    <t>Assessment mode - Map View - FOV only</t>
+  </si>
+  <si>
+    <t>TC1431</t>
+  </si>
+  <si>
+    <t>Assessment mode - Satellite View - Windrose only</t>
+  </si>
+  <si>
+    <t>TC1432</t>
+  </si>
+  <si>
+    <t>Assessment mode - Map View - Windrose only</t>
+  </si>
+  <si>
+    <t>TC1464</t>
+  </si>
+  <si>
+    <t>Assessment mode Map View - Reference Bottle Measurement and Isotopic Capture buttons not present</t>
+  </si>
+  <si>
+    <t>TC1465</t>
+  </si>
+  <si>
+    <t>Assessment mode Map View - LISA, Indications, Isotopic Analysis, Field Notes not present in Display menu</t>
+  </si>
+  <si>
+    <t>TC1466</t>
+  </si>
+  <si>
+    <t>Assessment mode Satellite View - All Display, GIS options on</t>
+  </si>
+  <si>
+    <t>TC1467</t>
+  </si>
+  <si>
+    <t>Assessment mode Map View - All Display, GIS options on</t>
+  </si>
+  <si>
+    <t>TC1468</t>
+  </si>
+  <si>
+    <t>Assessment mode Satellite View - All Display, GIS options off</t>
+  </si>
+  <si>
+    <t>TC1469</t>
+  </si>
+  <si>
+    <t>Assessment mode Map View - All Display, GIS options off</t>
+  </si>
+  <si>
+    <t>TC1470</t>
+  </si>
+  <si>
+    <t>Assessment mode Satellite View - Concentration Chart on, some GIS options on</t>
+  </si>
+  <si>
+    <t>TC1162</t>
+  </si>
+  <si>
+    <t>Manual Survey - Satellite - FoV, Indication, Wind Rose and Concentration Chart ON - Position and  GIS OFF</t>
+  </si>
+  <si>
+    <t>TC1143</t>
+  </si>
+  <si>
+    <t>Operator Survey - Map - All ON</t>
+  </si>
+  <si>
+    <t>TC1144</t>
+  </si>
+  <si>
+    <t>Operator Survey - Satellite - All ON</t>
+  </si>
+  <si>
+    <t>TC1145</t>
+  </si>
+  <si>
+    <t>Manual Survey - Map - All ON</t>
+  </si>
+  <si>
+    <t>TC1146</t>
+  </si>
+  <si>
+    <t>TC1155</t>
+  </si>
+  <si>
+    <t>Operator Survey - Map - LISA and Field Notes ON - Position and GIS OFF</t>
+  </si>
+  <si>
+    <t>TC1156</t>
+  </si>
+  <si>
+    <t>Operator Survey - Map - FoV, Indication, Wind Rose and Concentration Chart ON</t>
+  </si>
+  <si>
+    <t>TC1157</t>
+  </si>
+  <si>
+    <t>Operator Survey - Satellite - LISA and Field Notes ON</t>
+  </si>
+  <si>
+    <t>TC1158</t>
+  </si>
+  <si>
+    <t>Operator Survey - Satellite - FoV, Indication, Wind Rose and Concentration Chart ON - Position and  GIS OFF</t>
+  </si>
+  <si>
+    <t>TC1159</t>
+  </si>
+  <si>
+    <t>Manual Survey - Map - LISA and Field Notes ON - Position and GIS OFF</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Overcast Wind: Strong Survey Type: Assessment</t>
+  </si>
+  <si>
+    <t>Click on Display button</t>
+  </si>
+  <si>
+    <t>Click Display: Windrose OFF</t>
+  </si>
+  <si>
+    <t>Verify Windrose NOT displayed on Map</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart NOT displayed on Map</t>
+  </si>
+  <si>
+    <t>Mode: Assessment</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Calm Survey Type: Assessment</t>
+  </si>
+  <si>
+    <t>Click Display: Windrose ON</t>
+  </si>
+  <si>
+    <t>Verify FoV NOT present on map</t>
+  </si>
+  <si>
+    <t>Verify Windrose displayed on Map</t>
+  </si>
+  <si>
+    <t>verify Map view is shown</t>
+  </si>
+  <si>
+    <t>Click on Mode button</t>
+  </si>
+  <si>
+    <t>Verify Stop Survey button present</t>
+  </si>
+  <si>
+    <t>Verify Start Isotopic Capture button is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Verify Isotopic Analysis option is NOT displayed on menu</t>
+  </si>
+  <si>
+    <t>Click Display: Concentration Chart ON</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart displayed on Map</t>
+  </si>
+  <si>
+    <t>Verify Windrose NOTdisplayed on Map</t>
+  </si>
+  <si>
+    <t>Click GIS - Boundary District Plat ON</t>
+  </si>
+  <si>
+    <t>Verify Material Cast Iron is displayed on Map</t>
+  </si>
+  <si>
+    <t>Verify Material Other Plastic is displayed on Map</t>
+  </si>
+  <si>
+    <t>Verify Boundary District Plat is present on Map</t>
+  </si>
+  <si>
+    <t>verify Satellite view is shown</t>
+  </si>
+  <si>
+    <t>Surveyor: SimAuto-Surveyor2 - SimAuto-Analyzer2</t>
+  </si>
+  <si>
+    <t>DE1795</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Strong Wind: Light Survey Type: Assessment</t>
   </si>
 </sst>
 </file>
@@ -3165,10 +3366,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,7 +3621,7 @@
       <c r="E13" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
@@ -3905,7 +4106,350 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="24">
+        <v>41</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D42" s="26">
+        <v>4</v>
+      </c>
+      <c r="E42" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
+        <v>42</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="D43" s="26">
+        <v>4</v>
+      </c>
+      <c r="E43" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
+        <v>43</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="D44" s="26">
+        <v>4</v>
+      </c>
+      <c r="E44" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>691</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="D45" s="26">
+        <v>4</v>
+      </c>
+      <c r="E45" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="D46" s="26">
+        <v>4</v>
+      </c>
+      <c r="E46" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="D47" s="26">
+        <v>4</v>
+      </c>
+      <c r="E47" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D48" s="26">
+        <v>4</v>
+      </c>
+      <c r="E48" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="D49" s="26">
+        <v>4</v>
+      </c>
+      <c r="E49" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
+        <v>49</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="D50" s="26">
+        <v>4</v>
+      </c>
+      <c r="E50" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>50</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="D51" s="26">
+        <v>4</v>
+      </c>
+      <c r="E51" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <v>51</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="D52" s="26">
+        <v>4</v>
+      </c>
+      <c r="E52" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>52</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>53</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>54</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <v>55</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <v>56</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
+        <v>57</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>58</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
+        <v>59</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
+        <v>60</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
+        <v>61</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>62</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3917,10 +4461,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H1580"/>
+  <dimension ref="A1:H2015"/>
   <sheetViews>
-    <sheetView topLeftCell="A1562" workbookViewId="0">
-      <selection activeCell="C1587" sqref="C1587"/>
+    <sheetView topLeftCell="A1996" workbookViewId="0">
+      <selection activeCell="D2025" sqref="D2025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5344,7 +5888,9 @@
         <v>183</v>
       </c>
       <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="F82" s="13" t="s">
+        <v>475</v>
+      </c>
       <c r="G82" s="14"/>
       <c r="H82" s="13"/>
     </row>
@@ -12168,10 +12714,10 @@
         <v>447</v>
       </c>
       <c r="C447" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="D447" s="26" t="s">
-        <v>360</v>
+        <v>10</v>
+      </c>
+      <c r="D447" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="E447" s="26"/>
       <c r="F447" s="26">
@@ -13501,7 +14047,7 @@
       <c r="E517" s="26"/>
       <c r="F517" s="26"/>
       <c r="G517" s="27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H517" s="26"/>
     </row>
@@ -13556,7 +14102,7 @@
       </c>
       <c r="E520" s="26"/>
       <c r="F520" s="26">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G520" s="27"/>
       <c r="H520" s="26"/>
@@ -13857,10 +14403,10 @@
         <v>346</v>
       </c>
       <c r="C537" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="D537" s="26" t="s">
-        <v>360</v>
+        <v>10</v>
+      </c>
+      <c r="D537" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="E537" s="26"/>
       <c r="F537" s="26">
@@ -33403,9 +33949,8157 @@
         <v>385</v>
       </c>
     </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1581" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1581" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1581" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1581" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1581" s="26"/>
+      <c r="F1581" s="26"/>
+      <c r="G1581" s="27"/>
+      <c r="H1581" s="26"/>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1582" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1582" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1582" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1582" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1582" s="26"/>
+      <c r="F1582" s="26"/>
+      <c r="G1582" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1582" s="26"/>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1583" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1583" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1583" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1583" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1583" s="26"/>
+      <c r="F1583" s="26"/>
+      <c r="G1583" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1583" s="26"/>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1584" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1584" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1584" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1584" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1584" s="26"/>
+      <c r="F1584" s="26"/>
+      <c r="G1584" s="27"/>
+      <c r="H1584" s="26"/>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1585" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1585" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1585" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1585" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1585" s="26"/>
+      <c r="F1585" s="26"/>
+      <c r="G1585" s="27"/>
+      <c r="H1585" s="26"/>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1586" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1586" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1586" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1586" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1586" s="26"/>
+      <c r="F1586" s="26"/>
+      <c r="G1586" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1586" s="26"/>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1587" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1587" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1587" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1587" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1587" s="26"/>
+      <c r="F1587" s="26"/>
+      <c r="G1587" s="27"/>
+      <c r="H1587" s="26"/>
+    </row>
+    <row r="1588" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1588" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1588" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1588" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1588" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1588" s="26"/>
+      <c r="F1588" s="26"/>
+      <c r="G1588" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1588" s="26"/>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1589" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1589" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1589" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1589" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1589" s="26"/>
+      <c r="F1589" s="26"/>
+      <c r="G1589" s="27"/>
+      <c r="H1589" s="26"/>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1590" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1590" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1590" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1590" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1590" s="26"/>
+      <c r="F1590" s="26"/>
+      <c r="G1590" s="27"/>
+      <c r="H1590" s="26"/>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1591" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1591" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1591" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1591" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1591" s="26"/>
+      <c r="F1591" s="26"/>
+      <c r="G1591" s="27"/>
+      <c r="H1591" s="26"/>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1592" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1592" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1592" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1592" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1592" s="26"/>
+      <c r="F1592" s="26"/>
+      <c r="G1592" s="27"/>
+      <c r="H1592" s="26"/>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1593" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1593" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1593" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1593" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1593" s="26"/>
+      <c r="F1593" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1593" s="27"/>
+      <c r="H1593" s="26"/>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1594" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1594" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1594" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1594" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1594" s="26"/>
+      <c r="F1594" s="26"/>
+      <c r="G1594" s="27"/>
+      <c r="H1594" s="26"/>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1595" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1595" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1595" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1595" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1595" s="26"/>
+      <c r="F1595" s="26"/>
+      <c r="G1595" s="27"/>
+      <c r="H1595" s="26"/>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1596" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1596" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1596" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1596" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1596" s="26"/>
+      <c r="F1596" s="26"/>
+      <c r="G1596" s="27"/>
+      <c r="H1596" s="26"/>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1597" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1597" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1597" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1597" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1597" s="26"/>
+      <c r="F1597" s="26"/>
+      <c r="G1597" s="27"/>
+      <c r="H1597" s="26"/>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1598" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1598" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1598" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1598" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1598" s="26"/>
+      <c r="F1598" s="26"/>
+      <c r="G1598" s="27"/>
+      <c r="H1598" s="26"/>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1599" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1599" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1599" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1599" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1599" s="26"/>
+      <c r="F1599" s="26"/>
+      <c r="G1599" s="27"/>
+      <c r="H1599" s="26"/>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1600" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1600" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1600" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1600" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1600" s="26"/>
+      <c r="F1600" s="26"/>
+      <c r="G1600" s="27"/>
+      <c r="H1600" s="26"/>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1601" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1601" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1601" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1601" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1601" s="26"/>
+      <c r="F1601" s="26"/>
+      <c r="G1601" s="27"/>
+      <c r="H1601" s="26"/>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1602" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1602" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1602" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1602" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1602" s="26"/>
+      <c r="F1602" s="26"/>
+      <c r="G1602" s="27"/>
+      <c r="H1602" s="26"/>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1603" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1603" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1603" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1603" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1603" s="26"/>
+      <c r="F1603" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1603" s="27"/>
+      <c r="H1603" s="31" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1604" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1604" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1604" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1604" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1604" s="26"/>
+      <c r="F1604" s="26"/>
+      <c r="G1604" s="27"/>
+      <c r="H1604" s="26"/>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1605" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1605" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1605" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1605" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1605" s="26"/>
+      <c r="F1605" s="26"/>
+      <c r="G1605" s="27"/>
+      <c r="H1605" s="26"/>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1606" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1606" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1606" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1606" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1606" s="26"/>
+      <c r="F1606" s="26"/>
+      <c r="G1606" s="27"/>
+      <c r="H1606" s="26"/>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1607" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1607" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1607" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1607" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1607" s="26"/>
+      <c r="F1607" s="26"/>
+      <c r="G1607" s="27"/>
+      <c r="H1607" s="26"/>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1608" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1608" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1608" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1608" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1608" s="26"/>
+      <c r="F1608" s="26"/>
+      <c r="G1608" s="27"/>
+      <c r="H1608" s="26"/>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1609" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1609" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1609" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1609" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1609" s="26"/>
+      <c r="F1609" s="26"/>
+      <c r="G1609" s="27"/>
+      <c r="H1609" s="26"/>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1610" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1610" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1610" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1610" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1610" s="26"/>
+      <c r="F1610" s="25"/>
+      <c r="G1610" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1610" s="26"/>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1611" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1611" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1611" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1611" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1611" s="26"/>
+      <c r="F1611" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1611" s="27"/>
+      <c r="H1611" s="26"/>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1612" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1612" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1612" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1612" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1612" s="26"/>
+      <c r="F1612" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1612" s="27"/>
+      <c r="H1612" s="26"/>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1613" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1613" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1613" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1613" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1613" s="26"/>
+      <c r="F1613" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1613" s="27"/>
+      <c r="H1613" s="26"/>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1614" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1614" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1614" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1614" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1614" s="26"/>
+      <c r="F1614" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1614" s="27"/>
+      <c r="H1614" s="26"/>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1615" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1615" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1615" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1615" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1615" s="26"/>
+      <c r="F1615" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1615" s="27"/>
+      <c r="H1615" s="26"/>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1616" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1616" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1616" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1616" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1616" s="26"/>
+      <c r="F1616" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1616" s="27"/>
+      <c r="H1616" s="26"/>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1617" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1617" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1617" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1617" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1617" s="26"/>
+      <c r="F1617" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1617" s="27"/>
+      <c r="H1617" s="26"/>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1618" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1618" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1618" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1618" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1618" s="26"/>
+      <c r="F1618" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1618" s="27"/>
+      <c r="H1618" s="26"/>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1619" s="28">
+        <v>41</v>
+      </c>
+      <c r="B1619" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1619" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1619" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1619" s="26"/>
+      <c r="F1619" s="26"/>
+      <c r="G1619" s="27"/>
+      <c r="H1619" s="26"/>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1620" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1620" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1620" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1620" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1620" s="26"/>
+      <c r="F1620" s="26"/>
+      <c r="G1620" s="27"/>
+      <c r="H1620" s="26"/>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1621" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1621" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1621" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1621" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1621" s="26"/>
+      <c r="F1621" s="26"/>
+      <c r="G1621" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1621" s="26"/>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1622" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1622" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1622" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1622" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1622" s="26"/>
+      <c r="F1622" s="26"/>
+      <c r="G1622" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1622" s="26"/>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1623" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1623" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1623" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1623" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1623" s="26"/>
+      <c r="F1623" s="26"/>
+      <c r="G1623" s="27"/>
+      <c r="H1623" s="26"/>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1624" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1624" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1624" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1624" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1624" s="26"/>
+      <c r="F1624" s="26"/>
+      <c r="G1624" s="27"/>
+      <c r="H1624" s="26"/>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1625" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1625" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1625" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1625" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1625" s="26"/>
+      <c r="F1625" s="26"/>
+      <c r="G1625" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1625" s="26"/>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1626" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1626" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1626" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1626" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1626" s="26"/>
+      <c r="F1626" s="26"/>
+      <c r="G1626" s="27"/>
+      <c r="H1626" s="26"/>
+    </row>
+    <row r="1627" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1627" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1627" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1627" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1627" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1627" s="26"/>
+      <c r="F1627" s="26"/>
+      <c r="G1627" s="27">
+        <v>33</v>
+      </c>
+      <c r="H1627" s="26"/>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1628" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1628" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1628" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1628" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1628" s="26"/>
+      <c r="F1628" s="26"/>
+      <c r="G1628" s="27"/>
+      <c r="H1628" s="26"/>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1629" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1629" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1629" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1629" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1629" s="26"/>
+      <c r="F1629" s="26"/>
+      <c r="G1629" s="27"/>
+      <c r="H1629" s="26"/>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1630" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1630" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1630" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1630" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1630" s="26"/>
+      <c r="F1630" s="26"/>
+      <c r="G1630" s="27"/>
+      <c r="H1630" s="26"/>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1631" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1631" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1631" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1631" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1631" s="26"/>
+      <c r="F1631" s="26"/>
+      <c r="G1631" s="27"/>
+      <c r="H1631" s="26"/>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1632" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1632" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1632" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1632" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1632" s="26"/>
+      <c r="F1632" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1632" s="27"/>
+      <c r="H1632" s="26"/>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1633" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1633" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1633" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1633" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1633" s="26"/>
+      <c r="F1633" s="26"/>
+      <c r="G1633" s="27"/>
+      <c r="H1633" s="26"/>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1634" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1634" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1634" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1634" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1634" s="26"/>
+      <c r="F1634" s="26"/>
+      <c r="G1634" s="27"/>
+      <c r="H1634" s="26"/>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1635" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1635" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1635" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1635" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1635" s="26"/>
+      <c r="F1635" s="26"/>
+      <c r="G1635" s="27"/>
+      <c r="H1635" s="26"/>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1636" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1636" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1636" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1636" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1636" s="26"/>
+      <c r="F1636" s="26"/>
+      <c r="G1636" s="27"/>
+      <c r="H1636" s="26"/>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1637" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1637" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1637" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1637" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1637" s="26"/>
+      <c r="F1637" s="26"/>
+      <c r="G1637" s="27"/>
+      <c r="H1637" s="26"/>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1638" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1638" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1638" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1638" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1638" s="26"/>
+      <c r="F1638" s="26"/>
+      <c r="G1638" s="27"/>
+      <c r="H1638" s="26"/>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1639" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1639" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1639" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1639" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1639" s="26"/>
+      <c r="F1639" s="26"/>
+      <c r="G1639" s="27"/>
+      <c r="H1639" s="26"/>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1640" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1640" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1640" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1640" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1640" s="26"/>
+      <c r="F1640" s="26"/>
+      <c r="G1640" s="27"/>
+      <c r="H1640" s="26"/>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1641" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1641" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1641" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1641" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1641" s="26"/>
+      <c r="F1641" s="26"/>
+      <c r="G1641" s="27"/>
+      <c r="H1641" s="26"/>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1642" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1642" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1642" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1642" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1642" s="26"/>
+      <c r="F1642" s="26"/>
+      <c r="G1642" s="27"/>
+      <c r="H1642" s="26"/>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1643" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1643" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1643" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1643" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1643" s="26"/>
+      <c r="F1643" s="26"/>
+      <c r="G1643" s="27"/>
+      <c r="H1643" s="26"/>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1644" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1644" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1644" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1644" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1644" s="26"/>
+      <c r="F1644" s="26"/>
+      <c r="G1644" s="27"/>
+      <c r="H1644" s="26"/>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1645" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1645" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1645" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1645" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1645" s="26"/>
+      <c r="F1645" s="26"/>
+      <c r="G1645" s="27"/>
+      <c r="H1645" s="26"/>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1646" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1646" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1646" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1646" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1646" s="26"/>
+      <c r="F1646" s="26"/>
+      <c r="G1646" s="27"/>
+      <c r="H1646" s="26"/>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1647" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1647" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1647" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1647" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1647" s="26"/>
+      <c r="F1647" s="26"/>
+      <c r="G1647" s="27"/>
+      <c r="H1647" s="26"/>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1648" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1648" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1648" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1648" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1648" s="26"/>
+      <c r="F1648" s="26"/>
+      <c r="G1648" s="27"/>
+      <c r="H1648" s="26"/>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1649" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1649" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1649" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1649" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1649" s="26"/>
+      <c r="F1649" s="25"/>
+      <c r="G1649" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1649" s="26"/>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1650" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1650" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1650" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1650" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1650" s="26"/>
+      <c r="F1650" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1650" s="27"/>
+      <c r="H1650" s="26"/>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1651" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1651" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1651" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1651" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1651" s="26"/>
+      <c r="F1651" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1651" s="27"/>
+      <c r="H1651" s="26"/>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1652" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1652" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1652" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1652" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1652" s="26"/>
+      <c r="F1652" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1652" s="27"/>
+      <c r="H1652" s="26"/>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1653" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1653" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1653" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1653" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1653" s="26"/>
+      <c r="F1653" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1653" s="27"/>
+      <c r="H1653" s="26"/>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1654" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1654" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1654" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1654" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1654" s="26"/>
+      <c r="F1654" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1654" s="27"/>
+      <c r="H1654" s="26"/>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1655" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1655" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1655" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1655" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1655" s="26"/>
+      <c r="F1655" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1655" s="27"/>
+      <c r="H1655" s="26"/>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1656" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1656" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1656" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1656" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1656" s="26"/>
+      <c r="F1656" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1656" s="27"/>
+      <c r="H1656" s="26"/>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1657" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1657" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1657" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1657" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1657" s="26"/>
+      <c r="F1657" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1657" s="27"/>
+      <c r="H1657" s="26"/>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1658" s="28">
+        <v>42</v>
+      </c>
+      <c r="B1658" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1658" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1658" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1658" s="26"/>
+      <c r="F1658" s="26"/>
+      <c r="G1658" s="27"/>
+      <c r="H1658" s="26"/>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1659" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1659" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1659" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1659" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1659" s="26"/>
+      <c r="F1659" s="26"/>
+      <c r="G1659" s="27"/>
+      <c r="H1659" s="26"/>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1660" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1660" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1660" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1660" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1660" s="26"/>
+      <c r="F1660" s="26"/>
+      <c r="G1660" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1660" s="26"/>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1661" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1661" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1661" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1661" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1661" s="26"/>
+      <c r="F1661" s="26"/>
+      <c r="G1661" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1661" s="26"/>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1662" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1662" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1662" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1662" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1662" s="26"/>
+      <c r="F1662" s="26"/>
+      <c r="G1662" s="27"/>
+      <c r="H1662" s="26"/>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1663" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1663" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1663" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1663" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1663" s="26"/>
+      <c r="F1663" s="26"/>
+      <c r="G1663" s="27"/>
+      <c r="H1663" s="26"/>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1664" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1664" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1664" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1664" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1664" s="26"/>
+      <c r="F1664" s="26"/>
+      <c r="G1664" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1664" s="26"/>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1665" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1665" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1665" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1665" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1665" s="26"/>
+      <c r="F1665" s="26"/>
+      <c r="G1665" s="27"/>
+      <c r="H1665" s="26"/>
+    </row>
+    <row r="1666" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1666" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1666" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1666" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1666" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1666" s="26"/>
+      <c r="F1666" s="26"/>
+      <c r="G1666" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1666" s="26"/>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1667" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1667" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1667" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1667" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1667" s="26"/>
+      <c r="F1667" s="26"/>
+      <c r="G1667" s="27"/>
+      <c r="H1667" s="26"/>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1668" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1668" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1668" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1668" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1668" s="26"/>
+      <c r="F1668" s="26"/>
+      <c r="G1668" s="27"/>
+      <c r="H1668" s="26"/>
+    </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1669" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1669" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1669" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1669" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1669" s="26"/>
+      <c r="F1669" s="26"/>
+      <c r="G1669" s="27"/>
+      <c r="H1669" s="26"/>
+    </row>
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1670" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1670" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1670" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1670" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1670" s="26"/>
+      <c r="F1670" s="26"/>
+      <c r="G1670" s="27"/>
+      <c r="H1670" s="26"/>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1671" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1671" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1671" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1671" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1671" s="26"/>
+      <c r="F1671" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1671" s="27"/>
+      <c r="H1671" s="26"/>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1672" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1672" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1672" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1672" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1672" s="26"/>
+      <c r="F1672" s="26"/>
+      <c r="G1672" s="27"/>
+      <c r="H1672" s="26"/>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1673" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1673" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1673" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1673" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1673" s="26"/>
+      <c r="F1673" s="26"/>
+      <c r="G1673" s="27"/>
+      <c r="H1673" s="26"/>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1674" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1674" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1674" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1674" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1674" s="26"/>
+      <c r="F1674" s="26"/>
+      <c r="G1674" s="27"/>
+      <c r="H1674" s="26"/>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1675" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1675" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1675" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1675" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1675" s="26"/>
+      <c r="F1675" s="26"/>
+      <c r="G1675" s="27"/>
+      <c r="H1675" s="26"/>
+    </row>
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1676" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1676" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1676" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1676" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1676" s="26"/>
+      <c r="F1676" s="26"/>
+      <c r="G1676" s="27"/>
+      <c r="H1676" s="26"/>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1677" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1677" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1677" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1677" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1677" s="26"/>
+      <c r="F1677" s="26"/>
+      <c r="G1677" s="27"/>
+      <c r="H1677" s="26"/>
+    </row>
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1678" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1678" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1678" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1678" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1678" s="26"/>
+      <c r="F1678" s="26"/>
+      <c r="G1678" s="27"/>
+      <c r="H1678" s="26"/>
+    </row>
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1679" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1679" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1679" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1679" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1679" s="26"/>
+      <c r="F1679" s="26"/>
+      <c r="G1679" s="27"/>
+      <c r="H1679" s="26"/>
+    </row>
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1680" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1680" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1680" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1680" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1680" s="26"/>
+      <c r="F1680" s="26"/>
+      <c r="G1680" s="27"/>
+      <c r="H1680" s="26"/>
+    </row>
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1681" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1681" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1681" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1681" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1681" s="26"/>
+      <c r="F1681" s="26"/>
+      <c r="G1681" s="27"/>
+      <c r="H1681" s="26"/>
+    </row>
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1682" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1682" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1682" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1682" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1682" s="26"/>
+      <c r="F1682" s="26"/>
+      <c r="G1682" s="27"/>
+      <c r="H1682" s="26"/>
+    </row>
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1683" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1683" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1683" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1683" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1683" s="26"/>
+      <c r="F1683" s="26"/>
+      <c r="G1683" s="27"/>
+      <c r="H1683" s="26"/>
+    </row>
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1684" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1684" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1684" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1684" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1684" s="26"/>
+      <c r="F1684" s="26"/>
+      <c r="G1684" s="27"/>
+      <c r="H1684" s="26"/>
+    </row>
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1685" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1685" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1685" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1685" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1685" s="26"/>
+      <c r="F1685" s="26"/>
+      <c r="G1685" s="27"/>
+      <c r="H1685" s="26"/>
+    </row>
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1686" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1686" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1686" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1686" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1686" s="26"/>
+      <c r="F1686" s="26"/>
+      <c r="G1686" s="27"/>
+      <c r="H1686" s="26"/>
+    </row>
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1687" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1687" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1687" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1687" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1687" s="26"/>
+      <c r="F1687" s="26"/>
+      <c r="G1687" s="27"/>
+      <c r="H1687" s="26"/>
+    </row>
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1688" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1688" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1688" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1688" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1688" s="26"/>
+      <c r="F1688" s="26"/>
+      <c r="G1688" s="27"/>
+      <c r="H1688" s="26"/>
+    </row>
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1689" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1689" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1689" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1689" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1689" s="26"/>
+      <c r="F1689" s="26"/>
+      <c r="G1689" s="27"/>
+      <c r="H1689" s="26"/>
+    </row>
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1690" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1690" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1690" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1690" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1690" s="26"/>
+      <c r="F1690" s="25"/>
+      <c r="G1690" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1690" s="26"/>
+    </row>
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1691" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1691" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1691" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1691" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1691" s="26"/>
+      <c r="F1691" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1691" s="27"/>
+      <c r="H1691" s="26"/>
+    </row>
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1692" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1692" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1692" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1692" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1692" s="26"/>
+      <c r="F1692" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1692" s="27"/>
+      <c r="H1692" s="26"/>
+    </row>
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1693" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1693" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1693" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1693" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1693" s="26"/>
+      <c r="F1693" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1693" s="27"/>
+      <c r="H1693" s="26"/>
+    </row>
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1694" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1694" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1694" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1694" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1694" s="26"/>
+      <c r="F1694" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1694" s="27"/>
+      <c r="H1694" s="26"/>
+    </row>
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1695" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1695" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1695" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1695" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1695" s="26"/>
+      <c r="F1695" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1695" s="27"/>
+      <c r="H1695" s="26"/>
+    </row>
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1696" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1696" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1696" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1696" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1696" s="26"/>
+      <c r="F1696" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1696" s="27"/>
+      <c r="H1696" s="26"/>
+    </row>
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1697" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1697" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1697" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1697" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1697" s="26"/>
+      <c r="F1697" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1697" s="27"/>
+      <c r="H1697" s="26"/>
+    </row>
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1698" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1698" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1698" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1698" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1698" s="26"/>
+      <c r="F1698" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1698" s="27"/>
+      <c r="H1698" s="26"/>
+    </row>
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1699" s="28">
+        <v>43</v>
+      </c>
+      <c r="B1699" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1699" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1699" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1699" s="26"/>
+      <c r="F1699" s="26"/>
+      <c r="G1699" s="27"/>
+      <c r="H1699" s="26"/>
+    </row>
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1700" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1700" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1700" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1700" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1700" s="26"/>
+      <c r="F1700" s="26"/>
+      <c r="G1700" s="27"/>
+      <c r="H1700" s="26"/>
+    </row>
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1701" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1701" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1701" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1701" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1701" s="26"/>
+      <c r="F1701" s="26"/>
+      <c r="G1701" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1701" s="26"/>
+    </row>
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1702" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1702" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1702" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1702" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1702" s="26"/>
+      <c r="F1702" s="26"/>
+      <c r="G1702" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1702" s="26"/>
+    </row>
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1703" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1703" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1703" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1703" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1703" s="26"/>
+      <c r="F1703" s="26"/>
+      <c r="G1703" s="27"/>
+      <c r="H1703" s="26"/>
+    </row>
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1704" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1704" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1704" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1704" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1704" s="26"/>
+      <c r="F1704" s="26"/>
+      <c r="G1704" s="27"/>
+      <c r="H1704" s="26"/>
+    </row>
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1705" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1705" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1705" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1705" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1705" s="26"/>
+      <c r="F1705" s="26"/>
+      <c r="G1705" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1705" s="26"/>
+    </row>
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1706" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1706" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1706" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1706" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1706" s="26"/>
+      <c r="F1706" s="26"/>
+      <c r="G1706" s="27"/>
+      <c r="H1706" s="26"/>
+    </row>
+    <row r="1707" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1707" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1707" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1707" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1707" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1707" s="26"/>
+      <c r="F1707" s="26"/>
+      <c r="G1707" s="27">
+        <v>34</v>
+      </c>
+      <c r="H1707" s="26"/>
+    </row>
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1708" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1708" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1708" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1708" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1708" s="26"/>
+      <c r="F1708" s="26"/>
+      <c r="G1708" s="27"/>
+      <c r="H1708" s="26"/>
+    </row>
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1709" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1709" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1709" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1709" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1709" s="26"/>
+      <c r="F1709" s="26"/>
+      <c r="G1709" s="27"/>
+      <c r="H1709" s="26"/>
+    </row>
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1710" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1710" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1710" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1710" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1710" s="26"/>
+      <c r="F1710" s="26"/>
+      <c r="G1710" s="27"/>
+      <c r="H1710" s="26"/>
+    </row>
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1711" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1711" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1711" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1711" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1711" s="26"/>
+      <c r="F1711" s="26"/>
+      <c r="G1711" s="27"/>
+      <c r="H1711" s="26"/>
+    </row>
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1712" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1712" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1712" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1712" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1712" s="26"/>
+      <c r="F1712" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1712" s="27"/>
+      <c r="H1712" s="26"/>
+    </row>
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1713" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1713" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1713" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1713" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1713" s="26"/>
+      <c r="F1713" s="26"/>
+      <c r="G1713" s="27"/>
+      <c r="H1713" s="26"/>
+    </row>
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1714" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1714" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1714" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1714" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1714" s="26"/>
+      <c r="F1714" s="26"/>
+      <c r="G1714" s="27"/>
+      <c r="H1714" s="26"/>
+    </row>
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1715" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1715" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1715" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1715" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1715" s="26"/>
+      <c r="F1715" s="26"/>
+      <c r="G1715" s="27"/>
+      <c r="H1715" s="26"/>
+    </row>
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1716" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1716" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1716" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1716" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1716" s="26"/>
+      <c r="F1716" s="26"/>
+      <c r="G1716" s="27"/>
+      <c r="H1716" s="26"/>
+    </row>
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1717" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1717" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1717" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1717" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1717" s="26"/>
+      <c r="F1717" s="26"/>
+      <c r="G1717" s="27"/>
+      <c r="H1717" s="26"/>
+    </row>
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1718" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1718" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1718" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1718" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1718" s="26"/>
+      <c r="F1718" s="26"/>
+      <c r="G1718" s="27"/>
+      <c r="H1718" s="26"/>
+    </row>
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1719" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1719" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1719" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1719" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1719" s="26"/>
+      <c r="F1719" s="26"/>
+      <c r="G1719" s="27"/>
+      <c r="H1719" s="26"/>
+    </row>
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1720" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1720" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1720" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1720" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1720" s="26"/>
+      <c r="F1720" s="26"/>
+      <c r="G1720" s="27"/>
+      <c r="H1720" s="26"/>
+    </row>
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1721" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1721" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1721" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1721" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1721" s="26"/>
+      <c r="F1721" s="26"/>
+      <c r="G1721" s="27"/>
+      <c r="H1721" s="26"/>
+    </row>
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1722" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1722" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1722" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1722" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1722" s="26"/>
+      <c r="F1722" s="26"/>
+      <c r="G1722" s="27"/>
+      <c r="H1722" s="26"/>
+    </row>
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1723" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1723" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1723" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1723" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1723" s="26"/>
+      <c r="F1723" s="26"/>
+      <c r="G1723" s="27"/>
+      <c r="H1723" s="26"/>
+    </row>
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1724" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1724" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1724" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1724" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1724" s="26"/>
+      <c r="F1724" s="26"/>
+      <c r="G1724" s="27"/>
+      <c r="H1724" s="26"/>
+    </row>
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1725" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1725" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1725" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1725" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1725" s="26"/>
+      <c r="F1725" s="26"/>
+      <c r="G1725" s="27"/>
+      <c r="H1725" s="26"/>
+    </row>
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1726" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1726" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1726" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1726" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1726" s="26"/>
+      <c r="F1726" s="26"/>
+      <c r="G1726" s="27"/>
+      <c r="H1726" s="26"/>
+    </row>
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1727" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1727" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1727" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1727" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1727" s="26"/>
+      <c r="F1727" s="26"/>
+      <c r="G1727" s="27"/>
+      <c r="H1727" s="26"/>
+    </row>
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1728" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1728" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1728" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1728" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1728" s="26"/>
+      <c r="F1728" s="26"/>
+      <c r="G1728" s="27"/>
+      <c r="H1728" s="26"/>
+    </row>
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1729" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1729" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1729" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1729" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1729" s="26"/>
+      <c r="F1729" s="25"/>
+      <c r="G1729" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1729" s="26"/>
+    </row>
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1730" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1730" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1730" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1730" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1730" s="26"/>
+      <c r="F1730" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1730" s="27"/>
+      <c r="H1730" s="26"/>
+    </row>
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1731" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1731" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1731" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1731" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1731" s="26"/>
+      <c r="F1731" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1731" s="27"/>
+      <c r="H1731" s="26"/>
+    </row>
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1732" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1732" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1732" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1732" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1732" s="26"/>
+      <c r="F1732" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1732" s="27"/>
+      <c r="H1732" s="26"/>
+    </row>
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1733" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1733" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1733" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1733" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1733" s="26"/>
+      <c r="F1733" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1733" s="27"/>
+      <c r="H1733" s="26"/>
+    </row>
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1734" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1734" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1734" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1734" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1734" s="26"/>
+      <c r="F1734" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1734" s="27"/>
+      <c r="H1734" s="26"/>
+    </row>
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1735" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1735" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1735" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1735" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1735" s="26"/>
+      <c r="F1735" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1735" s="27"/>
+      <c r="H1735" s="26"/>
+    </row>
+    <row r="1736" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1736" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1736" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1736" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1736" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1736" s="26"/>
+      <c r="F1736" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1736" s="27"/>
+      <c r="H1736" s="26"/>
+    </row>
+    <row r="1737" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1737" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1737" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1737" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1737" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1737" s="26"/>
+      <c r="F1737" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1737" s="27"/>
+      <c r="H1737" s="26"/>
+    </row>
+    <row r="1738" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1738" s="28">
+        <v>44</v>
+      </c>
+      <c r="B1738" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1738" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1738" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1738" s="26"/>
+      <c r="F1738" s="26"/>
+      <c r="G1738" s="27"/>
+      <c r="H1738" s="26"/>
+    </row>
+    <row r="1739" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1739" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1739" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1739" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1739" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1739" s="26"/>
+      <c r="F1739" s="26"/>
+      <c r="G1739" s="27"/>
+      <c r="H1739" s="26"/>
+    </row>
+    <row r="1740" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1740" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1740" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1740" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1740" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1740" s="26"/>
+      <c r="F1740" s="26"/>
+      <c r="G1740" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1740" s="26"/>
+    </row>
+    <row r="1741" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1741" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1741" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1741" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1741" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1741" s="26"/>
+      <c r="F1741" s="26"/>
+      <c r="G1741" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1741" s="26"/>
+    </row>
+    <row r="1742" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1742" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1742" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1742" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1742" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1742" s="26"/>
+      <c r="F1742" s="26"/>
+      <c r="G1742" s="27"/>
+      <c r="H1742" s="26"/>
+    </row>
+    <row r="1743" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1743" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1743" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1743" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1743" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1743" s="26"/>
+      <c r="F1743" s="26"/>
+      <c r="G1743" s="27"/>
+      <c r="H1743" s="26"/>
+    </row>
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1744" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1744" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1744" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1744" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1744" s="26"/>
+      <c r="F1744" s="26"/>
+      <c r="G1744" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1744" s="26"/>
+    </row>
+    <row r="1745" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1745" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1745" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1745" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1745" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1745" s="26"/>
+      <c r="F1745" s="26"/>
+      <c r="G1745" s="27"/>
+      <c r="H1745" s="26"/>
+    </row>
+    <row r="1746" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1746" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1746" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1746" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1746" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1746" s="26"/>
+      <c r="F1746" s="26"/>
+      <c r="G1746" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1746" s="26"/>
+    </row>
+    <row r="1747" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1747" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1747" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1747" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1747" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1747" s="26"/>
+      <c r="F1747" s="26"/>
+      <c r="G1747" s="27"/>
+      <c r="H1747" s="26"/>
+    </row>
+    <row r="1748" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1748" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1748" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1748" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1748" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1748" s="26"/>
+      <c r="F1748" s="26"/>
+      <c r="G1748" s="27"/>
+      <c r="H1748" s="26"/>
+    </row>
+    <row r="1749" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1749" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1749" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1749" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1749" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1749" s="26"/>
+      <c r="F1749" s="26"/>
+      <c r="G1749" s="27"/>
+      <c r="H1749" s="26"/>
+    </row>
+    <row r="1750" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1750" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1750" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1750" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1750" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1750" s="26"/>
+      <c r="F1750" s="26"/>
+      <c r="G1750" s="27"/>
+      <c r="H1750" s="26"/>
+    </row>
+    <row r="1751" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1751" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1751" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1751" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1751" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1751" s="26"/>
+      <c r="F1751" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1751" s="27"/>
+      <c r="H1751" s="26"/>
+    </row>
+    <row r="1752" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1752" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1752" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1752" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1752" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1752" s="26"/>
+      <c r="F1752" s="26"/>
+      <c r="G1752" s="27"/>
+      <c r="H1752" s="26"/>
+    </row>
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1753" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1753" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1753" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1753" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="E1753" s="26"/>
+      <c r="F1753" s="26"/>
+      <c r="G1753" s="27"/>
+      <c r="H1753" s="26"/>
+    </row>
+    <row r="1754" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1754" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1754" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1754" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1754" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1754" s="26"/>
+      <c r="F1754" s="26"/>
+      <c r="G1754" s="27"/>
+      <c r="H1754" s="26"/>
+    </row>
+    <row r="1755" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1755" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1755" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1755" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1755" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1755" s="26"/>
+      <c r="F1755" s="26"/>
+      <c r="G1755" s="27"/>
+      <c r="H1755" s="26"/>
+    </row>
+    <row r="1756" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1756" s="28">
+        <v>45</v>
+      </c>
+      <c r="B1756" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1756" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1756" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1756" s="26"/>
+      <c r="F1756" s="26"/>
+      <c r="G1756" s="27"/>
+      <c r="H1756" s="26"/>
+    </row>
+    <row r="1757" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1757" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1757" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1757" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1757" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1757" s="26"/>
+      <c r="F1757" s="26"/>
+      <c r="G1757" s="27"/>
+      <c r="H1757" s="26"/>
+    </row>
+    <row r="1758" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1758" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1758" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1758" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1758" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1758" s="26"/>
+      <c r="F1758" s="26"/>
+      <c r="G1758" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1758" s="26"/>
+    </row>
+    <row r="1759" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1759" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1759" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1759" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1759" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1759" s="26"/>
+      <c r="F1759" s="26"/>
+      <c r="G1759" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1759" s="26"/>
+    </row>
+    <row r="1760" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1760" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1760" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1760" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1760" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1760" s="26"/>
+      <c r="F1760" s="26"/>
+      <c r="G1760" s="27"/>
+      <c r="H1760" s="26"/>
+    </row>
+    <row r="1761" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1761" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1761" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1761" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1761" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1761" s="26"/>
+      <c r="F1761" s="26"/>
+      <c r="G1761" s="27"/>
+      <c r="H1761" s="26"/>
+    </row>
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1762" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1762" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1762" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1762" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1762" s="26"/>
+      <c r="F1762" s="26"/>
+      <c r="G1762" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1762" s="26"/>
+    </row>
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1763" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1763" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1763" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1763" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1763" s="26"/>
+      <c r="F1763" s="26"/>
+      <c r="G1763" s="27"/>
+      <c r="H1763" s="26"/>
+    </row>
+    <row r="1764" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1764" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1764" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1764" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1764" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1764" s="26"/>
+      <c r="F1764" s="26"/>
+      <c r="G1764" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1764" s="26"/>
+    </row>
+    <row r="1765" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1765" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1765" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1765" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1765" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1765" s="26"/>
+      <c r="F1765" s="26"/>
+      <c r="G1765" s="27"/>
+      <c r="H1765" s="26"/>
+    </row>
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1766" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1766" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1766" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1766" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1766" s="26"/>
+      <c r="F1766" s="26"/>
+      <c r="G1766" s="27"/>
+      <c r="H1766" s="26"/>
+    </row>
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1767" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1767" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1767" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1767" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1767" s="26"/>
+      <c r="F1767" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1767" s="27"/>
+      <c r="H1767" s="26"/>
+    </row>
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1768" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1768" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1768" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1768" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1768" s="26"/>
+      <c r="F1768" s="26"/>
+      <c r="G1768" s="27"/>
+      <c r="H1768" s="26"/>
+    </row>
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1769" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1769" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1769" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1769" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1769" s="26"/>
+      <c r="F1769" s="26"/>
+      <c r="G1769" s="27"/>
+      <c r="H1769" s="26"/>
+    </row>
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1770" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1770" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1770" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1770" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1770" s="26"/>
+      <c r="F1770" s="26">
+        <v>2</v>
+      </c>
+      <c r="G1770" s="27"/>
+      <c r="H1770" s="26"/>
+    </row>
+    <row r="1771" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1771" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1771" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1771" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1771" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1771" s="26"/>
+      <c r="F1771" s="26">
+        <v>3</v>
+      </c>
+      <c r="G1771" s="27"/>
+      <c r="H1771" s="26"/>
+    </row>
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1772" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1772" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1772" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1772" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1772" s="26"/>
+      <c r="F1772" s="26">
+        <v>4</v>
+      </c>
+      <c r="G1772" s="27"/>
+      <c r="H1772" s="26"/>
+    </row>
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1773" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1773" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1773" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1773" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1773" s="26"/>
+      <c r="F1773" s="26">
+        <v>5</v>
+      </c>
+      <c r="G1773" s="27"/>
+      <c r="H1773" s="26"/>
+    </row>
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1774" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1774" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1774" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1774" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1774" s="26"/>
+      <c r="F1774" s="26">
+        <v>6</v>
+      </c>
+      <c r="G1774" s="27"/>
+      <c r="H1774" s="26"/>
+    </row>
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1775" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1775" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1775" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1775" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1775" s="26"/>
+      <c r="F1775" s="26">
+        <v>7</v>
+      </c>
+      <c r="G1775" s="27"/>
+      <c r="H1775" s="26"/>
+    </row>
+    <row r="1776" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1776" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1776" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1776" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1776" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1776" s="26"/>
+      <c r="F1776" s="26">
+        <v>8</v>
+      </c>
+      <c r="G1776" s="27"/>
+      <c r="H1776" s="26"/>
+    </row>
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1777" s="28">
+        <v>46</v>
+      </c>
+      <c r="B1777" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1777" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1777" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1777" s="26"/>
+      <c r="F1777" s="26"/>
+      <c r="G1777" s="27"/>
+      <c r="H1777" s="26"/>
+    </row>
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1778" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1778" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1778" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1778" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1778" s="26"/>
+      <c r="F1778" s="26"/>
+      <c r="G1778" s="27"/>
+      <c r="H1778" s="26"/>
+    </row>
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1779" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1779" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1779" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1779" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1779" s="26"/>
+      <c r="F1779" s="26"/>
+      <c r="G1779" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1779" s="26"/>
+    </row>
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1780" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1780" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1780" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1780" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1780" s="26"/>
+      <c r="F1780" s="26"/>
+      <c r="G1780" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1780" s="26"/>
+    </row>
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1781" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1781" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1781" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1781" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1781" s="26"/>
+      <c r="F1781" s="26"/>
+      <c r="G1781" s="27"/>
+      <c r="H1781" s="26"/>
+    </row>
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1782" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1782" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1782" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1782" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1782" s="26"/>
+      <c r="F1782" s="26"/>
+      <c r="G1782" s="27"/>
+      <c r="H1782" s="26"/>
+    </row>
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1783" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1783" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1783" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1783" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1783" s="26"/>
+      <c r="F1783" s="26"/>
+      <c r="G1783" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1783" s="26"/>
+    </row>
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1784" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1784" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1784" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1784" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1784" s="26"/>
+      <c r="F1784" s="26"/>
+      <c r="G1784" s="27"/>
+      <c r="H1784" s="26"/>
+    </row>
+    <row r="1785" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1785" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1785" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1785" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1785" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1785" s="26"/>
+      <c r="F1785" s="26"/>
+      <c r="G1785" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1785" s="26"/>
+    </row>
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1786" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1786" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1786" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1786" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1786" s="26"/>
+      <c r="F1786" s="26"/>
+      <c r="G1786" s="27"/>
+      <c r="H1786" s="26"/>
+    </row>
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1787" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1787" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1787" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1787" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1787" s="26"/>
+      <c r="F1787" s="26"/>
+      <c r="G1787" s="27"/>
+      <c r="H1787" s="26"/>
+    </row>
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1788" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1788" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1788" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1788" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1788" s="26"/>
+      <c r="F1788" s="26"/>
+      <c r="G1788" s="27"/>
+      <c r="H1788" s="26"/>
+    </row>
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1789" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1789" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1789" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1789" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1789" s="26"/>
+      <c r="F1789" s="26"/>
+      <c r="G1789" s="27"/>
+      <c r="H1789" s="26"/>
+    </row>
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1790" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1790" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1790" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1790" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1790" s="26"/>
+      <c r="F1790" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1790" s="27"/>
+      <c r="H1790" s="26"/>
+    </row>
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1791" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1791" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1791" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1791" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1791" s="26"/>
+      <c r="F1791" s="26"/>
+      <c r="G1791" s="27"/>
+      <c r="H1791" s="26"/>
+    </row>
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1792" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1792" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1792" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1792" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1792" s="26"/>
+      <c r="F1792" s="26"/>
+      <c r="G1792" s="27"/>
+      <c r="H1792" s="26"/>
+    </row>
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1793" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1793" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1793" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1793" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1793" s="26"/>
+      <c r="F1793" s="26"/>
+      <c r="G1793" s="27"/>
+      <c r="H1793" s="26"/>
+    </row>
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1794" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1794" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1794" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1794" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1794" s="26"/>
+      <c r="F1794" s="26"/>
+      <c r="G1794" s="27"/>
+      <c r="H1794" s="26"/>
+    </row>
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1795" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1795" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1795" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1795" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1795" s="26"/>
+      <c r="F1795" s="26"/>
+      <c r="G1795" s="27"/>
+      <c r="H1795" s="26"/>
+    </row>
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1796" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1796" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1796" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1796" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1796" s="26"/>
+      <c r="F1796" s="26"/>
+      <c r="G1796" s="27"/>
+      <c r="H1796" s="26"/>
+    </row>
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1797" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1797" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1797" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1797" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1797" s="26"/>
+      <c r="F1797" s="26"/>
+      <c r="G1797" s="27"/>
+      <c r="H1797" s="26"/>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1798" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1798" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1798" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1798" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1798" s="26"/>
+      <c r="F1798" s="26"/>
+      <c r="G1798" s="27"/>
+      <c r="H1798" s="26"/>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1799" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1799" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1799" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1799" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1799" s="26"/>
+      <c r="F1799" s="26"/>
+      <c r="G1799" s="27"/>
+      <c r="H1799" s="26"/>
+    </row>
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1800" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1800" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1800" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1800" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1800" s="26"/>
+      <c r="F1800" s="26"/>
+      <c r="G1800" s="27"/>
+      <c r="H1800" s="26"/>
+    </row>
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1801" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1801" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1801" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1801" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1801" s="26"/>
+      <c r="F1801" s="26"/>
+      <c r="G1801" s="27"/>
+      <c r="H1801" s="26"/>
+    </row>
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1802" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1802" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1802" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1802" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1802" s="26"/>
+      <c r="F1802" s="26"/>
+      <c r="G1802" s="27"/>
+      <c r="H1802" s="26"/>
+    </row>
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1803" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1803" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1803" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1803" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1803" s="26"/>
+      <c r="F1803" s="26"/>
+      <c r="G1803" s="27"/>
+      <c r="H1803" s="26"/>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1804" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1804" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1804" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1804" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1804" s="26"/>
+      <c r="F1804" s="26"/>
+      <c r="G1804" s="27"/>
+      <c r="H1804" s="26"/>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1805" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1805" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1805" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1805" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1805" s="26"/>
+      <c r="F1805" s="26"/>
+      <c r="G1805" s="27"/>
+      <c r="H1805" s="26"/>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1806" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1806" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1806" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1806" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1806" s="26"/>
+      <c r="F1806" s="26"/>
+      <c r="G1806" s="27"/>
+      <c r="H1806" s="26"/>
+    </row>
+    <row r="1807" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1807" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1807" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1807" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1807" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1807" s="26"/>
+      <c r="F1807" s="25"/>
+      <c r="G1807" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1807" s="26"/>
+    </row>
+    <row r="1808" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1808" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1808" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1808" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1808" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1808" s="26"/>
+      <c r="F1808" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1808" s="27"/>
+      <c r="H1808" s="26"/>
+    </row>
+    <row r="1809" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1809" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1809" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1809" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1809" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1809" s="26"/>
+      <c r="F1809" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1809" s="27"/>
+      <c r="H1809" s="26"/>
+    </row>
+    <row r="1810" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1810" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1810" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1810" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1810" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1810" s="26"/>
+      <c r="F1810" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1810" s="27"/>
+      <c r="H1810" s="26"/>
+    </row>
+    <row r="1811" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1811" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1811" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1811" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1811" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1811" s="26"/>
+      <c r="F1811" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1811" s="27"/>
+      <c r="H1811" s="26"/>
+    </row>
+    <row r="1812" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1812" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1812" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1812" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1812" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1812" s="26"/>
+      <c r="F1812" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1812" s="27"/>
+      <c r="H1812" s="26"/>
+    </row>
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1813" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1813" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1813" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1813" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1813" s="26"/>
+      <c r="F1813" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1813" s="27"/>
+      <c r="H1813" s="26"/>
+    </row>
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1814" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1814" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1814" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1814" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1814" s="26"/>
+      <c r="F1814" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1814" s="27"/>
+      <c r="H1814" s="26"/>
+    </row>
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1815" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1815" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1815" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1815" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1815" s="26"/>
+      <c r="F1815" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1815" s="27"/>
+      <c r="H1815" s="26"/>
+    </row>
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1816" s="28">
+        <v>47</v>
+      </c>
+      <c r="B1816" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1816" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1816" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1816" s="26"/>
+      <c r="F1816" s="26"/>
+      <c r="G1816" s="27"/>
+      <c r="H1816" s="26"/>
+    </row>
+    <row r="1817" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1817" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1817" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1817" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1817" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1817" s="26"/>
+      <c r="F1817" s="26"/>
+      <c r="G1817" s="27"/>
+      <c r="H1817" s="26"/>
+    </row>
+    <row r="1818" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1818" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1818" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1818" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1818" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1818" s="26"/>
+      <c r="F1818" s="26"/>
+      <c r="G1818" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1818" s="26"/>
+    </row>
+    <row r="1819" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1819" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1819" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1819" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1819" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1819" s="26"/>
+      <c r="F1819" s="26"/>
+      <c r="G1819" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1819" s="26"/>
+    </row>
+    <row r="1820" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1820" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1820" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1820" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1820" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1820" s="26"/>
+      <c r="F1820" s="26"/>
+      <c r="G1820" s="27"/>
+      <c r="H1820" s="26"/>
+    </row>
+    <row r="1821" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1821" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1821" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1821" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1821" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1821" s="26"/>
+      <c r="F1821" s="26"/>
+      <c r="G1821" s="27"/>
+      <c r="H1821" s="26"/>
+    </row>
+    <row r="1822" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1822" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1822" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1822" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1822" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1822" s="26"/>
+      <c r="F1822" s="26"/>
+      <c r="G1822" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1822" s="26"/>
+    </row>
+    <row r="1823" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1823" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1823" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1823" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1823" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1823" s="26"/>
+      <c r="F1823" s="26"/>
+      <c r="G1823" s="27"/>
+      <c r="H1823" s="26"/>
+    </row>
+    <row r="1824" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1824" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1824" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1824" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1824" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1824" s="26"/>
+      <c r="F1824" s="26"/>
+      <c r="G1824" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1824" s="26"/>
+    </row>
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1825" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1825" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1825" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1825" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1825" s="26"/>
+      <c r="F1825" s="26"/>
+      <c r="G1825" s="27"/>
+      <c r="H1825" s="26"/>
+    </row>
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1826" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1826" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1826" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1826" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1826" s="26"/>
+      <c r="F1826" s="26"/>
+      <c r="G1826" s="27"/>
+      <c r="H1826" s="26"/>
+    </row>
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1827" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1827" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1827" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1827" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1827" s="26"/>
+      <c r="F1827" s="26"/>
+      <c r="G1827" s="27"/>
+      <c r="H1827" s="26"/>
+    </row>
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1828" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1828" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1828" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1828" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1828" s="26"/>
+      <c r="F1828" s="26"/>
+      <c r="G1828" s="27"/>
+      <c r="H1828" s="26"/>
+    </row>
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1829" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1829" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1829" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1829" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1829" s="26"/>
+      <c r="F1829" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1829" s="27"/>
+      <c r="H1829" s="26"/>
+    </row>
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1830" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1830" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1830" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1830" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1830" s="26"/>
+      <c r="F1830" s="26"/>
+      <c r="G1830" s="27"/>
+      <c r="H1830" s="26"/>
+    </row>
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1831" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1831" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1831" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1831" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1831" s="26"/>
+      <c r="F1831" s="26"/>
+      <c r="G1831" s="27"/>
+      <c r="H1831" s="26"/>
+    </row>
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1832" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1832" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1832" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1832" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1832" s="26"/>
+      <c r="F1832" s="26"/>
+      <c r="G1832" s="27"/>
+      <c r="H1832" s="26"/>
+    </row>
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1833" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1833" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1833" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1833" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1833" s="26"/>
+      <c r="F1833" s="26"/>
+      <c r="G1833" s="27"/>
+      <c r="H1833" s="26"/>
+    </row>
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1834" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1834" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1834" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1834" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1834" s="26"/>
+      <c r="F1834" s="26"/>
+      <c r="G1834" s="27"/>
+      <c r="H1834" s="26"/>
+    </row>
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1835" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1835" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1835" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1835" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1835" s="26"/>
+      <c r="F1835" s="26"/>
+      <c r="G1835" s="27"/>
+      <c r="H1835" s="26"/>
+    </row>
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1836" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1836" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1836" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1836" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1836" s="26"/>
+      <c r="F1836" s="26"/>
+      <c r="G1836" s="27"/>
+      <c r="H1836" s="26"/>
+    </row>
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1837" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1837" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1837" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1837" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1837" s="26"/>
+      <c r="F1837" s="26"/>
+      <c r="G1837" s="27"/>
+      <c r="H1837" s="26"/>
+    </row>
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1838" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1838" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1838" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1838" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1838" s="26"/>
+      <c r="F1838" s="26"/>
+      <c r="G1838" s="27"/>
+      <c r="H1838" s="26"/>
+    </row>
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1839" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1839" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1839" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1839" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1839" s="26"/>
+      <c r="F1839" s="26"/>
+      <c r="G1839" s="27"/>
+      <c r="H1839" s="26"/>
+    </row>
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1840" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1840" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1840" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1840" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1840" s="26"/>
+      <c r="F1840" s="26"/>
+      <c r="G1840" s="27"/>
+      <c r="H1840" s="26"/>
+    </row>
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1841" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1841" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1841" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1841" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1841" s="26"/>
+      <c r="F1841" s="26"/>
+      <c r="G1841" s="27"/>
+      <c r="H1841" s="26"/>
+    </row>
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1842" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1842" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1842" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1842" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1842" s="26"/>
+      <c r="F1842" s="26"/>
+      <c r="G1842" s="27"/>
+      <c r="H1842" s="26"/>
+    </row>
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1843" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1843" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1843" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1843" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1843" s="26"/>
+      <c r="F1843" s="26"/>
+      <c r="G1843" s="27"/>
+      <c r="H1843" s="26"/>
+    </row>
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1844" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1844" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1844" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1844" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1844" s="26"/>
+      <c r="F1844" s="26"/>
+      <c r="G1844" s="27"/>
+      <c r="H1844" s="26"/>
+    </row>
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1845" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1845" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1845" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1845" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1845" s="26"/>
+      <c r="F1845" s="26"/>
+      <c r="G1845" s="27"/>
+      <c r="H1845" s="26"/>
+    </row>
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1846" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1846" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1846" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1846" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1846" s="26"/>
+      <c r="F1846" s="25"/>
+      <c r="G1846" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1846" s="26"/>
+    </row>
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1847" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1847" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1847" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1847" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1847" s="26"/>
+      <c r="F1847" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1847" s="27"/>
+      <c r="H1847" s="26"/>
+    </row>
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1848" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1848" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1848" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1848" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1848" s="26"/>
+      <c r="F1848" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1848" s="27"/>
+      <c r="H1848" s="26"/>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1849" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1849" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1849" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1849" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1849" s="26"/>
+      <c r="F1849" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1849" s="27"/>
+      <c r="H1849" s="26"/>
+    </row>
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1850" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1850" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1850" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1850" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1850" s="26"/>
+      <c r="F1850" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1850" s="27"/>
+      <c r="H1850" s="26"/>
+    </row>
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1851" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1851" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1851" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1851" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1851" s="26"/>
+      <c r="F1851" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1851" s="27"/>
+      <c r="H1851" s="26"/>
+    </row>
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1852" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1852" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1852" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1852" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1852" s="26"/>
+      <c r="F1852" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1852" s="27"/>
+      <c r="H1852" s="26"/>
+    </row>
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1853" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1853" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1853" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1853" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1853" s="26"/>
+      <c r="F1853" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1853" s="27"/>
+      <c r="H1853" s="26"/>
+    </row>
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1854" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1854" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1854" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1854" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1854" s="26"/>
+      <c r="F1854" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1854" s="27"/>
+      <c r="H1854" s="26"/>
+    </row>
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1855" s="28">
+        <v>48</v>
+      </c>
+      <c r="B1855" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1855" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1855" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1855" s="26"/>
+      <c r="F1855" s="26"/>
+      <c r="G1855" s="27"/>
+      <c r="H1855" s="26"/>
+    </row>
+    <row r="1856" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1856" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1856" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1856" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1856" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1856" s="26"/>
+      <c r="F1856" s="26"/>
+      <c r="G1856" s="27"/>
+      <c r="H1856" s="26"/>
+    </row>
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1857" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1857" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1857" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1857" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1857" s="26"/>
+      <c r="F1857" s="26"/>
+      <c r="G1857" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1857" s="26"/>
+    </row>
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1858" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1858" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1858" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1858" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1858" s="26"/>
+      <c r="F1858" s="26"/>
+      <c r="G1858" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1858" s="26"/>
+    </row>
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1859" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1859" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1859" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1859" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1859" s="26"/>
+      <c r="F1859" s="26"/>
+      <c r="G1859" s="27"/>
+      <c r="H1859" s="26"/>
+    </row>
+    <row r="1860" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1860" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1860" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1860" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1860" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1860" s="26"/>
+      <c r="F1860" s="26"/>
+      <c r="G1860" s="27"/>
+      <c r="H1860" s="26"/>
+    </row>
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1861" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1861" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1861" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1861" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1861" s="26"/>
+      <c r="F1861" s="26"/>
+      <c r="G1861" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1861" s="26"/>
+    </row>
+    <row r="1862" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1862" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1862" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1862" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1862" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1862" s="26"/>
+      <c r="F1862" s="26"/>
+      <c r="G1862" s="27"/>
+      <c r="H1862" s="26"/>
+    </row>
+    <row r="1863" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1863" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1863" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1863" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1863" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1863" s="26"/>
+      <c r="F1863" s="26"/>
+      <c r="G1863" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1863" s="26"/>
+    </row>
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1864" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1864" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1864" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1864" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1864" s="26"/>
+      <c r="F1864" s="26"/>
+      <c r="G1864" s="27"/>
+      <c r="H1864" s="26"/>
+    </row>
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1865" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1865" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1865" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1865" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1865" s="26"/>
+      <c r="F1865" s="26"/>
+      <c r="G1865" s="27"/>
+      <c r="H1865" s="26"/>
+    </row>
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1866" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1866" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1866" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1866" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1866" s="26"/>
+      <c r="F1866" s="26"/>
+      <c r="G1866" s="27"/>
+      <c r="H1866" s="26"/>
+    </row>
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1867" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1867" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1867" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1867" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1867" s="26"/>
+      <c r="F1867" s="26"/>
+      <c r="G1867" s="27"/>
+      <c r="H1867" s="26"/>
+    </row>
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1868" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1868" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1868" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1868" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1868" s="26"/>
+      <c r="F1868" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1868" s="27"/>
+      <c r="H1868" s="26"/>
+    </row>
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1869" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1869" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1869" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1869" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1869" s="26"/>
+      <c r="F1869" s="26"/>
+      <c r="G1869" s="27"/>
+      <c r="H1869" s="26"/>
+    </row>
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1870" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1870" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1870" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1870" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1870" s="26"/>
+      <c r="F1870" s="26"/>
+      <c r="G1870" s="27"/>
+      <c r="H1870" s="26"/>
+    </row>
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1871" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1871" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1871" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1871" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1871" s="26"/>
+      <c r="F1871" s="26"/>
+      <c r="G1871" s="27"/>
+      <c r="H1871" s="26"/>
+    </row>
+    <row r="1872" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1872" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1872" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1872" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1872" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1872" s="26"/>
+      <c r="F1872" s="26"/>
+      <c r="G1872" s="27"/>
+      <c r="H1872" s="26"/>
+    </row>
+    <row r="1873" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1873" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1873" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1873" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1873" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1873" s="26"/>
+      <c r="F1873" s="26"/>
+      <c r="G1873" s="27"/>
+      <c r="H1873" s="26"/>
+    </row>
+    <row r="1874" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1874" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1874" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1874" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1874" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1874" s="26"/>
+      <c r="F1874" s="26"/>
+      <c r="G1874" s="27"/>
+      <c r="H1874" s="26"/>
+    </row>
+    <row r="1875" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1875" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1875" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1875" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1875" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1875" s="26"/>
+      <c r="F1875" s="26"/>
+      <c r="G1875" s="27"/>
+      <c r="H1875" s="26"/>
+    </row>
+    <row r="1876" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1876" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1876" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1876" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1876" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1876" s="26"/>
+      <c r="F1876" s="26"/>
+      <c r="G1876" s="27"/>
+      <c r="H1876" s="26"/>
+    </row>
+    <row r="1877" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1877" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1877" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1877" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1877" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1877" s="26"/>
+      <c r="F1877" s="26"/>
+      <c r="G1877" s="27"/>
+      <c r="H1877" s="26"/>
+    </row>
+    <row r="1878" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1878" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1878" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1878" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1878" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1878" s="26"/>
+      <c r="F1878" s="26"/>
+      <c r="G1878" s="27"/>
+      <c r="H1878" s="26"/>
+    </row>
+    <row r="1879" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1879" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1879" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1879" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1879" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1879" s="26"/>
+      <c r="F1879" s="26"/>
+      <c r="G1879" s="27"/>
+      <c r="H1879" s="26"/>
+    </row>
+    <row r="1880" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1880" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1880" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1880" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1880" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1880" s="26"/>
+      <c r="F1880" s="26"/>
+      <c r="G1880" s="27"/>
+      <c r="H1880" s="26"/>
+    </row>
+    <row r="1881" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1881" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1881" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1881" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1881" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1881" s="26"/>
+      <c r="F1881" s="26"/>
+      <c r="G1881" s="27"/>
+      <c r="H1881" s="26"/>
+    </row>
+    <row r="1882" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1882" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1882" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1882" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1882" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1882" s="26"/>
+      <c r="F1882" s="26"/>
+      <c r="G1882" s="27"/>
+      <c r="H1882" s="26"/>
+    </row>
+    <row r="1883" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1883" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1883" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1883" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1883" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1883" s="26"/>
+      <c r="F1883" s="26"/>
+      <c r="G1883" s="27"/>
+      <c r="H1883" s="26"/>
+    </row>
+    <row r="1884" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1884" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1884" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1884" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1884" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1884" s="26"/>
+      <c r="F1884" s="26"/>
+      <c r="G1884" s="27"/>
+      <c r="H1884" s="26"/>
+    </row>
+    <row r="1885" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1885" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1885" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1885" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1885" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1885" s="26"/>
+      <c r="F1885" s="25"/>
+      <c r="G1885" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1885" s="26"/>
+    </row>
+    <row r="1886" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1886" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1886" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1886" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1886" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1886" s="26"/>
+      <c r="F1886" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1886" s="27"/>
+      <c r="H1886" s="26"/>
+    </row>
+    <row r="1887" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1887" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1887" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1887" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1887" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1887" s="26"/>
+      <c r="F1887" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1887" s="27"/>
+      <c r="H1887" s="26"/>
+    </row>
+    <row r="1888" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1888" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1888" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1888" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1888" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1888" s="26"/>
+      <c r="F1888" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1888" s="27"/>
+      <c r="H1888" s="26"/>
+    </row>
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1889" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1889" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1889" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1889" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1889" s="26"/>
+      <c r="F1889" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1889" s="27"/>
+      <c r="H1889" s="26"/>
+    </row>
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1890" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1890" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1890" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1890" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1890" s="26"/>
+      <c r="F1890" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1890" s="27"/>
+      <c r="H1890" s="26"/>
+    </row>
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1891" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1891" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1891" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1891" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1891" s="26"/>
+      <c r="F1891" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1891" s="27"/>
+      <c r="H1891" s="26"/>
+    </row>
+    <row r="1892" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1892" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1892" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1892" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1892" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1892" s="26"/>
+      <c r="F1892" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1892" s="27"/>
+      <c r="H1892" s="26"/>
+    </row>
+    <row r="1893" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1893" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1893" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1893" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1893" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1893" s="26"/>
+      <c r="F1893" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1893" s="27"/>
+      <c r="H1893" s="26"/>
+    </row>
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1894" s="28">
+        <v>49</v>
+      </c>
+      <c r="B1894" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1894" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1894" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1894" s="26"/>
+      <c r="F1894" s="26"/>
+      <c r="G1894" s="27"/>
+      <c r="H1894" s="26"/>
+    </row>
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1895" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1895" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1895" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1895" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1895" s="26"/>
+      <c r="F1895" s="26"/>
+      <c r="G1895" s="27"/>
+      <c r="H1895" s="26"/>
+    </row>
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1896" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1896" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1896" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1896" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1896" s="26"/>
+      <c r="F1896" s="26"/>
+      <c r="G1896" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1896" s="26"/>
+    </row>
+    <row r="1897" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1897" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1897" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1897" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1897" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1897" s="26"/>
+      <c r="F1897" s="26"/>
+      <c r="G1897" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1897" s="26"/>
+    </row>
+    <row r="1898" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1898" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1898" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1898" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1898" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1898" s="26"/>
+      <c r="F1898" s="26"/>
+      <c r="G1898" s="27"/>
+      <c r="H1898" s="26"/>
+    </row>
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1899" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1899" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1899" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1899" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1899" s="26"/>
+      <c r="F1899" s="26"/>
+      <c r="G1899" s="27"/>
+      <c r="H1899" s="26"/>
+    </row>
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1900" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1900" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1900" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1900" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1900" s="26"/>
+      <c r="F1900" s="26"/>
+      <c r="G1900" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1900" s="26"/>
+    </row>
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1901" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1901" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1901" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1901" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1901" s="26"/>
+      <c r="F1901" s="26"/>
+      <c r="G1901" s="27"/>
+      <c r="H1901" s="26"/>
+    </row>
+    <row r="1902" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1902" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1902" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1902" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1902" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1902" s="26"/>
+      <c r="F1902" s="26"/>
+      <c r="G1902" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1902" s="26"/>
+    </row>
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1903" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1903" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1903" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1903" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1903" s="26"/>
+      <c r="F1903" s="26"/>
+      <c r="G1903" s="27"/>
+      <c r="H1903" s="26"/>
+    </row>
+    <row r="1904" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1904" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1904" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1904" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1904" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1904" s="26"/>
+      <c r="F1904" s="26"/>
+      <c r="G1904" s="27"/>
+      <c r="H1904" s="26"/>
+    </row>
+    <row r="1905" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1905" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1905" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1905" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1905" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1905" s="26"/>
+      <c r="F1905" s="26"/>
+      <c r="G1905" s="27"/>
+      <c r="H1905" s="26"/>
+    </row>
+    <row r="1906" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1906" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1906" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1906" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1906" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1906" s="26"/>
+      <c r="F1906" s="26"/>
+      <c r="G1906" s="27"/>
+      <c r="H1906" s="26"/>
+    </row>
+    <row r="1907" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1907" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1907" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1907" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1907" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1907" s="26"/>
+      <c r="F1907" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1907" s="27"/>
+      <c r="H1907" s="26"/>
+    </row>
+    <row r="1908" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1908" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1908" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1908" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1908" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1908" s="26"/>
+      <c r="F1908" s="26"/>
+      <c r="G1908" s="27"/>
+      <c r="H1908" s="26"/>
+    </row>
+    <row r="1909" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1909" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1909" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1909" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1909" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1909" s="26"/>
+      <c r="F1909" s="26"/>
+      <c r="G1909" s="27"/>
+      <c r="H1909" s="26"/>
+    </row>
+    <row r="1910" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1910" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1910" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1910" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1910" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1910" s="26"/>
+      <c r="F1910" s="26"/>
+      <c r="G1910" s="27"/>
+      <c r="H1910" s="26"/>
+    </row>
+    <row r="1911" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1911" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1911" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1911" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1911" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1911" s="26"/>
+      <c r="F1911" s="26"/>
+      <c r="G1911" s="27"/>
+      <c r="H1911" s="26"/>
+    </row>
+    <row r="1912" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1912" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1912" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1912" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1912" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1912" s="26"/>
+      <c r="F1912" s="26"/>
+      <c r="G1912" s="27"/>
+      <c r="H1912" s="26"/>
+    </row>
+    <row r="1913" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1913" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1913" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1913" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1913" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1913" s="26"/>
+      <c r="F1913" s="26"/>
+      <c r="G1913" s="27"/>
+      <c r="H1913" s="26"/>
+    </row>
+    <row r="1914" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1914" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1914" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1914" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1914" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1914" s="26"/>
+      <c r="F1914" s="26"/>
+      <c r="G1914" s="27"/>
+      <c r="H1914" s="26"/>
+    </row>
+    <row r="1915" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1915" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1915" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1915" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1915" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1915" s="26"/>
+      <c r="F1915" s="26"/>
+      <c r="G1915" s="27"/>
+      <c r="H1915" s="26"/>
+    </row>
+    <row r="1916" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1916" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1916" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1916" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1916" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1916" s="26"/>
+      <c r="F1916" s="26"/>
+      <c r="G1916" s="27"/>
+      <c r="H1916" s="26"/>
+    </row>
+    <row r="1917" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1917" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1917" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1917" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1917" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1917" s="26"/>
+      <c r="F1917" s="26"/>
+      <c r="G1917" s="27"/>
+      <c r="H1917" s="26"/>
+    </row>
+    <row r="1918" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1918" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1918" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1918" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1918" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1918" s="26"/>
+      <c r="F1918" s="26"/>
+      <c r="G1918" s="27"/>
+      <c r="H1918" s="26"/>
+    </row>
+    <row r="1919" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1919" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1919" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1919" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1919" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1919" s="26"/>
+      <c r="F1919" s="26"/>
+      <c r="G1919" s="27"/>
+      <c r="H1919" s="26"/>
+    </row>
+    <row r="1920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1920" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1920" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1920" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1920" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1920" s="26"/>
+      <c r="F1920" s="26"/>
+      <c r="G1920" s="27"/>
+      <c r="H1920" s="26"/>
+    </row>
+    <row r="1921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1921" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1921" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1921" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1921" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1921" s="26"/>
+      <c r="F1921" s="26"/>
+      <c r="G1921" s="27"/>
+      <c r="H1921" s="26"/>
+    </row>
+    <row r="1922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1922" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1922" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1922" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1922" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1922" s="26"/>
+      <c r="F1922" s="26"/>
+      <c r="G1922" s="27"/>
+      <c r="H1922" s="26"/>
+    </row>
+    <row r="1923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1923" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1923" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1923" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1923" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1923" s="26"/>
+      <c r="F1923" s="26"/>
+      <c r="G1923" s="27"/>
+      <c r="H1923" s="26"/>
+    </row>
+    <row r="1924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1924" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1924" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1924" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1924" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1924" s="26"/>
+      <c r="F1924" s="25"/>
+      <c r="G1924" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1924" s="26"/>
+    </row>
+    <row r="1925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1925" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1925" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1925" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1925" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1925" s="26"/>
+      <c r="F1925" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1925" s="27"/>
+      <c r="H1925" s="26"/>
+    </row>
+    <row r="1926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1926" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1926" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1926" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1926" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1926" s="26"/>
+      <c r="F1926" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1926" s="27"/>
+      <c r="H1926" s="26"/>
+    </row>
+    <row r="1927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1927" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1927" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1927" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1927" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1927" s="26"/>
+      <c r="F1927" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1927" s="27"/>
+      <c r="H1927" s="26"/>
+    </row>
+    <row r="1928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1928" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1928" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1928" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1928" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1928" s="26"/>
+      <c r="F1928" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1928" s="27"/>
+      <c r="H1928" s="26"/>
+    </row>
+    <row r="1929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1929" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1929" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1929" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1929" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1929" s="26"/>
+      <c r="F1929" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1929" s="27"/>
+      <c r="H1929" s="26"/>
+    </row>
+    <row r="1930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1930" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1930" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1930" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1930" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1930" s="26"/>
+      <c r="F1930" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1930" s="27"/>
+      <c r="H1930" s="26"/>
+    </row>
+    <row r="1931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1931" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1931" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1931" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1931" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1931" s="26"/>
+      <c r="F1931" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1931" s="27"/>
+      <c r="H1931" s="26"/>
+    </row>
+    <row r="1932" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1932" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1932" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1932" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1932" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1932" s="26"/>
+      <c r="F1932" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1932" s="27"/>
+      <c r="H1932" s="26"/>
+    </row>
+    <row r="1933" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1933" s="28">
+        <v>50</v>
+      </c>
+      <c r="B1933" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1933" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1933" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1933" s="26"/>
+      <c r="F1933" s="26"/>
+      <c r="G1933" s="27"/>
+      <c r="H1933" s="26"/>
+    </row>
+    <row r="1934" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1934" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1934" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1934" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1934" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1934" s="26"/>
+      <c r="F1934" s="26"/>
+      <c r="G1934" s="27"/>
+      <c r="H1934" s="26"/>
+    </row>
+    <row r="1935" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1935" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1935" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1935" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1935" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1935" s="26"/>
+      <c r="F1935" s="26"/>
+      <c r="G1935" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1935" s="26"/>
+    </row>
+    <row r="1936" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1936" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1936" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1936" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1936" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1936" s="26"/>
+      <c r="F1936" s="26"/>
+      <c r="G1936" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1936" s="26"/>
+    </row>
+    <row r="1937" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1937" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1937" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1937" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1937" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1937" s="26"/>
+      <c r="F1937" s="26"/>
+      <c r="G1937" s="27"/>
+      <c r="H1937" s="26"/>
+    </row>
+    <row r="1938" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1938" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1938" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1938" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1938" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1938" s="26"/>
+      <c r="F1938" s="26"/>
+      <c r="G1938" s="27"/>
+      <c r="H1938" s="26"/>
+    </row>
+    <row r="1939" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1939" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1939" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1939" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1939" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1939" s="26"/>
+      <c r="F1939" s="26"/>
+      <c r="G1939" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1939" s="26"/>
+    </row>
+    <row r="1940" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1940" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1940" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1940" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1940" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1940" s="26"/>
+      <c r="F1940" s="26"/>
+      <c r="G1940" s="27"/>
+      <c r="H1940" s="26"/>
+    </row>
+    <row r="1941" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1941" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1941" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1941" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1941" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1941" s="26"/>
+      <c r="F1941" s="26"/>
+      <c r="G1941" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1941" s="26"/>
+    </row>
+    <row r="1942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1942" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1942" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1942" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1942" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1942" s="26"/>
+      <c r="F1942" s="26"/>
+      <c r="G1942" s="27"/>
+      <c r="H1942" s="26"/>
+    </row>
+    <row r="1943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1943" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1943" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1943" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1943" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1943" s="26"/>
+      <c r="F1943" s="26"/>
+      <c r="G1943" s="27"/>
+      <c r="H1943" s="26"/>
+    </row>
+    <row r="1944" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1944" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1944" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1944" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1944" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1944" s="26"/>
+      <c r="F1944" s="26"/>
+      <c r="G1944" s="27"/>
+      <c r="H1944" s="26"/>
+    </row>
+    <row r="1945" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1945" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1945" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1945" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1945" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1945" s="26"/>
+      <c r="F1945" s="26"/>
+      <c r="G1945" s="27"/>
+      <c r="H1945" s="26"/>
+    </row>
+    <row r="1946" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1946" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1946" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1946" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1946" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1946" s="26"/>
+      <c r="F1946" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1946" s="27"/>
+      <c r="H1946" s="26"/>
+    </row>
+    <row r="1947" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1947" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1947" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1947" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1947" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1947" s="26"/>
+      <c r="F1947" s="26"/>
+      <c r="G1947" s="27"/>
+      <c r="H1947" s="26"/>
+    </row>
+    <row r="1948" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1948" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1948" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1948" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1948" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1948" s="26"/>
+      <c r="F1948" s="26"/>
+      <c r="G1948" s="27"/>
+      <c r="H1948" s="26"/>
+    </row>
+    <row r="1949" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1949" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1949" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1949" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1949" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1949" s="26"/>
+      <c r="F1949" s="26"/>
+      <c r="G1949" s="27"/>
+      <c r="H1949" s="26"/>
+    </row>
+    <row r="1950" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1950" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1950" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1950" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1950" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1950" s="26"/>
+      <c r="F1950" s="26"/>
+      <c r="G1950" s="27"/>
+      <c r="H1950" s="26"/>
+    </row>
+    <row r="1951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1951" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1951" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1951" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1951" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1951" s="26"/>
+      <c r="F1951" s="26"/>
+      <c r="G1951" s="27"/>
+      <c r="H1951" s="26"/>
+    </row>
+    <row r="1952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1952" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1952" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1952" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1952" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1952" s="26"/>
+      <c r="F1952" s="26"/>
+      <c r="G1952" s="27"/>
+      <c r="H1952" s="26"/>
+    </row>
+    <row r="1953" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1953" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1953" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1953" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1953" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1953" s="26"/>
+      <c r="F1953" s="26"/>
+      <c r="G1953" s="27"/>
+      <c r="H1953" s="26"/>
+    </row>
+    <row r="1954" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1954" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1954" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1954" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1954" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1954" s="26"/>
+      <c r="F1954" s="26"/>
+      <c r="G1954" s="27"/>
+      <c r="H1954" s="26"/>
+    </row>
+    <row r="1955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1955" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1955" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1955" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1955" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1955" s="26"/>
+      <c r="F1955" s="26"/>
+      <c r="G1955" s="27"/>
+      <c r="H1955" s="26"/>
+    </row>
+    <row r="1956" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1956" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1956" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1956" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1956" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1956" s="26"/>
+      <c r="F1956" s="26"/>
+      <c r="G1956" s="27"/>
+      <c r="H1956" s="26"/>
+    </row>
+    <row r="1957" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1957" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1957" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1957" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1957" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1957" s="26"/>
+      <c r="F1957" s="26"/>
+      <c r="G1957" s="27"/>
+      <c r="H1957" s="26"/>
+    </row>
+    <row r="1958" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1958" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1958" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1958" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1958" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1958" s="26"/>
+      <c r="F1958" s="26"/>
+      <c r="G1958" s="27"/>
+      <c r="H1958" s="26"/>
+    </row>
+    <row r="1959" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1959" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1959" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1959" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1959" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1959" s="26"/>
+      <c r="F1959" s="26"/>
+      <c r="G1959" s="27"/>
+      <c r="H1959" s="26"/>
+    </row>
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1960" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1960" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1960" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1960" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1960" s="26"/>
+      <c r="F1960" s="26"/>
+      <c r="G1960" s="27"/>
+      <c r="H1960" s="26"/>
+    </row>
+    <row r="1961" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1961" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1961" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1961" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1961" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E1961" s="26"/>
+      <c r="F1961" s="26"/>
+      <c r="G1961" s="27"/>
+      <c r="H1961" s="26"/>
+    </row>
+    <row r="1962" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1962" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1962" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C1962" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1962" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1962" s="26"/>
+      <c r="F1962" s="26"/>
+      <c r="G1962" s="27"/>
+      <c r="H1962" s="26"/>
+    </row>
+    <row r="1963" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1963" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1963" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1963" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1963" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1963" s="26"/>
+      <c r="F1963" s="26"/>
+      <c r="G1963" s="27"/>
+      <c r="H1963" s="26"/>
+    </row>
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1964" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1964" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1964" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1964" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1964" s="26"/>
+      <c r="F1964" s="26"/>
+      <c r="G1964" s="27"/>
+      <c r="H1964" s="26"/>
+    </row>
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1965" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1965" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1965" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1965" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1965" s="26"/>
+      <c r="F1965" s="25"/>
+      <c r="G1965" s="27">
+        <v>7</v>
+      </c>
+      <c r="H1965" s="26"/>
+    </row>
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1966" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1966" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1966" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1966" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1966" s="26"/>
+      <c r="F1966" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1966" s="27"/>
+      <c r="H1966" s="26"/>
+    </row>
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1967" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1967" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1967" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1967" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1967" s="26"/>
+      <c r="F1967" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1967" s="27"/>
+      <c r="H1967" s="26"/>
+    </row>
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1968" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1968" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1968" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1968" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1968" s="26"/>
+      <c r="F1968" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1968" s="27"/>
+      <c r="H1968" s="26"/>
+    </row>
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1969" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1969" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1969" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1969" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1969" s="26"/>
+      <c r="F1969" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1969" s="27"/>
+      <c r="H1969" s="26"/>
+    </row>
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1970" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1970" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1970" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1970" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1970" s="26"/>
+      <c r="F1970" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1970" s="27"/>
+      <c r="H1970" s="26"/>
+    </row>
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1971" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1971" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1971" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1971" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1971" s="26"/>
+      <c r="F1971" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1971" s="27"/>
+      <c r="H1971" s="26"/>
+    </row>
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1972" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1972" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1972" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1972" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1972" s="26"/>
+      <c r="F1972" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1972" s="27"/>
+      <c r="H1972" s="26"/>
+    </row>
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1973" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1973" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1973" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1973" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1973" s="26"/>
+      <c r="F1973" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1973" s="27"/>
+      <c r="H1973" s="26"/>
+    </row>
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1974" s="28">
+        <v>51</v>
+      </c>
+      <c r="B1974" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1974" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1974" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1974" s="26"/>
+      <c r="F1974" s="26"/>
+      <c r="G1974" s="27"/>
+      <c r="H1974" s="26"/>
+    </row>
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1975" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1975" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1975" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1975" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1975" s="26"/>
+      <c r="F1975" s="26"/>
+      <c r="G1975" s="27"/>
+      <c r="H1975" s="26"/>
+    </row>
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1976" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1976" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1976" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1976" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1976" s="26"/>
+      <c r="F1976" s="26"/>
+      <c r="G1976" s="27">
+        <v>4</v>
+      </c>
+      <c r="H1976" s="26"/>
+    </row>
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1977" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1977" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1977" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1977" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1977" s="26"/>
+      <c r="F1977" s="26"/>
+      <c r="G1977" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1977" s="26"/>
+    </row>
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1978" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1978" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1978" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1978" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1978" s="26"/>
+      <c r="F1978" s="26"/>
+      <c r="G1978" s="27"/>
+      <c r="H1978" s="26"/>
+    </row>
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1979" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1979" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1979" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1979" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1979" s="26"/>
+      <c r="F1979" s="26"/>
+      <c r="G1979" s="27"/>
+      <c r="H1979" s="26"/>
+    </row>
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1980" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1980" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1980" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1980" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1980" s="26"/>
+      <c r="F1980" s="26"/>
+      <c r="G1980" s="27">
+        <v>13</v>
+      </c>
+      <c r="H1980" s="26"/>
+    </row>
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1981" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1981" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1981" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1981" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1981" s="26"/>
+      <c r="F1981" s="26"/>
+      <c r="G1981" s="27"/>
+      <c r="H1981" s="26"/>
+    </row>
+    <row r="1982" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A1982" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1982" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1982" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1982" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1982" s="26"/>
+      <c r="F1982" s="26"/>
+      <c r="G1982" s="27">
+        <v>32</v>
+      </c>
+      <c r="H1982" s="26"/>
+    </row>
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1983" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1983" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1983" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1983" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1983" s="26"/>
+      <c r="F1983" s="26"/>
+      <c r="G1983" s="27"/>
+      <c r="H1983" s="26"/>
+    </row>
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1984" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1984" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1984" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1984" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1984" s="26"/>
+      <c r="F1984" s="26"/>
+      <c r="G1984" s="27"/>
+      <c r="H1984" s="26"/>
+    </row>
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1985" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1985" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1985" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1985" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1985" s="26"/>
+      <c r="F1985" s="26"/>
+      <c r="G1985" s="27"/>
+      <c r="H1985" s="26"/>
+    </row>
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1986" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1986" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1986" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1986" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1986" s="26"/>
+      <c r="F1986" s="26"/>
+      <c r="G1986" s="27"/>
+      <c r="H1986" s="26"/>
+    </row>
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1987" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1987" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1987" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1987" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1987" s="26"/>
+      <c r="F1987" s="26">
+        <v>60</v>
+      </c>
+      <c r="G1987" s="27"/>
+      <c r="H1987" s="26"/>
+    </row>
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1988" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1988" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1988" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1988" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1988" s="26"/>
+      <c r="F1988" s="26"/>
+      <c r="G1988" s="27"/>
+      <c r="H1988" s="26"/>
+    </row>
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1989" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1989" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1989" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1989" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1989" s="26"/>
+      <c r="F1989" s="26"/>
+      <c r="G1989" s="27"/>
+      <c r="H1989" s="26"/>
+    </row>
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1990" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1990" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1990" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1990" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1990" s="26"/>
+      <c r="F1990" s="26"/>
+      <c r="G1990" s="27"/>
+      <c r="H1990" s="26"/>
+    </row>
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1991" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1991" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1991" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1991" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1991" s="26"/>
+      <c r="F1991" s="26"/>
+      <c r="G1991" s="27"/>
+      <c r="H1991" s="26"/>
+    </row>
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1992" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1992" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1992" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1992" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1992" s="26"/>
+      <c r="F1992" s="26"/>
+      <c r="G1992" s="27"/>
+      <c r="H1992" s="26"/>
+    </row>
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1993" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1993" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1993" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1993" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1993" s="26"/>
+      <c r="F1993" s="26"/>
+      <c r="G1993" s="27"/>
+      <c r="H1993" s="26"/>
+    </row>
+    <row r="1994" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1994" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1994" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1994" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1994" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1994" s="26"/>
+      <c r="F1994" s="26"/>
+      <c r="G1994" s="27"/>
+      <c r="H1994" s="26"/>
+    </row>
+    <row r="1995" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1995" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1995" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1995" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1995" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1995" s="26"/>
+      <c r="F1995" s="26"/>
+      <c r="G1995" s="27"/>
+      <c r="H1995" s="26"/>
+    </row>
+    <row r="1996" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1996" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1996" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1996" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1996" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1996" s="26"/>
+      <c r="F1996" s="26"/>
+      <c r="G1996" s="27"/>
+      <c r="H1996" s="26"/>
+    </row>
+    <row r="1997" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1997" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1997" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1997" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1997" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1997" s="26"/>
+      <c r="F1997" s="26"/>
+      <c r="G1997" s="27"/>
+      <c r="H1997" s="26"/>
+    </row>
+    <row r="1998" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1998" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1998" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1998" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1998" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1998" s="26"/>
+      <c r="F1998" s="26"/>
+      <c r="G1998" s="27"/>
+      <c r="H1998" s="26"/>
+    </row>
+    <row r="1999" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1999" s="28">
+        <v>52</v>
+      </c>
+      <c r="B1999" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1999" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1999" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1999" s="26"/>
+      <c r="F1999" s="26"/>
+      <c r="G1999" s="27"/>
+      <c r="H1999" s="26"/>
+    </row>
+    <row r="2000" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2000" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2000" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2000" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2000" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2000" s="26"/>
+      <c r="F2000" s="26"/>
+      <c r="G2000" s="27"/>
+      <c r="H2000" s="26"/>
+    </row>
+    <row r="2001" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2001" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2001" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2001" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2001" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E2001" s="26"/>
+      <c r="F2001" s="26"/>
+      <c r="G2001" s="27"/>
+      <c r="H2001" s="26"/>
+    </row>
+    <row r="2002" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2002" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2002" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2002" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2002" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E2002" s="26"/>
+      <c r="F2002" s="26"/>
+      <c r="G2002" s="27"/>
+      <c r="H2002" s="26"/>
+    </row>
+    <row r="2003" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2003" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2003" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2003" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2003" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="E2003" s="26"/>
+      <c r="F2003" s="26"/>
+      <c r="G2003" s="27"/>
+      <c r="H2003" s="26"/>
+    </row>
+    <row r="2004" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2004" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2004" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2004" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2004" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2004" s="26"/>
+      <c r="F2004" s="26"/>
+      <c r="G2004" s="27"/>
+      <c r="H2004" s="26"/>
+    </row>
+    <row r="2005" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2005" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2005" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2005" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2005" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2005" s="26"/>
+      <c r="F2005" s="26"/>
+      <c r="G2005" s="27"/>
+      <c r="H2005" s="26"/>
+    </row>
+    <row r="2006" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2006" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2006" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2006" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2006" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2006" s="26"/>
+      <c r="F2006" s="25"/>
+      <c r="G2006" s="27">
+        <v>7</v>
+      </c>
+      <c r="H2006" s="26"/>
+    </row>
+    <row r="2007" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2007" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2007" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2007" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2007" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2007" s="26"/>
+      <c r="F2007" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2007" s="27"/>
+      <c r="H2007" s="26"/>
+    </row>
+    <row r="2008" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2008" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2008" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2008" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2008" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2008" s="26"/>
+      <c r="F2008" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2008" s="27"/>
+      <c r="H2008" s="26"/>
+    </row>
+    <row r="2009" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2009" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2009" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2009" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2009" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2009" s="26"/>
+      <c r="F2009" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2009" s="27"/>
+      <c r="H2009" s="26"/>
+    </row>
+    <row r="2010" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2010" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2010" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2010" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2010" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2010" s="26"/>
+      <c r="F2010" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2010" s="27"/>
+      <c r="H2010" s="26"/>
+    </row>
+    <row r="2011" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2011" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2011" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2011" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2011" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2011" s="26"/>
+      <c r="F2011" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2011" s="27"/>
+      <c r="H2011" s="26"/>
+    </row>
+    <row r="2012" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2012" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2012" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2012" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2012" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2012" s="26"/>
+      <c r="F2012" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2012" s="27"/>
+      <c r="H2012" s="26"/>
+    </row>
+    <row r="2013" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2013" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2013" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2013" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2013" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2013" s="26"/>
+      <c r="F2013" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2013" s="27"/>
+      <c r="H2013" s="26"/>
+    </row>
+    <row r="2014" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2014" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2014" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2014" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2014" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2014" s="26"/>
+      <c r="F2014" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G2014" s="27"/>
+      <c r="H2014" s="26"/>
+    </row>
+    <row r="2015" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2015" s="28">
+        <v>52</v>
+      </c>
+      <c r="B2015" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2015" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2015" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2015" s="26"/>
+      <c r="F2015" s="26"/>
+      <c r="G2015" s="27"/>
+      <c r="H2015" s="26"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1572:D1580 D1541:D1547 D1569:D1570 D1555:D1564">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1572:D1580 D1541:D1547 D1569:D1570 D1555:D1564 D1805:D1816 D1663:D1664 D1585:D1586 D1666:D1685 D1624:D1625 D1743:D1744 D1608:D1619 D1647:D1658 D1704:D1705 D1761:D1762 D1782:D1783 D1764:D1777 D1821:D1822 D1588:D1605 D1627:D1644 D1689:D1699 D1707:D1724 D1727:D1738 D1746:D1756 D1785:D1802 D1824:D1841 D1844:D1855 D1860:D1861 D1863:D1880 D1883:D1894 D1899:D1900 D1902:D1919 D1922:D1933 D1938:D1939 D1941:D1974 D1979:D1980 D1982:D2015">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4210">
@@ -33435,8 +42129,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="R173" workbookViewId="0">
-      <selection activeCell="R188" sqref="R2:R188"/>
+    <sheetView topLeftCell="P86" workbookViewId="0">
+      <selection activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -3365,8 +3365,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="25"/>
     </row>
@@ -3450,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="25"/>
     </row>
@@ -3468,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
@@ -3487,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="6"/>
@@ -3506,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="6"/>
@@ -3525,7 +3525,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -3543,7 +3543,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -3561,7 +3561,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -3579,7 +3579,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -3616,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13"/>
     </row>
@@ -3634,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -3670,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -3688,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="25"/>
     </row>
@@ -3706,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -3724,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -3742,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3759,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3776,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3793,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3810,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3844,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3861,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3895,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3912,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3929,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3980,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3997,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4031,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4065,7 +4065,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4082,7 +4082,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="790">
   <si>
     <t>ID</t>
   </si>
@@ -2465,6 +2465,117 @@
   </si>
   <si>
     <t>DE1803</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerMetaZIP</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerPDFZIP</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerShapeZIP</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerPDF</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView1</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView2</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView3</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView4</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView5</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView6</t>
+  </si>
+  <si>
+    <t>clickOnComplianceViewerView7</t>
+  </si>
+  <si>
+    <t>clickNoOnChangeReportDialog</t>
+  </si>
+  <si>
+    <t>extractPDFZIP</t>
+  </si>
+  <si>
+    <t>extractMetaZIP</t>
+  </si>
+  <si>
+    <t>extractShapeZIP</t>
+  </si>
+  <si>
+    <t>createNewCustomer</t>
+  </si>
+  <si>
+    <t>createNewUser</t>
+  </si>
+  <si>
+    <t>waitForPDFDownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForPDFZIPDownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForMetaZIPDownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForShapeZIPDownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView1DownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView2DownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView3DownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView4DownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView5DownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView6DownloadToComplete</t>
+  </si>
+  <si>
+    <t>waitForView7DownloadToComplete</t>
+  </si>
+  <si>
+    <t>verifyViewsAreInCorrectSequence</t>
+  </si>
+  <si>
+    <t>verifyView1ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyView2ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyView3ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyView4ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyView5ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyView6ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyView7ThumbnailIsCorrect</t>
+  </si>
+  <si>
+    <t>verifyGapShapeFilesHaveCorrectData</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3476,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -42350,8 +42461,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="P86" workbookViewId="0">
-      <selection activeCell="R107" sqref="R107"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42799,7 +42910,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>43</v>
+        <v>768</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>43</v>
@@ -42879,7 +42990,7 @@
         <v>44</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>44</v>
@@ -42959,7 +43070,7 @@
         <v>202</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>202</v>
@@ -43039,7 +43150,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>45</v>
@@ -43116,7 +43227,7 @@
         <v>46</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>46</v>
@@ -43193,7 +43304,7 @@
         <v>47</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>47</v>
@@ -43270,7 +43381,7 @@
         <v>48</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>48</v>
@@ -43334,6 +43445,12 @@
       <c r="H13" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="J13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>769</v>
+      </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
       </c>
@@ -44695,6 +44812,9 @@
       </c>
     </row>
     <row r="107" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C107" s="16" t="s">
+        <v>756</v>
+      </c>
       <c r="D107" s="16" t="s">
         <v>628</v>
       </c>
@@ -44706,6 +44826,9 @@
       </c>
     </row>
     <row r="108" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C108" s="16" t="s">
+        <v>754</v>
+      </c>
       <c r="D108" s="16" t="s">
         <v>650</v>
       </c>
@@ -44717,6 +44840,9 @@
       </c>
     </row>
     <row r="109" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C109" s="16" t="s">
+        <v>753</v>
+      </c>
       <c r="D109" s="16" t="s">
         <v>626</v>
       </c>
@@ -44728,6 +44854,9 @@
       </c>
     </row>
     <row r="110" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C110" s="16" t="s">
+        <v>755</v>
+      </c>
       <c r="D110" s="16" t="s">
         <v>71</v>
       </c>
@@ -44739,6 +44868,9 @@
       </c>
     </row>
     <row r="111" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C111" s="16" t="s">
+        <v>755</v>
+      </c>
       <c r="D111" s="16" t="s">
         <v>72</v>
       </c>
@@ -44750,6 +44882,9 @@
       </c>
     </row>
     <row r="112" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C112" s="16" t="s">
+        <v>757</v>
+      </c>
       <c r="D112" s="16" t="s">
         <v>649</v>
       </c>
@@ -44760,7 +44895,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C113" s="16" t="s">
+        <v>758</v>
+      </c>
       <c r="D113" s="16" t="s">
         <v>625</v>
       </c>
@@ -44771,7 +44909,10 @@
         <v>653</v>
       </c>
     </row>
-    <row r="114" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C114" s="16" t="s">
+        <v>759</v>
+      </c>
       <c r="D114" s="16" t="s">
         <v>651</v>
       </c>
@@ -44782,7 +44923,10 @@
         <v>629</v>
       </c>
     </row>
-    <row r="115" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C115" s="16" t="s">
+        <v>760</v>
+      </c>
       <c r="D115" s="16" t="s">
         <v>627</v>
       </c>
@@ -44793,7 +44937,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="116" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C116" s="16" t="s">
+        <v>761</v>
+      </c>
       <c r="D116" s="16" t="s">
         <v>648</v>
       </c>
@@ -44804,7 +44951,10 @@
         <v>630</v>
       </c>
     </row>
-    <row r="117" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C117" s="16" t="s">
+        <v>762</v>
+      </c>
       <c r="D117" s="16" t="s">
         <v>624</v>
       </c>
@@ -44815,7 +44965,10 @@
         <v>655</v>
       </c>
     </row>
-    <row r="118" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C118" s="16" t="s">
+        <v>763</v>
+      </c>
       <c r="D118" s="16" t="s">
         <v>646</v>
       </c>
@@ -44826,7 +44979,10 @@
         <v>631</v>
       </c>
     </row>
-    <row r="119" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C119" s="16" t="s">
+        <v>764</v>
+      </c>
       <c r="D119" s="16" t="s">
         <v>622</v>
       </c>
@@ -44837,7 +44993,10 @@
         <v>656</v>
       </c>
     </row>
-    <row r="120" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C120" s="16" t="s">
+        <v>770</v>
+      </c>
       <c r="D120" s="16" t="s">
         <v>401</v>
       </c>
@@ -44848,7 +45007,10 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C121" s="16" t="s">
+        <v>771</v>
+      </c>
       <c r="D121" s="16" t="s">
         <v>183</v>
       </c>
@@ -44859,7 +45021,10 @@
         <v>657</v>
       </c>
     </row>
-    <row r="122" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C122" s="16" t="s">
+        <v>772</v>
+      </c>
       <c r="D122" s="16" t="s">
         <v>181</v>
       </c>
@@ -44870,7 +45035,10 @@
         <v>633</v>
       </c>
     </row>
-    <row r="123" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C123" s="16" t="s">
+        <v>773</v>
+      </c>
       <c r="D123" s="16" t="s">
         <v>73</v>
       </c>
@@ -44881,7 +45049,10 @@
         <v>658</v>
       </c>
     </row>
-    <row r="124" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C124" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="D124" s="16" t="s">
         <v>74</v>
       </c>
@@ -44892,7 +45063,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C125" s="16" t="s">
+        <v>775</v>
+      </c>
       <c r="D125" s="16" t="s">
         <v>177</v>
       </c>
@@ -44903,7 +45077,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C126" s="16" t="s">
+        <v>776</v>
+      </c>
       <c r="D126" s="16" t="s">
         <v>169</v>
       </c>
@@ -44914,7 +45091,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C127" s="16" t="s">
+        <v>777</v>
+      </c>
       <c r="D127" s="16" t="s">
         <v>660</v>
       </c>
@@ -44925,7 +45105,10 @@
         <v>662</v>
       </c>
     </row>
-    <row r="128" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C128" s="16" t="s">
+        <v>778</v>
+      </c>
       <c r="D128" s="16" t="s">
         <v>636</v>
       </c>
@@ -44936,7 +45119,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C129" s="16" t="s">
+        <v>779</v>
+      </c>
       <c r="D129" s="16" t="s">
         <v>661</v>
       </c>
@@ -44947,7 +45133,10 @@
         <v>659</v>
       </c>
     </row>
-    <row r="130" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C130" s="16" t="s">
+        <v>780</v>
+      </c>
       <c r="D130" s="16" t="s">
         <v>637</v>
       </c>
@@ -44958,7 +45147,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="131" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C131" s="16" t="s">
+        <v>765</v>
+      </c>
       <c r="D131" s="16" t="s">
         <v>653</v>
       </c>
@@ -44969,7 +45161,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C132" s="16" t="s">
+        <v>766</v>
+      </c>
       <c r="D132" s="16" t="s">
         <v>629</v>
       </c>
@@ -44980,7 +45175,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C133" s="16" t="s">
+        <v>767</v>
+      </c>
       <c r="D133" s="16" t="s">
         <v>654</v>
       </c>
@@ -44991,7 +45189,10 @@
         <v>679</v>
       </c>
     </row>
-    <row r="134" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C134" s="16" t="s">
+        <v>781</v>
+      </c>
       <c r="D134" s="16" t="s">
         <v>630</v>
       </c>
@@ -45002,7 +45203,10 @@
         <v>678</v>
       </c>
     </row>
-    <row r="135" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C135" s="16" t="s">
+        <v>782</v>
+      </c>
       <c r="D135" s="16" t="s">
         <v>655</v>
       </c>
@@ -45013,7 +45217,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C136" s="16" t="s">
+        <v>783</v>
+      </c>
       <c r="D136" s="16" t="s">
         <v>631</v>
       </c>
@@ -45024,7 +45231,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C137" s="16" t="s">
+        <v>784</v>
+      </c>
       <c r="D137" s="16" t="s">
         <v>656</v>
       </c>
@@ -45035,7 +45245,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C138" s="16" t="s">
+        <v>785</v>
+      </c>
       <c r="D138" s="16" t="s">
         <v>632</v>
       </c>
@@ -45046,7 +45259,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C139" s="16" t="s">
+        <v>786</v>
+      </c>
       <c r="D139" s="16" t="s">
         <v>657</v>
       </c>
@@ -45057,7 +45273,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C140" s="16" t="s">
+        <v>787</v>
+      </c>
       <c r="D140" s="16" t="s">
         <v>633</v>
       </c>
@@ -45068,7 +45287,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C141" s="16" t="s">
+        <v>788</v>
+      </c>
       <c r="D141" s="16" t="s">
         <v>658</v>
       </c>
@@ -45079,7 +45301,10 @@
         <v>681</v>
       </c>
     </row>
-    <row r="142" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C142" s="16" t="s">
+        <v>789</v>
+      </c>
       <c r="D142" s="16" t="s">
         <v>634</v>
       </c>
@@ -45090,7 +45315,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="143" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D143" s="16" t="s">
         <v>75</v>
       </c>
@@ -45101,7 +45326,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="144" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D144" s="16" t="s">
         <v>76</v>
       </c>
@@ -45646,8 +45871,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="R2:R188">
-    <sortCondition ref="R188"/>
+  <sortState ref="J2:J13">
+    <sortCondition ref="J2:J13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7603" uniqueCount="754">
   <si>
     <t>ID</t>
   </si>
@@ -2465,6 +2465,9 @@
   </si>
   <si>
     <t>DE1803</t>
+  </si>
+  <si>
+    <t>US1764</t>
   </si>
 </sst>
 </file>
@@ -3365,8 +3368,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3432,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="25"/>
     </row>
@@ -3450,7 +3453,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="25"/>
     </row>
@@ -3468,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
@@ -3487,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="6"/>
@@ -3506,7 +3509,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="6"/>
@@ -3525,7 +3528,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -3543,7 +3546,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -3561,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -3579,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -3597,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -3616,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13"/>
     </row>
@@ -3634,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -3652,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -3670,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -3688,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="25"/>
     </row>
@@ -3706,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -3724,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -3742,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3759,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3776,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3793,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3810,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3827,7 +3830,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3844,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3861,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3878,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3895,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3912,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3929,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3946,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3963,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3980,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3997,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4014,7 +4017,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4031,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4065,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4082,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4099,7 +4102,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4458,8 +4461,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2015"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="H1611" sqref="H1611"/>
+    <sheetView tabSelected="1" topLeftCell="A1986" workbookViewId="0">
+      <selection activeCell="B2001" sqref="B2001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41265,12 +41268,14 @@
       <c r="D1960" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="E1960" s="25"/>
+      <c r="E1960" s="6"/>
       <c r="F1960" s="25">
         <v>1</v>
       </c>
       <c r="G1960" s="26"/>
-      <c r="H1960" s="25"/>
+      <c r="H1960" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="1961" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1961" s="27">
@@ -41290,7 +41295,9 @@
         <v>1</v>
       </c>
       <c r="G1961" s="26"/>
-      <c r="H1961" s="25"/>
+      <c r="H1961" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="1962" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1962" s="27">
@@ -41310,7 +41317,9 @@
         <v>1</v>
       </c>
       <c r="G1962" s="26"/>
-      <c r="H1962" s="25"/>
+      <c r="H1962" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="1963" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1963" s="27">
@@ -42042,7 +42051,9 @@
         <v>1</v>
       </c>
       <c r="G2001" s="26"/>
-      <c r="H2001" s="25"/>
+      <c r="H2001" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="2002" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2002" s="27">
@@ -42062,7 +42073,9 @@
         <v>1</v>
       </c>
       <c r="G2002" s="26"/>
-      <c r="H2002" s="25"/>
+      <c r="H2002" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="2003" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2003" s="27">
@@ -42082,7 +42095,9 @@
         <v>1</v>
       </c>
       <c r="G2003" s="26"/>
-      <c r="H2003" s="25"/>
+      <c r="H2003" s="29" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="2004" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2004" s="27">

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7638" uniqueCount="793">
   <si>
     <t>ID</t>
   </si>
@@ -2576,6 +2576,15 @@
   </si>
   <si>
     <t>verifyGapShapeFilesHaveCorrectData</t>
+  </si>
+  <si>
+    <t>copyReport</t>
+  </si>
+  <si>
+    <t>modifyReport</t>
+  </si>
+  <si>
+    <t>verifyReportPageFieldsAreCorrect</t>
   </si>
 </sst>
 </file>
@@ -42461,8 +42470,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45316,6 +45325,9 @@
       </c>
     </row>
     <row r="143" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C143" s="16" t="s">
+        <v>790</v>
+      </c>
       <c r="D143" s="16" t="s">
         <v>75</v>
       </c>
@@ -45327,6 +45339,9 @@
       </c>
     </row>
     <row r="144" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C144" s="16" t="s">
+        <v>791</v>
+      </c>
       <c r="D144" s="16" t="s">
         <v>76</v>
       </c>
@@ -45337,7 +45352,10 @@
         <v>683</v>
       </c>
     </row>
-    <row r="145" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C145" s="16" t="s">
+        <v>792</v>
+      </c>
       <c r="D145" s="16" t="s">
         <v>662</v>
       </c>
@@ -45348,7 +45366,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D146" s="16" t="s">
         <v>638</v>
       </c>
@@ -45359,7 +45377,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="147" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D147" s="16" t="s">
         <v>659</v>
       </c>
@@ -45367,7 +45385,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D148" s="16" t="s">
         <v>635</v>
       </c>
@@ -45375,7 +45393,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="149" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D149" s="16" t="s">
         <v>77</v>
       </c>
@@ -45383,7 +45401,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D150" s="16" t="s">
         <v>78</v>
       </c>
@@ -45391,7 +45409,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D151" s="16" t="s">
         <v>79</v>
       </c>
@@ -45399,7 +45417,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D152" s="16" t="s">
         <v>80</v>
       </c>
@@ -45407,7 +45425,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="153" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D153" s="16" t="s">
         <v>174</v>
       </c>
@@ -45415,7 +45433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D154" s="16" t="s">
         <v>166</v>
       </c>
@@ -45423,7 +45441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D155" s="16" t="s">
         <v>679</v>
       </c>
@@ -45431,7 +45449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D156" s="16" t="s">
         <v>678</v>
       </c>
@@ -45439,7 +45457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D157" s="16" t="s">
         <v>173</v>
       </c>
@@ -45447,7 +45465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D158" s="16" t="s">
         <v>165</v>
       </c>
@@ -45455,7 +45473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D159" s="16" t="s">
         <v>204</v>
       </c>
@@ -45463,7 +45481,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="160" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D160" s="16" t="s">
         <v>203</v>
       </c>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7638" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="795">
   <si>
     <t>ID</t>
   </si>
@@ -2585,6 +2585,12 @@
   </si>
   <si>
     <t>verifyReportPageFieldsAreCorrect</t>
+  </si>
+  <si>
+    <t>startNetworkProxy</t>
+  </si>
+  <si>
+    <t>stopNetworkProxy</t>
   </si>
 </sst>
 </file>
@@ -42470,8 +42476,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42727,7 +42733,7 @@
         <v>41</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -42807,7 +42813,7 @@
         <v>40</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>462</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -42887,7 +42893,7 @@
         <v>42</v>
       </c>
       <c r="Z5" s="16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -42967,7 +42973,7 @@
         <v>43</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -43047,7 +43053,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="16" t="s">
-        <v>329</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -43127,7 +43133,7 @@
         <v>202</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -43206,6 +43212,9 @@
       <c r="Y9" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="Z9" s="16" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -43283,6 +43292,9 @@
       <c r="Y10" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="Z10" s="16" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -45889,8 +45901,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="J2:J13">
-    <sortCondition ref="J2:J13"/>
+  <sortState ref="Z2:Z10">
+    <sortCondition ref="Z2:Z10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3085,8 +3085,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3491,8 +3491,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4584,7 +4584,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2015"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1988" workbookViewId="0">
       <selection activeCell="H1611" sqref="H1611"/>
     </sheetView>
   </sheetViews>
@@ -42476,8 +42476,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7646" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7647" uniqueCount="797">
   <si>
     <t>ID</t>
   </si>
@@ -2515,9 +2515,6 @@
     <t>createNewCustomer</t>
   </si>
   <si>
-    <t>createNewUser</t>
-  </si>
-  <si>
     <t>waitForPDFDownloadToComplete</t>
   </si>
   <si>
@@ -2594,6 +2591,12 @@
   </si>
   <si>
     <t>US1764</t>
+  </si>
+  <si>
+    <t>createNewCustomerUser</t>
+  </si>
+  <si>
+    <t>createNewPicarroUser</t>
   </si>
 </sst>
 </file>
@@ -3494,7 +3497,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -41399,7 +41402,7 @@
       </c>
       <c r="G1960" s="26"/>
       <c r="H1960" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1961" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -41421,7 +41424,7 @@
       </c>
       <c r="G1961" s="26"/>
       <c r="H1961" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1962" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -41443,7 +41446,7 @@
       </c>
       <c r="G1962" s="26"/>
       <c r="H1962" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1963" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -42177,7 +42180,7 @@
       </c>
       <c r="G2001" s="26"/>
       <c r="H2001" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2002" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -42199,7 +42202,7 @@
       </c>
       <c r="G2002" s="26"/>
       <c r="H2002" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2003" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -42221,7 +42224,7 @@
       </c>
       <c r="G2003" s="26"/>
       <c r="H2003" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2004" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -42490,8 +42493,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42827,7 +42830,7 @@
         <v>40</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -42957,7 +42960,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>43</v>
@@ -43037,7 +43040,7 @@
         <v>44</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>44</v>
+        <v>796</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>44</v>
@@ -43067,7 +43070,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -43117,7 +43120,7 @@
         <v>202</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>202</v>
@@ -43197,7 +43200,7 @@
         <v>45</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>45</v>
@@ -43277,7 +43280,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>46</v>
@@ -43357,7 +43360,7 @@
         <v>47</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>47</v>
@@ -43434,7 +43437,7 @@
         <v>48</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>48</v>
@@ -43484,7 +43487,7 @@
         <v>48</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>769</v>
+        <v>47</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
@@ -43509,6 +43512,9 @@
       <c r="H14" s="16" t="s">
         <v>197</v>
       </c>
+      <c r="P14" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="R14" s="16" t="s">
         <v>473</v>
       </c>
@@ -45030,7 +45036,7 @@
     </row>
     <row r="120" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C120" s="16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>401</v>
@@ -45044,7 +45050,7 @@
     </row>
     <row r="121" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C121" s="16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>183</v>
@@ -45058,7 +45064,7 @@
     </row>
     <row r="122" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C122" s="16" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>181</v>
@@ -45072,7 +45078,7 @@
     </row>
     <row r="123" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C123" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>73</v>
@@ -45086,7 +45092,7 @@
     </row>
     <row r="124" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C124" s="16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>74</v>
@@ -45100,7 +45106,7 @@
     </row>
     <row r="125" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C125" s="16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>177</v>
@@ -45114,7 +45120,7 @@
     </row>
     <row r="126" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C126" s="16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>169</v>
@@ -45128,7 +45134,7 @@
     </row>
     <row r="127" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C127" s="16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>660</v>
@@ -45142,7 +45148,7 @@
     </row>
     <row r="128" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C128" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>636</v>
@@ -45156,7 +45162,7 @@
     </row>
     <row r="129" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C129" s="16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>661</v>
@@ -45170,7 +45176,7 @@
     </row>
     <row r="130" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C130" s="16" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>637</v>
@@ -45226,7 +45232,7 @@
     </row>
     <row r="134" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C134" s="16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>630</v>
@@ -45240,7 +45246,7 @@
     </row>
     <row r="135" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C135" s="16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>655</v>
@@ -45254,7 +45260,7 @@
     </row>
     <row r="136" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C136" s="16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>631</v>
@@ -45268,7 +45274,7 @@
     </row>
     <row r="137" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C137" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>656</v>
@@ -45282,7 +45288,7 @@
     </row>
     <row r="138" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C138" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>632</v>
@@ -45296,7 +45302,7 @@
     </row>
     <row r="139" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C139" s="16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>657</v>
@@ -45310,7 +45316,7 @@
     </row>
     <row r="140" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C140" s="16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>633</v>
@@ -45324,7 +45330,7 @@
     </row>
     <row r="141" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C141" s="16" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>658</v>
@@ -45338,7 +45344,7 @@
     </row>
     <row r="142" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C142" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>634</v>
@@ -45352,7 +45358,7 @@
     </row>
     <row r="143" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C143" s="16" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>75</v>
@@ -45366,7 +45372,7 @@
     </row>
     <row r="144" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C144" s="16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>76</v>
@@ -45380,7 +45386,7 @@
     </row>
     <row r="145" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C145" s="16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>662</v>
@@ -45915,8 +45921,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="Z2:Z10">
-    <sortCondition ref="Z2:Z10"/>
+  <sortState ref="P2:P14">
+    <sortCondition ref="P14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7647" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8950" uniqueCount="820">
   <si>
     <t>ID</t>
   </si>
@@ -2597,6 +2597,75 @@
   </si>
   <si>
     <t>createNewPicarroUser</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Day Solar Radiation: Moderate Wind: Strong Survey Type: Operator</t>
+  </si>
+  <si>
+    <t>Mode: Operator</t>
+  </si>
+  <si>
+    <t>Surveyor: SimAuto-Surveyor3 - SimAuto-Analyzer3</t>
+  </si>
+  <si>
+    <t>Manual Mode - DE1852</t>
+  </si>
+  <si>
+    <t>Driver: sqapicsu1@picarro.com</t>
+  </si>
+  <si>
+    <t>Run the survey for 40 seconds</t>
+  </si>
+  <si>
+    <t>Driver: AutomationAdmin</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Light Survey Type: Operator</t>
+  </si>
+  <si>
+    <t>Click on First Indication</t>
+  </si>
+  <si>
+    <t>Enter Field Note</t>
+  </si>
+  <si>
+    <t>DE1867</t>
+  </si>
+  <si>
+    <t>Click Position - Turn off Position</t>
+  </si>
+  <si>
+    <t>Verify Indication NOT present on map</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart NOT present on map</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Strong Survey Type: Operator</t>
+  </si>
+  <si>
+    <t>Verify Indication is present on map</t>
+  </si>
+  <si>
+    <t>Verify FoV is present on map</t>
+  </si>
+  <si>
+    <t>Verify Concentration Chart is present on map</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &lt;50% Wind: Light Survey Type: Operator</t>
+  </si>
+  <si>
+    <t>Click on Map and turn Satellit view ON </t>
+  </si>
+  <si>
+    <t>Verify LISA is present on Map</t>
+  </si>
+  <si>
+    <t>adf</t>
+  </si>
+  <si>
+    <t>Start Survey -&gt; Provide survey tag, select  Survey Time: Night Cloud Cover: &gt;50% Wind: Light Survey Type: Standard</t>
   </si>
 </sst>
 </file>
@@ -3497,8 +3566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3545,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3564,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="25"/>
     </row>
@@ -3582,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="25"/>
     </row>
@@ -3600,7 +3669,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
@@ -3619,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="6"/>
@@ -3638,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="6"/>
@@ -3657,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -3675,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -3693,7 +3762,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -3711,7 +3780,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -3748,7 +3817,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13"/>
     </row>
@@ -3766,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -3784,7 +3853,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -3802,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -3820,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="25"/>
     </row>
@@ -3838,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -3856,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -3874,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3891,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3908,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3942,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3959,7 +4028,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3976,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3993,7 +4062,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4010,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4027,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4044,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4061,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4078,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4095,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4112,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4129,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4146,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4163,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4180,7 +4249,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4197,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4214,7 +4283,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4231,7 +4300,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4248,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4265,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -4282,7 +4351,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4299,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -4316,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4333,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4350,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4367,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4384,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4401,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4418,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4433,7 +4502,7 @@
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4568,7 +4637,7 @@
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4588,10 +4657,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H2015"/>
+  <dimension ref="A1:H2422"/>
   <sheetViews>
-    <sheetView topLeftCell="A1996" workbookViewId="0">
-      <selection activeCell="E1976" sqref="E1976"/>
+    <sheetView tabSelected="1" topLeftCell="A2377" workbookViewId="0">
+      <selection activeCell="D2386" sqref="D2386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42461,9 +42530,7608 @@
       <c r="G2015" s="26"/>
       <c r="H2015" s="25"/>
     </row>
+    <row r="2016" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2016" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2016" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2016" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2016" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2016" s="25"/>
+      <c r="F2016" s="25"/>
+      <c r="G2016" s="26"/>
+      <c r="H2016" s="25"/>
+    </row>
+    <row r="2017" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2017" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2017" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2017" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2017" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2017" s="25"/>
+      <c r="F2017" s="25"/>
+      <c r="G2017" s="26">
+        <v>8</v>
+      </c>
+      <c r="H2017" s="25"/>
+    </row>
+    <row r="2018" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2018" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2018" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2018" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2018" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2018" s="25"/>
+      <c r="F2018" s="25"/>
+      <c r="G2018" s="26">
+        <v>20</v>
+      </c>
+      <c r="H2018" s="25"/>
+    </row>
+    <row r="2019" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2019" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2019" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2019" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2019" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2019" s="25"/>
+      <c r="F2019" s="25"/>
+      <c r="G2019" s="26"/>
+      <c r="H2019" s="25"/>
+    </row>
+    <row r="2020" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2020" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2020" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2020" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2020" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2020" s="25"/>
+      <c r="F2020" s="25"/>
+      <c r="G2020" s="26"/>
+      <c r="H2020" s="25"/>
+    </row>
+    <row r="2021" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2021" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2021" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2021" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2021" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2021" s="25"/>
+      <c r="F2021" s="25"/>
+      <c r="G2021" s="26">
+        <v>20</v>
+      </c>
+      <c r="H2021" s="25"/>
+    </row>
+    <row r="2022" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2022" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2022" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2022" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2022" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2022" s="25"/>
+      <c r="F2022" s="25"/>
+      <c r="G2022" s="26"/>
+      <c r="H2022" s="25"/>
+    </row>
+    <row r="2023" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2023" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2023" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="C2023" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2023" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2023" s="25"/>
+      <c r="F2023" s="25"/>
+      <c r="G2023" s="26">
+        <v>35</v>
+      </c>
+      <c r="H2023" s="25"/>
+    </row>
+    <row r="2024" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2024" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2024" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2024" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2024" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2024" s="25"/>
+      <c r="F2024" s="25"/>
+      <c r="G2024" s="26"/>
+      <c r="H2024" s="25"/>
+    </row>
+    <row r="2025" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2025" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2025" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2025" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2025" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2025" s="25"/>
+      <c r="F2025" s="25"/>
+      <c r="G2025" s="26"/>
+      <c r="H2025" s="25"/>
+    </row>
+    <row r="2026" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2026" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2026" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2026" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2026" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2026" s="25"/>
+      <c r="F2026" s="25">
+        <v>40</v>
+      </c>
+      <c r="G2026" s="26"/>
+      <c r="H2026" s="25"/>
+    </row>
+    <row r="2027" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2027" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2027" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2027" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2027" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2027" s="25"/>
+      <c r="F2027" s="25"/>
+      <c r="G2027" s="26"/>
+      <c r="H2027" s="25"/>
+    </row>
+    <row r="2028" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2028" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2028" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2028" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2028" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2028" s="25"/>
+      <c r="F2028" s="25"/>
+      <c r="G2028" s="26"/>
+      <c r="H2028" s="25"/>
+    </row>
+    <row r="2029" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2029" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2029" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2029" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2029" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2029" s="25"/>
+      <c r="F2029" s="25"/>
+      <c r="G2029" s="26"/>
+      <c r="H2029" s="25"/>
+    </row>
+    <row r="2030" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2030" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2030" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2030" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2030" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2030" s="25"/>
+      <c r="F2030" s="25"/>
+      <c r="G2030" s="26"/>
+      <c r="H2030" s="25"/>
+    </row>
+    <row r="2031" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2031" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2031" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2031" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2031" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2031" s="25"/>
+      <c r="F2031" s="25"/>
+      <c r="G2031" s="26"/>
+      <c r="H2031" s="25"/>
+    </row>
+    <row r="2032" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2032" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2032" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2032" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2032" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2032" s="25"/>
+      <c r="F2032" s="25"/>
+      <c r="G2032" s="26"/>
+      <c r="H2032" s="25"/>
+    </row>
+    <row r="2033" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2033" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2033" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2033" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2033" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2033" s="25"/>
+      <c r="F2033" s="25"/>
+      <c r="G2033" s="26"/>
+      <c r="H2033" s="25"/>
+    </row>
+    <row r="2034" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2034" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2034" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2034" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2034" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2034" s="25"/>
+      <c r="F2034" s="25"/>
+      <c r="G2034" s="26"/>
+      <c r="H2034" s="25"/>
+    </row>
+    <row r="2035" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2035" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2035" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2035" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2035" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2035" s="25"/>
+      <c r="F2035" s="25"/>
+      <c r="G2035" s="26"/>
+      <c r="H2035" s="25"/>
+    </row>
+    <row r="2036" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2036" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2036" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2036" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2036" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2036" s="25"/>
+      <c r="F2036" s="25"/>
+      <c r="G2036" s="26"/>
+      <c r="H2036" s="25"/>
+    </row>
+    <row r="2037" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2037" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2037" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2037" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2037" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2037" s="25"/>
+      <c r="F2037" s="25"/>
+      <c r="G2037" s="26"/>
+      <c r="H2037" s="25"/>
+    </row>
+    <row r="2038" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2038" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2038" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2038" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2038" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2038" s="25"/>
+      <c r="F2038" s="25"/>
+      <c r="G2038" s="26"/>
+      <c r="H2038" s="25"/>
+    </row>
+    <row r="2039" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2039" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2039" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2039" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2039" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2039" s="25"/>
+      <c r="F2039" s="25"/>
+      <c r="G2039" s="26"/>
+      <c r="H2039" s="25"/>
+    </row>
+    <row r="2040" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2040" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2040" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2040" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2040" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2040" s="25"/>
+      <c r="F2040" s="25"/>
+      <c r="G2040" s="26"/>
+      <c r="H2040" s="25"/>
+    </row>
+    <row r="2041" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2041" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2041" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2041" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2041" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2041" s="25"/>
+      <c r="F2041" s="25"/>
+      <c r="G2041" s="26"/>
+      <c r="H2041" s="26"/>
+    </row>
+    <row r="2042" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2042" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2042" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2042" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2042" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2042" s="25"/>
+      <c r="F2042" s="25"/>
+      <c r="G2042" s="26"/>
+      <c r="H2042" s="25"/>
+    </row>
+    <row r="2043" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2043" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2043" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2043" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2043" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2043" s="25"/>
+      <c r="F2043" s="25"/>
+      <c r="G2043" s="26"/>
+      <c r="H2043" s="25"/>
+    </row>
+    <row r="2044" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2044" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2044" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2044" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2044" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2044" s="25"/>
+      <c r="F2044" s="25"/>
+      <c r="G2044" s="26"/>
+    </row>
+    <row r="2045" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2045" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2045" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2045" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2045" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2045" s="25"/>
+      <c r="F2045" s="25"/>
+      <c r="G2045" s="26"/>
+      <c r="H2045" s="25"/>
+    </row>
+    <row r="2046" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2046" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2046" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2046" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2046" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2046" s="25"/>
+      <c r="F2046" s="25"/>
+      <c r="G2046" s="26"/>
+      <c r="H2046" s="25"/>
+    </row>
+    <row r="2047" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2047" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2047" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2047" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2047" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2047" s="25"/>
+      <c r="F2047" s="25"/>
+      <c r="G2047" s="26"/>
+      <c r="H2047" s="25"/>
+    </row>
+    <row r="2048" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2048" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2048" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2048" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2048" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2048" s="25"/>
+      <c r="F2048" s="25"/>
+      <c r="G2048" s="26"/>
+      <c r="H2048" s="25"/>
+    </row>
+    <row r="2049" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2049" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2049" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2049" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2049" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2049" s="25"/>
+      <c r="F2049" s="25"/>
+      <c r="G2049" s="26"/>
+      <c r="H2049" s="25"/>
+    </row>
+    <row r="2050" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2050" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2050" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2050" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2050" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2050" s="25"/>
+      <c r="F2050" s="24"/>
+      <c r="G2050" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2050" s="25"/>
+    </row>
+    <row r="2051" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2051" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2051" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2051" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2051" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2051" s="25"/>
+      <c r="F2051" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2051" s="26"/>
+      <c r="H2051" s="25"/>
+    </row>
+    <row r="2052" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2052" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2052" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2052" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2052" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2052" s="25"/>
+      <c r="F2052" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2052" s="26"/>
+      <c r="H2052" s="25"/>
+    </row>
+    <row r="2053" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2053" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2053" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2053" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2053" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2053" s="25"/>
+      <c r="F2053" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2053" s="26"/>
+      <c r="H2053" s="25"/>
+    </row>
+    <row r="2054" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2054" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2054" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2054" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2054" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2054" s="25"/>
+      <c r="F2054" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2054" s="26"/>
+      <c r="H2054" s="25"/>
+    </row>
+    <row r="2055" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2055" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2055" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2055" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2055" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2055" s="25"/>
+      <c r="F2055" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2055" s="26"/>
+      <c r="H2055" s="25"/>
+    </row>
+    <row r="2056" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2056" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2056" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2056" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2056" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2056" s="25"/>
+      <c r="F2056" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2056" s="26"/>
+      <c r="H2056" s="25"/>
+    </row>
+    <row r="2057" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2057" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2057" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2057" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2057" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2057" s="25"/>
+      <c r="F2057" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2057" s="26"/>
+      <c r="H2057" s="25"/>
+    </row>
+    <row r="2058" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2058" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2058" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2058" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2058" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2058" s="25"/>
+      <c r="F2058" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2058" s="26"/>
+      <c r="H2058" s="25"/>
+    </row>
+    <row r="2059" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2059" s="27">
+        <v>53</v>
+      </c>
+      <c r="B2059" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2059" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2059" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2059" s="25"/>
+      <c r="F2059" s="25"/>
+      <c r="G2059" s="26"/>
+      <c r="H2059" s="25"/>
+    </row>
+    <row r="2060" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2060" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2060" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2060" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2060" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2060" s="25"/>
+      <c r="F2060" s="25"/>
+      <c r="G2060" s="26"/>
+      <c r="H2060" s="25"/>
+    </row>
+    <row r="2061" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2061" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2061" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2061" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2061" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2061" s="25"/>
+      <c r="F2061" s="25"/>
+      <c r="G2061" s="26">
+        <v>8</v>
+      </c>
+      <c r="H2061" s="25"/>
+    </row>
+    <row r="2062" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2062" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2062" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2062" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2062" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2062" s="25"/>
+      <c r="F2062" s="25"/>
+      <c r="G2062" s="26">
+        <v>20</v>
+      </c>
+      <c r="H2062" s="25"/>
+    </row>
+    <row r="2063" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2063" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2063" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2063" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2063" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2063" s="25"/>
+      <c r="F2063" s="25"/>
+      <c r="G2063" s="26"/>
+      <c r="H2063" s="25"/>
+    </row>
+    <row r="2064" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2064" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2064" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2064" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2064" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2064" s="25"/>
+      <c r="F2064" s="25"/>
+      <c r="G2064" s="26"/>
+      <c r="H2064" s="25"/>
+    </row>
+    <row r="2065" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2065" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2065" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2065" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2065" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2065" s="25"/>
+      <c r="F2065" s="25"/>
+      <c r="G2065" s="26">
+        <v>20</v>
+      </c>
+      <c r="H2065" s="25"/>
+    </row>
+    <row r="2066" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2066" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2066" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2066" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2066" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2066" s="25"/>
+      <c r="F2066" s="25"/>
+      <c r="G2066" s="26"/>
+      <c r="H2066" s="25"/>
+    </row>
+    <row r="2067" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2067" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2067" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="C2067" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2067" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2067" s="25"/>
+      <c r="F2067" s="25"/>
+      <c r="G2067" s="26">
+        <v>35</v>
+      </c>
+      <c r="H2067" s="25"/>
+    </row>
+    <row r="2068" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2068" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2068" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2068" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2068" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2068" s="25"/>
+      <c r="F2068" s="25"/>
+      <c r="G2068" s="26"/>
+      <c r="H2068" s="25"/>
+    </row>
+    <row r="2069" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2069" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2069" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2069" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2069" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2069" s="25"/>
+      <c r="F2069" s="25"/>
+      <c r="G2069" s="26"/>
+      <c r="H2069" s="25"/>
+    </row>
+    <row r="2070" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2070" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2070" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2070" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2070" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2070" s="25"/>
+      <c r="F2070" s="25">
+        <v>40</v>
+      </c>
+      <c r="G2070" s="26"/>
+      <c r="H2070" s="25"/>
+    </row>
+    <row r="2071" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2071" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2071" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2071" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2071" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2071" s="25"/>
+      <c r="F2071" s="25"/>
+      <c r="G2071" s="26"/>
+      <c r="H2071" s="25"/>
+    </row>
+    <row r="2072" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2072" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2072" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2072" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2072" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2072" s="25"/>
+      <c r="F2072" s="25"/>
+      <c r="G2072" s="26"/>
+      <c r="H2072" s="25"/>
+    </row>
+    <row r="2073" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2073" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2073" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2073" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2073" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2073" s="25"/>
+      <c r="F2073" s="25"/>
+      <c r="G2073" s="26"/>
+      <c r="H2073" s="25"/>
+    </row>
+    <row r="2074" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2074" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2074" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2074" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2074" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2074" s="25"/>
+      <c r="F2074" s="25"/>
+      <c r="G2074" s="26"/>
+      <c r="H2074" s="25"/>
+    </row>
+    <row r="2075" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2075" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2075" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2075" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2075" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2075" s="25"/>
+      <c r="F2075" s="25"/>
+      <c r="G2075" s="26"/>
+      <c r="H2075" s="25"/>
+    </row>
+    <row r="2076" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2076" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2076" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2076" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2076" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2076" s="25"/>
+      <c r="F2076" s="25"/>
+      <c r="G2076" s="26"/>
+      <c r="H2076" s="25"/>
+    </row>
+    <row r="2077" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2077" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2077" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2077" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2077" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2077" s="25"/>
+      <c r="F2077" s="25"/>
+      <c r="G2077" s="26"/>
+      <c r="H2077" s="25"/>
+    </row>
+    <row r="2078" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2078" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2078" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2078" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2078" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2078" s="25"/>
+      <c r="F2078" s="25"/>
+      <c r="G2078" s="26"/>
+      <c r="H2078" s="25"/>
+    </row>
+    <row r="2079" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2079" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2079" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2079" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2079" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2079" s="25"/>
+      <c r="F2079" s="25"/>
+      <c r="G2079" s="26"/>
+      <c r="H2079" s="25"/>
+    </row>
+    <row r="2080" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2080" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2080" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2080" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2080" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2080" s="25"/>
+      <c r="F2080" s="25"/>
+      <c r="G2080" s="26"/>
+      <c r="H2080" s="25"/>
+    </row>
+    <row r="2081" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2081" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2081" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2081" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2081" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2081" s="25"/>
+      <c r="F2081" s="25"/>
+      <c r="G2081" s="26"/>
+      <c r="H2081" s="25"/>
+    </row>
+    <row r="2082" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2082" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2082" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2082" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2082" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2082" s="25"/>
+      <c r="F2082" s="25"/>
+      <c r="G2082" s="26"/>
+      <c r="H2082" s="25"/>
+    </row>
+    <row r="2083" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2083" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2083" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2083" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2083" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2083" s="25"/>
+      <c r="F2083" s="25"/>
+      <c r="G2083" s="26"/>
+      <c r="H2083" s="25"/>
+    </row>
+    <row r="2084" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2084" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2084" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2084" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2084" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2084" s="25"/>
+      <c r="F2084" s="25"/>
+      <c r="G2084" s="26"/>
+      <c r="H2084" s="25"/>
+    </row>
+    <row r="2085" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2085" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2085" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2085" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2085" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2085" s="25"/>
+      <c r="F2085" s="25"/>
+      <c r="G2085" s="26"/>
+      <c r="H2085" s="26"/>
+    </row>
+    <row r="2086" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2086" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2086" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2086" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2086" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2086" s="25"/>
+      <c r="F2086" s="25"/>
+      <c r="G2086" s="26"/>
+      <c r="H2086" s="25"/>
+    </row>
+    <row r="2087" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2087" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2087" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2087" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2087" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2087" s="25"/>
+      <c r="F2087" s="25"/>
+      <c r="G2087" s="26"/>
+      <c r="H2087" s="25"/>
+    </row>
+    <row r="2088" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2088" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2088" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2088" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2088" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2088" s="25"/>
+      <c r="F2088" s="25"/>
+      <c r="G2088" s="26"/>
+    </row>
+    <row r="2089" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2089" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2089" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2089" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2089" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2089" s="25"/>
+      <c r="F2089" s="25"/>
+      <c r="G2089" s="26"/>
+      <c r="H2089" s="25"/>
+    </row>
+    <row r="2090" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2090" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2090" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2090" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2090" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2090" s="25"/>
+      <c r="F2090" s="25"/>
+      <c r="G2090" s="26"/>
+      <c r="H2090" s="25"/>
+    </row>
+    <row r="2091" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2091" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2091" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2091" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2091" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2091" s="25"/>
+      <c r="F2091" s="25"/>
+      <c r="G2091" s="26"/>
+      <c r="H2091" s="25"/>
+    </row>
+    <row r="2092" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2092" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2092" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2092" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2092" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2092" s="25"/>
+      <c r="F2092" s="25"/>
+      <c r="G2092" s="26"/>
+      <c r="H2092" s="25"/>
+    </row>
+    <row r="2093" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2093" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2093" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2093" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2093" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2093" s="25"/>
+      <c r="F2093" s="25"/>
+      <c r="G2093" s="26"/>
+      <c r="H2093" s="25"/>
+    </row>
+    <row r="2094" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2094" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2094" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2094" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2094" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2094" s="25"/>
+      <c r="F2094" s="24"/>
+      <c r="G2094" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2094" s="25"/>
+    </row>
+    <row r="2095" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2095" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2095" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2095" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2095" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2095" s="25"/>
+      <c r="F2095" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2095" s="26"/>
+      <c r="H2095" s="25"/>
+    </row>
+    <row r="2096" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2096" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2096" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2096" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2096" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2096" s="25"/>
+      <c r="F2096" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2096" s="26"/>
+      <c r="H2096" s="25"/>
+    </row>
+    <row r="2097" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2097" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2097" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2097" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2097" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2097" s="25"/>
+      <c r="F2097" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2097" s="26"/>
+      <c r="H2097" s="25"/>
+    </row>
+    <row r="2098" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2098" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2098" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2098" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2098" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2098" s="25"/>
+      <c r="F2098" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2098" s="26"/>
+      <c r="H2098" s="25"/>
+    </row>
+    <row r="2099" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2099" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2099" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2099" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2099" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2099" s="25"/>
+      <c r="F2099" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2099" s="26"/>
+      <c r="H2099" s="25"/>
+    </row>
+    <row r="2100" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2100" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2100" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2100" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2100" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2100" s="25"/>
+      <c r="F2100" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2100" s="26"/>
+      <c r="H2100" s="25"/>
+    </row>
+    <row r="2101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2101" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2101" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2101" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2101" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2101" s="25"/>
+      <c r="F2101" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2101" s="26"/>
+      <c r="H2101" s="25"/>
+    </row>
+    <row r="2102" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2102" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2102" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2102" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2102" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2102" s="25"/>
+      <c r="F2102" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2102" s="26"/>
+      <c r="H2102" s="25"/>
+    </row>
+    <row r="2103" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2103" s="27">
+        <v>54</v>
+      </c>
+      <c r="B2103" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2103" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2103" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2103" s="25"/>
+      <c r="F2103" s="25"/>
+      <c r="G2103" s="26"/>
+      <c r="H2103" s="25"/>
+    </row>
+    <row r="2104" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2104" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2104" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2104" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2104" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2104" s="25"/>
+      <c r="F2104" s="25"/>
+      <c r="G2104" s="26"/>
+      <c r="H2104" s="25"/>
+    </row>
+    <row r="2105" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2105" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2105" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2105" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2105" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2105" s="25"/>
+      <c r="F2105" s="25"/>
+      <c r="G2105" s="26">
+        <v>5</v>
+      </c>
+      <c r="H2105" s="25"/>
+    </row>
+    <row r="2106" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2106" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2106" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2106" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2106" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2106" s="25"/>
+      <c r="F2106" s="25"/>
+      <c r="G2106" s="26">
+        <v>9</v>
+      </c>
+      <c r="H2106" s="29" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2107" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2107" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2107" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2107" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2107" s="25"/>
+      <c r="F2107" s="25"/>
+      <c r="G2107" s="26"/>
+      <c r="H2107" s="25"/>
+    </row>
+    <row r="2108" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2108" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2108" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2108" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2108" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2108" s="25"/>
+      <c r="F2108" s="25"/>
+      <c r="G2108" s="26"/>
+      <c r="H2108" s="25"/>
+    </row>
+    <row r="2109" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2109" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2109" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2109" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2109" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2109" s="25"/>
+      <c r="F2109" s="25"/>
+      <c r="G2109" s="26">
+        <v>9</v>
+      </c>
+      <c r="H2109" s="25"/>
+    </row>
+    <row r="2110" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2110" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2110" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2110" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2110" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2110" s="25"/>
+      <c r="F2110" s="25"/>
+      <c r="G2110" s="26"/>
+      <c r="H2110" s="25"/>
+    </row>
+    <row r="2111" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2111" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2111" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2111" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2111" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2111" s="25"/>
+      <c r="F2111" s="25"/>
+      <c r="G2111" s="26">
+        <v>24</v>
+      </c>
+      <c r="H2111" s="25"/>
+    </row>
+    <row r="2112" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2112" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2112" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2112" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2112" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2112" s="25"/>
+      <c r="F2112" s="25"/>
+      <c r="G2112" s="26"/>
+      <c r="H2112" s="25"/>
+    </row>
+    <row r="2113" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2113" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2113" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2113" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2113" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2113" s="25"/>
+      <c r="F2113" s="25"/>
+      <c r="G2113" s="26"/>
+      <c r="H2113" s="25"/>
+    </row>
+    <row r="2114" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2114" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2114" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2114" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2114" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2114" s="25"/>
+      <c r="F2114" s="25">
+        <v>40</v>
+      </c>
+      <c r="G2114" s="26"/>
+      <c r="H2114" s="25"/>
+    </row>
+    <row r="2115" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2115" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2115" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2115" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2115" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2115" s="25"/>
+      <c r="F2115" s="25"/>
+      <c r="G2115" s="26"/>
+      <c r="H2115" s="25"/>
+    </row>
+    <row r="2116" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2116" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2116" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2116" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2116" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2116" s="25"/>
+      <c r="F2116" s="25"/>
+      <c r="G2116" s="26"/>
+      <c r="H2116" s="25"/>
+    </row>
+    <row r="2117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2117" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2117" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2117" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2117" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2117" s="25"/>
+      <c r="F2117" s="25"/>
+      <c r="G2117" s="26"/>
+      <c r="H2117" s="25"/>
+    </row>
+    <row r="2118" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2118" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2118" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2118" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2118" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2118" s="25"/>
+      <c r="F2118" s="25"/>
+      <c r="G2118" s="26"/>
+      <c r="H2118" s="25"/>
+    </row>
+    <row r="2119" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2119" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2119" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2119" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2119" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2119" s="25"/>
+      <c r="F2119" s="25"/>
+      <c r="G2119" s="26"/>
+      <c r="H2119" s="25"/>
+    </row>
+    <row r="2120" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2120" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2120" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2120" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2120" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2120" s="25"/>
+      <c r="F2120" s="25"/>
+      <c r="G2120" s="26"/>
+      <c r="H2120" s="25"/>
+    </row>
+    <row r="2121" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2121" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2121" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2121" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2121" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2121" s="25"/>
+      <c r="F2121" s="25"/>
+      <c r="G2121" s="26"/>
+      <c r="H2121" s="25"/>
+    </row>
+    <row r="2122" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2122" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2122" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2122" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2122" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2122" s="25"/>
+      <c r="F2122" s="25"/>
+      <c r="G2122" s="26"/>
+      <c r="H2122" s="25"/>
+    </row>
+    <row r="2123" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2123" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2123" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2123" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2123" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2123" s="25"/>
+      <c r="F2123" s="25"/>
+      <c r="G2123" s="26"/>
+      <c r="H2123" s="25"/>
+    </row>
+    <row r="2124" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2124" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2124" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2124" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2124" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2124" s="25"/>
+      <c r="F2124" s="25"/>
+      <c r="G2124" s="26"/>
+      <c r="H2124" s="25"/>
+    </row>
+    <row r="2125" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2125" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2125" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2125" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2125" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2125" s="25"/>
+      <c r="F2125" s="25"/>
+      <c r="G2125" s="26"/>
+      <c r="H2125" s="25"/>
+    </row>
+    <row r="2126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2126" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2126" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2126" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2126" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2126" s="25"/>
+      <c r="F2126" s="25"/>
+      <c r="G2126" s="26"/>
+      <c r="H2126" s="25"/>
+    </row>
+    <row r="2127" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2127" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2127" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2127" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2127" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2127" s="25"/>
+      <c r="F2127" s="25"/>
+      <c r="G2127" s="26"/>
+      <c r="H2127" s="25"/>
+    </row>
+    <row r="2128" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2128" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2128" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2128" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2128" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2128" s="25"/>
+      <c r="F2128" s="25"/>
+      <c r="G2128" s="26"/>
+      <c r="H2128" s="25"/>
+    </row>
+    <row r="2129" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2129" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2129" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2129" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2129" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2129" s="25"/>
+      <c r="F2129" s="25"/>
+      <c r="G2129" s="26"/>
+      <c r="H2129" s="26"/>
+    </row>
+    <row r="2130" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2130" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2130" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2130" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2130" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2130" s="25"/>
+      <c r="F2130" s="25"/>
+      <c r="G2130" s="26"/>
+      <c r="H2130" s="25"/>
+    </row>
+    <row r="2131" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2131" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2131" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2131" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2131" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2131" s="25"/>
+      <c r="F2131" s="25"/>
+      <c r="G2131" s="26"/>
+      <c r="H2131" s="25"/>
+    </row>
+    <row r="2132" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2132" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2132" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2132" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2132" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2132" s="25"/>
+      <c r="F2132" s="25"/>
+      <c r="G2132" s="26"/>
+    </row>
+    <row r="2133" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2133" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2133" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2133" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2133" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2133" s="25"/>
+      <c r="F2133" s="25"/>
+      <c r="G2133" s="26"/>
+      <c r="H2133" s="25"/>
+    </row>
+    <row r="2134" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2134" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2134" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2134" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2134" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2134" s="25"/>
+      <c r="F2134" s="25"/>
+      <c r="G2134" s="26"/>
+      <c r="H2134" s="25"/>
+    </row>
+    <row r="2135" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2135" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2135" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2135" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2135" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2135" s="25"/>
+      <c r="F2135" s="25"/>
+      <c r="G2135" s="26"/>
+      <c r="H2135" s="25"/>
+    </row>
+    <row r="2136" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2136" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2136" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2136" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2136" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2136" s="25"/>
+      <c r="F2136" s="25"/>
+      <c r="G2136" s="26"/>
+      <c r="H2136" s="25"/>
+    </row>
+    <row r="2137" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2137" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2137" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2137" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2137" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2137" s="25"/>
+      <c r="F2137" s="25"/>
+      <c r="G2137" s="26"/>
+      <c r="H2137" s="25"/>
+    </row>
+    <row r="2138" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2138" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2138" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2138" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2138" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2138" s="25"/>
+      <c r="F2138" s="24"/>
+      <c r="G2138" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2138" s="25"/>
+    </row>
+    <row r="2139" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2139" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2139" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2139" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2139" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2139" s="25"/>
+      <c r="F2139" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2139" s="26"/>
+      <c r="H2139" s="25"/>
+    </row>
+    <row r="2140" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2140" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2140" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2140" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2140" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2140" s="25"/>
+      <c r="F2140" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2140" s="26"/>
+      <c r="H2140" s="25"/>
+    </row>
+    <row r="2141" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2141" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2141" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2141" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2141" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2141" s="25"/>
+      <c r="F2141" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2141" s="26"/>
+      <c r="H2141" s="25"/>
+    </row>
+    <row r="2142" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2142" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2142" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2142" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2142" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2142" s="25"/>
+      <c r="F2142" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="G2142" s="26"/>
+      <c r="H2142" s="25"/>
+    </row>
+    <row r="2143" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2143" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2143" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2143" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2143" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2143" s="25"/>
+      <c r="F2143" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2143" s="26"/>
+      <c r="H2143" s="25"/>
+    </row>
+    <row r="2144" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2144" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2144" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2144" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2144" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2144" s="25"/>
+      <c r="F2144" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2144" s="26"/>
+      <c r="H2144" s="25"/>
+    </row>
+    <row r="2145" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2145" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2145" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2145" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2145" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2145" s="25"/>
+      <c r="F2145" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2145" s="26"/>
+      <c r="H2145" s="25"/>
+    </row>
+    <row r="2146" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2146" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2146" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2146" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2146" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2146" s="25"/>
+      <c r="F2146" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2146" s="26"/>
+      <c r="H2146" s="25"/>
+    </row>
+    <row r="2147" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2147" s="27">
+        <v>55</v>
+      </c>
+      <c r="B2147" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2147" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2147" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2147" s="25"/>
+      <c r="F2147" s="25"/>
+      <c r="G2147" s="26"/>
+      <c r="H2147" s="25"/>
+    </row>
+    <row r="2148" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2148" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2148" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2148" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2148" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2148" s="25"/>
+      <c r="F2148" s="25"/>
+      <c r="G2148" s="26"/>
+      <c r="H2148" s="25"/>
+    </row>
+    <row r="2149" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2149" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2149" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2149" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2149" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2149" s="25"/>
+      <c r="F2149" s="25"/>
+      <c r="G2149" s="26">
+        <v>6</v>
+      </c>
+      <c r="H2149" s="25"/>
+    </row>
+    <row r="2150" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2150" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2150" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2150" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2150" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2150" s="25"/>
+      <c r="F2150" s="25"/>
+      <c r="G2150" s="26">
+        <v>9</v>
+      </c>
+      <c r="H2150" s="29" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2151" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2151" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2151" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2151" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2151" s="25"/>
+      <c r="F2151" s="25"/>
+      <c r="G2151" s="26"/>
+      <c r="H2151" s="25"/>
+    </row>
+    <row r="2152" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2152" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2152" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2152" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2152" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2152" s="25"/>
+      <c r="F2152" s="25"/>
+      <c r="G2152" s="26"/>
+      <c r="H2152" s="25"/>
+    </row>
+    <row r="2153" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2153" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2153" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2153" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2153" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2153" s="25"/>
+      <c r="F2153" s="25"/>
+      <c r="G2153" s="26">
+        <v>9</v>
+      </c>
+      <c r="H2153" s="25"/>
+    </row>
+    <row r="2154" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2154" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2154" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2154" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2154" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2154" s="25"/>
+      <c r="F2154" s="25"/>
+      <c r="G2154" s="26"/>
+      <c r="H2154" s="25"/>
+    </row>
+    <row r="2155" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2155" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2155" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2155" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2155" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2155" s="25"/>
+      <c r="F2155" s="25"/>
+      <c r="G2155" s="26">
+        <v>24</v>
+      </c>
+      <c r="H2155" s="25"/>
+    </row>
+    <row r="2156" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2156" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2156" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2156" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2156" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2156" s="25"/>
+      <c r="F2156" s="25"/>
+      <c r="G2156" s="26"/>
+      <c r="H2156" s="25"/>
+    </row>
+    <row r="2157" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2157" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2157" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2157" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2157" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2157" s="25"/>
+      <c r="F2157" s="25"/>
+      <c r="G2157" s="26"/>
+      <c r="H2157" s="25"/>
+    </row>
+    <row r="2158" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2158" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2158" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2158" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2158" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2158" s="25"/>
+      <c r="F2158" s="25">
+        <v>40</v>
+      </c>
+      <c r="G2158" s="26"/>
+      <c r="H2158" s="25"/>
+    </row>
+    <row r="2159" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2159" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2159" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2159" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2159" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2159" s="25"/>
+      <c r="F2159" s="25"/>
+      <c r="G2159" s="26"/>
+      <c r="H2159" s="25"/>
+    </row>
+    <row r="2160" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2160" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2160" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2160" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2160" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2160" s="25"/>
+      <c r="F2160" s="25"/>
+      <c r="G2160" s="26"/>
+      <c r="H2160" s="25"/>
+    </row>
+    <row r="2161" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2161" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2161" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2161" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2161" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2161" s="25"/>
+      <c r="F2161" s="25"/>
+      <c r="G2161" s="26"/>
+      <c r="H2161" s="25"/>
+    </row>
+    <row r="2162" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2162" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2162" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2162" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2162" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2162" s="25"/>
+      <c r="F2162" s="25"/>
+      <c r="G2162" s="26"/>
+      <c r="H2162" s="25"/>
+    </row>
+    <row r="2163" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2163" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2163" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2163" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2163" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2163" s="25"/>
+      <c r="F2163" s="25"/>
+      <c r="G2163" s="26"/>
+      <c r="H2163" s="25"/>
+    </row>
+    <row r="2164" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2164" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2164" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2164" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2164" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2164" s="25"/>
+      <c r="F2164" s="25"/>
+      <c r="G2164" s="26"/>
+      <c r="H2164" s="25"/>
+    </row>
+    <row r="2165" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2165" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2165" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2165" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2165" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2165" s="25"/>
+      <c r="F2165" s="25"/>
+      <c r="G2165" s="26"/>
+      <c r="H2165" s="25"/>
+    </row>
+    <row r="2166" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2166" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2166" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2166" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2166" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2166" s="25"/>
+      <c r="F2166" s="25"/>
+      <c r="G2166" s="26"/>
+      <c r="H2166" s="25"/>
+    </row>
+    <row r="2167" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2167" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2167" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2167" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2167" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2167" s="25"/>
+      <c r="F2167" s="25"/>
+      <c r="G2167" s="26"/>
+      <c r="H2167" s="25"/>
+    </row>
+    <row r="2168" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2168" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2168" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2168" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2168" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2168" s="25"/>
+      <c r="F2168" s="25"/>
+      <c r="G2168" s="26"/>
+      <c r="H2168" s="25"/>
+    </row>
+    <row r="2169" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2169" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2169" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2169" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2169" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2169" s="25"/>
+      <c r="F2169" s="25"/>
+      <c r="G2169" s="26"/>
+      <c r="H2169" s="25"/>
+    </row>
+    <row r="2170" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2170" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2170" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2170" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2170" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2170" s="25"/>
+      <c r="F2170" s="25"/>
+      <c r="G2170" s="26"/>
+      <c r="H2170" s="25"/>
+    </row>
+    <row r="2171" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2171" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2171" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2171" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2171" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2171" s="25"/>
+      <c r="F2171" s="25"/>
+      <c r="G2171" s="26"/>
+      <c r="H2171" s="25"/>
+    </row>
+    <row r="2172" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2172" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2172" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2172" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2172" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2172" s="25"/>
+      <c r="F2172" s="25"/>
+      <c r="G2172" s="26"/>
+      <c r="H2172" s="25"/>
+    </row>
+    <row r="2173" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2173" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2173" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2173" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2173" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2173" s="25"/>
+      <c r="F2173" s="25"/>
+      <c r="G2173" s="26"/>
+      <c r="H2173" s="26"/>
+    </row>
+    <row r="2174" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2174" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2174" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2174" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2174" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2174" s="25"/>
+      <c r="F2174" s="25"/>
+      <c r="G2174" s="26"/>
+      <c r="H2174" s="25"/>
+    </row>
+    <row r="2175" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2175" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2175" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2175" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2175" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2175" s="25"/>
+      <c r="F2175" s="25"/>
+      <c r="G2175" s="26"/>
+      <c r="H2175" s="25"/>
+    </row>
+    <row r="2176" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2176" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2176" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2176" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2176" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2176" s="25"/>
+      <c r="F2176" s="25"/>
+      <c r="G2176" s="26"/>
+    </row>
+    <row r="2177" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2177" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2177" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2177" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2177" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2177" s="25"/>
+      <c r="F2177" s="25"/>
+      <c r="G2177" s="26"/>
+      <c r="H2177" s="25"/>
+    </row>
+    <row r="2178" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2178" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2178" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2178" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2178" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2178" s="25"/>
+      <c r="F2178" s="25"/>
+      <c r="G2178" s="26"/>
+      <c r="H2178" s="25"/>
+    </row>
+    <row r="2179" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2179" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2179" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2179" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2179" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2179" s="25"/>
+      <c r="F2179" s="25"/>
+      <c r="G2179" s="26"/>
+      <c r="H2179" s="25"/>
+    </row>
+    <row r="2180" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2180" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2180" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2180" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2180" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2180" s="25"/>
+      <c r="F2180" s="25"/>
+      <c r="G2180" s="26"/>
+      <c r="H2180" s="25"/>
+    </row>
+    <row r="2181" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2181" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2181" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2181" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2181" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2181" s="25"/>
+      <c r="F2181" s="25"/>
+      <c r="G2181" s="26"/>
+      <c r="H2181" s="25"/>
+    </row>
+    <row r="2182" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2182" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2182" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2182" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2182" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2182" s="25"/>
+      <c r="F2182" s="24"/>
+      <c r="G2182" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2182" s="25"/>
+    </row>
+    <row r="2183" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2183" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2183" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2183" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2183" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2183" s="25"/>
+      <c r="F2183" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2183" s="26"/>
+      <c r="H2183" s="25"/>
+    </row>
+    <row r="2184" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2184" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2184" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2184" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2184" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2184" s="25"/>
+      <c r="F2184" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2184" s="26"/>
+      <c r="H2184" s="25"/>
+    </row>
+    <row r="2185" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2185" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2185" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2185" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2185" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2185" s="25"/>
+      <c r="F2185" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2185" s="26"/>
+      <c r="H2185" s="25"/>
+    </row>
+    <row r="2186" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2186" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2186" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2186" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2186" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2186" s="25"/>
+      <c r="F2186" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="G2186" s="26"/>
+      <c r="H2186" s="25"/>
+    </row>
+    <row r="2187" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2187" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2187" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2187" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2187" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2187" s="25"/>
+      <c r="F2187" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2187" s="26"/>
+      <c r="H2187" s="25"/>
+    </row>
+    <row r="2188" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2188" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2188" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2188" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2188" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2188" s="25"/>
+      <c r="F2188" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2188" s="26"/>
+      <c r="H2188" s="25"/>
+    </row>
+    <row r="2189" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2189" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2189" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2189" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2189" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2189" s="25"/>
+      <c r="F2189" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2189" s="26"/>
+      <c r="H2189" s="25"/>
+    </row>
+    <row r="2190" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2190" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2190" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2190" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2190" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2190" s="25"/>
+      <c r="F2190" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2190" s="26"/>
+      <c r="H2190" s="25"/>
+    </row>
+    <row r="2191" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2191" s="27">
+        <v>56</v>
+      </c>
+      <c r="B2191" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2191" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2191" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2191" s="25"/>
+      <c r="F2191" s="25"/>
+      <c r="G2191" s="26"/>
+      <c r="H2191" s="25"/>
+    </row>
+    <row r="2192" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2192" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2192" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2192" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2192" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2192" s="25"/>
+      <c r="F2192" s="25"/>
+      <c r="G2192" s="26"/>
+      <c r="H2192" s="25"/>
+    </row>
+    <row r="2193" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2193" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2193" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2193" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2193" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2193" s="25"/>
+      <c r="F2193" s="25"/>
+      <c r="G2193" s="26">
+        <v>8</v>
+      </c>
+      <c r="H2193" s="25"/>
+    </row>
+    <row r="2194" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2194" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2194" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2194" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2194" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2194" s="25"/>
+      <c r="F2194" s="25"/>
+      <c r="G2194" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2194" s="25"/>
+    </row>
+    <row r="2195" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2195" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2195" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2195" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2195" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2195" s="25"/>
+      <c r="F2195" s="25"/>
+      <c r="G2195" s="26"/>
+      <c r="H2195" s="25"/>
+    </row>
+    <row r="2196" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2196" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2196" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2196" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2196" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2196" s="25"/>
+      <c r="F2196" s="25"/>
+      <c r="G2196" s="26"/>
+      <c r="H2196" s="25"/>
+    </row>
+    <row r="2197" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2197" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2197" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2197" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2197" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2197" s="25"/>
+      <c r="F2197" s="25"/>
+      <c r="G2197" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2197" s="25"/>
+    </row>
+    <row r="2198" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2198" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2198" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2198" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2198" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2198" s="25"/>
+      <c r="F2198" s="25"/>
+      <c r="G2198" s="26"/>
+      <c r="H2198" s="25"/>
+    </row>
+    <row r="2199" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2199" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2199" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2199" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2199" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2199" s="25"/>
+      <c r="F2199" s="25"/>
+      <c r="G2199" s="26">
+        <v>37</v>
+      </c>
+      <c r="H2199" s="25"/>
+    </row>
+    <row r="2200" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2200" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2200" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2200" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2200" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2200" s="25"/>
+      <c r="F2200" s="25"/>
+      <c r="G2200" s="26"/>
+      <c r="H2200" s="25"/>
+    </row>
+    <row r="2201" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2201" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2201" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2201" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2201" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2201" s="25"/>
+      <c r="F2201" s="25"/>
+      <c r="G2201" s="26"/>
+      <c r="H2201" s="25"/>
+    </row>
+    <row r="2202" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2202" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2202" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2202" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2202" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2202" s="25"/>
+      <c r="F2202" s="25">
+        <v>60</v>
+      </c>
+      <c r="G2202" s="26"/>
+      <c r="H2202" s="25"/>
+    </row>
+    <row r="2203" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2203" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2203" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2203" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2203" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2203" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2203" s="25"/>
+      <c r="G2203" s="26"/>
+      <c r="H2203" s="25"/>
+    </row>
+    <row r="2204" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2204" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2204" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2204" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2204" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2204" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2204" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2204" s="26"/>
+      <c r="H2204" s="29" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2205" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2205" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2205" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2205" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2205" s="25"/>
+      <c r="F2205" s="25"/>
+      <c r="G2205" s="26"/>
+      <c r="H2205" s="25"/>
+    </row>
+    <row r="2206" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2206" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2206" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2206" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2206" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2206" s="25"/>
+      <c r="F2206" s="25"/>
+      <c r="G2206" s="26"/>
+      <c r="H2206" s="25"/>
+    </row>
+    <row r="2207" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2207" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2207" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2207" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2207" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2207" s="25"/>
+      <c r="F2207" s="25"/>
+      <c r="G2207" s="26"/>
+      <c r="H2207" s="25"/>
+    </row>
+    <row r="2208" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2208" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2208" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2208" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2208" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2208" s="25"/>
+      <c r="F2208" s="25"/>
+      <c r="G2208" s="26"/>
+      <c r="H2208" s="25"/>
+    </row>
+    <row r="2209" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2209" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2209" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2209" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2209" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2209" s="25"/>
+      <c r="F2209" s="25"/>
+      <c r="G2209" s="26"/>
+      <c r="H2209" s="25"/>
+    </row>
+    <row r="2210" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2210" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2210" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2210" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2210" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2210" s="25"/>
+      <c r="F2210" s="25"/>
+      <c r="G2210" s="26"/>
+      <c r="H2210" s="25"/>
+    </row>
+    <row r="2211" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2211" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2211" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2211" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2211" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2211" s="25"/>
+      <c r="F2211" s="25"/>
+      <c r="G2211" s="26"/>
+      <c r="H2211" s="25"/>
+    </row>
+    <row r="2212" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2212" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2212" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2212" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2212" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2212" s="25"/>
+      <c r="F2212" s="25"/>
+      <c r="G2212" s="26"/>
+      <c r="H2212" s="25"/>
+    </row>
+    <row r="2213" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2213" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2213" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2213" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2213" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2213" s="25"/>
+      <c r="F2213" s="25"/>
+      <c r="G2213" s="26"/>
+      <c r="H2213" s="25"/>
+    </row>
+    <row r="2214" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2214" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2214" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2214" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2214" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2214" s="25"/>
+      <c r="F2214" s="25"/>
+      <c r="G2214" s="26"/>
+      <c r="H2214" s="25"/>
+    </row>
+    <row r="2215" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2215" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2215" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2215" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2215" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2215" s="25"/>
+      <c r="F2215" s="25"/>
+      <c r="G2215" s="26"/>
+      <c r="H2215" s="25"/>
+    </row>
+    <row r="2216" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2216" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2216" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2216" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2216" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2216" s="25"/>
+      <c r="F2216" s="25"/>
+      <c r="G2216" s="26"/>
+      <c r="H2216" s="25"/>
+    </row>
+    <row r="2217" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2217" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2217" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2217" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2217" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2217" s="25"/>
+      <c r="F2217" s="25"/>
+      <c r="G2217" s="26"/>
+      <c r="H2217" s="25"/>
+    </row>
+    <row r="2218" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2218" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2218" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2218" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2218" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2218" s="25"/>
+      <c r="F2218" s="25"/>
+      <c r="G2218" s="26"/>
+      <c r="H2218" s="25"/>
+    </row>
+    <row r="2219" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2219" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2219" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2219" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2219" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2219" s="25"/>
+      <c r="F2219" s="25"/>
+      <c r="G2219" s="26"/>
+      <c r="H2219" s="25"/>
+    </row>
+    <row r="2220" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2220" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2220" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2220" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2220" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2220" s="25"/>
+      <c r="F2220" s="25"/>
+      <c r="G2220" s="26"/>
+      <c r="H2220" s="26"/>
+    </row>
+    <row r="2221" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2221" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2221" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2221" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2221" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2221" s="25"/>
+      <c r="F2221" s="25"/>
+      <c r="G2221" s="26"/>
+      <c r="H2221" s="25"/>
+    </row>
+    <row r="2222" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2222" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2222" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2222" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2222" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2222" s="25"/>
+      <c r="F2222" s="25"/>
+      <c r="G2222" s="26"/>
+      <c r="H2222" s="25"/>
+    </row>
+    <row r="2223" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2223" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2223" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="C2223" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2223" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2223" s="25"/>
+      <c r="F2223" s="25"/>
+      <c r="G2223" s="26"/>
+    </row>
+    <row r="2224" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2224" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2224" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2224" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2224" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2224" s="25"/>
+      <c r="F2224" s="25"/>
+      <c r="G2224" s="26"/>
+      <c r="H2224" s="25"/>
+    </row>
+    <row r="2225" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2225" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2225" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2225" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2225" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2225" s="25"/>
+      <c r="F2225" s="25"/>
+      <c r="G2225" s="26"/>
+      <c r="H2225" s="25"/>
+    </row>
+    <row r="2226" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2226" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2226" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2226" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2226" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2226" s="25"/>
+      <c r="F2226" s="25"/>
+      <c r="G2226" s="26"/>
+      <c r="H2226" s="25"/>
+    </row>
+    <row r="2227" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2227" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2227" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2227" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2227" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2227" s="25"/>
+      <c r="F2227" s="25"/>
+      <c r="G2227" s="26"/>
+      <c r="H2227" s="25"/>
+    </row>
+    <row r="2228" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2228" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2228" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2228" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2228" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2228" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2228" s="25"/>
+      <c r="G2228" s="26"/>
+      <c r="H2228" s="25"/>
+    </row>
+    <row r="2229" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2229" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2229" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2229" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2229" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2229" s="25"/>
+      <c r="F2229" s="25"/>
+      <c r="G2229" s="26"/>
+      <c r="H2229" s="25"/>
+    </row>
+    <row r="2230" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2230" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2230" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2230" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2230" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2230" s="25"/>
+      <c r="F2230" s="24"/>
+      <c r="G2230" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2230" s="25"/>
+    </row>
+    <row r="2231" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2231" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2231" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2231" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2231" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2231" s="25"/>
+      <c r="F2231" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2231" s="26"/>
+      <c r="H2231" s="25"/>
+    </row>
+    <row r="2232" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2232" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2232" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2232" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2232" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2232" s="25"/>
+      <c r="F2232" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2232" s="26"/>
+      <c r="H2232" s="25"/>
+    </row>
+    <row r="2233" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2233" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2233" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2233" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2233" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2233" s="25"/>
+      <c r="F2233" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2233" s="26"/>
+      <c r="H2233" s="25"/>
+    </row>
+    <row r="2234" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2234" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2234" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2234" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2234" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2234" s="25"/>
+      <c r="F2234" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2234" s="26"/>
+      <c r="H2234" s="25"/>
+    </row>
+    <row r="2235" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2235" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2235" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2235" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2235" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2235" s="25"/>
+      <c r="F2235" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2235" s="26"/>
+      <c r="H2235" s="25"/>
+    </row>
+    <row r="2236" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2236" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2236" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2236" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2236" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2236" s="25"/>
+      <c r="F2236" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2236" s="26"/>
+      <c r="H2236" s="25"/>
+    </row>
+    <row r="2237" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2237" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2237" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2237" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2237" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2237" s="25"/>
+      <c r="F2237" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2237" s="26"/>
+      <c r="H2237" s="25"/>
+    </row>
+    <row r="2238" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2238" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2238" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2238" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2238" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2238" s="25"/>
+      <c r="F2238" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2238" s="26"/>
+      <c r="H2238" s="25"/>
+    </row>
+    <row r="2239" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2239" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2239" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2239" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2239" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2239" s="25"/>
+      <c r="F2239" s="25"/>
+      <c r="G2239" s="26"/>
+      <c r="H2239" s="25"/>
+    </row>
+    <row r="2240" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2240" s="27">
+        <v>57</v>
+      </c>
+      <c r="B2240" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2240" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2240" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2240" s="25"/>
+      <c r="F2240" s="25"/>
+      <c r="G2240" s="26"/>
+      <c r="H2240" s="25"/>
+    </row>
+    <row r="2241" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2241" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2241" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2241" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2241" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2241" s="25"/>
+      <c r="F2241" s="25"/>
+      <c r="G2241" s="26"/>
+      <c r="H2241" s="25"/>
+    </row>
+    <row r="2242" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2242" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2242" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2242" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2242" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2242" s="25"/>
+      <c r="F2242" s="25"/>
+      <c r="G2242" s="26">
+        <v>8</v>
+      </c>
+      <c r="H2242" s="25"/>
+    </row>
+    <row r="2243" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2243" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2243" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2243" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2243" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2243" s="25"/>
+      <c r="F2243" s="25"/>
+      <c r="G2243" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2243" s="25"/>
+    </row>
+    <row r="2244" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2244" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2244" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2244" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2244" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2244" s="25"/>
+      <c r="F2244" s="25"/>
+      <c r="G2244" s="26"/>
+      <c r="H2244" s="25"/>
+    </row>
+    <row r="2245" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2245" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2245" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2245" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2245" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2245" s="25"/>
+      <c r="F2245" s="25"/>
+      <c r="G2245" s="26"/>
+      <c r="H2245" s="25"/>
+    </row>
+    <row r="2246" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2246" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2246" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2246" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2246" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2246" s="25"/>
+      <c r="F2246" s="25"/>
+      <c r="G2246" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2246" s="25"/>
+    </row>
+    <row r="2247" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2247" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2247" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2247" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2247" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2247" s="25"/>
+      <c r="F2247" s="25"/>
+      <c r="G2247" s="26"/>
+      <c r="H2247" s="25"/>
+    </row>
+    <row r="2248" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2248" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2248" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2248" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2248" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2248" s="25"/>
+      <c r="F2248" s="25"/>
+      <c r="G2248" s="26">
+        <v>38</v>
+      </c>
+      <c r="H2248" s="25"/>
+    </row>
+    <row r="2249" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2249" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2249" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2249" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2249" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2249" s="25"/>
+      <c r="F2249" s="25"/>
+      <c r="G2249" s="26"/>
+      <c r="H2249" s="25"/>
+    </row>
+    <row r="2250" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2250" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2250" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2250" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2250" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2250" s="25"/>
+      <c r="F2250" s="25"/>
+      <c r="G2250" s="26"/>
+      <c r="H2250" s="25"/>
+    </row>
+    <row r="2251" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2251" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2251" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2251" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2251" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2251" s="25"/>
+      <c r="F2251" s="25">
+        <v>60</v>
+      </c>
+      <c r="G2251" s="26"/>
+      <c r="H2251" s="25"/>
+    </row>
+    <row r="2252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2252" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2252" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2252" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2252" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2252" s="25"/>
+      <c r="F2252" s="25"/>
+      <c r="G2252" s="26"/>
+      <c r="H2252" s="25"/>
+    </row>
+    <row r="2253" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2253" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2253" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2253" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2253" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2253" s="25"/>
+      <c r="F2253" s="25"/>
+      <c r="G2253" s="26"/>
+      <c r="H2253" s="25"/>
+    </row>
+    <row r="2254" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2254" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2254" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2254" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2254" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2254" s="25"/>
+      <c r="F2254" s="25"/>
+      <c r="G2254" s="26"/>
+      <c r="H2254" s="25"/>
+    </row>
+    <row r="2255" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2255" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2255" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2255" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2255" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2255" s="25"/>
+      <c r="F2255" s="25"/>
+      <c r="G2255" s="26"/>
+      <c r="H2255" s="25"/>
+    </row>
+    <row r="2256" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2256" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2256" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2256" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2256" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2256" s="25"/>
+      <c r="F2256" s="25"/>
+      <c r="G2256" s="26"/>
+      <c r="H2256" s="25"/>
+    </row>
+    <row r="2257" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2257" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2257" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2257" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2257" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2257" s="25"/>
+      <c r="F2257" s="25"/>
+      <c r="G2257" s="26"/>
+      <c r="H2257" s="25"/>
+    </row>
+    <row r="2258" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2258" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2258" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2258" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2258" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2258" s="25"/>
+      <c r="F2258" s="25"/>
+      <c r="G2258" s="26"/>
+      <c r="H2258" s="25"/>
+    </row>
+    <row r="2259" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2259" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2259" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2259" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2259" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2259" s="25"/>
+      <c r="F2259" s="25"/>
+      <c r="G2259" s="26"/>
+      <c r="H2259" s="25"/>
+    </row>
+    <row r="2260" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2260" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2260" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2260" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2260" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2260" s="25"/>
+      <c r="F2260" s="25"/>
+      <c r="G2260" s="26"/>
+      <c r="H2260" s="25"/>
+    </row>
+    <row r="2261" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2261" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2261" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2261" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2261" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2261" s="25"/>
+      <c r="F2261" s="25"/>
+      <c r="G2261" s="26"/>
+      <c r="H2261" s="25"/>
+    </row>
+    <row r="2262" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2262" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2262" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2262" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2262" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2262" s="25"/>
+      <c r="F2262" s="25"/>
+      <c r="G2262" s="26"/>
+      <c r="H2262" s="25"/>
+    </row>
+    <row r="2263" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2263" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2263" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2263" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2263" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2263" s="25"/>
+      <c r="F2263" s="25"/>
+      <c r="G2263" s="26"/>
+      <c r="H2263" s="25"/>
+    </row>
+    <row r="2264" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2264" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2264" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2264" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2264" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2264" s="25"/>
+      <c r="F2264" s="25"/>
+      <c r="G2264" s="26"/>
+      <c r="H2264" s="25"/>
+    </row>
+    <row r="2265" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2265" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2265" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2265" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2265" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2265" s="25"/>
+      <c r="F2265" s="25"/>
+      <c r="G2265" s="26"/>
+      <c r="H2265" s="25"/>
+    </row>
+    <row r="2266" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2266" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2266" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2266" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2266" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2266" s="25"/>
+      <c r="F2266" s="25"/>
+      <c r="G2266" s="26"/>
+      <c r="H2266" s="26"/>
+    </row>
+    <row r="2267" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2267" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2267" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2267" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2267" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2267" s="25"/>
+      <c r="F2267" s="25"/>
+      <c r="G2267" s="26"/>
+      <c r="H2267" s="25"/>
+    </row>
+    <row r="2268" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2268" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2268" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2268" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2268" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2268" s="25"/>
+      <c r="F2268" s="25"/>
+      <c r="G2268" s="26"/>
+      <c r="H2268" s="25"/>
+    </row>
+    <row r="2269" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2269" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2269" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2269" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2269" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2269" s="25"/>
+      <c r="F2269" s="25"/>
+      <c r="G2269" s="26"/>
+    </row>
+    <row r="2270" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2270" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2270" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2270" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2270" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2270" s="25"/>
+      <c r="F2270" s="25"/>
+      <c r="G2270" s="26"/>
+      <c r="H2270" s="25"/>
+    </row>
+    <row r="2271" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2271" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2271" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2271" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2271" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2271" s="25"/>
+      <c r="F2271" s="25"/>
+      <c r="G2271" s="26"/>
+      <c r="H2271" s="25"/>
+    </row>
+    <row r="2272" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2272" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2272" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2272" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2272" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2272" s="25"/>
+      <c r="F2272" s="25"/>
+      <c r="G2272" s="26"/>
+      <c r="H2272" s="25"/>
+    </row>
+    <row r="2273" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2273" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2273" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2273" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2273" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2273" s="25"/>
+      <c r="F2273" s="25"/>
+      <c r="G2273" s="26"/>
+      <c r="H2273" s="25"/>
+    </row>
+    <row r="2274" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2274" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2274" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2274" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2274" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2274" s="25"/>
+      <c r="F2274" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2274" s="26"/>
+      <c r="H2274" s="25"/>
+    </row>
+    <row r="2275" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2275" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2275" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2275" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2275" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2275" s="25"/>
+      <c r="F2275" s="25"/>
+      <c r="G2275" s="26"/>
+      <c r="H2275" s="25"/>
+    </row>
+    <row r="2276" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2276" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2276" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2276" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2276" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2276" s="25"/>
+      <c r="F2276" s="24"/>
+      <c r="G2276" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2276" s="25"/>
+    </row>
+    <row r="2277" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2277" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2277" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2277" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2277" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2277" s="25"/>
+      <c r="F2277" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2277" s="26"/>
+      <c r="H2277" s="25"/>
+    </row>
+    <row r="2278" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2278" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2278" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2278" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2278" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2278" s="25"/>
+      <c r="F2278" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2278" s="26"/>
+      <c r="H2278" s="25"/>
+    </row>
+    <row r="2279" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2279" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2279" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2279" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2279" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2279" s="25"/>
+      <c r="F2279" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2279" s="26"/>
+      <c r="H2279" s="25"/>
+    </row>
+    <row r="2280" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2280" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2280" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2280" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2280" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2280" s="25"/>
+      <c r="F2280" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2280" s="26"/>
+      <c r="H2280" s="25"/>
+    </row>
+    <row r="2281" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2281" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2281" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2281" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2281" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2281" s="25"/>
+      <c r="F2281" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2281" s="26"/>
+      <c r="H2281" s="25"/>
+    </row>
+    <row r="2282" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2282" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2282" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2282" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2282" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2282" s="25"/>
+      <c r="F2282" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2282" s="26"/>
+      <c r="H2282" s="25"/>
+    </row>
+    <row r="2283" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2283" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2283" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2283" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2283" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2283" s="25"/>
+      <c r="F2283" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2283" s="26"/>
+      <c r="H2283" s="25"/>
+    </row>
+    <row r="2284" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2284" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2284" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2284" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2284" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2284" s="25"/>
+      <c r="F2284" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2284" s="26"/>
+      <c r="H2284" s="25"/>
+    </row>
+    <row r="2285" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2285" s="27">
+        <v>58</v>
+      </c>
+      <c r="B2285" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2285" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2285" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2285" s="25"/>
+      <c r="F2285" s="25"/>
+      <c r="G2285" s="26"/>
+      <c r="H2285" s="25"/>
+    </row>
+    <row r="2286" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2286" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2286" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2286" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2286" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2286" s="25"/>
+      <c r="F2286" s="25"/>
+      <c r="G2286" s="26"/>
+      <c r="H2286" s="25"/>
+    </row>
+    <row r="2287" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2287" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2287" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2287" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2287" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2287" s="25"/>
+      <c r="F2287" s="25"/>
+      <c r="G2287" s="26">
+        <v>8</v>
+      </c>
+      <c r="H2287" s="25"/>
+    </row>
+    <row r="2288" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2288" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2288" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2288" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2288" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2288" s="25"/>
+      <c r="F2288" s="25"/>
+      <c r="G2288" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2288" s="25"/>
+    </row>
+    <row r="2289" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2289" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2289" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2289" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2289" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2289" s="25"/>
+      <c r="F2289" s="25"/>
+      <c r="G2289" s="26"/>
+      <c r="H2289" s="25"/>
+    </row>
+    <row r="2290" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2290" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2290" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2290" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2290" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2290" s="25"/>
+      <c r="F2290" s="25"/>
+      <c r="G2290" s="26"/>
+      <c r="H2290" s="25"/>
+    </row>
+    <row r="2291" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2291" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2291" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2291" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2291" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2291" s="25"/>
+      <c r="F2291" s="25"/>
+      <c r="G2291" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2291" s="25"/>
+    </row>
+    <row r="2292" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2292" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2292" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2292" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2292" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2292" s="25"/>
+      <c r="F2292" s="25"/>
+      <c r="G2292" s="26"/>
+      <c r="H2292" s="25"/>
+    </row>
+    <row r="2293" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2293" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2293" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2293" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2293" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2293" s="25"/>
+      <c r="F2293" s="25"/>
+      <c r="G2293" s="26">
+        <v>39</v>
+      </c>
+      <c r="H2293" s="25"/>
+    </row>
+    <row r="2294" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2294" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2294" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2294" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2294" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2294" s="25"/>
+      <c r="F2294" s="25"/>
+      <c r="G2294" s="26"/>
+      <c r="H2294" s="25"/>
+    </row>
+    <row r="2295" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2295" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2295" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2295" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2295" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2295" s="25"/>
+      <c r="F2295" s="25"/>
+      <c r="G2295" s="26"/>
+      <c r="H2295" s="25"/>
+    </row>
+    <row r="2296" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2296" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2296" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2296" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2296" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2296" s="25"/>
+      <c r="F2296" s="25">
+        <v>60</v>
+      </c>
+      <c r="G2296" s="26"/>
+      <c r="H2296" s="25"/>
+    </row>
+    <row r="2297" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2297" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2297" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2297" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2297" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2297" s="25"/>
+      <c r="F2297" s="25"/>
+      <c r="G2297" s="26"/>
+      <c r="H2297" s="25"/>
+    </row>
+    <row r="2298" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2298" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2298" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2298" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2298" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2298" s="25"/>
+      <c r="F2298" s="25"/>
+      <c r="G2298" s="26"/>
+      <c r="H2298" s="25"/>
+    </row>
+    <row r="2299" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2299" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2299" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2299" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2299" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2299" s="25"/>
+      <c r="F2299" s="25"/>
+      <c r="G2299" s="26"/>
+      <c r="H2299" s="25"/>
+    </row>
+    <row r="2300" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2300" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2300" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2300" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2300" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2300" s="25"/>
+      <c r="F2300" s="25"/>
+      <c r="G2300" s="26"/>
+      <c r="H2300" s="25"/>
+    </row>
+    <row r="2301" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2301" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2301" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2301" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2301" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2301" s="25"/>
+      <c r="F2301" s="25"/>
+      <c r="G2301" s="26"/>
+      <c r="H2301" s="25"/>
+    </row>
+    <row r="2302" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2302" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2302" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2302" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2302" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2302" s="25"/>
+      <c r="F2302" s="25"/>
+      <c r="G2302" s="26"/>
+      <c r="H2302" s="25"/>
+    </row>
+    <row r="2303" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2303" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2303" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2303" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2303" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2303" s="25"/>
+      <c r="F2303" s="25"/>
+      <c r="G2303" s="26"/>
+      <c r="H2303" s="25"/>
+    </row>
+    <row r="2304" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2304" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2304" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2304" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2304" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2304" s="25"/>
+      <c r="F2304" s="25"/>
+      <c r="G2304" s="26"/>
+      <c r="H2304" s="25"/>
+    </row>
+    <row r="2305" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2305" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2305" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2305" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2305" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2305" s="25"/>
+      <c r="F2305" s="25"/>
+      <c r="G2305" s="26"/>
+      <c r="H2305" s="25"/>
+    </row>
+    <row r="2306" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2306" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2306" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2306" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2306" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2306" s="25"/>
+      <c r="F2306" s="25"/>
+      <c r="G2306" s="26"/>
+      <c r="H2306" s="25"/>
+    </row>
+    <row r="2307" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2307" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2307" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2307" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2307" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2307" s="25"/>
+      <c r="F2307" s="25"/>
+      <c r="G2307" s="26"/>
+      <c r="H2307" s="25"/>
+    </row>
+    <row r="2308" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2308" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2308" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2308" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2308" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2308" s="25"/>
+      <c r="F2308" s="25"/>
+      <c r="G2308" s="26"/>
+      <c r="H2308" s="25"/>
+    </row>
+    <row r="2309" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2309" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2309" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2309" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2309" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2309" s="25"/>
+      <c r="F2309" s="25"/>
+      <c r="G2309" s="26"/>
+      <c r="H2309" s="25"/>
+    </row>
+    <row r="2310" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2310" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2310" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2310" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2310" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2310" s="25"/>
+      <c r="F2310" s="25"/>
+      <c r="G2310" s="26"/>
+      <c r="H2310" s="25"/>
+    </row>
+    <row r="2311" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2311" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2311" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2311" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2311" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2311" s="25"/>
+      <c r="F2311" s="25"/>
+      <c r="G2311" s="26"/>
+      <c r="H2311" s="26"/>
+    </row>
+    <row r="2312" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2312" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2312" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2312" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2312" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2312" s="25"/>
+      <c r="F2312" s="25"/>
+      <c r="G2312" s="26"/>
+      <c r="H2312" s="25"/>
+    </row>
+    <row r="2313" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2313" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2313" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2313" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2313" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2313" s="25"/>
+      <c r="F2313" s="25"/>
+      <c r="G2313" s="26"/>
+      <c r="H2313" s="25"/>
+    </row>
+    <row r="2314" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2314" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2314" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="C2314" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2314" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2314" s="25"/>
+      <c r="F2314" s="25"/>
+      <c r="G2314" s="26"/>
+    </row>
+    <row r="2315" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2315" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2315" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2315" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2315" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2315" s="25"/>
+      <c r="F2315" s="25"/>
+      <c r="G2315" s="26"/>
+      <c r="H2315" s="25"/>
+    </row>
+    <row r="2316" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2316" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2316" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2316" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2316" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2316" s="25"/>
+      <c r="F2316" s="25"/>
+      <c r="G2316" s="26"/>
+      <c r="H2316" s="25"/>
+    </row>
+    <row r="2317" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2317" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2317" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2317" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2317" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2317" s="25"/>
+      <c r="F2317" s="25"/>
+      <c r="G2317" s="26"/>
+      <c r="H2317" s="25"/>
+    </row>
+    <row r="2318" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2318" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2318" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2318" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2318" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2318" s="25"/>
+      <c r="F2318" s="25"/>
+      <c r="G2318" s="26"/>
+      <c r="H2318" s="25"/>
+    </row>
+    <row r="2319" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2319" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2319" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2319" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2319" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2319" s="25"/>
+      <c r="F2319" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="G2319" s="26"/>
+      <c r="H2319" s="25"/>
+    </row>
+    <row r="2320" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2320" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2320" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2320" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2320" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2320" s="25"/>
+      <c r="F2320" s="25"/>
+      <c r="G2320" s="26"/>
+      <c r="H2320" s="25"/>
+    </row>
+    <row r="2321" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2321" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2321" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2321" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2321" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2321" s="25"/>
+      <c r="F2321" s="24"/>
+      <c r="G2321" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2321" s="25"/>
+    </row>
+    <row r="2322" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2322" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2322" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2322" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2322" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2322" s="25"/>
+      <c r="F2322" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2322" s="26"/>
+      <c r="H2322" s="25"/>
+    </row>
+    <row r="2323" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2323" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2323" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2323" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2323" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2323" s="25"/>
+      <c r="F2323" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2323" s="26"/>
+      <c r="H2323" s="25"/>
+    </row>
+    <row r="2324" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2324" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2324" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2324" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2324" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2324" s="25"/>
+      <c r="F2324" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2324" s="26"/>
+      <c r="H2324" s="25"/>
+    </row>
+    <row r="2325" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2325" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2325" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2325" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2325" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2325" s="25"/>
+      <c r="F2325" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2325" s="26"/>
+      <c r="H2325" s="25"/>
+    </row>
+    <row r="2326" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2326" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2326" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2326" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2326" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2326" s="25"/>
+      <c r="F2326" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2326" s="26"/>
+      <c r="H2326" s="25"/>
+    </row>
+    <row r="2327" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2327" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2327" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2327" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2327" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2327" s="25"/>
+      <c r="F2327" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2327" s="26"/>
+      <c r="H2327" s="25"/>
+    </row>
+    <row r="2328" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2328" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2328" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2328" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2328" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2328" s="25"/>
+      <c r="F2328" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2328" s="26"/>
+      <c r="H2328" s="25"/>
+    </row>
+    <row r="2329" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2329" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2329" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2329" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2329" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2329" s="25"/>
+      <c r="F2329" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2329" s="26"/>
+      <c r="H2329" s="25"/>
+    </row>
+    <row r="2330" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2330" s="27">
+        <v>59</v>
+      </c>
+      <c r="B2330" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2330" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2330" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2330" s="25"/>
+      <c r="F2330" s="25"/>
+      <c r="G2330" s="26"/>
+      <c r="H2330" s="25"/>
+    </row>
+    <row r="2331" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2331" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2331" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2331" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2331" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2331" s="25"/>
+      <c r="F2331" s="25"/>
+      <c r="G2331" s="26"/>
+      <c r="H2331" s="25"/>
+    </row>
+    <row r="2332" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2332" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2332" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2332" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2332" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2332" s="25"/>
+      <c r="F2332" s="25"/>
+      <c r="G2332" s="26">
+        <v>8</v>
+      </c>
+      <c r="H2332" s="25"/>
+    </row>
+    <row r="2333" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2333" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2333" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2333" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2333" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2333" s="25"/>
+      <c r="F2333" s="25"/>
+      <c r="G2333" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2333" s="25"/>
+    </row>
+    <row r="2334" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2334" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2334" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2334" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2334" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2334" s="25"/>
+      <c r="F2334" s="25"/>
+      <c r="G2334" s="26"/>
+      <c r="H2334" s="25"/>
+    </row>
+    <row r="2335" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2335" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2335" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2335" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2335" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2335" s="25"/>
+      <c r="F2335" s="25"/>
+      <c r="G2335" s="26"/>
+      <c r="H2335" s="25"/>
+    </row>
+    <row r="2336" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2336" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2336" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2336" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2336" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2336" s="25"/>
+      <c r="F2336" s="25"/>
+      <c r="G2336" s="26">
+        <v>17</v>
+      </c>
+      <c r="H2336" s="25"/>
+    </row>
+    <row r="2337" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2337" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2337" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2337" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2337" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2337" s="25"/>
+      <c r="F2337" s="25"/>
+      <c r="G2337" s="26"/>
+      <c r="H2337" s="25"/>
+    </row>
+    <row r="2338" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2338" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2338" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2338" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2338" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2338" s="25"/>
+      <c r="F2338" s="25"/>
+      <c r="G2338" s="26">
+        <v>39</v>
+      </c>
+      <c r="H2338" s="25"/>
+    </row>
+    <row r="2339" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2339" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2339" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2339" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2339" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2339" s="25"/>
+      <c r="F2339" s="25"/>
+      <c r="G2339" s="26"/>
+      <c r="H2339" s="25"/>
+    </row>
+    <row r="2340" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2340" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2340" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2340" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2340" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2340" s="25"/>
+      <c r="F2340" s="25"/>
+      <c r="G2340" s="26"/>
+      <c r="H2340" s="25"/>
+    </row>
+    <row r="2341" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2341" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2341" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2341" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2341" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2341" s="25"/>
+      <c r="F2341" s="25">
+        <v>60</v>
+      </c>
+      <c r="G2341" s="26"/>
+      <c r="H2341" s="25"/>
+    </row>
+    <row r="2342" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2342" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2342" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2342" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2342" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2342" s="25"/>
+      <c r="F2342" s="25"/>
+      <c r="G2342" s="26"/>
+      <c r="H2342" s="25"/>
+    </row>
+    <row r="2343" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2343" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2343" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2343" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2343" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2343" s="25"/>
+      <c r="F2343" s="25"/>
+      <c r="G2343" s="26"/>
+      <c r="H2343" s="25"/>
+    </row>
+    <row r="2344" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2344" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2344" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2344" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2344" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2344" s="25"/>
+      <c r="F2344" s="25"/>
+      <c r="G2344" s="26"/>
+      <c r="H2344" s="25"/>
+    </row>
+    <row r="2345" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2345" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2345" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2345" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2345" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2345" s="25"/>
+      <c r="F2345" s="25"/>
+      <c r="G2345" s="26"/>
+      <c r="H2345" s="25"/>
+    </row>
+    <row r="2346" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2346" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2346" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2346" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2346" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2346" s="25"/>
+      <c r="F2346" s="25"/>
+      <c r="G2346" s="26"/>
+      <c r="H2346" s="25"/>
+    </row>
+    <row r="2347" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2347" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2347" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2347" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2347" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2347" s="25"/>
+      <c r="F2347" s="25"/>
+      <c r="G2347" s="26"/>
+      <c r="H2347" s="25"/>
+    </row>
+    <row r="2348" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2348" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2348" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2348" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2348" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2348" s="25"/>
+      <c r="F2348" s="25"/>
+      <c r="G2348" s="26"/>
+      <c r="H2348" s="25"/>
+    </row>
+    <row r="2349" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2349" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2349" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2349" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2349" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2349" s="25"/>
+      <c r="F2349" s="25"/>
+      <c r="G2349" s="26"/>
+      <c r="H2349" s="25"/>
+    </row>
+    <row r="2350" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2350" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2350" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2350" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2350" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2350" s="25"/>
+      <c r="F2350" s="25"/>
+      <c r="G2350" s="26"/>
+      <c r="H2350" s="25"/>
+    </row>
+    <row r="2351" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2351" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2351" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2351" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2351" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2351" s="25"/>
+      <c r="F2351" s="25"/>
+      <c r="G2351" s="26"/>
+      <c r="H2351" s="25"/>
+    </row>
+    <row r="2352" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2352" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2352" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2352" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2352" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2352" s="25"/>
+      <c r="F2352" s="25"/>
+      <c r="G2352" s="26"/>
+      <c r="H2352" s="25"/>
+    </row>
+    <row r="2353" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2353" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2353" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2353" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2353" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2353" s="25"/>
+      <c r="F2353" s="25"/>
+      <c r="G2353" s="26"/>
+      <c r="H2353" s="25"/>
+    </row>
+    <row r="2354" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2354" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2354" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2354" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2354" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2354" s="25"/>
+      <c r="F2354" s="25"/>
+      <c r="G2354" s="26"/>
+      <c r="H2354" s="25"/>
+    </row>
+    <row r="2355" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2355" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2355" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2355" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2355" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2355" s="25"/>
+      <c r="F2355" s="25"/>
+      <c r="G2355" s="26"/>
+      <c r="H2355" s="25"/>
+    </row>
+    <row r="2356" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2356" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2356" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2356" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2356" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2356" s="25"/>
+      <c r="F2356" s="25"/>
+      <c r="G2356" s="26"/>
+      <c r="H2356" s="26"/>
+    </row>
+    <row r="2357" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2357" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2357" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2357" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2357" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2357" s="25"/>
+      <c r="F2357" s="25"/>
+      <c r="G2357" s="26"/>
+      <c r="H2357" s="25"/>
+    </row>
+    <row r="2358" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2358" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2358" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2358" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2358" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2358" s="25"/>
+      <c r="F2358" s="25"/>
+      <c r="G2358" s="26"/>
+      <c r="H2358" s="25"/>
+    </row>
+    <row r="2359" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2359" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2359" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2359" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2359" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2359" s="25"/>
+      <c r="F2359" s="25"/>
+      <c r="G2359" s="26"/>
+    </row>
+    <row r="2360" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2360" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2360" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2360" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2360" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2360" s="25"/>
+      <c r="F2360" s="25"/>
+      <c r="G2360" s="26"/>
+      <c r="H2360" s="25"/>
+    </row>
+    <row r="2361" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2361" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2361" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2361" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2361" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2361" s="25"/>
+      <c r="F2361" s="25"/>
+      <c r="G2361" s="26"/>
+      <c r="H2361" s="25"/>
+    </row>
+    <row r="2362" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2362" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2362" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2362" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2362" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2362" s="25"/>
+      <c r="F2362" s="25"/>
+      <c r="G2362" s="26"/>
+      <c r="H2362" s="25"/>
+    </row>
+    <row r="2363" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2363" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2363" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2363" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2363" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2363" s="25"/>
+      <c r="F2363" s="25"/>
+      <c r="G2363" s="26"/>
+      <c r="H2363" s="25"/>
+    </row>
+    <row r="2364" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2364" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2364" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2364" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2364" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2364" s="25"/>
+      <c r="F2364" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="G2364" s="26"/>
+      <c r="H2364" s="25"/>
+    </row>
+    <row r="2365" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2365" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2365" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2365" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2365" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2365" s="25"/>
+      <c r="F2365" s="25"/>
+      <c r="G2365" s="26"/>
+      <c r="H2365" s="25"/>
+    </row>
+    <row r="2366" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2366" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2366" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2366" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2366" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2366" s="25"/>
+      <c r="F2366" s="24"/>
+      <c r="G2366" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2366" s="25"/>
+    </row>
+    <row r="2367" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2367" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2367" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2367" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2367" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2367" s="25"/>
+      <c r="F2367" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2367" s="26"/>
+      <c r="H2367" s="25"/>
+    </row>
+    <row r="2368" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2368" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2368" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2368" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2368" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2368" s="25"/>
+      <c r="F2368" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2368" s="26"/>
+      <c r="H2368" s="25"/>
+    </row>
+    <row r="2369" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2369" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2369" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2369" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2369" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2369" s="25"/>
+      <c r="F2369" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2369" s="26"/>
+      <c r="H2369" s="25"/>
+    </row>
+    <row r="2370" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2370" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2370" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2370" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2370" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2370" s="25"/>
+      <c r="F2370" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G2370" s="26"/>
+      <c r="H2370" s="25"/>
+    </row>
+    <row r="2371" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2371" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2371" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2371" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2371" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2371" s="25"/>
+      <c r="F2371" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2371" s="26"/>
+      <c r="H2371" s="25"/>
+    </row>
+    <row r="2372" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2372" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2372" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2372" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2372" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2372" s="25"/>
+      <c r="F2372" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2372" s="26"/>
+      <c r="H2372" s="25"/>
+    </row>
+    <row r="2373" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2373" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2373" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2373" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2373" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2373" s="25"/>
+      <c r="F2373" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2373" s="26"/>
+      <c r="H2373" s="25"/>
+    </row>
+    <row r="2374" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2374" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2374" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2374" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2374" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2374" s="25"/>
+      <c r="F2374" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2374" s="26"/>
+      <c r="H2374" s="25"/>
+    </row>
+    <row r="2375" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2375" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2375" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2375" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2375" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2375" s="25"/>
+      <c r="F2375" s="25"/>
+      <c r="G2375" s="26"/>
+      <c r="H2375" s="25"/>
+    </row>
+    <row r="2376" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2376" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2376" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2376" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2376" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2376" s="25"/>
+      <c r="F2376" s="25"/>
+      <c r="G2376" s="26"/>
+      <c r="H2376" s="25"/>
+    </row>
+    <row r="2377" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2377" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2377" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2377" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2377" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2377" s="25"/>
+      <c r="F2377" s="25"/>
+      <c r="G2377" s="26">
+        <v>6</v>
+      </c>
+      <c r="H2377" s="25"/>
+    </row>
+    <row r="2378" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2378" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2378" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2378" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2378" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2378" s="25"/>
+      <c r="F2378" s="25"/>
+      <c r="G2378" s="26">
+        <v>9</v>
+      </c>
+      <c r="H2378" s="25"/>
+    </row>
+    <row r="2379" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2379" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2379" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2379" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2379" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2379" s="25"/>
+      <c r="F2379" s="25"/>
+      <c r="G2379" s="26"/>
+      <c r="H2379" s="25"/>
+    </row>
+    <row r="2380" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2380" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2380" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2380" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2380" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2380" s="25"/>
+      <c r="F2380" s="25"/>
+      <c r="G2380" s="26"/>
+      <c r="H2380" s="25"/>
+    </row>
+    <row r="2381" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2381" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2381" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2381" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2381" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2381" s="25"/>
+      <c r="F2381" s="25"/>
+      <c r="G2381" s="26">
+        <v>9</v>
+      </c>
+      <c r="H2381" s="25"/>
+    </row>
+    <row r="2382" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2382" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2382" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2382" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2382" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2382" s="25"/>
+      <c r="F2382" s="25"/>
+      <c r="G2382" s="26"/>
+      <c r="H2382" s="25"/>
+    </row>
+    <row r="2383" spans="1:8" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2383" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2383" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="C2383" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2383" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2383" s="25"/>
+      <c r="F2383" s="25"/>
+      <c r="G2383" s="26">
+        <v>12</v>
+      </c>
+      <c r="H2383" s="25"/>
+    </row>
+    <row r="2384" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2384" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2384" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2384" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2384" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2384" s="25"/>
+      <c r="F2384" s="25"/>
+      <c r="G2384" s="26"/>
+      <c r="H2384" s="25"/>
+    </row>
+    <row r="2385" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2385" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2385" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2385" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2385" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2385" s="25"/>
+      <c r="F2385" s="25"/>
+      <c r="G2385" s="26"/>
+      <c r="H2385" s="25"/>
+    </row>
+    <row r="2386" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2386" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2386" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2386" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2386" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2386" s="25"/>
+      <c r="F2386" s="25">
+        <v>60</v>
+      </c>
+      <c r="G2386" s="26"/>
+      <c r="H2386" s="25"/>
+    </row>
+    <row r="2387" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2387" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2387" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2387" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2387" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2387" s="25"/>
+      <c r="F2387" s="25"/>
+      <c r="G2387" s="26"/>
+      <c r="H2387" s="25"/>
+    </row>
+    <row r="2388" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2388" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2388" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2388" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2388" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2388" s="25"/>
+      <c r="F2388" s="25"/>
+      <c r="G2388" s="26"/>
+      <c r="H2388" s="25"/>
+    </row>
+    <row r="2389" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2389" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2389" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2389" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2389" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2389" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2389" s="25"/>
+      <c r="G2389" s="26"/>
+      <c r="H2389" s="25"/>
+    </row>
+    <row r="2390" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2390" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2390" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2390" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2390" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2390" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2390" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2390" s="26"/>
+      <c r="H2390" s="29" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2391" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2391" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2391" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2391" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2391" s="25"/>
+      <c r="F2391" s="25"/>
+      <c r="G2391" s="26"/>
+      <c r="H2391" s="25"/>
+    </row>
+    <row r="2392" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2392" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2392" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2392" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2392" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2392" s="25"/>
+      <c r="F2392" s="25"/>
+      <c r="G2392" s="26"/>
+      <c r="H2392" s="25"/>
+    </row>
+    <row r="2393" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2393" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2393" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2393" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2393" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2393" s="25"/>
+      <c r="F2393" s="25"/>
+      <c r="G2393" s="26"/>
+      <c r="H2393" s="25"/>
+    </row>
+    <row r="2394" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2394" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2394" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2394" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2394" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2394" s="25"/>
+      <c r="F2394" s="25"/>
+      <c r="G2394" s="26"/>
+      <c r="H2394" s="25"/>
+    </row>
+    <row r="2395" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2395" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2395" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2395" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2395" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2395" s="25"/>
+      <c r="F2395" s="25"/>
+      <c r="G2395" s="26"/>
+      <c r="H2395" s="25"/>
+    </row>
+    <row r="2396" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2396" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2396" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2396" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2396" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2396" s="25"/>
+      <c r="F2396" s="25"/>
+      <c r="G2396" s="26"/>
+      <c r="H2396" s="25"/>
+    </row>
+    <row r="2397" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2397" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2397" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2397" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2397" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2397" s="25"/>
+      <c r="F2397" s="25"/>
+      <c r="G2397" s="26"/>
+      <c r="H2397" s="25"/>
+    </row>
+    <row r="2398" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2398" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2398" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2398" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2398" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2398" s="25"/>
+      <c r="F2398" s="25"/>
+      <c r="G2398" s="26"/>
+      <c r="H2398" s="25"/>
+    </row>
+    <row r="2399" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2399" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2399" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2399" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2399" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2399" s="25"/>
+      <c r="F2399" s="25"/>
+      <c r="G2399" s="26"/>
+      <c r="H2399" s="25"/>
+    </row>
+    <row r="2400" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2400" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2400" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2400" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2400" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2400" s="25"/>
+      <c r="F2400" s="25"/>
+      <c r="G2400" s="26"/>
+      <c r="H2400" s="25"/>
+    </row>
+    <row r="2401" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2401" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2401" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2401" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2401" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2401" s="25"/>
+      <c r="F2401" s="25"/>
+      <c r="G2401" s="26"/>
+      <c r="H2401" s="25"/>
+    </row>
+    <row r="2402" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2402" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2402" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2402" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2402" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2402" s="25"/>
+      <c r="F2402" s="25"/>
+      <c r="G2402" s="26"/>
+      <c r="H2402" s="25"/>
+    </row>
+    <row r="2403" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2403" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2403" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2403" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2403" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2403" s="25"/>
+      <c r="F2403" s="25"/>
+      <c r="G2403" s="26"/>
+      <c r="H2403" s="26"/>
+    </row>
+    <row r="2404" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2404" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2404" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2404" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2404" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2404" s="25"/>
+      <c r="F2404" s="25"/>
+      <c r="G2404" s="26"/>
+      <c r="H2404" s="25"/>
+    </row>
+    <row r="2405" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2405" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2405" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2405" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2405" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2405" s="25"/>
+      <c r="F2405" s="25"/>
+      <c r="G2405" s="26"/>
+      <c r="H2405" s="25"/>
+    </row>
+    <row r="2406" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2406" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2406" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="C2406" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2406" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2406" s="25"/>
+      <c r="F2406" s="25"/>
+      <c r="G2406" s="26"/>
+    </row>
+    <row r="2407" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2407" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2407" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2407" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2407" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2407" s="25"/>
+      <c r="F2407" s="25"/>
+      <c r="G2407" s="26"/>
+      <c r="H2407" s="25"/>
+    </row>
+    <row r="2408" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2408" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2408" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2408" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2408" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2408" s="25"/>
+      <c r="F2408" s="25"/>
+      <c r="G2408" s="26"/>
+      <c r="H2408" s="25"/>
+    </row>
+    <row r="2409" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2409" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2409" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="C2409" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2409" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2409" s="25"/>
+      <c r="F2409" s="25"/>
+      <c r="G2409" s="26"/>
+      <c r="H2409" s="25"/>
+    </row>
+    <row r="2410" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2410" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2410" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2410" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2410" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2410" s="25"/>
+      <c r="F2410" s="25"/>
+      <c r="G2410" s="26"/>
+      <c r="H2410" s="25"/>
+    </row>
+    <row r="2411" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2411" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2411" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2411" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2411" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2411" s="25"/>
+      <c r="F2411" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2411" s="26"/>
+      <c r="H2411" s="25"/>
+    </row>
+    <row r="2412" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2412" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2412" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2412" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2412" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2412" s="25"/>
+      <c r="F2412" s="25"/>
+      <c r="G2412" s="26"/>
+      <c r="H2412" s="25"/>
+    </row>
+    <row r="2413" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2413" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2413" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2413" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2413" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2413" s="25"/>
+      <c r="F2413" s="24"/>
+      <c r="G2413" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2413" s="25"/>
+    </row>
+    <row r="2414" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2414" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2414" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2414" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2414" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2414" s="25"/>
+      <c r="F2414" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2414" s="26"/>
+      <c r="H2414" s="25"/>
+    </row>
+    <row r="2415" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2415" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2415" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2415" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2415" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2415" s="25"/>
+      <c r="F2415" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2415" s="26"/>
+      <c r="H2415" s="25"/>
+    </row>
+    <row r="2416" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2416" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2416" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2416" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2416" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2416" s="25"/>
+      <c r="F2416" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2416" s="26"/>
+      <c r="H2416" s="25"/>
+    </row>
+    <row r="2417" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2417" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2417" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2417" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2417" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2417" s="25"/>
+      <c r="F2417" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="G2417" s="26"/>
+      <c r="H2417" s="25"/>
+    </row>
+    <row r="2418" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2418" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2418" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2418" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2418" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2418" s="25"/>
+      <c r="F2418" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2418" s="26"/>
+      <c r="H2418" s="25"/>
+    </row>
+    <row r="2419" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2419" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2419" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2419" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2419" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2419" s="25"/>
+      <c r="F2419" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2419" s="26"/>
+      <c r="H2419" s="25"/>
+    </row>
+    <row r="2420" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2420" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2420" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2420" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2420" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2420" s="25"/>
+      <c r="F2420" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2420" s="26"/>
+      <c r="H2420" s="25"/>
+    </row>
+    <row r="2421" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2421" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2421" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2421" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2421" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2421" s="25"/>
+      <c r="F2421" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2421" s="26"/>
+      <c r="H2421" s="25"/>
+    </row>
+    <row r="2422" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2422" s="27">
+        <v>61</v>
+      </c>
+      <c r="B2422" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2422" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2422" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2422" s="25"/>
+      <c r="F2422" s="25"/>
+      <c r="G2422" s="26"/>
+      <c r="H2422" s="25"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1572:D1580 D1541:D1547 D1569:D1570 D1982:D2015 D1805:D1816 D1663:D1664 D1585:D1586 D1666:D1685 D1624:D1625 D1743:D1744 D1608:D1619 D1647:D1658 D1704:D1705 D1761:D1762 D1782:D1783 D1764:D1777 D1821:D1822 D1588:D1605 D1627:D1644 D1689:D1699 D1707:D1724 D1727:D1738 D1746:D1756 D1785:D1802 D1824:D1841 D1844:D1855 D1860:D1861 D1863:D1880 D1883:D1894 D1899:D1900 D1902:D1919 D1922:D1933 D1938:D1939 D1941:D1974 D1979:D1980 D1555:D1564">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D608:D609 D271:D272 D324:D325 D381:D382 D424:D425 D471:D472 D518:D519 D561:D562 D267:D268 D327:D328 D427:D428 D474:D475 D564:D565 D604:D605 D320:D321 D377:D378 D420:D421 D467:D468 D514:D515 D557:D558 D2:D262 D649:D650 D694:D695 D622:D623 D739:D740 D1002:D1039 D784:D785 D1229:D1262 D829:D830 D1047:D1084 D876:D877 D917:D918 D958:D959 D1044:D1045 D1089:D1090 D879:D912 D1134:D1135 D1179:D1180 D1352:D1385 D1226:D1227 D652:D689 D1267:D1268 D1308:D1309 D1349:D1350 D920:D953 D697:D734 D742:D779 D787:D824 D1270:D1303 D832:D871 D1092:D1129 D1137:D1174 D1182:D1221 D961:D994 D1390:D1391 D1311:D1344 D999:D1000 D1393:D1429 D1434:D1435 D1477:D1492 D1474:D1475 D1437:D1469 D1500:D1504 D1497:D1498 D1513:D1520 D1510:D1511 D1525:D1526 D1538:D1539 D1528:D1533 D1552:D1553 D1572:D1580 D1541:D1547 D1569:D1570 D1982:D2422 D1805:D1816 D1663:D1664 D1585:D1586 D1666:D1685 D1624:D1625 D1743:D1744 D1608:D1619 D1647:D1658 D1704:D1705 D1761:D1762 D1782:D1783 D1764:D1777 D1821:D1822 D1588:D1605 D1627:D1644 D1689:D1699 D1707:D1724 D1727:D1738 D1746:D1756 D1785:D1802 D1824:D1841 D1844:D1855 D1860:D1861 D1863:D1880 D1883:D1894 D1899:D1900 D1902:D1919 D1922:D1933 D1938:D1939 D1941:D1974 D1979:D1980 D1555:D1564">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4210">
@@ -42493,7 +50161,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8950" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8951" uniqueCount="820">
   <si>
     <t>ID</t>
   </si>
@@ -3566,8 +3566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3614,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="25"/>
     </row>
@@ -3651,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="25"/>
     </row>
@@ -3669,7 +3669,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="6"/>
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="6"/>
@@ -3707,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="6"/>
@@ -3726,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -3762,7 +3762,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -3780,7 +3780,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -3798,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -3817,7 +3817,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13"/>
     </row>
@@ -3835,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -3853,7 +3853,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -3871,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="25"/>
     </row>
@@ -3907,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4011,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4045,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4096,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4164,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4181,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4215,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4232,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4283,7 +4283,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4300,7 +4300,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -4351,7 +4351,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -4385,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4402,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4419,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4436,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4453,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4487,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4659,8 +4659,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2377" workbookViewId="0">
-      <selection activeCell="D2386" sqref="D2386"/>
+    <sheetView topLeftCell="A2395" workbookViewId="0">
+      <selection activeCell="H2150" sqref="H2150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41808,7 +41808,9 @@
       <c r="G1977" s="26">
         <v>13</v>
       </c>
-      <c r="H1977" s="25"/>
+      <c r="H1977" s="29" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="1978" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1978" s="27">
@@ -42586,7 +42588,6 @@
       <c r="G2018" s="26">
         <v>20</v>
       </c>
-      <c r="H2018" s="25"/>
     </row>
     <row r="2019" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2019" s="27">
@@ -45045,9 +45046,6 @@
       <c r="G2150" s="26">
         <v>9</v>
       </c>
-      <c r="H2150" s="29" t="s">
-        <v>800</v>
-      </c>
     </row>
     <row r="2151" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2151" s="27">
@@ -49302,7 +49300,9 @@
       <c r="G2378" s="26">
         <v>9</v>
       </c>
-      <c r="H2378" s="25"/>
+      <c r="H2378" s="29" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="2379" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2379" s="27">

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3566,8 +3566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B62"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4500,7 +4500,9 @@
       <c r="C53" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="25">
+        <v>4</v>
+      </c>
       <c r="E53" s="25" t="b">
         <v>1</v>
       </c>
@@ -4515,7 +4517,9 @@
       <c r="C54" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="D54" s="25"/>
+      <c r="D54" s="25">
+        <v>8</v>
+      </c>
       <c r="E54" s="25" t="b">
         <v>1</v>
       </c>
@@ -4530,7 +4534,9 @@
       <c r="C55" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="25">
+        <v>8</v>
+      </c>
       <c r="E55" s="25" t="b">
         <v>1</v>
       </c>
@@ -4545,7 +4551,9 @@
       <c r="C56" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="25">
+        <v>5</v>
+      </c>
       <c r="E56" s="25" t="b">
         <v>1</v>
       </c>
@@ -4560,7 +4568,9 @@
       <c r="C57" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="25">
+        <v>6</v>
+      </c>
       <c r="E57" s="25" t="b">
         <v>1</v>
       </c>
@@ -4575,7 +4585,9 @@
       <c r="C58" s="25" t="s">
         <v>716</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="25">
+        <v>8</v>
+      </c>
       <c r="E58" s="25" t="b">
         <v>1</v>
       </c>
@@ -4590,7 +4602,9 @@
       <c r="C59" s="25" t="s">
         <v>718</v>
       </c>
-      <c r="D59" s="25"/>
+      <c r="D59" s="25">
+        <v>8</v>
+      </c>
       <c r="E59" s="25" t="b">
         <v>1</v>
       </c>
@@ -4605,7 +4619,9 @@
       <c r="C60" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="25">
+        <v>8</v>
+      </c>
       <c r="E60" s="25" t="b">
         <v>1</v>
       </c>
@@ -4620,7 +4636,9 @@
       <c r="C61" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="D61" s="25"/>
+      <c r="D61" s="25">
+        <v>8</v>
+      </c>
       <c r="E61" s="25" t="b">
         <v>1</v>
       </c>
@@ -4635,7 +4653,9 @@
       <c r="C62" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="D62" s="25"/>
+      <c r="D62" s="25">
+        <v>6</v>
+      </c>
       <c r="E62" s="25" t="b">
         <v>1</v>
       </c>
@@ -4659,8 +4679,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2422"/>
   <sheetViews>
-    <sheetView topLeftCell="A2395" workbookViewId="0">
-      <selection activeCell="H2150" sqref="H2150"/>
+    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
+      <selection activeCell="G2400" sqref="G2400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3566,8 +3566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4679,7 +4679,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2311" workbookViewId="0">
       <selection activeCell="G2400" sqref="G2400"/>
     </sheetView>
   </sheetViews>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3566,8 +3566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,7 +3616,7 @@
       <c r="E2" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2"/>
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4679,8 +4679,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2311" workbookViewId="0">
-      <selection activeCell="G2400" sqref="G2400"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2323" sqref="D2323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3566,8 +3566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,7 +3616,7 @@
       <c r="E2" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2"/>
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4679,8 +4679,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
-      <selection activeCell="G2400" sqref="G2400"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2323" sqref="D2323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -3599,7 +3599,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E62"/>
+      <selection activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9234" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9280" uniqueCount="858">
   <si>
     <t>ID</t>
   </si>
@@ -2690,6 +2690,96 @@
   </si>
   <si>
     <t>Notes DISABLED</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1484</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1485</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1485</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1486</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1487</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1488</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1486</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1487</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1488</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1489</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1490</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1489</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1490</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1491</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1491</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1492</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1493</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1492</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1493</t>
+  </si>
+  <si>
+    <t>CHECK DISABLED: DE1494</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1494</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1495</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1496</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1497</t>
+  </si>
+  <si>
+    <t>Notes DISABLED | CHECK DISABLED: DE1498</t>
+  </si>
+  <si>
+    <t>DE1803, US2049 filed</t>
+  </si>
+  <si>
+    <t>US1764 | Manual Mode - DE1852</t>
+  </si>
+  <si>
+    <t>DE1867 | Notes Disabled</t>
+  </si>
+  <si>
+    <t>Manual Mode - DE1852 | Notes Disabled</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2908,6 +2998,18 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3598,8 +3700,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3609,7 +3711,8 @@
     <col min="3" max="3" width="68" style="13" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="6.21875" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" style="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.77734375" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3631,6 +3734,9 @@
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="44" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
@@ -3649,7 +3755,9 @@
         <v>1</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="45" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
@@ -3668,6 +3776,9 @@
         <v>1</v>
       </c>
       <c r="F3" s="25"/>
+      <c r="G3" s="45" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -3686,6 +3797,9 @@
         <v>1</v>
       </c>
       <c r="F4" s="25"/>
+      <c r="G4" s="46" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
@@ -3704,7 +3818,9 @@
         <v>1</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="46" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
@@ -3723,7 +3839,9 @@
         <v>1</v>
       </c>
       <c r="F6" s="25"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="46" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
@@ -3742,7 +3860,9 @@
         <v>1</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="46" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
@@ -3761,6 +3881,9 @@
         <v>1</v>
       </c>
       <c r="F8" s="25"/>
+      <c r="G8" s="46" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
@@ -3779,6 +3902,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="25"/>
+      <c r="G9" s="45" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
@@ -3797,6 +3923,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="25"/>
+      <c r="G10" s="45" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
@@ -3815,6 +3944,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="25"/>
+      <c r="G11" s="45" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
@@ -3833,7 +3965,9 @@
         <v>1</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="45" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
@@ -3852,6 +3986,9 @@
         <v>1</v>
       </c>
       <c r="F13"/>
+      <c r="G13" s="45" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
@@ -3870,6 +4007,9 @@
         <v>1</v>
       </c>
       <c r="F14" s="25"/>
+      <c r="G14" s="45" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
@@ -3888,6 +4028,9 @@
         <v>1</v>
       </c>
       <c r="F15" s="25"/>
+      <c r="G15" s="45" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
@@ -3906,8 +4049,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="46" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -3924,8 +4070,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="46" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -3942,8 +4091,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="46" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -3960,8 +4112,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="46" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -3977,8 +4132,11 @@
       <c r="E20" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="45" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -3994,8 +4152,11 @@
       <c r="E21" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="45" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -4011,8 +4172,11 @@
       <c r="E22" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="45" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -4028,8 +4192,11 @@
       <c r="E23" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="45" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -4045,8 +4212,11 @@
       <c r="E24" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="46" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -4062,8 +4232,11 @@
       <c r="E25" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="46" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -4079,8 +4252,11 @@
       <c r="E26" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="46" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -4096,8 +4272,11 @@
       <c r="E27" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="46" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="E28" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="45" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -4130,8 +4312,11 @@
       <c r="E29" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="45" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -4147,8 +4332,11 @@
       <c r="E30" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="45" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -4164,8 +4352,11 @@
       <c r="E31" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="45" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -4181,8 +4372,11 @@
       <c r="E32" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" s="45" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -4198,8 +4392,11 @@
       <c r="E33" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>33</v>
       </c>
@@ -4215,8 +4412,11 @@
       <c r="E34" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" s="42" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -4232,8 +4432,11 @@
       <c r="E35" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" s="42" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>35</v>
       </c>
@@ -4250,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -4266,8 +4469,11 @@
       <c r="E37" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" s="29" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>37</v>
       </c>
@@ -4284,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>38</v>
       </c>
@@ -4300,8 +4506,11 @@
       <c r="E39" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" s="46" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>39</v>
       </c>
@@ -4318,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>40</v>
       </c>
@@ -4335,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>41</v>
       </c>
@@ -4351,8 +4560,11 @@
       <c r="E42" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" s="42" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>42</v>
       </c>
@@ -4369,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>43</v>
       </c>
@@ -4386,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>44</v>
       </c>
@@ -4403,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>45</v>
       </c>
@@ -4420,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>46</v>
       </c>
@@ -4437,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>47</v>
       </c>
@@ -4454,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>48</v>
       </c>
@@ -4471,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>49</v>
       </c>
@@ -4488,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -4505,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>51</v>
       </c>
@@ -4521,8 +4733,11 @@
       <c r="E52" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="29" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>52</v>
       </c>
@@ -4538,8 +4753,11 @@
       <c r="E53" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" s="29" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>53</v>
       </c>
@@ -4556,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>54</v>
       </c>
@@ -4573,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>55</v>
       </c>
@@ -4589,8 +4807,11 @@
       <c r="E56" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" s="29" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>56</v>
       </c>
@@ -4607,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>57</v>
       </c>
@@ -4623,8 +4844,11 @@
       <c r="E58" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" s="29" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>58</v>
       </c>
@@ -4640,8 +4864,11 @@
       <c r="E59" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" s="43" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>59</v>
       </c>
@@ -4657,8 +4884,11 @@
       <c r="E60" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" s="43" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>60</v>
       </c>
@@ -4674,8 +4904,11 @@
       <c r="E61" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" s="43" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>61</v>
       </c>
@@ -4691,8 +4924,11 @@
       <c r="E62" s="25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" s="29" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4709,10 +4945,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M2441"/>
+  <dimension ref="A1:L2441"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2404" sqref="G2404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4728,7 +4964,7 @@
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +4990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4772,7 +5008,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4792,7 +5028,7 @@
       </c>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -4812,7 +5048,7 @@
       </c>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4830,7 +5066,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -4848,7 +5084,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -4868,7 +5104,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -4886,7 +5122,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -4904,7 +5140,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -4922,7 +5158,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -4940,7 +5176,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -4960,7 +5196,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -4978,7 +5214,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -4996,7 +5232,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -5016,7 +5252,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -5034,18 +5270,17 @@
         <v>1</v>
       </c>
       <c r="G16" s="26"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="43" t="s">
+      <c r="H16" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I16" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -5063,18 +5298,17 @@
         <v>1</v>
       </c>
       <c r="G17" s="26"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I17" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -5092,21 +5326,20 @@
         <v>1</v>
       </c>
       <c r="G18" s="26"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I18" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="L18" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -5124,7 +5357,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -5142,7 +5375,7 @@
       <c r="G20" s="26"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -5160,7 +5393,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -5178,7 +5411,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -5196,7 +5429,7 @@
       <c r="G23" s="26"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -5214,7 +5447,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -5232,7 +5465,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -5250,7 +5483,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -5268,7 +5501,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -5286,7 +5519,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -5304,7 +5537,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -5322,7 +5555,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -5340,7 +5573,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -5358,7 +5591,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -5376,7 +5609,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>1</v>
       </c>
@@ -5394,7 +5627,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -5412,7 +5645,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="25"/>
     </row>
-    <row r="36" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>1</v>
       </c>
@@ -5430,22 +5663,21 @@
         <v>1</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="43" t="s">
+      <c r="H36" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I36" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25" t="s">
+      <c r="K36" s="25"/>
+      <c r="L36" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>1</v>
       </c>
@@ -5463,7 +5695,7 @@
       <c r="G37" s="26"/>
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>1</v>
       </c>
@@ -5481,7 +5713,7 @@
       <c r="G38" s="26"/>
       <c r="H38" s="25"/>
     </row>
-    <row r="39" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -5503,7 +5735,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>1</v>
       </c>
@@ -5521,7 +5753,7 @@
       <c r="G40" s="26"/>
       <c r="H40" s="25"/>
     </row>
-    <row r="41" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>1</v>
       </c>
@@ -5539,7 +5771,7 @@
       <c r="G41" s="26"/>
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>1</v>
       </c>
@@ -5559,7 +5791,7 @@
       </c>
       <c r="H42" s="25"/>
     </row>
-    <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -5579,7 +5811,7 @@
       <c r="G43" s="26"/>
       <c r="H43" s="25"/>
     </row>
-    <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>1</v>
       </c>
@@ -5599,7 +5831,7 @@
       <c r="G44" s="26"/>
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -5619,7 +5851,7 @@
       <c r="G45" s="26"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>1</v>
       </c>
@@ -5639,7 +5871,7 @@
       <c r="G46" s="26"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>1</v>
       </c>
@@ -5659,7 +5891,7 @@
       <c r="G47" s="26"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -5679,7 +5911,7 @@
       <c r="G48" s="26"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>1</v>
       </c>
@@ -5699,7 +5931,7 @@
       <c r="G49" s="26"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -5719,7 +5951,7 @@
       <c r="G50" s="26"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>1</v>
       </c>
@@ -5737,7 +5969,7 @@
       <c r="G51" s="26"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>2</v>
       </c>
@@ -5755,7 +5987,7 @@
       <c r="G52" s="26"/>
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>2</v>
       </c>
@@ -5775,7 +6007,7 @@
       </c>
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27">
         <v>2</v>
       </c>
@@ -5795,7 +6027,7 @@
       </c>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <v>2</v>
       </c>
@@ -5813,7 +6045,7 @@
       <c r="G55" s="26"/>
       <c r="H55" s="25"/>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27">
         <v>2</v>
       </c>
@@ -5831,7 +6063,7 @@
       <c r="G56" s="26"/>
       <c r="H56" s="25"/>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27">
         <v>2</v>
       </c>
@@ -5851,7 +6083,7 @@
       </c>
       <c r="H57" s="25"/>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27">
         <v>2</v>
       </c>
@@ -5869,7 +6101,7 @@
       <c r="G58" s="26"/>
       <c r="H58" s="25"/>
     </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A59" s="27">
         <v>2</v>
       </c>
@@ -5889,7 +6121,7 @@
       </c>
       <c r="H59" s="25"/>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27">
         <v>2</v>
       </c>
@@ -5907,7 +6139,7 @@
       <c r="G60" s="26"/>
       <c r="H60" s="25"/>
     </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27">
         <v>2</v>
       </c>
@@ -5925,7 +6157,7 @@
       <c r="G61" s="26"/>
       <c r="H61" s="25"/>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27">
         <v>2</v>
       </c>
@@ -5945,7 +6177,7 @@
       <c r="G62" s="26"/>
       <c r="H62" s="25"/>
     </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27">
         <v>2</v>
       </c>
@@ -5963,18 +6195,17 @@
         <v>1</v>
       </c>
       <c r="G63" s="26"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="43" t="s">
+      <c r="H63" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I63" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J63" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27">
         <v>2</v>
       </c>
@@ -5992,18 +6223,17 @@
         <v>1</v>
       </c>
       <c r="G64" s="26"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="43" t="s">
+      <c r="H64" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I64" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27">
         <v>2</v>
       </c>
@@ -6021,21 +6251,20 @@
         <v>1</v>
       </c>
       <c r="G65" s="26"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="43" t="s">
+      <c r="H65" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I65" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M65" s="25" t="s">
+      <c r="L65" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27">
         <v>2</v>
       </c>
@@ -6053,7 +6282,7 @@
       <c r="G66" s="26"/>
       <c r="H66" s="25"/>
     </row>
-    <row r="67" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27">
         <v>2</v>
       </c>
@@ -6071,7 +6300,7 @@
       <c r="G67" s="26"/>
       <c r="H67" s="25"/>
     </row>
-    <row r="68" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27">
         <v>2</v>
       </c>
@@ -6089,7 +6318,7 @@
       <c r="G68" s="26"/>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27">
         <v>2</v>
       </c>
@@ -6107,7 +6336,7 @@
       <c r="G69" s="26"/>
       <c r="H69" s="25"/>
     </row>
-    <row r="70" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27">
         <v>2</v>
       </c>
@@ -6125,7 +6354,7 @@
       <c r="G70" s="26"/>
       <c r="H70" s="25"/>
     </row>
-    <row r="71" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27">
         <v>2</v>
       </c>
@@ -6143,7 +6372,7 @@
       <c r="G71" s="26"/>
       <c r="H71" s="25"/>
     </row>
-    <row r="72" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27">
         <v>2</v>
       </c>
@@ -6161,7 +6390,7 @@
       <c r="G72" s="26"/>
       <c r="H72" s="25"/>
     </row>
-    <row r="73" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27">
         <v>2</v>
       </c>
@@ -6179,7 +6408,7 @@
       <c r="G73" s="26"/>
       <c r="H73" s="25"/>
     </row>
-    <row r="74" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27">
         <v>2</v>
       </c>
@@ -6197,7 +6426,7 @@
       <c r="G74" s="26"/>
       <c r="H74" s="25"/>
     </row>
-    <row r="75" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27">
         <v>2</v>
       </c>
@@ -6215,7 +6444,7 @@
       <c r="G75" s="26"/>
       <c r="H75" s="25"/>
     </row>
-    <row r="76" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27">
         <v>2</v>
       </c>
@@ -6233,7 +6462,7 @@
       <c r="G76" s="26"/>
       <c r="H76" s="25"/>
     </row>
-    <row r="77" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27">
         <v>2</v>
       </c>
@@ -6251,7 +6480,7 @@
       <c r="G77" s="26"/>
       <c r="H77" s="25"/>
     </row>
-    <row r="78" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27">
         <v>2</v>
       </c>
@@ -6269,7 +6498,7 @@
       <c r="G78" s="26"/>
       <c r="H78" s="25"/>
     </row>
-    <row r="79" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27">
         <v>2</v>
       </c>
@@ -6287,7 +6516,7 @@
       <c r="G79" s="26"/>
       <c r="H79" s="25"/>
     </row>
-    <row r="80" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27">
         <v>2</v>
       </c>
@@ -6305,7 +6534,7 @@
       <c r="G80" s="26"/>
       <c r="H80" s="25"/>
     </row>
-    <row r="81" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27">
         <v>2</v>
       </c>
@@ -6323,7 +6552,7 @@
       <c r="G81" s="26"/>
       <c r="H81" s="25"/>
     </row>
-    <row r="82" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="27">
         <v>2</v>
       </c>
@@ -6341,7 +6570,7 @@
       <c r="G82" s="26"/>
       <c r="H82" s="25"/>
     </row>
-    <row r="83" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27">
         <v>2</v>
       </c>
@@ -6363,7 +6592,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="27">
         <v>2</v>
       </c>
@@ -6381,7 +6610,7 @@
       <c r="G84" s="26"/>
       <c r="H84" s="25"/>
     </row>
-    <row r="85" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="27">
         <v>2</v>
       </c>
@@ -6399,7 +6628,7 @@
       <c r="G85" s="26"/>
       <c r="H85" s="25"/>
     </row>
-    <row r="86" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="27">
         <v>2</v>
       </c>
@@ -6417,7 +6646,7 @@
       <c r="G86" s="26"/>
       <c r="H86" s="25"/>
     </row>
-    <row r="87" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="27">
         <v>2</v>
       </c>
@@ -6435,22 +6664,21 @@
         <v>1</v>
       </c>
       <c r="G87" s="26"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="43" t="s">
+      <c r="H87" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I87" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J87" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K87" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25" t="s">
+      <c r="K87" s="25"/>
+      <c r="L87" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27">
         <v>2</v>
       </c>
@@ -6468,7 +6696,7 @@
       <c r="G88" s="26"/>
       <c r="H88" s="25"/>
     </row>
-    <row r="89" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="27">
         <v>2</v>
       </c>
@@ -6486,7 +6714,7 @@
       <c r="G89" s="26"/>
       <c r="H89" s="25"/>
     </row>
-    <row r="90" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27">
         <v>2</v>
       </c>
@@ -6506,7 +6734,7 @@
       </c>
       <c r="H90" s="25"/>
     </row>
-    <row r="91" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27">
         <v>2</v>
       </c>
@@ -6526,7 +6754,7 @@
       <c r="G91" s="26"/>
       <c r="H91" s="25"/>
     </row>
-    <row r="92" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="27">
         <v>2</v>
       </c>
@@ -6546,7 +6774,7 @@
       <c r="G92" s="26"/>
       <c r="H92" s="25"/>
     </row>
-    <row r="93" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27">
         <v>2</v>
       </c>
@@ -6566,7 +6794,7 @@
       <c r="G93" s="26"/>
       <c r="H93" s="25"/>
     </row>
-    <row r="94" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27">
         <v>2</v>
       </c>
@@ -6586,7 +6814,7 @@
       <c r="G94" s="26"/>
       <c r="H94" s="25"/>
     </row>
-    <row r="95" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27">
         <v>2</v>
       </c>
@@ -6606,7 +6834,7 @@
       <c r="G95" s="26"/>
       <c r="H95" s="25"/>
     </row>
-    <row r="96" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27">
         <v>2</v>
       </c>
@@ -10824,7 +11052,7 @@
       <c r="G320" s="26"/>
       <c r="H320" s="25"/>
     </row>
-    <row r="321" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="27">
         <v>8</v>
       </c>
@@ -10842,7 +11070,7 @@
       <c r="G321" s="26"/>
       <c r="H321" s="25"/>
     </row>
-    <row r="322" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="27">
         <v>8</v>
       </c>
@@ -10862,7 +11090,7 @@
       </c>
       <c r="H322" s="25"/>
     </row>
-    <row r="323" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="27">
         <v>8</v>
       </c>
@@ -10882,7 +11110,7 @@
       </c>
       <c r="H323" s="25"/>
     </row>
-    <row r="324" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="27">
         <v>8</v>
       </c>
@@ -10900,7 +11128,7 @@
       <c r="G324" s="26"/>
       <c r="H324" s="25"/>
     </row>
-    <row r="325" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="27">
         <v>8</v>
       </c>
@@ -10918,7 +11146,7 @@
       <c r="G325" s="26"/>
       <c r="H325" s="25"/>
     </row>
-    <row r="326" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="27">
         <v>8</v>
       </c>
@@ -10938,7 +11166,7 @@
       </c>
       <c r="H326" s="25"/>
     </row>
-    <row r="327" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="27">
         <v>8</v>
       </c>
@@ -10956,7 +11184,7 @@
       <c r="G327" s="26"/>
       <c r="H327" s="25"/>
     </row>
-    <row r="328" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A328" s="27">
         <v>8</v>
       </c>
@@ -10976,7 +11204,7 @@
       </c>
       <c r="H328" s="25"/>
     </row>
-    <row r="329" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="27">
         <v>8</v>
       </c>
@@ -10994,7 +11222,7 @@
       <c r="G329" s="26"/>
       <c r="H329" s="25"/>
     </row>
-    <row r="330" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="27">
         <v>8</v>
       </c>
@@ -11012,7 +11240,7 @@
       <c r="G330" s="26"/>
       <c r="H330" s="25"/>
     </row>
-    <row r="331" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="27">
         <v>8</v>
       </c>
@@ -11032,7 +11260,7 @@
       <c r="G331" s="26"/>
       <c r="H331" s="25"/>
     </row>
-    <row r="332" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="27">
         <v>8</v>
       </c>
@@ -11050,18 +11278,17 @@
         <v>1</v>
       </c>
       <c r="G332" s="26"/>
-      <c r="H332" s="25"/>
-      <c r="I332" s="43" t="s">
+      <c r="H332" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I332" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J332" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K332" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="333" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="27">
         <v>8</v>
       </c>
@@ -11079,18 +11306,17 @@
         <v>1</v>
       </c>
       <c r="G333" s="26"/>
-      <c r="H333" s="25"/>
-      <c r="I333" s="43" t="s">
+      <c r="H333" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I333" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J333" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K333" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="27">
         <v>8</v>
       </c>
@@ -11108,21 +11334,20 @@
         <v>1</v>
       </c>
       <c r="G334" s="26"/>
-      <c r="H334" s="25"/>
-      <c r="I334" s="43" t="s">
+      <c r="H334" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I334" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J334" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K334" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M334" s="25" t="s">
+      <c r="L334" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="335" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="27">
         <v>8</v>
       </c>
@@ -11140,7 +11365,7 @@
       <c r="G335" s="26"/>
       <c r="H335" s="25"/>
     </row>
-    <row r="336" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="27">
         <v>8</v>
       </c>
@@ -11446,7 +11671,7 @@
       <c r="G352" s="26"/>
       <c r="H352" s="25"/>
     </row>
-    <row r="353" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="27">
         <v>8</v>
       </c>
@@ -11464,7 +11689,7 @@
       <c r="G353" s="26"/>
       <c r="H353" s="25"/>
     </row>
-    <row r="354" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="27">
         <v>8</v>
       </c>
@@ -11482,7 +11707,7 @@
       <c r="G354" s="26"/>
       <c r="H354" s="25"/>
     </row>
-    <row r="355" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="27">
         <v>8</v>
       </c>
@@ -11500,7 +11725,7 @@
       <c r="G355" s="26"/>
       <c r="H355" s="25"/>
     </row>
-    <row r="356" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="27">
         <v>8</v>
       </c>
@@ -11518,7 +11743,7 @@
       <c r="G356" s="26"/>
       <c r="H356" s="25"/>
     </row>
-    <row r="357" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="27">
         <v>8</v>
       </c>
@@ -11536,7 +11761,7 @@
       <c r="G357" s="26"/>
       <c r="H357" s="25"/>
     </row>
-    <row r="358" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="27">
         <v>8</v>
       </c>
@@ -11554,7 +11779,7 @@
       <c r="G358" s="26"/>
       <c r="H358" s="25"/>
     </row>
-    <row r="359" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="27">
         <v>8</v>
       </c>
@@ -11572,7 +11797,7 @@
       <c r="G359" s="26"/>
       <c r="H359" s="25"/>
     </row>
-    <row r="360" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="27">
         <v>8</v>
       </c>
@@ -11590,7 +11815,7 @@
       <c r="G360" s="26"/>
       <c r="H360" s="25"/>
     </row>
-    <row r="361" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="27">
         <v>8</v>
       </c>
@@ -11608,7 +11833,7 @@
       <c r="G361" s="26"/>
       <c r="H361" s="25"/>
     </row>
-    <row r="362" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="27">
         <v>8</v>
       </c>
@@ -11630,7 +11855,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="27">
         <v>8</v>
       </c>
@@ -11648,7 +11873,7 @@
       <c r="G363" s="26"/>
       <c r="H363" s="25"/>
     </row>
-    <row r="364" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="27">
         <v>8</v>
       </c>
@@ -11666,7 +11891,7 @@
       <c r="G364" s="26"/>
       <c r="H364" s="25"/>
     </row>
-    <row r="365" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="27">
         <v>8</v>
       </c>
@@ -11684,7 +11909,7 @@
       <c r="G365" s="26"/>
       <c r="H365" s="25"/>
     </row>
-    <row r="366" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="27">
         <v>8</v>
       </c>
@@ -11702,22 +11927,21 @@
         <v>1</v>
       </c>
       <c r="G366" s="26"/>
-      <c r="H366" s="25"/>
-      <c r="I366" s="43" t="s">
+      <c r="H366" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I366" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J366" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K366" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L366" s="25"/>
-      <c r="M366" s="25" t="s">
+      <c r="K366" s="25"/>
+      <c r="L366" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="367" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="27">
         <v>8</v>
       </c>
@@ -11735,7 +11959,7 @@
       <c r="G367" s="26"/>
       <c r="H367" s="25"/>
     </row>
-    <row r="368" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="27">
         <v>8</v>
       </c>
@@ -12359,7 +12583,7 @@
       <c r="G400" s="26"/>
       <c r="H400" s="25"/>
     </row>
-    <row r="401" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="27">
         <v>9</v>
       </c>
@@ -12377,7 +12601,7 @@
       <c r="G401" s="26"/>
       <c r="H401" s="25"/>
     </row>
-    <row r="402" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="27">
         <v>9</v>
       </c>
@@ -12395,7 +12619,7 @@
       <c r="G402" s="26"/>
       <c r="H402" s="25"/>
     </row>
-    <row r="403" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="27">
         <v>9</v>
       </c>
@@ -12413,7 +12637,7 @@
       <c r="G403" s="26"/>
       <c r="H403" s="25"/>
     </row>
-    <row r="404" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="27">
         <v>9</v>
       </c>
@@ -12431,7 +12655,7 @@
       <c r="G404" s="26"/>
       <c r="H404" s="25"/>
     </row>
-    <row r="405" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="27">
         <v>9</v>
       </c>
@@ -12449,7 +12673,7 @@
       <c r="G405" s="26"/>
       <c r="H405" s="25"/>
     </row>
-    <row r="406" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="27">
         <v>9</v>
       </c>
@@ -12471,7 +12695,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="407" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="27">
         <v>9</v>
       </c>
@@ -12489,7 +12713,7 @@
       <c r="G407" s="26"/>
       <c r="H407" s="25"/>
     </row>
-    <row r="408" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="27">
         <v>9</v>
       </c>
@@ -12507,7 +12731,7 @@
       <c r="G408" s="26"/>
       <c r="H408" s="25"/>
     </row>
-    <row r="409" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="27">
         <v>9</v>
       </c>
@@ -12525,7 +12749,7 @@
       <c r="G409" s="26"/>
       <c r="H409" s="25"/>
     </row>
-    <row r="410" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="27">
         <v>9</v>
       </c>
@@ -12543,22 +12767,21 @@
         <v>1</v>
       </c>
       <c r="G410" s="26"/>
-      <c r="H410" s="25"/>
-      <c r="I410" s="43" t="s">
+      <c r="H410" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I410" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J410" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K410" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L410" s="25"/>
-      <c r="M410" s="25" t="s">
+      <c r="K410" s="25"/>
+      <c r="L410" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="411" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="27">
         <v>9</v>
       </c>
@@ -12576,7 +12799,7 @@
       <c r="G411" s="26"/>
       <c r="H411" s="25"/>
     </row>
-    <row r="412" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="27">
         <v>9</v>
       </c>
@@ -12596,7 +12819,7 @@
       </c>
       <c r="H412" s="25"/>
     </row>
-    <row r="413" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="27">
         <v>9</v>
       </c>
@@ -12616,7 +12839,7 @@
       <c r="G413" s="26"/>
       <c r="H413" s="25"/>
     </row>
-    <row r="414" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="27">
         <v>9</v>
       </c>
@@ -12636,7 +12859,7 @@
       <c r="G414" s="26"/>
       <c r="H414" s="25"/>
     </row>
-    <row r="415" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="27">
         <v>9</v>
       </c>
@@ -12656,7 +12879,7 @@
       <c r="G415" s="26"/>
       <c r="H415" s="25"/>
     </row>
-    <row r="416" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="27">
         <v>9</v>
       </c>
@@ -12982,7 +13205,7 @@
       <c r="G432" s="26"/>
       <c r="H432" s="25"/>
     </row>
-    <row r="433" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="27">
         <v>10</v>
       </c>
@@ -13000,18 +13223,17 @@
         <v>1</v>
       </c>
       <c r="G433" s="26"/>
-      <c r="H433" s="25"/>
-      <c r="I433" s="43" t="s">
+      <c r="H433" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I433" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J433" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K433" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="434" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="27">
         <v>10</v>
       </c>
@@ -13029,18 +13251,17 @@
         <v>1</v>
       </c>
       <c r="G434" s="26"/>
-      <c r="H434" s="25"/>
-      <c r="I434" s="43" t="s">
+      <c r="H434" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I434" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J434" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K434" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="435" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="27">
         <v>10</v>
       </c>
@@ -13058,21 +13279,20 @@
         <v>1</v>
       </c>
       <c r="G435" s="26"/>
-      <c r="H435" s="25"/>
-      <c r="I435" s="43" t="s">
+      <c r="H435" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I435" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J435" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K435" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M435" s="25" t="s">
+      <c r="L435" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="436" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="27">
         <v>10</v>
       </c>
@@ -13090,7 +13310,7 @@
       <c r="G436" s="26"/>
       <c r="H436" s="25"/>
     </row>
-    <row r="437" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="27">
         <v>10</v>
       </c>
@@ -13108,7 +13328,7 @@
       <c r="G437" s="26"/>
       <c r="H437" s="25"/>
     </row>
-    <row r="438" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="27">
         <v>10</v>
       </c>
@@ -13126,7 +13346,7 @@
       <c r="G438" s="26"/>
       <c r="H438" s="25"/>
     </row>
-    <row r="439" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="27">
         <v>10</v>
       </c>
@@ -13144,7 +13364,7 @@
       <c r="G439" s="26"/>
       <c r="H439" s="25"/>
     </row>
-    <row r="440" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="27">
         <v>10</v>
       </c>
@@ -13162,7 +13382,7 @@
       <c r="G440" s="26"/>
       <c r="H440" s="25"/>
     </row>
-    <row r="441" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="27">
         <v>10</v>
       </c>
@@ -13180,7 +13400,7 @@
       <c r="G441" s="26"/>
       <c r="H441" s="25"/>
     </row>
-    <row r="442" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="27">
         <v>10</v>
       </c>
@@ -13198,7 +13418,7 @@
       <c r="G442" s="26"/>
       <c r="H442" s="25"/>
     </row>
-    <row r="443" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="27">
         <v>10</v>
       </c>
@@ -13216,7 +13436,7 @@
       <c r="G443" s="26"/>
       <c r="H443" s="25"/>
     </row>
-    <row r="444" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="27">
         <v>10</v>
       </c>
@@ -13234,7 +13454,7 @@
       <c r="G444" s="26"/>
       <c r="H444" s="25"/>
     </row>
-    <row r="445" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="27">
         <v>10</v>
       </c>
@@ -13252,7 +13472,7 @@
       <c r="G445" s="26"/>
       <c r="H445" s="25"/>
     </row>
-    <row r="446" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="27">
         <v>10</v>
       </c>
@@ -13270,7 +13490,7 @@
       <c r="G446" s="26"/>
       <c r="H446" s="25"/>
     </row>
-    <row r="447" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="27">
         <v>10</v>
       </c>
@@ -13288,7 +13508,7 @@
       <c r="G447" s="26"/>
       <c r="H447" s="25"/>
     </row>
-    <row r="448" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="27">
         <v>10</v>
       </c>
@@ -13306,7 +13526,7 @@
       <c r="G448" s="26"/>
       <c r="H448" s="25"/>
     </row>
-    <row r="449" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="27">
         <v>10</v>
       </c>
@@ -13324,7 +13544,7 @@
       <c r="G449" s="26"/>
       <c r="H449" s="25"/>
     </row>
-    <row r="450" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="27">
         <v>10</v>
       </c>
@@ -13342,7 +13562,7 @@
       <c r="G450" s="26"/>
       <c r="H450" s="25"/>
     </row>
-    <row r="451" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="27">
         <v>10</v>
       </c>
@@ -13360,7 +13580,7 @@
       <c r="G451" s="26"/>
       <c r="H451" s="25"/>
     </row>
-    <row r="452" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="27">
         <v>10</v>
       </c>
@@ -13378,7 +13598,7 @@
       <c r="G452" s="26"/>
       <c r="H452" s="25"/>
     </row>
-    <row r="453" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="27">
         <v>10</v>
       </c>
@@ -13396,7 +13616,7 @@
       <c r="G453" s="26"/>
       <c r="H453" s="25"/>
     </row>
-    <row r="454" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="27">
         <v>10</v>
       </c>
@@ -13418,7 +13638,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="455" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="27">
         <v>10</v>
       </c>
@@ -13436,7 +13656,7 @@
       <c r="G455" s="26"/>
       <c r="H455" s="25"/>
     </row>
-    <row r="456" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="27">
         <v>10</v>
       </c>
@@ -13454,7 +13674,7 @@
       <c r="G456" s="26"/>
       <c r="H456" s="25"/>
     </row>
-    <row r="457" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="27">
         <v>10</v>
       </c>
@@ -13472,7 +13692,7 @@
       <c r="G457" s="26"/>
       <c r="H457" s="25"/>
     </row>
-    <row r="458" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="27">
         <v>10</v>
       </c>
@@ -13490,22 +13710,21 @@
         <v>1</v>
       </c>
       <c r="G458" s="26"/>
-      <c r="H458" s="25"/>
-      <c r="I458" s="43" t="s">
+      <c r="H458" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I458" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J458" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K458" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L458" s="25"/>
-      <c r="M458" s="25" t="s">
+      <c r="K458" s="25"/>
+      <c r="L458" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="459" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="27">
         <v>10</v>
       </c>
@@ -13523,7 +13742,7 @@
       <c r="G459" s="26"/>
       <c r="H459" s="25"/>
     </row>
-    <row r="460" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="27">
         <v>10</v>
       </c>
@@ -13543,7 +13762,7 @@
       </c>
       <c r="H460" s="25"/>
     </row>
-    <row r="461" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="27">
         <v>10</v>
       </c>
@@ -13563,7 +13782,7 @@
       <c r="G461" s="26"/>
       <c r="H461" s="25"/>
     </row>
-    <row r="462" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="27">
         <v>10</v>
       </c>
@@ -13583,7 +13802,7 @@
       <c r="G462" s="26"/>
       <c r="H462" s="25"/>
     </row>
-    <row r="463" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="27">
         <v>10</v>
       </c>
@@ -13603,7 +13822,7 @@
       <c r="G463" s="26"/>
       <c r="H463" s="25"/>
     </row>
-    <row r="464" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="27">
         <v>10</v>
       </c>
@@ -13929,7 +14148,7 @@
       <c r="G480" s="26"/>
       <c r="H480" s="25"/>
     </row>
-    <row r="481" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="27">
         <v>11</v>
       </c>
@@ -13947,18 +14166,17 @@
         <v>1</v>
       </c>
       <c r="G481" s="26"/>
-      <c r="H481" s="25"/>
-      <c r="I481" s="43" t="s">
+      <c r="H481" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I481" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J481" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K481" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="482" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="27">
         <v>11</v>
       </c>
@@ -13976,18 +14194,17 @@
         <v>1</v>
       </c>
       <c r="G482" s="26"/>
-      <c r="H482" s="25"/>
-      <c r="I482" s="43" t="s">
+      <c r="H482" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I482" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J482" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K482" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="483" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="27">
         <v>11</v>
       </c>
@@ -14005,21 +14222,20 @@
         <v>1</v>
       </c>
       <c r="G483" s="26"/>
-      <c r="H483" s="25"/>
-      <c r="I483" s="43" t="s">
+      <c r="H483" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I483" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J483" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K483" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M483" s="25" t="s">
+      <c r="L483" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="27">
         <v>11</v>
       </c>
@@ -14037,7 +14253,7 @@
       <c r="G484" s="26"/>
       <c r="H484" s="25"/>
     </row>
-    <row r="485" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="27">
         <v>11</v>
       </c>
@@ -14055,7 +14271,7 @@
       <c r="G485" s="26"/>
       <c r="H485" s="25"/>
     </row>
-    <row r="486" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="27">
         <v>11</v>
       </c>
@@ -14073,7 +14289,7 @@
       <c r="G486" s="26"/>
       <c r="H486" s="25"/>
     </row>
-    <row r="487" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="27">
         <v>11</v>
       </c>
@@ -14091,7 +14307,7 @@
       <c r="G487" s="26"/>
       <c r="H487" s="25"/>
     </row>
-    <row r="488" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="27">
         <v>11</v>
       </c>
@@ -14109,7 +14325,7 @@
       <c r="G488" s="26"/>
       <c r="H488" s="25"/>
     </row>
-    <row r="489" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="27">
         <v>11</v>
       </c>
@@ -14127,7 +14343,7 @@
       <c r="G489" s="26"/>
       <c r="H489" s="25"/>
     </row>
-    <row r="490" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="27">
         <v>11</v>
       </c>
@@ -14145,7 +14361,7 @@
       <c r="G490" s="26"/>
       <c r="H490" s="25"/>
     </row>
-    <row r="491" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="27">
         <v>11</v>
       </c>
@@ -14163,7 +14379,7 @@
       <c r="G491" s="26"/>
       <c r="H491" s="25"/>
     </row>
-    <row r="492" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="27">
         <v>11</v>
       </c>
@@ -14181,7 +14397,7 @@
       <c r="G492" s="26"/>
       <c r="H492" s="25"/>
     </row>
-    <row r="493" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="27">
         <v>11</v>
       </c>
@@ -14199,7 +14415,7 @@
       <c r="G493" s="26"/>
       <c r="H493" s="25"/>
     </row>
-    <row r="494" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="27">
         <v>11</v>
       </c>
@@ -14217,7 +14433,7 @@
       <c r="G494" s="26"/>
       <c r="H494" s="25"/>
     </row>
-    <row r="495" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="27">
         <v>11</v>
       </c>
@@ -14235,7 +14451,7 @@
       <c r="G495" s="26"/>
       <c r="H495" s="25"/>
     </row>
-    <row r="496" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="27">
         <v>11</v>
       </c>
@@ -14253,7 +14469,7 @@
       <c r="G496" s="26"/>
       <c r="H496" s="25"/>
     </row>
-    <row r="497" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="27">
         <v>11</v>
       </c>
@@ -14271,7 +14487,7 @@
       <c r="G497" s="26"/>
       <c r="H497" s="25"/>
     </row>
-    <row r="498" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="27">
         <v>11</v>
       </c>
@@ -14289,7 +14505,7 @@
       <c r="G498" s="26"/>
       <c r="H498" s="25"/>
     </row>
-    <row r="499" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="27">
         <v>11</v>
       </c>
@@ -14307,7 +14523,7 @@
       <c r="G499" s="26"/>
       <c r="H499" s="25"/>
     </row>
-    <row r="500" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="27">
         <v>11</v>
       </c>
@@ -14325,7 +14541,7 @@
       <c r="G500" s="26"/>
       <c r="H500" s="25"/>
     </row>
-    <row r="501" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="27">
         <v>11</v>
       </c>
@@ -14343,7 +14559,7 @@
       <c r="G501" s="26"/>
       <c r="H501" s="25"/>
     </row>
-    <row r="502" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="27">
         <v>11</v>
       </c>
@@ -14365,7 +14581,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="503" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="27">
         <v>11</v>
       </c>
@@ -14383,7 +14599,7 @@
       <c r="G503" s="26"/>
       <c r="H503" s="25"/>
     </row>
-    <row r="504" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="27">
         <v>11</v>
       </c>
@@ -14401,7 +14617,7 @@
       <c r="G504" s="26"/>
       <c r="H504" s="25"/>
     </row>
-    <row r="505" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="27">
         <v>11</v>
       </c>
@@ -14419,7 +14635,7 @@
       <c r="G505" s="26"/>
       <c r="H505" s="25"/>
     </row>
-    <row r="506" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="27">
         <v>11</v>
       </c>
@@ -14437,22 +14653,21 @@
         <v>1</v>
       </c>
       <c r="G506" s="26"/>
-      <c r="H506" s="25"/>
-      <c r="I506" s="43" t="s">
+      <c r="H506" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I506" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J506" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K506" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L506" s="25"/>
-      <c r="M506" s="25" t="s">
+      <c r="K506" s="25"/>
+      <c r="L506" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="507" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="27">
         <v>11</v>
       </c>
@@ -14470,7 +14685,7 @@
       <c r="G507" s="26"/>
       <c r="H507" s="25"/>
     </row>
-    <row r="508" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="27">
         <v>11</v>
       </c>
@@ -14490,7 +14705,7 @@
       </c>
       <c r="H508" s="25"/>
     </row>
-    <row r="509" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="27">
         <v>11</v>
       </c>
@@ -14510,7 +14725,7 @@
       <c r="G509" s="26"/>
       <c r="H509" s="25"/>
     </row>
-    <row r="510" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="27">
         <v>11</v>
       </c>
@@ -14530,7 +14745,7 @@
       <c r="G510" s="26"/>
       <c r="H510" s="25"/>
     </row>
-    <row r="511" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="27">
         <v>11</v>
       </c>
@@ -14550,7 +14765,7 @@
       <c r="G511" s="26"/>
       <c r="H511" s="25"/>
     </row>
-    <row r="512" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="27">
         <v>11</v>
       </c>
@@ -15164,7 +15379,7 @@
       <c r="G544" s="26"/>
       <c r="H544" s="25"/>
     </row>
-    <row r="545" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="27">
         <v>12</v>
       </c>
@@ -15186,7 +15401,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="546" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="27">
         <v>12</v>
       </c>
@@ -15204,7 +15419,7 @@
       <c r="G546" s="26"/>
       <c r="H546" s="25"/>
     </row>
-    <row r="547" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="27">
         <v>12</v>
       </c>
@@ -15222,7 +15437,7 @@
       <c r="G547" s="26"/>
       <c r="H547" s="25"/>
     </row>
-    <row r="548" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="27">
         <v>12</v>
       </c>
@@ -15240,7 +15455,7 @@
       <c r="G548" s="26"/>
       <c r="H548" s="25"/>
     </row>
-    <row r="549" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="27">
         <v>12</v>
       </c>
@@ -15258,22 +15473,21 @@
         <v>1</v>
       </c>
       <c r="G549" s="26"/>
-      <c r="H549" s="25"/>
-      <c r="I549" s="43" t="s">
+      <c r="H549" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I549" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J549" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K549" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L549" s="25"/>
-      <c r="M549" s="25" t="s">
+      <c r="K549" s="25"/>
+      <c r="L549" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="550" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="27">
         <v>12</v>
       </c>
@@ -15291,7 +15505,7 @@
       <c r="G550" s="26"/>
       <c r="H550" s="25"/>
     </row>
-    <row r="551" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="27">
         <v>12</v>
       </c>
@@ -15311,7 +15525,7 @@
       </c>
       <c r="H551" s="25"/>
     </row>
-    <row r="552" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="27">
         <v>12</v>
       </c>
@@ -15331,7 +15545,7 @@
       <c r="G552" s="26"/>
       <c r="H552" s="25"/>
     </row>
-    <row r="553" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="27">
         <v>12</v>
       </c>
@@ -15351,7 +15565,7 @@
       <c r="G553" s="26"/>
       <c r="H553" s="25"/>
     </row>
-    <row r="554" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="27">
         <v>12</v>
       </c>
@@ -15371,7 +15585,7 @@
       <c r="G554" s="26"/>
       <c r="H554" s="25"/>
     </row>
-    <row r="555" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="27">
         <v>12</v>
       </c>
@@ -15391,7 +15605,7 @@
       <c r="G555" s="26"/>
       <c r="H555" s="25"/>
     </row>
-    <row r="556" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="27">
         <v>12</v>
       </c>
@@ -15411,7 +15625,7 @@
       <c r="G556" s="26"/>
       <c r="H556" s="25"/>
     </row>
-    <row r="557" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="27">
         <v>12</v>
       </c>
@@ -15431,7 +15645,7 @@
       <c r="G557" s="26"/>
       <c r="H557" s="25"/>
     </row>
-    <row r="558" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="27">
         <v>12</v>
       </c>
@@ -15451,7 +15665,7 @@
       <c r="G558" s="26"/>
       <c r="H558" s="25"/>
     </row>
-    <row r="559" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="27">
         <v>12</v>
       </c>
@@ -15471,7 +15685,7 @@
       <c r="G559" s="26"/>
       <c r="H559" s="25"/>
     </row>
-    <row r="560" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="27">
         <v>12</v>
       </c>
@@ -15489,7 +15703,7 @@
       <c r="G560" s="26"/>
       <c r="H560" s="25"/>
     </row>
-    <row r="561" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="27">
         <v>13</v>
       </c>
@@ -15507,7 +15721,7 @@
       <c r="G561" s="26"/>
       <c r="H561" s="25"/>
     </row>
-    <row r="562" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="27">
         <v>13</v>
       </c>
@@ -15527,7 +15741,7 @@
       </c>
       <c r="H562" s="25"/>
     </row>
-    <row r="563" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="27">
         <v>13</v>
       </c>
@@ -15547,7 +15761,7 @@
       </c>
       <c r="H563" s="25"/>
     </row>
-    <row r="564" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="27">
         <v>13</v>
       </c>
@@ -15565,7 +15779,7 @@
       <c r="G564" s="26"/>
       <c r="H564" s="25"/>
     </row>
-    <row r="565" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="27">
         <v>13</v>
       </c>
@@ -15583,7 +15797,7 @@
       <c r="G565" s="26"/>
       <c r="H565" s="25"/>
     </row>
-    <row r="566" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="27">
         <v>13</v>
       </c>
@@ -15603,7 +15817,7 @@
       </c>
       <c r="H566" s="25"/>
     </row>
-    <row r="567" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="27">
         <v>13</v>
       </c>
@@ -15621,7 +15835,7 @@
       <c r="G567" s="26"/>
       <c r="H567" s="25"/>
     </row>
-    <row r="568" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A568" s="27">
         <v>13</v>
       </c>
@@ -15641,7 +15855,7 @@
       </c>
       <c r="H568" s="25"/>
     </row>
-    <row r="569" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="27">
         <v>13</v>
       </c>
@@ -15659,7 +15873,7 @@
       <c r="G569" s="26"/>
       <c r="H569" s="25"/>
     </row>
-    <row r="570" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="27">
         <v>13</v>
       </c>
@@ -15677,7 +15891,7 @@
       <c r="G570" s="26"/>
       <c r="H570" s="25"/>
     </row>
-    <row r="571" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="27">
         <v>13</v>
       </c>
@@ -15697,7 +15911,7 @@
       <c r="G571" s="26"/>
       <c r="H571" s="25"/>
     </row>
-    <row r="572" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="27">
         <v>13</v>
       </c>
@@ -15715,18 +15929,17 @@
         <v>1</v>
       </c>
       <c r="G572" s="26"/>
-      <c r="H572" s="25"/>
-      <c r="I572" s="43" t="s">
+      <c r="H572" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I572" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J572" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K572" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="573" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="27">
         <v>13</v>
       </c>
@@ -15744,18 +15957,17 @@
         <v>1</v>
       </c>
       <c r="G573" s="26"/>
-      <c r="H573" s="25"/>
-      <c r="I573" s="43" t="s">
+      <c r="H573" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I573" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J573" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K573" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="574" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="27">
         <v>13</v>
       </c>
@@ -15773,21 +15985,20 @@
         <v>1</v>
       </c>
       <c r="G574" s="26"/>
-      <c r="H574" s="25"/>
-      <c r="I574" s="43" t="s">
+      <c r="H574" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I574" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J574" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K574" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M574" s="25" t="s">
+      <c r="L574" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="575" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="27">
         <v>13</v>
       </c>
@@ -15805,7 +16016,7 @@
       <c r="G575" s="26"/>
       <c r="H575" s="25"/>
     </row>
-    <row r="576" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="27">
         <v>13</v>
       </c>
@@ -16111,7 +16322,7 @@
       <c r="G592" s="26"/>
       <c r="H592" s="25"/>
     </row>
-    <row r="593" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="27">
         <v>13</v>
       </c>
@@ -16133,7 +16344,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="594" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="27">
         <v>13</v>
       </c>
@@ -16151,7 +16362,7 @@
       <c r="G594" s="26"/>
       <c r="H594" s="25"/>
     </row>
-    <row r="595" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="27">
         <v>13</v>
       </c>
@@ -16169,7 +16380,7 @@
       <c r="G595" s="26"/>
       <c r="H595" s="25"/>
     </row>
-    <row r="596" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="27">
         <v>13</v>
       </c>
@@ -16187,7 +16398,7 @@
       <c r="G596" s="26"/>
       <c r="H596" s="25"/>
     </row>
-    <row r="597" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="27">
         <v>13</v>
       </c>
@@ -16205,22 +16416,21 @@
         <v>1</v>
       </c>
       <c r="G597" s="26"/>
-      <c r="H597" s="25"/>
-      <c r="I597" s="43" t="s">
+      <c r="H597" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I597" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J597" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K597" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L597" s="25"/>
-      <c r="M597" s="25" t="s">
+      <c r="K597" s="25"/>
+      <c r="L597" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="598" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="27">
         <v>13</v>
       </c>
@@ -16238,7 +16448,7 @@
       <c r="G598" s="26"/>
       <c r="H598" s="25"/>
     </row>
-    <row r="599" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="27">
         <v>13</v>
       </c>
@@ -16258,7 +16468,7 @@
       </c>
       <c r="H599" s="25"/>
     </row>
-    <row r="600" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="27">
         <v>13</v>
       </c>
@@ -16278,7 +16488,7 @@
       <c r="G600" s="26"/>
       <c r="H600" s="25"/>
     </row>
-    <row r="601" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="27">
         <v>13</v>
       </c>
@@ -16298,7 +16508,7 @@
       <c r="G601" s="26"/>
       <c r="H601" s="25"/>
     </row>
-    <row r="602" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="27">
         <v>13</v>
       </c>
@@ -16318,7 +16528,7 @@
       <c r="G602" s="26"/>
       <c r="H602" s="25"/>
     </row>
-    <row r="603" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="27">
         <v>13</v>
       </c>
@@ -16338,7 +16548,7 @@
       <c r="G603" s="26"/>
       <c r="H603" s="25"/>
     </row>
-    <row r="604" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="27">
         <v>13</v>
       </c>
@@ -16358,7 +16568,7 @@
       <c r="G604" s="26"/>
       <c r="H604" s="25"/>
     </row>
-    <row r="605" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="27">
         <v>13</v>
       </c>
@@ -16378,7 +16588,7 @@
       <c r="G605" s="26"/>
       <c r="H605" s="25"/>
     </row>
-    <row r="606" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="27">
         <v>13</v>
       </c>
@@ -16398,7 +16608,7 @@
       <c r="G606" s="26"/>
       <c r="H606" s="25"/>
     </row>
-    <row r="607" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="27">
         <v>13</v>
       </c>
@@ -16418,7 +16628,7 @@
       <c r="G607" s="26"/>
       <c r="H607" s="25"/>
     </row>
-    <row r="608" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="27">
         <v>13</v>
       </c>
@@ -17026,7 +17236,7 @@
       <c r="G640" s="26"/>
       <c r="H640" s="25"/>
     </row>
-    <row r="641" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A641" s="27">
         <v>14</v>
       </c>
@@ -17044,7 +17254,7 @@
       <c r="G641" s="26"/>
       <c r="H641" s="25"/>
     </row>
-    <row r="642" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A642" s="27">
         <v>14</v>
       </c>
@@ -17062,22 +17272,21 @@
         <v>1</v>
       </c>
       <c r="G642" s="26"/>
-      <c r="H642" s="25"/>
-      <c r="I642" s="43" t="s">
+      <c r="H642" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I642" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J642" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K642" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L642" s="25"/>
-      <c r="M642" s="25" t="s">
+      <c r="K642" s="25"/>
+      <c r="L642" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="643" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A643" s="27">
         <v>14</v>
       </c>
@@ -17095,7 +17304,7 @@
       <c r="G643" s="26"/>
       <c r="H643" s="25"/>
     </row>
-    <row r="644" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A644" s="27">
         <v>14</v>
       </c>
@@ -17115,7 +17324,7 @@
       </c>
       <c r="H644" s="25"/>
     </row>
-    <row r="645" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A645" s="27">
         <v>14</v>
       </c>
@@ -17135,7 +17344,7 @@
       <c r="G645" s="26"/>
       <c r="H645" s="25"/>
     </row>
-    <row r="646" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A646" s="27">
         <v>14</v>
       </c>
@@ -17155,7 +17364,7 @@
       <c r="G646" s="26"/>
       <c r="H646" s="25"/>
     </row>
-    <row r="647" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A647" s="27">
         <v>14</v>
       </c>
@@ -17175,7 +17384,7 @@
       <c r="G647" s="26"/>
       <c r="H647" s="25"/>
     </row>
-    <row r="648" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A648" s="27">
         <v>14</v>
       </c>
@@ -17195,7 +17404,7 @@
       <c r="G648" s="26"/>
       <c r="H648" s="25"/>
     </row>
-    <row r="649" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="27">
         <v>14</v>
       </c>
@@ -17215,7 +17424,7 @@
       <c r="G649" s="26"/>
       <c r="H649" s="25"/>
     </row>
-    <row r="650" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A650" s="27">
         <v>14</v>
       </c>
@@ -17235,7 +17444,7 @@
       <c r="G650" s="26"/>
       <c r="H650" s="25"/>
     </row>
-    <row r="651" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A651" s="27">
         <v>14</v>
       </c>
@@ -17255,7 +17464,7 @@
       <c r="G651" s="26"/>
       <c r="H651" s="25"/>
     </row>
-    <row r="652" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A652" s="27">
         <v>14</v>
       </c>
@@ -17275,7 +17484,7 @@
       <c r="G652" s="26"/>
       <c r="H652" s="25"/>
     </row>
-    <row r="653" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A653" s="27">
         <v>14</v>
       </c>
@@ -17293,7 +17502,7 @@
       <c r="G653" s="26"/>
       <c r="H653" s="25"/>
     </row>
-    <row r="654" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A654" s="27">
         <v>15</v>
       </c>
@@ -17311,7 +17520,7 @@
       <c r="G654" s="26"/>
       <c r="H654" s="25"/>
     </row>
-    <row r="655" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A655" s="27">
         <v>15</v>
       </c>
@@ -17331,7 +17540,7 @@
       </c>
       <c r="H655" s="25"/>
     </row>
-    <row r="656" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="27">
         <v>15</v>
       </c>
@@ -20643,7 +20852,7 @@
       <c r="G832" s="26"/>
       <c r="H832" s="25"/>
     </row>
-    <row r="833" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A833" s="27">
         <v>18</v>
       </c>
@@ -20661,7 +20870,7 @@
       <c r="G833" s="26"/>
       <c r="H833" s="25"/>
     </row>
-    <row r="834" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A834" s="27">
         <v>19</v>
       </c>
@@ -20679,7 +20888,7 @@
       <c r="G834" s="26"/>
       <c r="H834" s="25"/>
     </row>
-    <row r="835" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A835" s="27">
         <v>19</v>
       </c>
@@ -20699,7 +20908,7 @@
       </c>
       <c r="H835" s="25"/>
     </row>
-    <row r="836" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A836" s="27">
         <v>19</v>
       </c>
@@ -20719,7 +20928,7 @@
       </c>
       <c r="H836" s="25"/>
     </row>
-    <row r="837" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A837" s="27">
         <v>19</v>
       </c>
@@ -20737,7 +20946,7 @@
       <c r="G837" s="26"/>
       <c r="H837" s="25"/>
     </row>
-    <row r="838" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A838" s="27">
         <v>19</v>
       </c>
@@ -20755,7 +20964,7 @@
       <c r="G838" s="26"/>
       <c r="H838" s="25"/>
     </row>
-    <row r="839" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A839" s="27">
         <v>19</v>
       </c>
@@ -20775,7 +20984,7 @@
       </c>
       <c r="H839" s="25"/>
     </row>
-    <row r="840" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A840" s="27">
         <v>19</v>
       </c>
@@ -20793,7 +21002,7 @@
       <c r="G840" s="26"/>
       <c r="H840" s="25"/>
     </row>
-    <row r="841" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A841" s="27">
         <v>19</v>
       </c>
@@ -20813,7 +21022,7 @@
       </c>
       <c r="H841" s="25"/>
     </row>
-    <row r="842" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A842" s="27">
         <v>19</v>
       </c>
@@ -20831,7 +21040,7 @@
       <c r="G842" s="26"/>
       <c r="H842" s="25"/>
     </row>
-    <row r="843" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A843" s="27">
         <v>19</v>
       </c>
@@ -20849,7 +21058,7 @@
       <c r="G843" s="26"/>
       <c r="H843" s="25"/>
     </row>
-    <row r="844" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A844" s="27">
         <v>19</v>
       </c>
@@ -20869,7 +21078,7 @@
       <c r="G844" s="26"/>
       <c r="H844" s="25"/>
     </row>
-    <row r="845" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A845" s="27">
         <v>19</v>
       </c>
@@ -20887,18 +21096,17 @@
         <v>1</v>
       </c>
       <c r="G845" s="26"/>
-      <c r="H845" s="25"/>
-      <c r="I845" s="43" t="s">
+      <c r="H845" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I845" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J845" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K845" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="846" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A846" s="30">
         <v>19</v>
       </c>
@@ -20916,20 +21124,19 @@
         <v>1</v>
       </c>
       <c r="G846" s="26"/>
-      <c r="H846" s="25"/>
-      <c r="I846" s="43" t="s">
+      <c r="H846" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I846" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J846" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K846" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K846" s="6"/>
       <c r="L846" s="6"/>
-      <c r="M846" s="6"/>
-    </row>
-    <row r="847" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="847" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A847" s="30">
         <v>19</v>
       </c>
@@ -20947,22 +21154,21 @@
         <v>1</v>
       </c>
       <c r="G847" s="26"/>
-      <c r="H847" s="25"/>
-      <c r="I847" s="43" t="s">
+      <c r="H847" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I847" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J847" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K847" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L847" s="6"/>
-      <c r="M847" s="25" t="s">
+      <c r="K847" s="6"/>
+      <c r="L847" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="848" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A848" s="27">
         <v>19</v>
       </c>
@@ -21268,7 +21474,7 @@
       <c r="G864" s="26"/>
       <c r="H864" s="25"/>
     </row>
-    <row r="865" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A865" s="27">
         <v>19</v>
       </c>
@@ -21286,7 +21492,7 @@
       <c r="G865" s="26"/>
       <c r="H865" s="25"/>
     </row>
-    <row r="866" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A866" s="27">
         <v>19</v>
       </c>
@@ -21308,7 +21514,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="867" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A867" s="27">
         <v>19</v>
       </c>
@@ -21326,7 +21532,7 @@
       <c r="G867" s="26"/>
       <c r="H867" s="25"/>
     </row>
-    <row r="868" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A868" s="27">
         <v>19</v>
       </c>
@@ -21344,7 +21550,7 @@
       <c r="G868" s="26"/>
       <c r="H868" s="25"/>
     </row>
-    <row r="869" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A869" s="27">
         <v>19</v>
       </c>
@@ -21362,7 +21568,7 @@
       <c r="G869" s="26"/>
       <c r="H869" s="25"/>
     </row>
-    <row r="870" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A870" s="27">
         <v>19</v>
       </c>
@@ -21380,22 +21586,21 @@
         <v>1</v>
       </c>
       <c r="G870" s="26"/>
-      <c r="H870" s="25"/>
-      <c r="I870" s="43" t="s">
+      <c r="H870" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I870" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J870" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K870" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L870" s="25"/>
-      <c r="M870" s="25" t="s">
+      <c r="K870" s="25"/>
+      <c r="L870" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="871" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A871" s="27">
         <v>19</v>
       </c>
@@ -21413,7 +21618,7 @@
       <c r="G871" s="26"/>
       <c r="H871" s="25"/>
     </row>
-    <row r="872" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A872" s="27">
         <v>19</v>
       </c>
@@ -21433,7 +21638,7 @@
       </c>
       <c r="H872" s="25"/>
     </row>
-    <row r="873" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A873" s="27">
         <v>19</v>
       </c>
@@ -21453,7 +21658,7 @@
       <c r="G873" s="26"/>
       <c r="H873" s="25"/>
     </row>
-    <row r="874" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A874" s="27">
         <v>19</v>
       </c>
@@ -21473,7 +21678,7 @@
       <c r="G874" s="26"/>
       <c r="H874" s="25"/>
     </row>
-    <row r="875" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A875" s="27">
         <v>19</v>
       </c>
@@ -21493,7 +21698,7 @@
       <c r="G875" s="26"/>
       <c r="H875" s="25"/>
     </row>
-    <row r="876" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A876" s="27">
         <v>19</v>
       </c>
@@ -21513,7 +21718,7 @@
       <c r="G876" s="26"/>
       <c r="H876" s="25"/>
     </row>
-    <row r="877" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A877" s="27">
         <v>19</v>
       </c>
@@ -21533,7 +21738,7 @@
       <c r="G877" s="26"/>
       <c r="H877" s="25"/>
     </row>
-    <row r="878" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A878" s="27">
         <v>19</v>
       </c>
@@ -21553,7 +21758,7 @@
       <c r="G878" s="26"/>
       <c r="H878" s="25"/>
     </row>
-    <row r="879" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A879" s="27">
         <v>19</v>
       </c>
@@ -21573,7 +21778,7 @@
       <c r="G879" s="26"/>
       <c r="H879" s="25"/>
     </row>
-    <row r="880" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A880" s="27">
         <v>19</v>
       </c>
@@ -21593,7 +21798,7 @@
       <c r="G880" s="26"/>
       <c r="H880" s="25"/>
     </row>
-    <row r="881" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A881" s="27">
         <v>19</v>
       </c>
@@ -21611,7 +21816,7 @@
       <c r="G881" s="26"/>
       <c r="H881" s="25"/>
     </row>
-    <row r="882" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A882" s="27">
         <v>20</v>
       </c>
@@ -21629,7 +21834,7 @@
       <c r="G882" s="26"/>
       <c r="H882" s="25"/>
     </row>
-    <row r="883" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A883" s="27">
         <v>20</v>
       </c>
@@ -21649,7 +21854,7 @@
       </c>
       <c r="H883" s="25"/>
     </row>
-    <row r="884" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A884" s="27">
         <v>20</v>
       </c>
@@ -21669,7 +21874,7 @@
       </c>
       <c r="H884" s="25"/>
     </row>
-    <row r="885" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A885" s="27">
         <v>20</v>
       </c>
@@ -21687,7 +21892,7 @@
       <c r="G885" s="26"/>
       <c r="H885" s="25"/>
     </row>
-    <row r="886" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A886" s="27">
         <v>20</v>
       </c>
@@ -21705,7 +21910,7 @@
       <c r="G886" s="26"/>
       <c r="H886" s="25"/>
     </row>
-    <row r="887" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A887" s="27">
         <v>20</v>
       </c>
@@ -21725,7 +21930,7 @@
       </c>
       <c r="H887" s="25"/>
     </row>
-    <row r="888" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" s="27">
         <v>20</v>
       </c>
@@ -21743,7 +21948,7 @@
       <c r="G888" s="26"/>
       <c r="H888" s="25"/>
     </row>
-    <row r="889" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A889" s="27">
         <v>20</v>
       </c>
@@ -21763,7 +21968,7 @@
       </c>
       <c r="H889" s="25"/>
     </row>
-    <row r="890" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A890" s="27">
         <v>20</v>
       </c>
@@ -21781,7 +21986,7 @@
       <c r="G890" s="26"/>
       <c r="H890" s="25"/>
     </row>
-    <row r="891" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A891" s="27">
         <v>20</v>
       </c>
@@ -21799,7 +22004,7 @@
       <c r="G891" s="26"/>
       <c r="H891" s="25"/>
     </row>
-    <row r="892" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A892" s="27">
         <v>20</v>
       </c>
@@ -21819,7 +22024,7 @@
       <c r="G892" s="26"/>
       <c r="H892" s="25"/>
     </row>
-    <row r="893" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A893" s="27">
         <v>20</v>
       </c>
@@ -21837,18 +22042,17 @@
         <v>1</v>
       </c>
       <c r="G893" s="26"/>
-      <c r="H893" s="25"/>
-      <c r="I893" s="43" t="s">
+      <c r="H893" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I893" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J893" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K893" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="894" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A894" s="30">
         <v>20</v>
       </c>
@@ -21866,20 +22070,19 @@
         <v>1</v>
       </c>
       <c r="G894" s="26"/>
-      <c r="H894" s="25"/>
-      <c r="I894" s="43" t="s">
+      <c r="H894" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I894" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J894" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K894" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K894" s="6"/>
       <c r="L894" s="6"/>
-      <c r="M894" s="6"/>
-    </row>
-    <row r="895" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="895" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A895" s="30">
         <v>20</v>
       </c>
@@ -21897,22 +22100,21 @@
         <v>1</v>
       </c>
       <c r="G895" s="26"/>
-      <c r="H895" s="25"/>
-      <c r="I895" s="43" t="s">
+      <c r="H895" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I895" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J895" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K895" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L895" s="6"/>
-      <c r="M895" s="25" t="s">
+      <c r="K895" s="6"/>
+      <c r="L895" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="896" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A896" s="27">
         <v>20</v>
       </c>
@@ -21930,7 +22132,7 @@
       <c r="G896" s="26"/>
       <c r="H896" s="25"/>
     </row>
-    <row r="897" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A897" s="27">
         <v>20</v>
       </c>
@@ -21948,7 +22150,7 @@
       <c r="G897" s="26"/>
       <c r="H897" s="25"/>
     </row>
-    <row r="898" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A898" s="27">
         <v>20</v>
       </c>
@@ -21966,7 +22168,7 @@
       <c r="G898" s="26"/>
       <c r="H898" s="25"/>
     </row>
-    <row r="899" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A899" s="27">
         <v>20</v>
       </c>
@@ -21984,7 +22186,7 @@
       <c r="G899" s="26"/>
       <c r="H899" s="25"/>
     </row>
-    <row r="900" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A900" s="27">
         <v>20</v>
       </c>
@@ -22002,7 +22204,7 @@
       <c r="G900" s="26"/>
       <c r="H900" s="25"/>
     </row>
-    <row r="901" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A901" s="27">
         <v>20</v>
       </c>
@@ -22020,7 +22222,7 @@
       <c r="G901" s="26"/>
       <c r="H901" s="25"/>
     </row>
-    <row r="902" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A902" s="27">
         <v>20</v>
       </c>
@@ -22038,7 +22240,7 @@
       <c r="G902" s="26"/>
       <c r="H902" s="25"/>
     </row>
-    <row r="903" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A903" s="27">
         <v>20</v>
       </c>
@@ -22056,7 +22258,7 @@
       <c r="G903" s="26"/>
       <c r="H903" s="41"/>
     </row>
-    <row r="904" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A904" s="27">
         <v>20</v>
       </c>
@@ -22074,7 +22276,7 @@
       <c r="G904" s="26"/>
       <c r="H904" s="25"/>
     </row>
-    <row r="905" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A905" s="27">
         <v>20</v>
       </c>
@@ -22092,7 +22294,7 @@
       <c r="G905" s="26"/>
       <c r="H905" s="25"/>
     </row>
-    <row r="906" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A906" s="27">
         <v>20</v>
       </c>
@@ -22110,7 +22312,7 @@
       <c r="G906" s="26"/>
       <c r="H906" s="25"/>
     </row>
-    <row r="907" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A907" s="27">
         <v>20</v>
       </c>
@@ -22128,7 +22330,7 @@
       <c r="G907" s="26"/>
       <c r="H907" s="25"/>
     </row>
-    <row r="908" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A908" s="27">
         <v>20</v>
       </c>
@@ -22150,7 +22352,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="909" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A909" s="27">
         <v>20</v>
       </c>
@@ -22168,7 +22370,7 @@
       <c r="G909" s="26"/>
       <c r="H909" s="25"/>
     </row>
-    <row r="910" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A910" s="27">
         <v>20</v>
       </c>
@@ -22186,7 +22388,7 @@
       <c r="G910" s="26"/>
       <c r="H910" s="25"/>
     </row>
-    <row r="911" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A911" s="27">
         <v>20</v>
       </c>
@@ -22204,7 +22406,7 @@
       <c r="G911" s="26"/>
       <c r="H911" s="25"/>
     </row>
-    <row r="912" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A912" s="27">
         <v>20</v>
       </c>
@@ -22222,18 +22424,17 @@
         <v>1</v>
       </c>
       <c r="G912" s="26"/>
-      <c r="H912" s="25"/>
-      <c r="I912" s="43" t="s">
+      <c r="H912" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I912" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J912" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K912" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L912" s="25"/>
-      <c r="M912" s="25" t="s">
+      <c r="K912" s="25"/>
+      <c r="L912" s="25" t="s">
         <v>473</v>
       </c>
     </row>
@@ -22547,7 +22748,7 @@
       <c r="G928" s="26"/>
       <c r="H928" s="25"/>
     </row>
-    <row r="929" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A929" s="27">
         <v>21</v>
       </c>
@@ -22567,7 +22768,7 @@
       </c>
       <c r="H929" s="25"/>
     </row>
-    <row r="930" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A930" s="27">
         <v>21</v>
       </c>
@@ -22585,7 +22786,7 @@
       <c r="G930" s="26"/>
       <c r="H930" s="25"/>
     </row>
-    <row r="931" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A931" s="27">
         <v>21</v>
       </c>
@@ -22605,7 +22806,7 @@
       </c>
       <c r="H931" s="25"/>
     </row>
-    <row r="932" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A932" s="27">
         <v>21</v>
       </c>
@@ -22623,7 +22824,7 @@
       <c r="G932" s="26"/>
       <c r="H932" s="25"/>
     </row>
-    <row r="933" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A933" s="27">
         <v>21</v>
       </c>
@@ -22641,7 +22842,7 @@
       <c r="G933" s="26"/>
       <c r="H933" s="25"/>
     </row>
-    <row r="934" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A934" s="27">
         <v>21</v>
       </c>
@@ -22661,7 +22862,7 @@
       <c r="G934" s="26"/>
       <c r="H934" s="25"/>
     </row>
-    <row r="935" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A935" s="27">
         <v>21</v>
       </c>
@@ -22679,18 +22880,17 @@
         <v>1</v>
       </c>
       <c r="G935" s="26"/>
-      <c r="H935" s="25"/>
-      <c r="I935" s="43" t="s">
+      <c r="H935" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I935" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J935" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K935" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="936" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A936" s="30">
         <v>21</v>
       </c>
@@ -22708,20 +22908,19 @@
         <v>1</v>
       </c>
       <c r="G936" s="26"/>
-      <c r="H936" s="25"/>
-      <c r="I936" s="43" t="s">
+      <c r="H936" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I936" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J936" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K936" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K936" s="6"/>
       <c r="L936" s="6"/>
-      <c r="M936" s="6"/>
-    </row>
-    <row r="937" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="937" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A937" s="30">
         <v>21</v>
       </c>
@@ -22739,22 +22938,21 @@
         <v>1</v>
       </c>
       <c r="G937" s="26"/>
-      <c r="H937" s="25"/>
-      <c r="I937" s="43" t="s">
+      <c r="H937" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I937" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J937" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K937" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L937" s="6"/>
-      <c r="M937" s="25" t="s">
+      <c r="K937" s="6"/>
+      <c r="L937" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="938" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A938" s="27">
         <v>21</v>
       </c>
@@ -22772,7 +22970,7 @@
       <c r="G938" s="26"/>
       <c r="H938" s="25"/>
     </row>
-    <row r="939" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A939" s="27">
         <v>21</v>
       </c>
@@ -22790,7 +22988,7 @@
       <c r="G939" s="26"/>
       <c r="H939" s="25"/>
     </row>
-    <row r="940" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A940" s="27">
         <v>21</v>
       </c>
@@ -22808,7 +23006,7 @@
       <c r="G940" s="26"/>
       <c r="H940" s="25"/>
     </row>
-    <row r="941" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A941" s="27">
         <v>21</v>
       </c>
@@ -22826,7 +23024,7 @@
       <c r="G941" s="26"/>
       <c r="H941" s="25"/>
     </row>
-    <row r="942" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A942" s="27">
         <v>21</v>
       </c>
@@ -22844,7 +23042,7 @@
       <c r="G942" s="26"/>
       <c r="H942" s="25"/>
     </row>
-    <row r="943" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A943" s="27">
         <v>21</v>
       </c>
@@ -22862,7 +23060,7 @@
       <c r="G943" s="26"/>
       <c r="H943" s="25"/>
     </row>
-    <row r="944" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A944" s="27">
         <v>21</v>
       </c>
@@ -22880,7 +23078,7 @@
       <c r="G944" s="26"/>
       <c r="H944" s="25"/>
     </row>
-    <row r="945" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A945" s="27">
         <v>21</v>
       </c>
@@ -22898,7 +23096,7 @@
       <c r="G945" s="26"/>
       <c r="H945" s="41"/>
     </row>
-    <row r="946" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A946" s="27">
         <v>21</v>
       </c>
@@ -22916,7 +23114,7 @@
       <c r="G946" s="26"/>
       <c r="H946" s="25"/>
     </row>
-    <row r="947" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A947" s="27">
         <v>21</v>
       </c>
@@ -22934,7 +23132,7 @@
       <c r="G947" s="26"/>
       <c r="H947" s="25"/>
     </row>
-    <row r="948" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A948" s="27">
         <v>21</v>
       </c>
@@ -22952,7 +23150,7 @@
       <c r="G948" s="26"/>
       <c r="H948" s="25"/>
     </row>
-    <row r="949" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A949" s="27">
         <v>21</v>
       </c>
@@ -22970,7 +23168,7 @@
       <c r="G949" s="26"/>
       <c r="H949" s="25"/>
     </row>
-    <row r="950" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A950" s="27">
         <v>21</v>
       </c>
@@ -22992,7 +23190,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="951" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A951" s="27">
         <v>21</v>
       </c>
@@ -23010,7 +23208,7 @@
       <c r="G951" s="26"/>
       <c r="H951" s="25"/>
     </row>
-    <row r="952" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A952" s="27">
         <v>21</v>
       </c>
@@ -23028,7 +23226,7 @@
       <c r="G952" s="26"/>
       <c r="H952" s="25"/>
     </row>
-    <row r="953" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A953" s="27">
         <v>21</v>
       </c>
@@ -23046,7 +23244,7 @@
       <c r="G953" s="26"/>
       <c r="H953" s="25"/>
     </row>
-    <row r="954" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A954" s="27">
         <v>21</v>
       </c>
@@ -23064,22 +23262,21 @@
         <v>1</v>
       </c>
       <c r="G954" s="26"/>
-      <c r="H954" s="25"/>
-      <c r="I954" s="43" t="s">
+      <c r="H954" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I954" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J954" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K954" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L954" s="25"/>
-      <c r="M954" s="25" t="s">
+      <c r="K954" s="25"/>
+      <c r="L954" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="955" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A955" s="27">
         <v>21</v>
       </c>
@@ -23097,7 +23294,7 @@
       <c r="G955" s="26"/>
       <c r="H955" s="25"/>
     </row>
-    <row r="956" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A956" s="27">
         <v>21</v>
       </c>
@@ -23117,7 +23314,7 @@
       </c>
       <c r="H956" s="25"/>
     </row>
-    <row r="957" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A957" s="27">
         <v>21</v>
       </c>
@@ -23137,7 +23334,7 @@
       <c r="G957" s="26"/>
       <c r="H957" s="25"/>
     </row>
-    <row r="958" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A958" s="27">
         <v>21</v>
       </c>
@@ -23157,7 +23354,7 @@
       <c r="G958" s="26"/>
       <c r="H958" s="25"/>
     </row>
-    <row r="959" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A959" s="27">
         <v>21</v>
       </c>
@@ -23177,7 +23374,7 @@
       <c r="G959" s="26"/>
       <c r="H959" s="25"/>
     </row>
-    <row r="960" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A960" s="27">
         <v>21</v>
       </c>
@@ -23503,7 +23700,7 @@
       <c r="G976" s="26"/>
       <c r="H976" s="25"/>
     </row>
-    <row r="977" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A977" s="27">
         <v>22</v>
       </c>
@@ -23521,18 +23718,17 @@
         <v>1</v>
       </c>
       <c r="G977" s="26"/>
-      <c r="H977" s="25"/>
-      <c r="I977" s="43" t="s">
+      <c r="H977" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I977" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J977" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K977" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="978" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A978" s="30">
         <v>22</v>
       </c>
@@ -23550,20 +23746,19 @@
         <v>1</v>
       </c>
       <c r="G978" s="26"/>
-      <c r="H978" s="25"/>
-      <c r="I978" s="43" t="s">
+      <c r="H978" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I978" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J978" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K978" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K978" s="6"/>
       <c r="L978" s="6"/>
-      <c r="M978" s="6"/>
-    </row>
-    <row r="979" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="979" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A979" s="30">
         <v>22</v>
       </c>
@@ -23581,22 +23776,21 @@
         <v>1</v>
       </c>
       <c r="G979" s="26"/>
-      <c r="H979" s="25"/>
-      <c r="I979" s="43" t="s">
+      <c r="H979" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I979" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J979" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K979" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L979" s="6"/>
-      <c r="M979" s="25" t="s">
+      <c r="K979" s="6"/>
+      <c r="L979" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="980" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A980" s="27">
         <v>22</v>
       </c>
@@ -23614,7 +23808,7 @@
       <c r="G980" s="26"/>
       <c r="H980" s="25"/>
     </row>
-    <row r="981" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A981" s="27">
         <v>22</v>
       </c>
@@ -23632,7 +23826,7 @@
       <c r="G981" s="26"/>
       <c r="H981" s="25"/>
     </row>
-    <row r="982" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A982" s="27">
         <v>22</v>
       </c>
@@ -23650,7 +23844,7 @@
       <c r="G982" s="26"/>
       <c r="H982" s="25"/>
     </row>
-    <row r="983" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A983" s="27">
         <v>22</v>
       </c>
@@ -23668,7 +23862,7 @@
       <c r="G983" s="26"/>
       <c r="H983" s="25"/>
     </row>
-    <row r="984" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A984" s="27">
         <v>22</v>
       </c>
@@ -23686,7 +23880,7 @@
       <c r="G984" s="26"/>
       <c r="H984" s="25"/>
     </row>
-    <row r="985" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A985" s="27">
         <v>22</v>
       </c>
@@ -23704,7 +23898,7 @@
       <c r="G985" s="26"/>
       <c r="H985" s="25"/>
     </row>
-    <row r="986" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A986" s="27">
         <v>22</v>
       </c>
@@ -23722,7 +23916,7 @@
       <c r="G986" s="26"/>
       <c r="H986" s="25"/>
     </row>
-    <row r="987" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A987" s="27">
         <v>22</v>
       </c>
@@ -23740,7 +23934,7 @@
       <c r="G987" s="26"/>
       <c r="H987" s="41"/>
     </row>
-    <row r="988" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A988" s="27">
         <v>22</v>
       </c>
@@ -23758,7 +23952,7 @@
       <c r="G988" s="26"/>
       <c r="H988" s="25"/>
     </row>
-    <row r="989" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A989" s="27">
         <v>22</v>
       </c>
@@ -23776,7 +23970,7 @@
       <c r="G989" s="26"/>
       <c r="H989" s="25"/>
     </row>
-    <row r="990" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A990" s="27">
         <v>22</v>
       </c>
@@ -23794,7 +23988,7 @@
       <c r="G990" s="26"/>
       <c r="H990" s="25"/>
     </row>
-    <row r="991" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A991" s="27">
         <v>22</v>
       </c>
@@ -23812,7 +24006,7 @@
       <c r="G991" s="26"/>
       <c r="H991" s="25"/>
     </row>
-    <row r="992" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A992" s="27">
         <v>22</v>
       </c>
@@ -23834,7 +24028,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="993" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A993" s="27">
         <v>22</v>
       </c>
@@ -23852,7 +24046,7 @@
       <c r="G993" s="26"/>
       <c r="H993" s="25"/>
     </row>
-    <row r="994" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A994" s="27">
         <v>22</v>
       </c>
@@ -23870,7 +24064,7 @@
       <c r="G994" s="26"/>
       <c r="H994" s="25"/>
     </row>
-    <row r="995" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A995" s="27">
         <v>22</v>
       </c>
@@ -23888,7 +24082,7 @@
       <c r="G995" s="26"/>
       <c r="H995" s="25"/>
     </row>
-    <row r="996" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A996" s="27">
         <v>22</v>
       </c>
@@ -23906,22 +24100,21 @@
         <v>1</v>
       </c>
       <c r="G996" s="26"/>
-      <c r="H996" s="25"/>
-      <c r="I996" s="43" t="s">
+      <c r="H996" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I996" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J996" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K996" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L996" s="25"/>
-      <c r="M996" s="25" t="s">
+      <c r="K996" s="25"/>
+      <c r="L996" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="997" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A997" s="27">
         <v>22</v>
       </c>
@@ -23939,7 +24132,7 @@
       <c r="G997" s="26"/>
       <c r="H997" s="25"/>
     </row>
-    <row r="998" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A998" s="27">
         <v>22</v>
       </c>
@@ -23959,7 +24152,7 @@
       </c>
       <c r="H998" s="25"/>
     </row>
-    <row r="999" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A999" s="27">
         <v>22</v>
       </c>
@@ -23979,7 +24172,7 @@
       <c r="G999" s="26"/>
       <c r="H999" s="25"/>
     </row>
-    <row r="1000" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="27">
         <v>22</v>
       </c>
@@ -23999,7 +24192,7 @@
       <c r="G1000" s="26"/>
       <c r="H1000" s="25"/>
     </row>
-    <row r="1001" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="27">
         <v>22</v>
       </c>
@@ -24019,7 +24212,7 @@
       <c r="G1001" s="26"/>
       <c r="H1001" s="25"/>
     </row>
-    <row r="1002" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="27">
         <v>22</v>
       </c>
@@ -24039,7 +24232,7 @@
       <c r="G1002" s="26"/>
       <c r="H1002" s="25"/>
     </row>
-    <row r="1003" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="27">
         <v>22</v>
       </c>
@@ -24059,7 +24252,7 @@
       <c r="G1003" s="26"/>
       <c r="H1003" s="25"/>
     </row>
-    <row r="1004" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="27">
         <v>22</v>
       </c>
@@ -24079,7 +24272,7 @@
       <c r="G1004" s="26"/>
       <c r="H1004" s="25"/>
     </row>
-    <row r="1005" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="27">
         <v>22</v>
       </c>
@@ -24099,7 +24292,7 @@
       <c r="G1005" s="26"/>
       <c r="H1005" s="25"/>
     </row>
-    <row r="1006" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="27">
         <v>22</v>
       </c>
@@ -24119,7 +24312,7 @@
       <c r="G1006" s="26"/>
       <c r="H1006" s="25"/>
     </row>
-    <row r="1007" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="27">
         <v>22</v>
       </c>
@@ -24137,7 +24330,7 @@
       <c r="G1007" s="26"/>
       <c r="H1007" s="25"/>
     </row>
-    <row r="1008" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="27">
         <v>23</v>
       </c>
@@ -27447,7 +27640,7 @@
       <c r="G1184" s="26"/>
       <c r="H1184" s="25"/>
     </row>
-    <row r="1185" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1185" s="27">
         <v>26</v>
       </c>
@@ -27467,7 +27660,7 @@
       <c r="G1185" s="26"/>
       <c r="H1185" s="25"/>
     </row>
-    <row r="1186" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1186" s="27">
         <v>26</v>
       </c>
@@ -27487,7 +27680,7 @@
       <c r="G1186" s="26"/>
       <c r="H1186" s="25"/>
     </row>
-    <row r="1187" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1187" s="27">
         <v>26</v>
       </c>
@@ -27505,7 +27698,7 @@
       <c r="G1187" s="26"/>
       <c r="H1187" s="25"/>
     </row>
-    <row r="1188" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1188" s="27">
         <v>27</v>
       </c>
@@ -27523,7 +27716,7 @@
       <c r="G1188" s="26"/>
       <c r="H1188" s="25"/>
     </row>
-    <row r="1189" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1189" s="27">
         <v>27</v>
       </c>
@@ -27543,7 +27736,7 @@
       </c>
       <c r="H1189" s="25"/>
     </row>
-    <row r="1190" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1190" s="27">
         <v>27</v>
       </c>
@@ -27563,7 +27756,7 @@
       </c>
       <c r="H1190" s="25"/>
     </row>
-    <row r="1191" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1191" s="27">
         <v>27</v>
       </c>
@@ -27581,7 +27774,7 @@
       <c r="G1191" s="26"/>
       <c r="H1191" s="25"/>
     </row>
-    <row r="1192" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1192" s="27">
         <v>27</v>
       </c>
@@ -27599,7 +27792,7 @@
       <c r="G1192" s="26"/>
       <c r="H1192" s="25"/>
     </row>
-    <row r="1193" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1193" s="27">
         <v>27</v>
       </c>
@@ -27619,7 +27812,7 @@
       </c>
       <c r="H1193" s="25"/>
     </row>
-    <row r="1194" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1194" s="27">
         <v>27</v>
       </c>
@@ -27637,7 +27830,7 @@
       <c r="G1194" s="26"/>
       <c r="H1194" s="25"/>
     </row>
-    <row r="1195" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A1195" s="27">
         <v>27</v>
       </c>
@@ -27657,7 +27850,7 @@
       </c>
       <c r="H1195" s="25"/>
     </row>
-    <row r="1196" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1196" s="27">
         <v>27</v>
       </c>
@@ -27675,7 +27868,7 @@
       <c r="G1196" s="26"/>
       <c r="H1196" s="25"/>
     </row>
-    <row r="1197" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1197" s="27">
         <v>27</v>
       </c>
@@ -27693,7 +27886,7 @@
       <c r="G1197" s="26"/>
       <c r="H1197" s="25"/>
     </row>
-    <row r="1198" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1198" s="27">
         <v>27</v>
       </c>
@@ -27713,7 +27906,7 @@
       <c r="G1198" s="26"/>
       <c r="H1198" s="25"/>
     </row>
-    <row r="1199" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1199" s="27">
         <v>27</v>
       </c>
@@ -27731,18 +27924,17 @@
         <v>1</v>
       </c>
       <c r="G1199" s="26"/>
-      <c r="H1199" s="25"/>
-      <c r="I1199" s="43" t="s">
+      <c r="H1199" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1199" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1199" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1199" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="1200" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1200" s="30">
         <v>27</v>
       </c>
@@ -27760,20 +27952,19 @@
         <v>1</v>
       </c>
       <c r="G1200" s="26"/>
-      <c r="H1200" s="25"/>
-      <c r="I1200" s="43" t="s">
+      <c r="H1200" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1200" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1200" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1200" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K1200" s="6"/>
       <c r="L1200" s="6"/>
-      <c r="M1200" s="6"/>
-    </row>
-    <row r="1201" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1201" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1201" s="30">
         <v>27</v>
       </c>
@@ -27791,22 +27982,21 @@
         <v>1</v>
       </c>
       <c r="G1201" s="26"/>
-      <c r="H1201" s="25"/>
-      <c r="I1201" s="43" t="s">
+      <c r="H1201" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1201" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1201" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1201" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L1201" s="6"/>
-      <c r="M1201" s="25" t="s">
+      <c r="K1201" s="6"/>
+      <c r="L1201" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1202" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1202" s="27">
         <v>27</v>
       </c>
@@ -27824,7 +28014,7 @@
       <c r="G1202" s="26"/>
       <c r="H1202" s="25"/>
     </row>
-    <row r="1203" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1203" s="27">
         <v>27</v>
       </c>
@@ -27842,7 +28032,7 @@
       <c r="G1203" s="26"/>
       <c r="H1203" s="25"/>
     </row>
-    <row r="1204" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1204" s="27">
         <v>27</v>
       </c>
@@ -27860,7 +28050,7 @@
       <c r="G1204" s="26"/>
       <c r="H1204" s="25"/>
     </row>
-    <row r="1205" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1205" s="27">
         <v>27</v>
       </c>
@@ -27878,7 +28068,7 @@
       <c r="G1205" s="26"/>
       <c r="H1205" s="25"/>
     </row>
-    <row r="1206" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1206" s="27">
         <v>27</v>
       </c>
@@ -27896,7 +28086,7 @@
       <c r="G1206" s="26"/>
       <c r="H1206" s="25"/>
     </row>
-    <row r="1207" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1207" s="27">
         <v>27</v>
       </c>
@@ -27914,7 +28104,7 @@
       <c r="G1207" s="26"/>
       <c r="H1207" s="25"/>
     </row>
-    <row r="1208" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1208" s="27">
         <v>27</v>
       </c>
@@ -27932,7 +28122,7 @@
       <c r="G1208" s="26"/>
       <c r="H1208" s="25"/>
     </row>
-    <row r="1209" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1209" s="27">
         <v>27</v>
       </c>
@@ -27950,7 +28140,7 @@
       <c r="G1209" s="26"/>
       <c r="H1209" s="25"/>
     </row>
-    <row r="1210" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1210" s="27">
         <v>27</v>
       </c>
@@ -27968,7 +28158,7 @@
       <c r="G1210" s="26"/>
       <c r="H1210" s="25"/>
     </row>
-    <row r="1211" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1211" s="27">
         <v>27</v>
       </c>
@@ -27986,7 +28176,7 @@
       <c r="G1211" s="26"/>
       <c r="H1211" s="25"/>
     </row>
-    <row r="1212" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1212" s="27">
         <v>27</v>
       </c>
@@ -28004,7 +28194,7 @@
       <c r="G1212" s="26"/>
       <c r="H1212" s="25"/>
     </row>
-    <row r="1213" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1213" s="27">
         <v>27</v>
       </c>
@@ -28022,7 +28212,7 @@
       <c r="G1213" s="26"/>
       <c r="H1213" s="25"/>
     </row>
-    <row r="1214" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1214" s="27">
         <v>27</v>
       </c>
@@ -28040,7 +28230,7 @@
       <c r="G1214" s="26"/>
       <c r="H1214" s="25"/>
     </row>
-    <row r="1215" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1215" s="27">
         <v>27</v>
       </c>
@@ -28058,7 +28248,7 @@
       <c r="G1215" s="26"/>
       <c r="H1215" s="41"/>
     </row>
-    <row r="1216" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1216" s="27">
         <v>27</v>
       </c>
@@ -28076,7 +28266,7 @@
       <c r="G1216" s="26"/>
       <c r="H1216" s="25"/>
     </row>
-    <row r="1217" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="27">
         <v>27</v>
       </c>
@@ -28094,7 +28284,7 @@
       <c r="G1217" s="26"/>
       <c r="H1217" s="25"/>
     </row>
-    <row r="1218" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1218" s="27">
         <v>27</v>
       </c>
@@ -28112,7 +28302,7 @@
       <c r="G1218" s="26"/>
       <c r="H1218" s="25"/>
     </row>
-    <row r="1219" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="27">
         <v>27</v>
       </c>
@@ -28130,7 +28320,7 @@
       <c r="G1219" s="26"/>
       <c r="H1219" s="25"/>
     </row>
-    <row r="1220" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1220" s="27">
         <v>27</v>
       </c>
@@ -28152,7 +28342,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="1221" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1221" s="27">
         <v>27</v>
       </c>
@@ -28170,7 +28360,7 @@
       <c r="G1221" s="26"/>
       <c r="H1221" s="25"/>
     </row>
-    <row r="1222" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1222" s="27">
         <v>27</v>
       </c>
@@ -28188,7 +28378,7 @@
       <c r="G1222" s="26"/>
       <c r="H1222" s="25"/>
     </row>
-    <row r="1223" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1223" s="27">
         <v>27</v>
       </c>
@@ -28206,7 +28396,7 @@
       <c r="G1223" s="26"/>
       <c r="H1223" s="25"/>
     </row>
-    <row r="1224" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1224" s="27">
         <v>27</v>
       </c>
@@ -28224,22 +28414,21 @@
         <v>1</v>
       </c>
       <c r="G1224" s="26"/>
-      <c r="H1224" s="25"/>
-      <c r="I1224" s="43" t="s">
+      <c r="H1224" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1224" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1224" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1224" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L1224" s="25"/>
-      <c r="M1224" s="25" t="s">
+      <c r="K1224" s="25"/>
+      <c r="L1224" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1225" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1225" s="27">
         <v>27</v>
       </c>
@@ -28257,7 +28446,7 @@
       <c r="G1225" s="26"/>
       <c r="H1225" s="25"/>
     </row>
-    <row r="1226" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="27">
         <v>27</v>
       </c>
@@ -28277,7 +28466,7 @@
       </c>
       <c r="H1226" s="25"/>
     </row>
-    <row r="1227" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1227" s="27">
         <v>27</v>
       </c>
@@ -28297,7 +28486,7 @@
       <c r="G1227" s="26"/>
       <c r="H1227" s="25"/>
     </row>
-    <row r="1228" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1228" s="27">
         <v>27</v>
       </c>
@@ -28317,7 +28506,7 @@
       <c r="G1228" s="26"/>
       <c r="H1228" s="25"/>
     </row>
-    <row r="1229" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1229" s="27">
         <v>27</v>
       </c>
@@ -28337,7 +28526,7 @@
       <c r="G1229" s="26"/>
       <c r="H1229" s="25"/>
     </row>
-    <row r="1230" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1230" s="27">
         <v>27</v>
       </c>
@@ -28357,7 +28546,7 @@
       <c r="G1230" s="26"/>
       <c r="H1230" s="25"/>
     </row>
-    <row r="1231" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1231" s="27">
         <v>27</v>
       </c>
@@ -28377,7 +28566,7 @@
       <c r="G1231" s="26"/>
       <c r="H1231" s="25"/>
     </row>
-    <row r="1232" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1232" s="27">
         <v>27</v>
       </c>
@@ -28993,7 +29182,7 @@
       <c r="G1264" s="26"/>
       <c r="H1264" s="25"/>
     </row>
-    <row r="1265" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1265" s="27">
         <v>28</v>
       </c>
@@ -29011,22 +29200,21 @@
         <v>1</v>
       </c>
       <c r="G1265" s="26"/>
-      <c r="H1265" s="25"/>
-      <c r="I1265" s="43" t="s">
+      <c r="H1265" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1265" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1265" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1265" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L1265" s="25"/>
-      <c r="M1265" s="25" t="s">
+      <c r="K1265" s="25"/>
+      <c r="L1265" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1266" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1266" s="27">
         <v>28</v>
       </c>
@@ -29044,7 +29232,7 @@
       <c r="G1266" s="26"/>
       <c r="H1266" s="25"/>
     </row>
-    <row r="1267" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1267" s="27">
         <v>28</v>
       </c>
@@ -29064,7 +29252,7 @@
       </c>
       <c r="H1267" s="25"/>
     </row>
-    <row r="1268" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1268" s="27">
         <v>28</v>
       </c>
@@ -29084,7 +29272,7 @@
       <c r="G1268" s="26"/>
       <c r="H1268" s="25"/>
     </row>
-    <row r="1269" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1269" s="27">
         <v>28</v>
       </c>
@@ -29104,7 +29292,7 @@
       <c r="G1269" s="26"/>
       <c r="H1269" s="25"/>
     </row>
-    <row r="1270" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1270" s="27">
         <v>28</v>
       </c>
@@ -29124,7 +29312,7 @@
       <c r="G1270" s="26"/>
       <c r="H1270" s="25"/>
     </row>
-    <row r="1271" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1271" s="27">
         <v>28</v>
       </c>
@@ -29144,7 +29332,7 @@
       <c r="G1271" s="26"/>
       <c r="H1271" s="25"/>
     </row>
-    <row r="1272" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1272" s="27">
         <v>28</v>
       </c>
@@ -29164,7 +29352,7 @@
       <c r="G1272" s="26"/>
       <c r="H1272" s="25"/>
     </row>
-    <row r="1273" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1273" s="27">
         <v>28</v>
       </c>
@@ -29184,7 +29372,7 @@
       <c r="G1273" s="26"/>
       <c r="H1273" s="25"/>
     </row>
-    <row r="1274" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1274" s="27">
         <v>28</v>
       </c>
@@ -29204,7 +29392,7 @@
       <c r="G1274" s="26"/>
       <c r="H1274" s="25"/>
     </row>
-    <row r="1275" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1275" s="27">
         <v>28</v>
       </c>
@@ -29224,7 +29412,7 @@
       <c r="G1275" s="26"/>
       <c r="H1275" s="25"/>
     </row>
-    <row r="1276" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1276" s="27">
         <v>28</v>
       </c>
@@ -29242,7 +29430,7 @@
       <c r="G1276" s="26"/>
       <c r="H1276" s="25"/>
     </row>
-    <row r="1277" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1277" s="27">
         <v>29</v>
       </c>
@@ -29260,7 +29448,7 @@
       <c r="G1277" s="26"/>
       <c r="H1277" s="25"/>
     </row>
-    <row r="1278" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1278" s="27">
         <v>29</v>
       </c>
@@ -29280,7 +29468,7 @@
       </c>
       <c r="H1278" s="25"/>
     </row>
-    <row r="1279" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1279" s="27">
         <v>29</v>
       </c>
@@ -29300,7 +29488,7 @@
       </c>
       <c r="H1279" s="25"/>
     </row>
-    <row r="1280" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1280" s="27">
         <v>29</v>
       </c>
@@ -29318,7 +29506,7 @@
       <c r="G1280" s="26"/>
       <c r="H1280" s="25"/>
     </row>
-    <row r="1281" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1281" s="27">
         <v>29</v>
       </c>
@@ -29336,7 +29524,7 @@
       <c r="G1281" s="26"/>
       <c r="H1281" s="25"/>
     </row>
-    <row r="1282" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1282" s="27">
         <v>29</v>
       </c>
@@ -29356,7 +29544,7 @@
       </c>
       <c r="H1282" s="25"/>
     </row>
-    <row r="1283" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1283" s="27">
         <v>29</v>
       </c>
@@ -29374,7 +29562,7 @@
       <c r="G1283" s="26"/>
       <c r="H1283" s="25"/>
     </row>
-    <row r="1284" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A1284" s="27">
         <v>29</v>
       </c>
@@ -29394,7 +29582,7 @@
       </c>
       <c r="H1284" s="25"/>
     </row>
-    <row r="1285" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1285" s="27">
         <v>29</v>
       </c>
@@ -29412,7 +29600,7 @@
       <c r="G1285" s="26"/>
       <c r="H1285" s="25"/>
     </row>
-    <row r="1286" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1286" s="27">
         <v>29</v>
       </c>
@@ -29430,7 +29618,7 @@
       <c r="G1286" s="26"/>
       <c r="H1286" s="25"/>
     </row>
-    <row r="1287" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1287" s="27">
         <v>29</v>
       </c>
@@ -29450,7 +29638,7 @@
       <c r="G1287" s="26"/>
       <c r="H1287" s="25"/>
     </row>
-    <row r="1288" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1288" s="27">
         <v>29</v>
       </c>
@@ -29468,18 +29656,17 @@
         <v>1</v>
       </c>
       <c r="G1288" s="26"/>
-      <c r="H1288" s="25"/>
-      <c r="I1288" s="43" t="s">
+      <c r="H1288" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1288" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1288" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1288" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="1289" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1289" s="30">
         <v>29</v>
       </c>
@@ -29497,20 +29684,19 @@
         <v>1</v>
       </c>
       <c r="G1289" s="26"/>
-      <c r="H1289" s="25"/>
-      <c r="I1289" s="43" t="s">
+      <c r="H1289" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1289" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1289" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1289" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K1289" s="6"/>
       <c r="L1289" s="6"/>
-      <c r="M1289" s="6"/>
-    </row>
-    <row r="1290" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1290" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1290" s="30">
         <v>29</v>
       </c>
@@ -29528,22 +29714,21 @@
         <v>1</v>
       </c>
       <c r="G1290" s="26"/>
-      <c r="H1290" s="25"/>
-      <c r="I1290" s="43" t="s">
+      <c r="H1290" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1290" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1290" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1290" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L1290" s="6"/>
-      <c r="M1290" s="25" t="s">
+      <c r="K1290" s="6"/>
+      <c r="L1290" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1291" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1291" s="27">
         <v>29</v>
       </c>
@@ -29561,7 +29746,7 @@
       <c r="G1291" s="26"/>
       <c r="H1291" s="25"/>
     </row>
-    <row r="1292" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1292" s="27">
         <v>29</v>
       </c>
@@ -29579,7 +29764,7 @@
       <c r="G1292" s="26"/>
       <c r="H1292" s="25"/>
     </row>
-    <row r="1293" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1293" s="27">
         <v>29</v>
       </c>
@@ -29597,7 +29782,7 @@
       <c r="G1293" s="26"/>
       <c r="H1293" s="25"/>
     </row>
-    <row r="1294" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1294" s="27">
         <v>29</v>
       </c>
@@ -29615,7 +29800,7 @@
       <c r="G1294" s="26"/>
       <c r="H1294" s="25"/>
     </row>
-    <row r="1295" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1295" s="27">
         <v>29</v>
       </c>
@@ -29633,7 +29818,7 @@
       <c r="G1295" s="26"/>
       <c r="H1295" s="25"/>
     </row>
-    <row r="1296" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1296" s="27">
         <v>29</v>
       </c>
@@ -29651,7 +29836,7 @@
       <c r="G1296" s="26"/>
       <c r="H1296" s="25"/>
     </row>
-    <row r="1297" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1297" s="27">
         <v>29</v>
       </c>
@@ -29669,7 +29854,7 @@
       <c r="G1297" s="26"/>
       <c r="H1297" s="25"/>
     </row>
-    <row r="1298" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1298" s="27">
         <v>29</v>
       </c>
@@ -29687,7 +29872,7 @@
       <c r="G1298" s="26"/>
       <c r="H1298" s="41"/>
     </row>
-    <row r="1299" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1299" s="27">
         <v>29</v>
       </c>
@@ -29705,7 +29890,7 @@
       <c r="G1299" s="26"/>
       <c r="H1299" s="25"/>
     </row>
-    <row r="1300" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1300" s="27">
         <v>29</v>
       </c>
@@ -29723,7 +29908,7 @@
       <c r="G1300" s="26"/>
       <c r="H1300" s="25"/>
     </row>
-    <row r="1301" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1301" s="27">
         <v>29</v>
       </c>
@@ -29741,7 +29926,7 @@
       <c r="G1301" s="26"/>
       <c r="H1301" s="25"/>
     </row>
-    <row r="1302" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1302" s="27">
         <v>29</v>
       </c>
@@ -29759,7 +29944,7 @@
       <c r="G1302" s="26"/>
       <c r="H1302" s="25"/>
     </row>
-    <row r="1303" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1303" s="27">
         <v>29</v>
       </c>
@@ -29781,7 +29966,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="1304" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1304" s="27">
         <v>29</v>
       </c>
@@ -29799,7 +29984,7 @@
       <c r="G1304" s="26"/>
       <c r="H1304" s="25"/>
     </row>
-    <row r="1305" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1305" s="27">
         <v>29</v>
       </c>
@@ -29817,7 +30002,7 @@
       <c r="G1305" s="26"/>
       <c r="H1305" s="25"/>
     </row>
-    <row r="1306" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1306" s="27">
         <v>29</v>
       </c>
@@ -29835,7 +30020,7 @@
       <c r="G1306" s="26"/>
       <c r="H1306" s="25"/>
     </row>
-    <row r="1307" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1307" s="27">
         <v>29</v>
       </c>
@@ -29853,22 +30038,21 @@
         <v>1</v>
       </c>
       <c r="G1307" s="26"/>
-      <c r="H1307" s="25"/>
-      <c r="I1307" s="43" t="s">
+      <c r="H1307" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1307" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1307" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1307" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L1307" s="25"/>
-      <c r="M1307" s="25" t="s">
+      <c r="K1307" s="25"/>
+      <c r="L1307" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1308" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1308" s="27">
         <v>29</v>
       </c>
@@ -29886,7 +30070,7 @@
       <c r="G1308" s="26"/>
       <c r="H1308" s="25"/>
     </row>
-    <row r="1309" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1309" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1309" s="27">
         <v>29</v>
       </c>
@@ -29906,7 +30090,7 @@
       </c>
       <c r="H1309" s="25"/>
     </row>
-    <row r="1310" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1310" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1310" s="27">
         <v>29</v>
       </c>
@@ -29926,7 +30110,7 @@
       <c r="G1310" s="26"/>
       <c r="H1310" s="25"/>
     </row>
-    <row r="1311" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1311" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1311" s="27">
         <v>29</v>
       </c>
@@ -29946,7 +30130,7 @@
       <c r="G1311" s="26"/>
       <c r="H1311" s="25"/>
     </row>
-    <row r="1312" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1312" s="27">
         <v>29</v>
       </c>
@@ -30272,7 +30456,7 @@
       <c r="G1328" s="26"/>
       <c r="H1328" s="25"/>
     </row>
-    <row r="1329" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1329" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1329" s="27">
         <v>30</v>
       </c>
@@ -30292,7 +30476,7 @@
       <c r="G1329" s="26"/>
       <c r="H1329" s="25"/>
     </row>
-    <row r="1330" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1330" s="27">
         <v>30</v>
       </c>
@@ -30310,18 +30494,17 @@
         <v>1</v>
       </c>
       <c r="G1330" s="26"/>
-      <c r="H1330" s="25"/>
-      <c r="I1330" s="43" t="s">
+      <c r="H1330" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1330" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1330" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1330" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="1331" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1331" s="30">
         <v>30</v>
       </c>
@@ -30339,20 +30522,19 @@
         <v>1</v>
       </c>
       <c r="G1331" s="26"/>
-      <c r="H1331" s="25"/>
-      <c r="I1331" s="43" t="s">
+      <c r="H1331" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1331" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1331" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1331" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K1331" s="6"/>
       <c r="L1331" s="6"/>
-      <c r="M1331" s="6"/>
-    </row>
-    <row r="1332" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1332" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1332" s="30">
         <v>30</v>
       </c>
@@ -30370,22 +30552,21 @@
         <v>1</v>
       </c>
       <c r="G1332" s="26"/>
-      <c r="H1332" s="25"/>
-      <c r="I1332" s="43" t="s">
+      <c r="H1332" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1332" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1332" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1332" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L1332" s="6"/>
-      <c r="M1332" s="25" t="s">
+      <c r="K1332" s="6"/>
+      <c r="L1332" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1333" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1333" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1333" s="27">
         <v>30</v>
       </c>
@@ -30403,7 +30584,7 @@
       <c r="G1333" s="26"/>
       <c r="H1333" s="25"/>
     </row>
-    <row r="1334" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1334" s="27">
         <v>30</v>
       </c>
@@ -30421,7 +30602,7 @@
       <c r="G1334" s="26"/>
       <c r="H1334" s="25"/>
     </row>
-    <row r="1335" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1335" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1335" s="27">
         <v>30</v>
       </c>
@@ -30439,7 +30620,7 @@
       <c r="G1335" s="26"/>
       <c r="H1335" s="25"/>
     </row>
-    <row r="1336" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1336" s="27">
         <v>30</v>
       </c>
@@ -30457,7 +30638,7 @@
       <c r="G1336" s="26"/>
       <c r="H1336" s="25"/>
     </row>
-    <row r="1337" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1337" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1337" s="27">
         <v>30</v>
       </c>
@@ -30475,7 +30656,7 @@
       <c r="G1337" s="26"/>
       <c r="H1337" s="25"/>
     </row>
-    <row r="1338" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1338" s="27">
         <v>30</v>
       </c>
@@ -30493,7 +30674,7 @@
       <c r="G1338" s="26"/>
       <c r="H1338" s="25"/>
     </row>
-    <row r="1339" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1339" s="27">
         <v>30</v>
       </c>
@@ -30511,7 +30692,7 @@
       <c r="G1339" s="26"/>
       <c r="H1339" s="25"/>
     </row>
-    <row r="1340" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1340" s="27">
         <v>30</v>
       </c>
@@ -30529,7 +30710,7 @@
       <c r="G1340" s="26"/>
       <c r="H1340" s="41"/>
     </row>
-    <row r="1341" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1341" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1341" s="27">
         <v>30</v>
       </c>
@@ -30547,7 +30728,7 @@
       <c r="G1341" s="26"/>
       <c r="H1341" s="25"/>
     </row>
-    <row r="1342" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1342" s="27">
         <v>30</v>
       </c>
@@ -30565,7 +30746,7 @@
       <c r="G1342" s="26"/>
       <c r="H1342" s="25"/>
     </row>
-    <row r="1343" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1343" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1343" s="27">
         <v>30</v>
       </c>
@@ -30583,7 +30764,7 @@
       <c r="G1343" s="26"/>
       <c r="H1343" s="25"/>
     </row>
-    <row r="1344" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1344" s="27">
         <v>30</v>
       </c>
@@ -30601,7 +30782,7 @@
       <c r="G1344" s="26"/>
       <c r="H1344" s="25"/>
     </row>
-    <row r="1345" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1345" s="27">
         <v>30</v>
       </c>
@@ -30623,7 +30804,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="1346" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1346" s="27">
         <v>30</v>
       </c>
@@ -30641,7 +30822,7 @@
       <c r="G1346" s="26"/>
       <c r="H1346" s="25"/>
     </row>
-    <row r="1347" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1347" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1347" s="27">
         <v>30</v>
       </c>
@@ -30659,7 +30840,7 @@
       <c r="G1347" s="26"/>
       <c r="H1347" s="25"/>
     </row>
-    <row r="1348" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1348" s="27">
         <v>30</v>
       </c>
@@ -30677,7 +30858,7 @@
       <c r="G1348" s="26"/>
       <c r="H1348" s="25"/>
     </row>
-    <row r="1349" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1349" s="27">
         <v>30</v>
       </c>
@@ -30695,22 +30876,21 @@
         <v>1</v>
       </c>
       <c r="G1349" s="26"/>
-      <c r="H1349" s="25"/>
-      <c r="I1349" s="43" t="s">
+      <c r="H1349" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1349" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1349" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1349" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L1349" s="25"/>
-      <c r="M1349" s="25" t="s">
+      <c r="K1349" s="25"/>
+      <c r="L1349" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1350" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1350" s="27">
         <v>30</v>
       </c>
@@ -30728,7 +30908,7 @@
       <c r="G1350" s="26"/>
       <c r="H1350" s="25"/>
     </row>
-    <row r="1351" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1351" s="27">
         <v>30</v>
       </c>
@@ -30748,7 +30928,7 @@
       </c>
       <c r="H1351" s="25"/>
     </row>
-    <row r="1352" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1352" s="27">
         <v>30</v>
       </c>
@@ -30768,7 +30948,7 @@
       <c r="G1352" s="26"/>
       <c r="H1352" s="25"/>
     </row>
-    <row r="1353" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1353" s="27">
         <v>30</v>
       </c>
@@ -30788,7 +30968,7 @@
       <c r="G1353" s="26"/>
       <c r="H1353" s="25"/>
     </row>
-    <row r="1354" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1354" s="27">
         <v>30</v>
       </c>
@@ -30808,7 +30988,7 @@
       <c r="G1354" s="26"/>
       <c r="H1354" s="25"/>
     </row>
-    <row r="1355" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1355" s="27">
         <v>30</v>
       </c>
@@ -30828,7 +31008,7 @@
       <c r="G1355" s="26"/>
       <c r="H1355" s="25"/>
     </row>
-    <row r="1356" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1356" s="27">
         <v>30</v>
       </c>
@@ -30848,7 +31028,7 @@
       <c r="G1356" s="26"/>
       <c r="H1356" s="25"/>
     </row>
-    <row r="1357" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1357" s="27">
         <v>30</v>
       </c>
@@ -30868,7 +31048,7 @@
       <c r="G1357" s="26"/>
       <c r="H1357" s="25"/>
     </row>
-    <row r="1358" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1358" s="27">
         <v>30</v>
       </c>
@@ -30888,7 +31068,7 @@
       <c r="G1358" s="26"/>
       <c r="H1358" s="25"/>
     </row>
-    <row r="1359" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1359" s="27">
         <v>30</v>
       </c>
@@ -30908,7 +31088,7 @@
       <c r="G1359" s="26"/>
       <c r="H1359" s="25"/>
     </row>
-    <row r="1360" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1360" s="27">
         <v>30</v>
       </c>
@@ -30926,7 +31106,7 @@
       <c r="G1360" s="26"/>
       <c r="H1360" s="25"/>
     </row>
-    <row r="1361" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1361" s="27">
         <v>31</v>
       </c>
@@ -30944,7 +31124,7 @@
       <c r="G1361" s="26"/>
       <c r="H1361" s="25"/>
     </row>
-    <row r="1362" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1362" s="27">
         <v>31</v>
       </c>
@@ -30964,7 +31144,7 @@
       </c>
       <c r="H1362" s="25"/>
     </row>
-    <row r="1363" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1363" s="27">
         <v>31</v>
       </c>
@@ -30984,7 +31164,7 @@
       </c>
       <c r="H1363" s="25"/>
     </row>
-    <row r="1364" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1364" s="27">
         <v>31</v>
       </c>
@@ -31002,7 +31182,7 @@
       <c r="G1364" s="26"/>
       <c r="H1364" s="25"/>
     </row>
-    <row r="1365" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1365" s="27">
         <v>31</v>
       </c>
@@ -31020,7 +31200,7 @@
       <c r="G1365" s="26"/>
       <c r="H1365" s="25"/>
     </row>
-    <row r="1366" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1366" s="27">
         <v>31</v>
       </c>
@@ -31040,7 +31220,7 @@
       </c>
       <c r="H1366" s="25"/>
     </row>
-    <row r="1367" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1367" s="27">
         <v>31</v>
       </c>
@@ -31058,7 +31238,7 @@
       <c r="G1367" s="26"/>
       <c r="H1367" s="25"/>
     </row>
-    <row r="1368" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A1368" s="27">
         <v>31</v>
       </c>
@@ -31078,7 +31258,7 @@
       </c>
       <c r="H1368" s="25"/>
     </row>
-    <row r="1369" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1369" s="27">
         <v>31</v>
       </c>
@@ -31096,7 +31276,7 @@
       <c r="G1369" s="26"/>
       <c r="H1369" s="25"/>
     </row>
-    <row r="1370" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1370" s="27">
         <v>31</v>
       </c>
@@ -31114,7 +31294,7 @@
       <c r="G1370" s="26"/>
       <c r="H1370" s="25"/>
     </row>
-    <row r="1371" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1371" s="27">
         <v>31</v>
       </c>
@@ -31134,7 +31314,7 @@
       <c r="G1371" s="26"/>
       <c r="H1371" s="25"/>
     </row>
-    <row r="1372" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1372" s="27">
         <v>31</v>
       </c>
@@ -31152,18 +31332,17 @@
         <v>1</v>
       </c>
       <c r="G1372" s="26"/>
-      <c r="H1372" s="25"/>
-      <c r="I1372" s="43" t="s">
+      <c r="H1372" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1372" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1372" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1372" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="1373" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1373" s="30">
         <v>31</v>
       </c>
@@ -31181,20 +31360,19 @@
         <v>1</v>
       </c>
       <c r="G1373" s="26"/>
-      <c r="H1373" s="25"/>
-      <c r="I1373" s="43" t="s">
+      <c r="H1373" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1373" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1373" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1373" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K1373" s="6"/>
       <c r="L1373" s="6"/>
-      <c r="M1373" s="6"/>
-    </row>
-    <row r="1374" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1374" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1374" s="30">
         <v>31</v>
       </c>
@@ -31212,22 +31390,21 @@
         <v>1</v>
       </c>
       <c r="G1374" s="26"/>
-      <c r="H1374" s="25"/>
-      <c r="I1374" s="43" t="s">
+      <c r="H1374" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1374" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1374" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1374" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L1374" s="6"/>
-      <c r="M1374" s="25" t="s">
+      <c r="K1374" s="6"/>
+      <c r="L1374" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1375" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1375" s="27">
         <v>31</v>
       </c>
@@ -31245,7 +31422,7 @@
       <c r="G1375" s="26"/>
       <c r="H1375" s="25"/>
     </row>
-    <row r="1376" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1376" s="27">
         <v>31</v>
       </c>
@@ -31263,7 +31440,7 @@
       <c r="G1376" s="26"/>
       <c r="H1376" s="25"/>
     </row>
-    <row r="1377" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1377" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1377" s="27">
         <v>31</v>
       </c>
@@ -31281,7 +31458,7 @@
       <c r="G1377" s="26"/>
       <c r="H1377" s="25"/>
     </row>
-    <row r="1378" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1378" s="27">
         <v>31</v>
       </c>
@@ -31299,7 +31476,7 @@
       <c r="G1378" s="26"/>
       <c r="H1378" s="25"/>
     </row>
-    <row r="1379" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1379" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1379" s="27">
         <v>31</v>
       </c>
@@ -31317,7 +31494,7 @@
       <c r="G1379" s="26"/>
       <c r="H1379" s="25"/>
     </row>
-    <row r="1380" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1380" s="27">
         <v>31</v>
       </c>
@@ -31335,7 +31512,7 @@
       <c r="G1380" s="26"/>
       <c r="H1380" s="25"/>
     </row>
-    <row r="1381" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1381" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1381" s="27">
         <v>31</v>
       </c>
@@ -31353,7 +31530,7 @@
       <c r="G1381" s="26"/>
       <c r="H1381" s="25"/>
     </row>
-    <row r="1382" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1382" s="27">
         <v>31</v>
       </c>
@@ -31371,7 +31548,7 @@
       <c r="G1382" s="26"/>
       <c r="H1382" s="41"/>
     </row>
-    <row r="1383" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1383" s="27">
         <v>31</v>
       </c>
@@ -31389,7 +31566,7 @@
       <c r="G1383" s="26"/>
       <c r="H1383" s="25"/>
     </row>
-    <row r="1384" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1384" s="27">
         <v>31</v>
       </c>
@@ -31407,7 +31584,7 @@
       <c r="G1384" s="26"/>
       <c r="H1384" s="25"/>
     </row>
-    <row r="1385" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1385" s="27">
         <v>31</v>
       </c>
@@ -31425,7 +31602,7 @@
       <c r="G1385" s="26"/>
       <c r="H1385" s="25"/>
     </row>
-    <row r="1386" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1386" s="27">
         <v>31</v>
       </c>
@@ -31443,7 +31620,7 @@
       <c r="G1386" s="26"/>
       <c r="H1386" s="25"/>
     </row>
-    <row r="1387" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1387" s="27">
         <v>31</v>
       </c>
@@ -31465,7 +31642,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="1388" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1388" s="27">
         <v>31</v>
       </c>
@@ -31483,7 +31660,7 @@
       <c r="G1388" s="26"/>
       <c r="H1388" s="25"/>
     </row>
-    <row r="1389" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1389" s="27">
         <v>31</v>
       </c>
@@ -31501,7 +31678,7 @@
       <c r="G1389" s="26"/>
       <c r="H1389" s="25"/>
     </row>
-    <row r="1390" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1390" s="27">
         <v>31</v>
       </c>
@@ -31519,7 +31696,7 @@
       <c r="G1390" s="26"/>
       <c r="H1390" s="25"/>
     </row>
-    <row r="1391" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1391" s="27">
         <v>31</v>
       </c>
@@ -31537,22 +31714,21 @@
         <v>1</v>
       </c>
       <c r="G1391" s="26"/>
-      <c r="H1391" s="25"/>
-      <c r="I1391" s="43" t="s">
+      <c r="H1391" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1391" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1391" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1391" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L1391" s="25"/>
-      <c r="M1391" s="25" t="s">
+      <c r="K1391" s="25"/>
+      <c r="L1391" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1392" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1392" s="27">
         <v>31</v>
       </c>
@@ -31882,7 +32058,7 @@
       </c>
       <c r="H1408" s="25"/>
     </row>
-    <row r="1409" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1409" s="27">
         <v>32</v>
       </c>
@@ -31900,7 +32076,7 @@
       <c r="G1409" s="26"/>
       <c r="H1409" s="25"/>
     </row>
-    <row r="1410" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A1410" s="27">
         <v>32</v>
       </c>
@@ -31920,7 +32096,7 @@
       </c>
       <c r="H1410" s="25"/>
     </row>
-    <row r="1411" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1411" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1411" s="27">
         <v>32</v>
       </c>
@@ -31938,7 +32114,7 @@
       <c r="G1411" s="26"/>
       <c r="H1411" s="25"/>
     </row>
-    <row r="1412" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1412" s="27">
         <v>32</v>
       </c>
@@ -31956,7 +32132,7 @@
       <c r="G1412" s="26"/>
       <c r="H1412" s="25"/>
     </row>
-    <row r="1413" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1413" s="27">
         <v>32</v>
       </c>
@@ -31974,7 +32150,7 @@
       <c r="G1413" s="26"/>
       <c r="H1413" s="25"/>
     </row>
-    <row r="1414" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1414" s="27">
         <v>32</v>
       </c>
@@ -31994,7 +32170,7 @@
       <c r="G1414" s="26"/>
       <c r="H1414" s="25"/>
     </row>
-    <row r="1415" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1415" s="27">
         <v>32</v>
       </c>
@@ -32012,18 +32188,17 @@
         <v>1</v>
       </c>
       <c r="G1415" s="26"/>
-      <c r="H1415" s="25"/>
-      <c r="I1415" s="43" t="s">
+      <c r="H1415" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1415" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1415" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1415" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="1416" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1416" s="30">
         <v>32</v>
       </c>
@@ -32041,20 +32216,19 @@
         <v>1</v>
       </c>
       <c r="G1416" s="26"/>
-      <c r="H1416" s="25"/>
-      <c r="I1416" s="43" t="s">
+      <c r="H1416" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1416" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1416" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1416" s="25" t="s">
         <v>818</v>
       </c>
+      <c r="K1416" s="6"/>
       <c r="L1416" s="6"/>
-      <c r="M1416" s="6"/>
-    </row>
-    <row r="1417" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1417" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1417" s="30">
         <v>32</v>
       </c>
@@ -32072,22 +32246,21 @@
         <v>1</v>
       </c>
       <c r="G1417" s="26"/>
-      <c r="H1417" s="25"/>
-      <c r="I1417" s="43" t="s">
+      <c r="H1417" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1417" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1417" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1417" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="L1417" s="6"/>
-      <c r="M1417" s="25" t="s">
+      <c r="K1417" s="6"/>
+      <c r="L1417" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1418" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1418" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1418" s="27">
         <v>32</v>
       </c>
@@ -32105,7 +32278,7 @@
       <c r="G1418" s="26"/>
       <c r="H1418" s="25"/>
     </row>
-    <row r="1419" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1419" s="27">
         <v>32</v>
       </c>
@@ -32123,7 +32296,7 @@
       <c r="G1419" s="26"/>
       <c r="H1419" s="25"/>
     </row>
-    <row r="1420" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1420" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1420" s="27">
         <v>32</v>
       </c>
@@ -32141,7 +32314,7 @@
       <c r="G1420" s="26"/>
       <c r="H1420" s="25"/>
     </row>
-    <row r="1421" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1421" s="27">
         <v>32</v>
       </c>
@@ -32159,7 +32332,7 @@
       <c r="G1421" s="26"/>
       <c r="H1421" s="25"/>
     </row>
-    <row r="1422" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1422" s="27">
         <v>32</v>
       </c>
@@ -32177,7 +32350,7 @@
       <c r="G1422" s="26"/>
       <c r="H1422" s="25"/>
     </row>
-    <row r="1423" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1423" s="27">
         <v>32</v>
       </c>
@@ -32195,7 +32368,7 @@
       <c r="G1423" s="26"/>
       <c r="H1423" s="25"/>
     </row>
-    <row r="1424" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1424" s="27">
         <v>32</v>
       </c>
@@ -32213,7 +32386,7 @@
       <c r="G1424" s="26"/>
       <c r="H1424" s="25"/>
     </row>
-    <row r="1425" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1425" s="27">
         <v>32</v>
       </c>
@@ -32231,7 +32404,7 @@
       <c r="G1425" s="26"/>
       <c r="H1425" s="25"/>
     </row>
-    <row r="1426" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1426" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1426" s="27">
         <v>32</v>
       </c>
@@ -32249,7 +32422,7 @@
       <c r="G1426" s="26"/>
       <c r="H1426" s="25"/>
     </row>
-    <row r="1427" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1427" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1427" s="27">
         <v>32</v>
       </c>
@@ -32267,7 +32440,7 @@
       <c r="G1427" s="26"/>
       <c r="H1427" s="41"/>
     </row>
-    <row r="1428" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1428" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1428" s="27">
         <v>32</v>
       </c>
@@ -32285,7 +32458,7 @@
       <c r="G1428" s="26"/>
       <c r="H1428" s="25"/>
     </row>
-    <row r="1429" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1429" s="27">
         <v>32</v>
       </c>
@@ -32303,7 +32476,7 @@
       <c r="G1429" s="26"/>
       <c r="H1429" s="25"/>
     </row>
-    <row r="1430" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1430" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1430" s="27">
         <v>32</v>
       </c>
@@ -32321,7 +32494,7 @@
       <c r="G1430" s="26"/>
       <c r="H1430" s="25"/>
     </row>
-    <row r="1431" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1431" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1431" s="27">
         <v>32</v>
       </c>
@@ -32339,7 +32512,7 @@
       <c r="G1431" s="26"/>
       <c r="H1431" s="25"/>
     </row>
-    <row r="1432" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1432" s="27">
         <v>32</v>
       </c>
@@ -32361,7 +32534,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="1433" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1433" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1433" s="27">
         <v>32</v>
       </c>
@@ -32379,7 +32552,7 @@
       <c r="G1433" s="26"/>
       <c r="H1433" s="25"/>
     </row>
-    <row r="1434" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1434" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1434" s="27">
         <v>32</v>
       </c>
@@ -32397,7 +32570,7 @@
       <c r="G1434" s="26"/>
       <c r="H1434" s="25"/>
     </row>
-    <row r="1435" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1435" s="27">
         <v>32</v>
       </c>
@@ -32415,7 +32588,7 @@
       <c r="G1435" s="26"/>
       <c r="H1435" s="25"/>
     </row>
-    <row r="1436" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1436" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1436" s="27">
         <v>32</v>
       </c>
@@ -32433,22 +32606,21 @@
         <v>1</v>
       </c>
       <c r="G1436" s="26"/>
-      <c r="H1436" s="25"/>
-      <c r="I1436" s="43" t="s">
+      <c r="H1436" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I1436" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J1436" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1436" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L1436" s="25"/>
-      <c r="M1436" s="25" t="s">
+      <c r="K1436" s="25"/>
+      <c r="L1436" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="1437" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1437" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1437" s="27">
         <v>32</v>
       </c>
@@ -32466,7 +32638,7 @@
       <c r="G1437" s="26"/>
       <c r="H1437" s="25"/>
     </row>
-    <row r="1438" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1438" s="27">
         <v>32</v>
       </c>
@@ -32486,7 +32658,7 @@
       </c>
       <c r="H1438" s="25"/>
     </row>
-    <row r="1439" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1439" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1439" s="27">
         <v>32</v>
       </c>
@@ -32506,7 +32678,7 @@
       <c r="G1439" s="26"/>
       <c r="H1439" s="25"/>
     </row>
-    <row r="1440" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1440" s="27">
         <v>32</v>
       </c>
@@ -47551,7 +47723,7 @@
       <c r="G2240" s="26"/>
       <c r="H2240" s="25"/>
     </row>
-    <row r="2241" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2241" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2241" s="27">
         <v>57</v>
       </c>
@@ -47568,7 +47740,7 @@
       <c r="F2241" s="25"/>
       <c r="G2241" s="26"/>
     </row>
-    <row r="2242" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2242" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2242" s="27">
         <v>57</v>
       </c>
@@ -47586,7 +47758,7 @@
       <c r="G2242" s="26"/>
       <c r="H2242" s="25"/>
     </row>
-    <row r="2243" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2243" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2243" s="27">
         <v>57</v>
       </c>
@@ -47604,7 +47776,7 @@
       <c r="G2243" s="26"/>
       <c r="H2243" s="25"/>
     </row>
-    <row r="2244" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2244" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2244" s="27">
         <v>57</v>
       </c>
@@ -47622,7 +47794,7 @@
       <c r="G2244" s="26"/>
       <c r="H2244" s="25"/>
     </row>
-    <row r="2245" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2245" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2245" s="27">
         <v>57</v>
       </c>
@@ -47640,7 +47812,7 @@
       <c r="G2245" s="26"/>
       <c r="H2245" s="25"/>
     </row>
-    <row r="2246" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2246" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2246" s="27">
         <v>57</v>
       </c>
@@ -47658,22 +47830,21 @@
         <v>1</v>
       </c>
       <c r="G2246" s="26"/>
-      <c r="H2246" s="25"/>
-      <c r="I2246" s="43" t="s">
+      <c r="H2246" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2246" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2246" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2246" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L2246" s="25"/>
-      <c r="M2246" s="25" t="s">
+      <c r="K2246" s="25"/>
+      <c r="L2246" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2247" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2247" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2247" s="27">
         <v>57</v>
       </c>
@@ -47691,7 +47862,7 @@
       <c r="G2247" s="26"/>
       <c r="H2247" s="25"/>
     </row>
-    <row r="2248" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2248" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2248" s="27">
         <v>57</v>
       </c>
@@ -47711,7 +47882,7 @@
       </c>
       <c r="H2248" s="25"/>
     </row>
-    <row r="2249" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2249" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2249" s="27">
         <v>57</v>
       </c>
@@ -47731,7 +47902,7 @@
       <c r="G2249" s="26"/>
       <c r="H2249" s="25"/>
     </row>
-    <row r="2250" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2250" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2250" s="27">
         <v>57</v>
       </c>
@@ -47751,7 +47922,7 @@
       <c r="G2250" s="26"/>
       <c r="H2250" s="25"/>
     </row>
-    <row r="2251" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2251" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2251" s="27">
         <v>57</v>
       </c>
@@ -47771,7 +47942,7 @@
       <c r="G2251" s="26"/>
       <c r="H2251" s="25"/>
     </row>
-    <row r="2252" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2252" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2252" s="27">
         <v>57</v>
       </c>
@@ -47791,7 +47962,7 @@
       <c r="G2252" s="26"/>
       <c r="H2252" s="25"/>
     </row>
-    <row r="2253" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2253" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2253" s="27">
         <v>57</v>
       </c>
@@ -47811,7 +47982,7 @@
       <c r="G2253" s="26"/>
       <c r="H2253" s="25"/>
     </row>
-    <row r="2254" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2254" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2254" s="27">
         <v>57</v>
       </c>
@@ -47831,7 +48002,7 @@
       <c r="G2254" s="26"/>
       <c r="H2254" s="25"/>
     </row>
-    <row r="2255" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2255" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2255" s="27">
         <v>57</v>
       </c>
@@ -47851,7 +48022,7 @@
       <c r="G2255" s="26"/>
       <c r="H2255" s="25"/>
     </row>
-    <row r="2256" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2256" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2256" s="27">
         <v>57</v>
       </c>
@@ -48456,7 +48627,7 @@
       <c r="G2288" s="26"/>
       <c r="H2288" s="25"/>
     </row>
-    <row r="2289" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2289" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2289" s="27">
         <v>58</v>
       </c>
@@ -48474,7 +48645,7 @@
       <c r="G2289" s="26"/>
       <c r="H2289" s="25"/>
     </row>
-    <row r="2290" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2290" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2290" s="27">
         <v>58</v>
       </c>
@@ -48492,7 +48663,7 @@
       <c r="G2290" s="26"/>
       <c r="H2290" s="25"/>
     </row>
-    <row r="2291" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2291" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2291" s="27">
         <v>58</v>
       </c>
@@ -48510,7 +48681,7 @@
       <c r="G2291" s="26"/>
       <c r="H2291" s="25"/>
     </row>
-    <row r="2292" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2292" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2292" s="27">
         <v>58</v>
       </c>
@@ -48528,22 +48699,21 @@
         <v>1</v>
       </c>
       <c r="G2292" s="26"/>
-      <c r="H2292" s="25"/>
-      <c r="I2292" s="43" t="s">
+      <c r="H2292" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2292" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2292" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2292" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L2292" s="25"/>
-      <c r="M2292" s="25" t="s">
+      <c r="K2292" s="25"/>
+      <c r="L2292" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2293" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2293" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2293" s="27">
         <v>58</v>
       </c>
@@ -48561,7 +48731,7 @@
       <c r="G2293" s="26"/>
       <c r="H2293" s="25"/>
     </row>
-    <row r="2294" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2294" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2294" s="27">
         <v>58</v>
       </c>
@@ -48581,7 +48751,7 @@
       </c>
       <c r="H2294" s="25"/>
     </row>
-    <row r="2295" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2295" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2295" s="27">
         <v>58</v>
       </c>
@@ -48601,7 +48771,7 @@
       <c r="G2295" s="26"/>
       <c r="H2295" s="25"/>
     </row>
-    <row r="2296" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2296" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2296" s="27">
         <v>58</v>
       </c>
@@ -48621,7 +48791,7 @@
       <c r="G2296" s="26"/>
       <c r="H2296" s="25"/>
     </row>
-    <row r="2297" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2297" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2297" s="27">
         <v>58</v>
       </c>
@@ -48641,7 +48811,7 @@
       <c r="G2297" s="26"/>
       <c r="H2297" s="25"/>
     </row>
-    <row r="2298" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2298" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2298" s="27">
         <v>58</v>
       </c>
@@ -48661,7 +48831,7 @@
       <c r="G2298" s="26"/>
       <c r="H2298" s="25"/>
     </row>
-    <row r="2299" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2299" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2299" s="27">
         <v>58</v>
       </c>
@@ -48681,7 +48851,7 @@
       <c r="G2299" s="26"/>
       <c r="H2299" s="25"/>
     </row>
-    <row r="2300" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2300" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2300" s="27">
         <v>58</v>
       </c>
@@ -48701,7 +48871,7 @@
       <c r="G2300" s="26"/>
       <c r="H2300" s="25"/>
     </row>
-    <row r="2301" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2301" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2301" s="27">
         <v>58</v>
       </c>
@@ -48721,7 +48891,7 @@
       <c r="G2301" s="26"/>
       <c r="H2301" s="25"/>
     </row>
-    <row r="2302" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2302" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2302" s="27">
         <v>58</v>
       </c>
@@ -48741,7 +48911,7 @@
       <c r="G2302" s="26"/>
       <c r="H2302" s="25"/>
     </row>
-    <row r="2303" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2303" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2303" s="27">
         <v>58</v>
       </c>
@@ -48759,7 +48929,7 @@
       <c r="G2303" s="26"/>
       <c r="H2303" s="25"/>
     </row>
-    <row r="2304" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2304" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2304" s="27">
         <v>59</v>
       </c>
@@ -49362,7 +49532,7 @@
       <c r="G2336" s="26"/>
       <c r="H2336" s="25"/>
     </row>
-    <row r="2337" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2337" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2337" s="27">
         <v>59</v>
       </c>
@@ -49380,22 +49550,21 @@
         <v>1</v>
       </c>
       <c r="G2337" s="26"/>
-      <c r="H2337" s="25"/>
-      <c r="I2337" s="43" t="s">
+      <c r="H2337" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2337" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2337" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2337" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L2337" s="25"/>
-      <c r="M2337" s="25" t="s">
+      <c r="K2337" s="25"/>
+      <c r="L2337" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2338" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2338" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2338" s="27">
         <v>59</v>
       </c>
@@ -49413,7 +49582,7 @@
       <c r="G2338" s="26"/>
       <c r="H2338" s="25"/>
     </row>
-    <row r="2339" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2339" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2339" s="27">
         <v>59</v>
       </c>
@@ -49433,7 +49602,7 @@
       </c>
       <c r="H2339" s="25"/>
     </row>
-    <row r="2340" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2340" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2340" s="27">
         <v>59</v>
       </c>
@@ -49453,7 +49622,7 @@
       <c r="G2340" s="26"/>
       <c r="H2340" s="25"/>
     </row>
-    <row r="2341" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2341" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2341" s="27">
         <v>59</v>
       </c>
@@ -49473,7 +49642,7 @@
       <c r="G2341" s="26"/>
       <c r="H2341" s="25"/>
     </row>
-    <row r="2342" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2342" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2342" s="27">
         <v>59</v>
       </c>
@@ -49493,7 +49662,7 @@
       <c r="G2342" s="26"/>
       <c r="H2342" s="25"/>
     </row>
-    <row r="2343" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2343" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2343" s="27">
         <v>59</v>
       </c>
@@ -49513,7 +49682,7 @@
       <c r="G2343" s="26"/>
       <c r="H2343" s="25"/>
     </row>
-    <row r="2344" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2344" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2344" s="27">
         <v>59</v>
       </c>
@@ -49533,7 +49702,7 @@
       <c r="G2344" s="26"/>
       <c r="H2344" s="25"/>
     </row>
-    <row r="2345" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2345" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2345" s="27">
         <v>59</v>
       </c>
@@ -49553,7 +49722,7 @@
       <c r="G2345" s="26"/>
       <c r="H2345" s="25"/>
     </row>
-    <row r="2346" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2346" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2346" s="27">
         <v>59</v>
       </c>
@@ -49573,7 +49742,7 @@
       <c r="G2346" s="26"/>
       <c r="H2346" s="25"/>
     </row>
-    <row r="2347" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2347" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2347" s="27">
         <v>59</v>
       </c>
@@ -49593,7 +49762,7 @@
       <c r="G2347" s="26"/>
       <c r="H2347" s="25"/>
     </row>
-    <row r="2348" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2348" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2348" s="27">
         <v>59</v>
       </c>
@@ -49611,7 +49780,7 @@
       <c r="G2348" s="26"/>
       <c r="H2348" s="25"/>
     </row>
-    <row r="2349" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2349" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2349" s="27">
         <v>60</v>
       </c>
@@ -49629,7 +49798,7 @@
       <c r="G2349" s="26"/>
       <c r="H2349" s="25"/>
     </row>
-    <row r="2350" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2350" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2350" s="27">
         <v>60</v>
       </c>
@@ -49649,7 +49818,7 @@
       </c>
       <c r="H2350" s="25"/>
     </row>
-    <row r="2351" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2351" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2351" s="27">
         <v>60</v>
       </c>
@@ -49669,7 +49838,7 @@
       </c>
       <c r="H2351" s="25"/>
     </row>
-    <row r="2352" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2352" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2352" s="27">
         <v>60</v>
       </c>
@@ -49981,7 +50150,7 @@
       <c r="G2368" s="26"/>
       <c r="H2368" s="25"/>
     </row>
-    <row r="2369" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2369" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2369" s="27">
         <v>60</v>
       </c>
@@ -49999,7 +50168,7 @@
       <c r="G2369" s="26"/>
       <c r="H2369" s="25"/>
     </row>
-    <row r="2370" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2370" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2370" s="27">
         <v>60</v>
       </c>
@@ -50017,7 +50186,7 @@
       <c r="G2370" s="26"/>
       <c r="H2370" s="25"/>
     </row>
-    <row r="2371" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2371" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2371" s="27">
         <v>60</v>
       </c>
@@ -50035,7 +50204,7 @@
       <c r="G2371" s="26"/>
       <c r="H2371" s="25"/>
     </row>
-    <row r="2372" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2372" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2372" s="27">
         <v>60</v>
       </c>
@@ -50053,7 +50222,7 @@
       <c r="G2372" s="26"/>
       <c r="H2372" s="25"/>
     </row>
-    <row r="2373" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2373" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2373" s="27">
         <v>60</v>
       </c>
@@ -50071,7 +50240,7 @@
       <c r="G2373" s="26"/>
       <c r="H2373" s="25"/>
     </row>
-    <row r="2374" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2374" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2374" s="27">
         <v>60</v>
       </c>
@@ -50089,7 +50258,7 @@
       <c r="G2374" s="26"/>
       <c r="H2374" s="26"/>
     </row>
-    <row r="2375" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2375" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2375" s="27">
         <v>60</v>
       </c>
@@ -50107,7 +50276,7 @@
       <c r="G2375" s="26"/>
       <c r="H2375" s="25"/>
     </row>
-    <row r="2376" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2376" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2376" s="27">
         <v>60</v>
       </c>
@@ -50125,7 +50294,7 @@
       <c r="G2376" s="26"/>
       <c r="H2376" s="25"/>
     </row>
-    <row r="2377" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2377" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2377" s="27">
         <v>60</v>
       </c>
@@ -50142,7 +50311,7 @@
       <c r="F2377" s="25"/>
       <c r="G2377" s="26"/>
     </row>
-    <row r="2378" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2378" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2378" s="27">
         <v>60</v>
       </c>
@@ -50160,7 +50329,7 @@
       <c r="G2378" s="26"/>
       <c r="H2378" s="25"/>
     </row>
-    <row r="2379" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2379" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2379" s="27">
         <v>60</v>
       </c>
@@ -50178,7 +50347,7 @@
       <c r="G2379" s="26"/>
       <c r="H2379" s="25"/>
     </row>
-    <row r="2380" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2380" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2380" s="27">
         <v>60</v>
       </c>
@@ -50196,7 +50365,7 @@
       <c r="G2380" s="26"/>
       <c r="H2380" s="25"/>
     </row>
-    <row r="2381" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2381" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2381" s="27">
         <v>60</v>
       </c>
@@ -50214,7 +50383,7 @@
       <c r="G2381" s="26"/>
       <c r="H2381" s="25"/>
     </row>
-    <row r="2382" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2382" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2382" s="27">
         <v>60</v>
       </c>
@@ -50232,22 +50401,21 @@
         <v>1</v>
       </c>
       <c r="G2382" s="26"/>
-      <c r="H2382" s="25"/>
-      <c r="I2382" s="43" t="s">
+      <c r="H2382" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2382" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2382" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2382" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L2382" s="25"/>
-      <c r="M2382" s="25" t="s">
+      <c r="K2382" s="25"/>
+      <c r="L2382" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2383" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2383" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2383" s="27">
         <v>60</v>
       </c>
@@ -50265,7 +50433,7 @@
       <c r="G2383" s="26"/>
       <c r="H2383" s="25"/>
     </row>
-    <row r="2384" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2384" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2384" s="27">
         <v>60</v>
       </c>
@@ -50597,7 +50765,7 @@
       <c r="G2400" s="26"/>
       <c r="H2400" s="25"/>
     </row>
-    <row r="2401" spans="1:13" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="2401" spans="1:12" s="6" customFormat="1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A2401" s="27">
         <v>61</v>
       </c>
@@ -50617,7 +50785,7 @@
       </c>
       <c r="H2401" s="25"/>
     </row>
-    <row r="2402" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2402" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2402" s="27">
         <v>61</v>
       </c>
@@ -50635,7 +50803,7 @@
       <c r="G2402" s="26"/>
       <c r="H2402" s="25"/>
     </row>
-    <row r="2403" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2403" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2403" s="27">
         <v>61</v>
       </c>
@@ -50653,7 +50821,7 @@
       <c r="G2403" s="26"/>
       <c r="H2403" s="25"/>
     </row>
-    <row r="2404" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2404" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2404" s="27">
         <v>61</v>
       </c>
@@ -50673,7 +50841,7 @@
       <c r="G2404" s="26"/>
       <c r="H2404" s="25"/>
     </row>
-    <row r="2405" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2405" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2405" s="27">
         <v>61</v>
       </c>
@@ -50691,7 +50859,7 @@
       <c r="G2405" s="26"/>
       <c r="H2405" s="25"/>
     </row>
-    <row r="2406" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2406" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2406" s="27">
         <v>61</v>
       </c>
@@ -50709,7 +50877,7 @@
       <c r="G2406" s="26"/>
       <c r="H2406" s="25"/>
     </row>
-    <row r="2407" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2407" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2407" s="27">
         <v>61</v>
       </c>
@@ -50727,18 +50895,17 @@
         <v>1</v>
       </c>
       <c r="G2407" s="26"/>
-      <c r="H2407" s="25"/>
-      <c r="I2407" s="43" t="s">
+      <c r="H2407" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2407" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2407" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2407" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="2408" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2408" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2408" s="27">
         <v>61</v>
       </c>
@@ -50756,18 +50923,17 @@
         <v>1</v>
       </c>
       <c r="G2408" s="26"/>
-      <c r="H2408" s="25"/>
-      <c r="I2408" s="43" t="s">
+      <c r="H2408" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2408" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2408" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2408" s="25" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="2409" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2409" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2409" s="27">
         <v>61</v>
       </c>
@@ -50785,21 +50951,20 @@
         <v>1</v>
       </c>
       <c r="G2409" s="26"/>
-      <c r="H2409" s="25"/>
-      <c r="I2409" s="43" t="s">
+      <c r="H2409" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2409" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2409" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2409" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="M2409" s="25" t="s">
+      <c r="L2409" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2410" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2410" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2410" s="27">
         <v>61</v>
       </c>
@@ -50817,7 +50982,7 @@
       <c r="G2410" s="26"/>
       <c r="H2410" s="25"/>
     </row>
-    <row r="2411" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2411" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2411" s="27">
         <v>61</v>
       </c>
@@ -50835,7 +51000,7 @@
       <c r="G2411" s="26"/>
       <c r="H2411" s="25"/>
     </row>
-    <row r="2412" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2412" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2412" s="27">
         <v>61</v>
       </c>
@@ -50853,7 +51018,7 @@
       <c r="G2412" s="26"/>
       <c r="H2412" s="25"/>
     </row>
-    <row r="2413" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2413" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2413" s="27">
         <v>61</v>
       </c>
@@ -50871,7 +51036,7 @@
       <c r="G2413" s="26"/>
       <c r="H2413" s="25"/>
     </row>
-    <row r="2414" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2414" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2414" s="27">
         <v>61</v>
       </c>
@@ -50889,7 +51054,7 @@
       <c r="G2414" s="26"/>
       <c r="H2414" s="25"/>
     </row>
-    <row r="2415" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2415" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2415" s="27">
         <v>61</v>
       </c>
@@ -50907,7 +51072,7 @@
       <c r="G2415" s="26"/>
       <c r="H2415" s="25"/>
     </row>
-    <row r="2416" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2416" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2416" s="27">
         <v>61</v>
       </c>
@@ -50925,7 +51090,7 @@
       <c r="G2416" s="26"/>
       <c r="H2416" s="25"/>
     </row>
-    <row r="2417" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2417" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2417" s="27">
         <v>61</v>
       </c>
@@ -50943,7 +51108,7 @@
       <c r="G2417" s="26"/>
       <c r="H2417" s="25"/>
     </row>
-    <row r="2418" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2418" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2418" s="27">
         <v>61</v>
       </c>
@@ -50961,7 +51126,7 @@
       <c r="G2418" s="26"/>
       <c r="H2418" s="25"/>
     </row>
-    <row r="2419" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2419" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2419" s="27">
         <v>61</v>
       </c>
@@ -50979,7 +51144,7 @@
       <c r="G2419" s="26"/>
       <c r="H2419" s="25"/>
     </row>
-    <row r="2420" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2420" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2420" s="27">
         <v>61</v>
       </c>
@@ -50997,7 +51162,7 @@
       <c r="G2420" s="26"/>
       <c r="H2420" s="25"/>
     </row>
-    <row r="2421" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2421" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2421" s="27">
         <v>61</v>
       </c>
@@ -51015,7 +51180,7 @@
       <c r="G2421" s="26"/>
       <c r="H2421" s="25"/>
     </row>
-    <row r="2422" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2422" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2422" s="27">
         <v>61</v>
       </c>
@@ -51033,7 +51198,7 @@
       <c r="G2422" s="26"/>
       <c r="H2422" s="26"/>
     </row>
-    <row r="2423" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2423" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2423" s="27">
         <v>61</v>
       </c>
@@ -51051,7 +51216,7 @@
       <c r="G2423" s="26"/>
       <c r="H2423" s="25"/>
     </row>
-    <row r="2424" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2424" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2424" s="27">
         <v>61</v>
       </c>
@@ -51069,7 +51234,7 @@
       <c r="G2424" s="26"/>
       <c r="H2424" s="25"/>
     </row>
-    <row r="2425" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2425" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2425" s="27">
         <v>61</v>
       </c>
@@ -51086,7 +51251,7 @@
       <c r="F2425" s="25"/>
       <c r="G2425" s="26"/>
     </row>
-    <row r="2426" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2426" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2426" s="27">
         <v>61</v>
       </c>
@@ -51104,7 +51269,7 @@
       <c r="G2426" s="26"/>
       <c r="H2426" s="25"/>
     </row>
-    <row r="2427" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2427" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2427" s="27">
         <v>61</v>
       </c>
@@ -51122,7 +51287,7 @@
       <c r="G2427" s="26"/>
       <c r="H2427" s="25"/>
     </row>
-    <row r="2428" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2428" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2428" s="27">
         <v>61</v>
       </c>
@@ -51140,7 +51305,7 @@
       <c r="G2428" s="26"/>
       <c r="H2428" s="25"/>
     </row>
-    <row r="2429" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2429" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2429" s="27">
         <v>61</v>
       </c>
@@ -51158,7 +51323,7 @@
       <c r="G2429" s="26"/>
       <c r="H2429" s="25"/>
     </row>
-    <row r="2430" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2430" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2430" s="27">
         <v>61</v>
       </c>
@@ -51176,22 +51341,21 @@
         <v>1</v>
       </c>
       <c r="G2430" s="26"/>
-      <c r="H2430" s="25"/>
-      <c r="I2430" s="43" t="s">
+      <c r="H2430" s="43" t="s">
         <v>827</v>
       </c>
+      <c r="I2430" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="J2430" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2430" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L2430" s="25"/>
-      <c r="M2430" s="25" t="s">
+      <c r="K2430" s="25"/>
+      <c r="L2430" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2431" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2431" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2431" s="27">
         <v>61</v>
       </c>
@@ -51209,7 +51373,7 @@
       <c r="G2431" s="26"/>
       <c r="H2431" s="25"/>
     </row>
-    <row r="2432" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2432" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2432" s="27">
         <v>61</v>
       </c>
@@ -51409,10 +51573,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D617:D618 D276:D277 D329:D330 D387:D388 D430:D431 D478:D479 D526:D527 D569:D570 D272:D273 K2430 D2:D267 D332:D334 D433:D435 D613:D614 D325:D326 D383:D384 D426:D427 D474:D475 D522:D523 D565:D566 D1573:D1582 D658:D659 D703:D704 D631:D632 D748:D749 D1015:D1052 D793:D794 K1224 D838:D839 D1060:D1097 D886:D887 D928:D929 D970:D971 D1057:D1058 D1102:D1103 K870 D1147:D1148 D1192:D1193 K1349 D1240:D1241 D661:D698 D1281:D1282 D1323:D1324 D1365:D1366 K912 D706:D743 D751:D788 D796:D833 K1265 D597 D1105:D1142 D1150:D1187 K996 K954 D1407:D1408 K1307 D1012:D1013 K1391 D1452:D1453 D1495:D1510 D1492:D1493 D1455:D1487 D1518:D1522 D1515:D1516 D1531:D1538 D1528:D1529 D1543:D1544 D1556:D1557 D1546:D1551 D1570:D1571 D1590:D1598 D1559:D1565 D1587:D1588 K1436 D1823:D1834 D1681:D1682 D1603:D1604 D1684:D1703 D1642:D1643 D1761:D1762 D1626:D1637 D1665:D1676 D1722:D1723 D1779:D1780 D1800:D1801 D1782:D1795 D1839:D1840 D1606:D1623 D1645:D1662 D1707:D1717 D1725:D1742 D1745:D1756 D1764:D1774 D1803:D1820 D1842:D1859 D1862:D1873 D1878:D1879 D1881:D1898 D1901:D1912 D1917:D1918 D1920:D1937 D1940:D1951 D1956:D1957 D1959:D1992 D1997:D1998 K16:K18 K36 K366 D366 K458 D458 K506 D506 K597 D481:D483 D1243:D1276 K642 K2246 K87 D410 K410 D549 K549 D642 K2292 K2337 K2382 K63:K65 K332:K334 K433:K435 K481:K483 K572:K574 K845:K847 K893:K895 K935:K937 K977:K979 K1199:K1201 K1288:K1290 K1330:K1332 K1372:K1374 K1415:K1417 D572:D574 D841:D881 D889:D923 D931:D965 D973:D1007 D1195:D1235 D1284:D1318 D1326:D1360 D1368:D1402 D1410:D1447 D2000:D2441 K2407:K2409">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D617:D618 D276:D277 D329:D330 D387:D388 D430:D431 D478:D479 D526:D527 D569:D570 D272:D273 J2430 D2:D267 D332:D334 D433:D435 D613:D614 D325:D326 D383:D384 D426:D427 D474:D475 D522:D523 D565:D566 D1573:D1582 D658:D659 D703:D704 D631:D632 D748:D749 D1015:D1052 D793:D794 J1224 D838:D839 D1060:D1097 D886:D887 D928:D929 D970:D971 D1057:D1058 D1102:D1103 J870 D1147:D1148 D1192:D1193 J1349 D1240:D1241 D661:D698 D1281:D1282 D1323:D1324 D1365:D1366 J912 D706:D743 D751:D788 D796:D833 J1265 D597 D1105:D1142 D1150:D1187 J996 J954 D1407:D1408 J1307 D1012:D1013 J1391 D1452:D1453 D1495:D1510 D1492:D1493 D1455:D1487 D1518:D1522 D1515:D1516 D1531:D1538 D1528:D1529 D1543:D1544 D1556:D1557 D1546:D1551 D1570:D1571 D1590:D1598 D1559:D1565 D1587:D1588 J1436 D1823:D1834 D1681:D1682 D1603:D1604 D1684:D1703 D1642:D1643 D1761:D1762 D1626:D1637 D1665:D1676 D1722:D1723 D1779:D1780 D1800:D1801 D1782:D1795 D1839:D1840 D1606:D1623 D1645:D1662 D1707:D1717 D1725:D1742 D1745:D1756 D1764:D1774 D1803:D1820 D1842:D1859 D1862:D1873 D1878:D1879 D1881:D1898 D1901:D1912 D1917:D1918 D1920:D1937 D1940:D1951 D1956:D1957 D1959:D1992 D1997:D1998 J16:J18 J36 J366 D366 J458 D458 J506 D506 J597 D481:D483 D1243:D1276 J642 J2246 J87 D410 J410 D549 J549 D642 J2292 J2337 J2382 J63:J65 J332:J334 J433:J435 J481:J483 J572:J574 J845:J847 J893:J895 J935:J937 J977:J979 J1199:J1201 J1288:J1290 J1330:J1332 J1372:J1374 J1415:J1417 D572:D574 D841:D881 D889:D923 D931:D965 D973:D1007 D1195:D1235 D1284:D1318 D1326:D1360 D1368:D1402 D1410:D1447 D2000:D2441 J2407:J2409">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J18 J36 J366 J458 J506 J597 J870 J912 J954 J996 J1224 J1265 J1307 J1349 J1391 J1436 J87 J2246 J410 J549 J642 J2292 J2337 J2382 J2430 J63:J65 J332:J334 J433:J435 J481:J483 J572:J574 J845:J847 J893:J895 J935:J937 J977:J979 J1199:J1201 J1288:J1290 J1330:J1332 J1372:J1374 J1415:J1417 C1:C4229 J2407:J2409">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16:I18 I36 I366 I458 I506 I597 I870 I912 I954 I996 I1224 I1265 I1307 I1349 I1391 I1436 I87 I2246 I410 I549 I642 I2292 I2337 I2382 I2430 I63:I65 I332:I334 I433:I435 I481:I483 I572:I574 I845:I847 I893:I895 I935:I937 I977:I979 I1199:I1201 I1288:I1290 I1330:I1332 I1372:I1374 I1415:I1417 C1:C4229 I2407:I2409">
       <formula1>PageObject_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/selenium-wd/data/TestCases.xlsx
+++ b/selenium-wd/data/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="776" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-CmpReports" sheetId="1" r:id="rId1"/>
@@ -3598,8 +3598,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3646,7 +3646,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="25"/>
@@ -3665,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="25"/>
     </row>
@@ -3683,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="25"/>
     </row>
@@ -3701,7 +3701,7 @@
         <v>7</v>
       </c>
       <c r=